--- a/templates/template3.xlsx
+++ b/templates/template3.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t xml:space="preserve">Период:</t>
   </si>
   <si>
     <t xml:space="preserve">Дата начала</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата конца</t>
   </si>
   <si>
     <t xml:space="preserve">№ отчета:</t>
@@ -52,22 +49,31 @@
     <t xml:space="preserve">Возвраты</t>
   </si>
   <si>
-    <t xml:space="preserve">Кол-во продаж с учетом возвратов товаров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">К перечислению Продавцу за реализованный Товар с учетом возвратов товаров</t>
+    <t xml:space="preserve">К перечислению Продавцу за реализованный Товар с учетом комиссии WB, расходов поверенного</t>
   </si>
   <si>
     <t xml:space="preserve">Стоимость логистики</t>
   </si>
   <si>
-    <t xml:space="preserve">Итого к перечислению Продавцу за текущий период с учетом логистики</t>
+    <t xml:space="preserve">Стоимость хранения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость платной приемки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прочие удержания (реклама, утилизация товара)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого к оплате</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Налог</t>
   </si>
   <si>
     <t xml:space="preserve">Возвращенная себестоимость реализованного товара</t>
   </si>
   <si>
-    <t xml:space="preserve">Налог</t>
+    <t xml:space="preserve">Чистая прибыль</t>
   </si>
   <si>
     <t xml:space="preserve">Шт.</t>
@@ -87,7 +93,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -121,6 +127,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="&quot;Helvetica Neue&quot;"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -187,7 +199,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,12 +228,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -241,15 +261,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -259,18 +280,16 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="0"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -283,15 +302,13 @@
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -299,13 +316,13 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -315,49 +332,53 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="88.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="N3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
@@ -367,45 +388,49 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>18</v>
+      <c r="K4" s="10" t="s">
+        <v>20</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>18</v>
+      <c r="L4" s="10" t="s">
+        <v>20</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="M4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
@@ -415,8 +440,6 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
@@ -443,8 +466,6 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
@@ -471,8 +492,6 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
@@ -499,8 +518,6 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
@@ -527,8 +544,6 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
@@ -555,8 +570,6 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
@@ -583,8 +596,6 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
@@ -611,8 +622,6 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
@@ -639,8 +648,6 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
@@ -667,8 +674,6 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
@@ -695,8 +700,6 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
@@ -723,8 +726,6 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
@@ -751,8 +752,6 @@
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
@@ -779,8 +778,6 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
@@ -807,8 +804,6 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
@@ -835,8 +830,6 @@
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
@@ -863,8 +856,6 @@
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
@@ -891,8 +882,6 @@
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
@@ -919,8 +908,6 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
@@ -947,8 +934,6 @@
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
@@ -975,8 +960,6 @@
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
@@ -1003,8 +986,6 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
@@ -1031,8 +1012,6 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
@@ -1059,8 +1038,6 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
@@ -1087,8 +1064,6 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
@@ -1115,8 +1090,6 @@
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
@@ -1143,8 +1116,6 @@
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
@@ -1171,8 +1142,6 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
@@ -1199,8 +1168,6 @@
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
@@ -1227,8 +1194,6 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
@@ -1255,8 +1220,6 @@
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
@@ -1283,8 +1246,6 @@
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
@@ -1311,8 +1272,6 @@
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
@@ -1339,8 +1298,6 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
@@ -1367,8 +1324,6 @@
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
@@ -1395,8 +1350,6 @@
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
@@ -1423,8 +1376,6 @@
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
@@ -1451,8 +1402,6 @@
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
@@ -1479,8 +1428,6 @@
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
@@ -1507,8 +1454,6 @@
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
@@ -1535,8 +1480,6 @@
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
@@ -1563,8 +1506,6 @@
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
@@ -1591,8 +1532,6 @@
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
@@ -1619,8 +1558,6 @@
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
@@ -1647,8 +1584,6 @@
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
@@ -1675,8 +1610,6 @@
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
@@ -1703,8 +1636,6 @@
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
@@ -1731,8 +1662,6 @@
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
@@ -1759,8 +1688,6 @@
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
@@ -1787,8 +1714,6 @@
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
@@ -1815,8 +1740,6 @@
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
@@ -1843,8 +1766,6 @@
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
@@ -1871,8 +1792,6 @@
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
@@ -1899,8 +1818,6 @@
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
@@ -1927,8 +1844,6 @@
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
@@ -1955,8 +1870,6 @@
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
@@ -1983,8 +1896,6 @@
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
@@ -2011,8 +1922,6 @@
       <c r="V61" s="6"/>
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
@@ -2039,8 +1948,6 @@
       <c r="V62" s="6"/>
       <c r="W62" s="6"/>
       <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
@@ -2067,8 +1974,6 @@
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
@@ -2095,8 +2000,6 @@
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
@@ -2123,8 +2026,6 @@
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
@@ -2151,8 +2052,6 @@
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
       <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
@@ -2179,8 +2078,6 @@
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
@@ -2207,8 +2104,6 @@
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
@@ -2235,8 +2130,6 @@
       <c r="V69" s="6"/>
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
@@ -2263,8 +2156,6 @@
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
@@ -2291,8 +2182,6 @@
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
@@ -2319,8 +2208,6 @@
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
@@ -2347,8 +2234,6 @@
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
@@ -2375,8 +2260,6 @@
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
@@ -2403,8 +2286,6 @@
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
@@ -2431,8 +2312,6 @@
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
@@ -2459,8 +2338,6 @@
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
@@ -2487,8 +2364,6 @@
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
@@ -2515,8 +2390,6 @@
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
@@ -2543,8 +2416,6 @@
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
       <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
@@ -2571,8 +2442,6 @@
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
       <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
@@ -2599,8 +2468,6 @@
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
@@ -2627,8 +2494,6 @@
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
       <c r="X83" s="6"/>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
@@ -2655,8 +2520,6 @@
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
-      <c r="Y84" s="6"/>
-      <c r="Z84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
@@ -2683,8 +2546,6 @@
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
@@ -2711,8 +2572,6 @@
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
@@ -2739,8 +2598,6 @@
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
@@ -2767,8 +2624,6 @@
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
-      <c r="Z88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
@@ -2795,8 +2650,6 @@
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
-      <c r="Z89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
@@ -2823,8 +2676,6 @@
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
       <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
-      <c r="Z90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
@@ -2851,8 +2702,6 @@
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
       <c r="X91" s="6"/>
-      <c r="Y91" s="6"/>
-      <c r="Z91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
@@ -2879,8 +2728,6 @@
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
       <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
@@ -2907,8 +2754,6 @@
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
       <c r="X93" s="6"/>
-      <c r="Y93" s="6"/>
-      <c r="Z93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
@@ -2935,8 +2780,6 @@
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
       <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
@@ -2963,8 +2806,6 @@
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
       <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
@@ -2991,8 +2832,6 @@
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
       <c r="X96" s="6"/>
-      <c r="Y96" s="6"/>
-      <c r="Z96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
@@ -3019,8 +2858,6 @@
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
       <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
-      <c r="Z97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
@@ -3047,8 +2884,6 @@
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
       <c r="X98" s="6"/>
-      <c r="Y98" s="6"/>
-      <c r="Z98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
@@ -3075,8 +2910,6 @@
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
       <c r="X99" s="6"/>
-      <c r="Y99" s="6"/>
-      <c r="Z99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
@@ -3103,8 +2936,6 @@
       <c r="V100" s="6"/>
       <c r="W100" s="6"/>
       <c r="X100" s="6"/>
-      <c r="Y100" s="6"/>
-      <c r="Z100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
@@ -3131,8 +2962,6 @@
       <c r="V101" s="6"/>
       <c r="W101" s="6"/>
       <c r="X101" s="6"/>
-      <c r="Y101" s="6"/>
-      <c r="Z101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6"/>
@@ -3159,8 +2988,6 @@
       <c r="V102" s="6"/>
       <c r="W102" s="6"/>
       <c r="X102" s="6"/>
-      <c r="Y102" s="6"/>
-      <c r="Z102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6"/>
@@ -3187,8 +3014,6 @@
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
       <c r="X103" s="6"/>
-      <c r="Y103" s="6"/>
-      <c r="Z103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
@@ -3215,8 +3040,6 @@
       <c r="V104" s="6"/>
       <c r="W104" s="6"/>
       <c r="X104" s="6"/>
-      <c r="Y104" s="6"/>
-      <c r="Z104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6"/>
@@ -3243,8 +3066,6 @@
       <c r="V105" s="6"/>
       <c r="W105" s="6"/>
       <c r="X105" s="6"/>
-      <c r="Y105" s="6"/>
-      <c r="Z105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6"/>
@@ -3271,8 +3092,6 @@
       <c r="V106" s="6"/>
       <c r="W106" s="6"/>
       <c r="X106" s="6"/>
-      <c r="Y106" s="6"/>
-      <c r="Z106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6"/>
@@ -3299,8 +3118,6 @@
       <c r="V107" s="6"/>
       <c r="W107" s="6"/>
       <c r="X107" s="6"/>
-      <c r="Y107" s="6"/>
-      <c r="Z107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6"/>
@@ -3327,8 +3144,6 @@
       <c r="V108" s="6"/>
       <c r="W108" s="6"/>
       <c r="X108" s="6"/>
-      <c r="Y108" s="6"/>
-      <c r="Z108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
@@ -3355,8 +3170,6 @@
       <c r="V109" s="6"/>
       <c r="W109" s="6"/>
       <c r="X109" s="6"/>
-      <c r="Y109" s="6"/>
-      <c r="Z109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
@@ -3383,8 +3196,6 @@
       <c r="V110" s="6"/>
       <c r="W110" s="6"/>
       <c r="X110" s="6"/>
-      <c r="Y110" s="6"/>
-      <c r="Z110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
@@ -3411,8 +3222,6 @@
       <c r="V111" s="6"/>
       <c r="W111" s="6"/>
       <c r="X111" s="6"/>
-      <c r="Y111" s="6"/>
-      <c r="Z111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
@@ -3439,8 +3248,6 @@
       <c r="V112" s="6"/>
       <c r="W112" s="6"/>
       <c r="X112" s="6"/>
-      <c r="Y112" s="6"/>
-      <c r="Z112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
@@ -3467,8 +3274,6 @@
       <c r="V113" s="6"/>
       <c r="W113" s="6"/>
       <c r="X113" s="6"/>
-      <c r="Y113" s="6"/>
-      <c r="Z113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
@@ -3495,8 +3300,6 @@
       <c r="V114" s="6"/>
       <c r="W114" s="6"/>
       <c r="X114" s="6"/>
-      <c r="Y114" s="6"/>
-      <c r="Z114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
@@ -3523,8 +3326,6 @@
       <c r="V115" s="6"/>
       <c r="W115" s="6"/>
       <c r="X115" s="6"/>
-      <c r="Y115" s="6"/>
-      <c r="Z115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
@@ -3551,8 +3352,6 @@
       <c r="V116" s="6"/>
       <c r="W116" s="6"/>
       <c r="X116" s="6"/>
-      <c r="Y116" s="6"/>
-      <c r="Z116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
@@ -3579,8 +3378,6 @@
       <c r="V117" s="6"/>
       <c r="W117" s="6"/>
       <c r="X117" s="6"/>
-      <c r="Y117" s="6"/>
-      <c r="Z117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
@@ -3607,8 +3404,6 @@
       <c r="V118" s="6"/>
       <c r="W118" s="6"/>
       <c r="X118" s="6"/>
-      <c r="Y118" s="6"/>
-      <c r="Z118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
@@ -3635,8 +3430,6 @@
       <c r="V119" s="6"/>
       <c r="W119" s="6"/>
       <c r="X119" s="6"/>
-      <c r="Y119" s="6"/>
-      <c r="Z119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
@@ -3663,8 +3456,6 @@
       <c r="V120" s="6"/>
       <c r="W120" s="6"/>
       <c r="X120" s="6"/>
-      <c r="Y120" s="6"/>
-      <c r="Z120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
@@ -3691,8 +3482,6 @@
       <c r="V121" s="6"/>
       <c r="W121" s="6"/>
       <c r="X121" s="6"/>
-      <c r="Y121" s="6"/>
-      <c r="Z121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
@@ -3719,8 +3508,6 @@
       <c r="V122" s="6"/>
       <c r="W122" s="6"/>
       <c r="X122" s="6"/>
-      <c r="Y122" s="6"/>
-      <c r="Z122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
@@ -3747,8 +3534,6 @@
       <c r="V123" s="6"/>
       <c r="W123" s="6"/>
       <c r="X123" s="6"/>
-      <c r="Y123" s="6"/>
-      <c r="Z123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
@@ -3775,8 +3560,6 @@
       <c r="V124" s="6"/>
       <c r="W124" s="6"/>
       <c r="X124" s="6"/>
-      <c r="Y124" s="6"/>
-      <c r="Z124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
@@ -3803,8 +3586,6 @@
       <c r="V125" s="6"/>
       <c r="W125" s="6"/>
       <c r="X125" s="6"/>
-      <c r="Y125" s="6"/>
-      <c r="Z125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
@@ -3831,8 +3612,6 @@
       <c r="V126" s="6"/>
       <c r="W126" s="6"/>
       <c r="X126" s="6"/>
-      <c r="Y126" s="6"/>
-      <c r="Z126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
@@ -3859,8 +3638,6 @@
       <c r="V127" s="6"/>
       <c r="W127" s="6"/>
       <c r="X127" s="6"/>
-      <c r="Y127" s="6"/>
-      <c r="Z127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
@@ -3887,8 +3664,6 @@
       <c r="V128" s="6"/>
       <c r="W128" s="6"/>
       <c r="X128" s="6"/>
-      <c r="Y128" s="6"/>
-      <c r="Z128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
@@ -3915,8 +3690,6 @@
       <c r="V129" s="6"/>
       <c r="W129" s="6"/>
       <c r="X129" s="6"/>
-      <c r="Y129" s="6"/>
-      <c r="Z129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
@@ -3943,8 +3716,6 @@
       <c r="V130" s="6"/>
       <c r="W130" s="6"/>
       <c r="X130" s="6"/>
-      <c r="Y130" s="6"/>
-      <c r="Z130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
@@ -3971,8 +3742,6 @@
       <c r="V131" s="6"/>
       <c r="W131" s="6"/>
       <c r="X131" s="6"/>
-      <c r="Y131" s="6"/>
-      <c r="Z131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
@@ -3999,8 +3768,6 @@
       <c r="V132" s="6"/>
       <c r="W132" s="6"/>
       <c r="X132" s="6"/>
-      <c r="Y132" s="6"/>
-      <c r="Z132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
@@ -4027,8 +3794,6 @@
       <c r="V133" s="6"/>
       <c r="W133" s="6"/>
       <c r="X133" s="6"/>
-      <c r="Y133" s="6"/>
-      <c r="Z133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
@@ -4055,8 +3820,6 @@
       <c r="V134" s="6"/>
       <c r="W134" s="6"/>
       <c r="X134" s="6"/>
-      <c r="Y134" s="6"/>
-      <c r="Z134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
@@ -4083,8 +3846,6 @@
       <c r="V135" s="6"/>
       <c r="W135" s="6"/>
       <c r="X135" s="6"/>
-      <c r="Y135" s="6"/>
-      <c r="Z135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
@@ -4111,8 +3872,6 @@
       <c r="V136" s="6"/>
       <c r="W136" s="6"/>
       <c r="X136" s="6"/>
-      <c r="Y136" s="6"/>
-      <c r="Z136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
@@ -4139,8 +3898,6 @@
       <c r="V137" s="6"/>
       <c r="W137" s="6"/>
       <c r="X137" s="6"/>
-      <c r="Y137" s="6"/>
-      <c r="Z137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
@@ -4167,8 +3924,6 @@
       <c r="V138" s="6"/>
       <c r="W138" s="6"/>
       <c r="X138" s="6"/>
-      <c r="Y138" s="6"/>
-      <c r="Z138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
@@ -4195,8 +3950,6 @@
       <c r="V139" s="6"/>
       <c r="W139" s="6"/>
       <c r="X139" s="6"/>
-      <c r="Y139" s="6"/>
-      <c r="Z139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
@@ -4223,8 +3976,6 @@
       <c r="V140" s="6"/>
       <c r="W140" s="6"/>
       <c r="X140" s="6"/>
-      <c r="Y140" s="6"/>
-      <c r="Z140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
@@ -4251,8 +4002,6 @@
       <c r="V141" s="6"/>
       <c r="W141" s="6"/>
       <c r="X141" s="6"/>
-      <c r="Y141" s="6"/>
-      <c r="Z141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
@@ -4279,8 +4028,6 @@
       <c r="V142" s="6"/>
       <c r="W142" s="6"/>
       <c r="X142" s="6"/>
-      <c r="Y142" s="6"/>
-      <c r="Z142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6"/>
@@ -4307,8 +4054,6 @@
       <c r="V143" s="6"/>
       <c r="W143" s="6"/>
       <c r="X143" s="6"/>
-      <c r="Y143" s="6"/>
-      <c r="Z143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6"/>
@@ -4335,8 +4080,6 @@
       <c r="V144" s="6"/>
       <c r="W144" s="6"/>
       <c r="X144" s="6"/>
-      <c r="Y144" s="6"/>
-      <c r="Z144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6"/>
@@ -4363,8 +4106,6 @@
       <c r="V145" s="6"/>
       <c r="W145" s="6"/>
       <c r="X145" s="6"/>
-      <c r="Y145" s="6"/>
-      <c r="Z145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6"/>
@@ -4391,8 +4132,6 @@
       <c r="V146" s="6"/>
       <c r="W146" s="6"/>
       <c r="X146" s="6"/>
-      <c r="Y146" s="6"/>
-      <c r="Z146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6"/>
@@ -4419,8 +4158,6 @@
       <c r="V147" s="6"/>
       <c r="W147" s="6"/>
       <c r="X147" s="6"/>
-      <c r="Y147" s="6"/>
-      <c r="Z147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
@@ -4447,8 +4184,6 @@
       <c r="V148" s="6"/>
       <c r="W148" s="6"/>
       <c r="X148" s="6"/>
-      <c r="Y148" s="6"/>
-      <c r="Z148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
@@ -4475,8 +4210,6 @@
       <c r="V149" s="6"/>
       <c r="W149" s="6"/>
       <c r="X149" s="6"/>
-      <c r="Y149" s="6"/>
-      <c r="Z149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
@@ -4503,8 +4236,6 @@
       <c r="V150" s="6"/>
       <c r="W150" s="6"/>
       <c r="X150" s="6"/>
-      <c r="Y150" s="6"/>
-      <c r="Z150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
@@ -4531,8 +4262,6 @@
       <c r="V151" s="6"/>
       <c r="W151" s="6"/>
       <c r="X151" s="6"/>
-      <c r="Y151" s="6"/>
-      <c r="Z151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
@@ -4559,8 +4288,6 @@
       <c r="V152" s="6"/>
       <c r="W152" s="6"/>
       <c r="X152" s="6"/>
-      <c r="Y152" s="6"/>
-      <c r="Z152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
@@ -4587,8 +4314,6 @@
       <c r="V153" s="6"/>
       <c r="W153" s="6"/>
       <c r="X153" s="6"/>
-      <c r="Y153" s="6"/>
-      <c r="Z153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
@@ -4615,8 +4340,6 @@
       <c r="V154" s="6"/>
       <c r="W154" s="6"/>
       <c r="X154" s="6"/>
-      <c r="Y154" s="6"/>
-      <c r="Z154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
@@ -4643,8 +4366,6 @@
       <c r="V155" s="6"/>
       <c r="W155" s="6"/>
       <c r="X155" s="6"/>
-      <c r="Y155" s="6"/>
-      <c r="Z155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
@@ -4671,8 +4392,6 @@
       <c r="V156" s="6"/>
       <c r="W156" s="6"/>
       <c r="X156" s="6"/>
-      <c r="Y156" s="6"/>
-      <c r="Z156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
@@ -4699,8 +4418,6 @@
       <c r="V157" s="6"/>
       <c r="W157" s="6"/>
       <c r="X157" s="6"/>
-      <c r="Y157" s="6"/>
-      <c r="Z157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
@@ -4727,8 +4444,6 @@
       <c r="V158" s="6"/>
       <c r="W158" s="6"/>
       <c r="X158" s="6"/>
-      <c r="Y158" s="6"/>
-      <c r="Z158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
@@ -4755,8 +4470,6 @@
       <c r="V159" s="6"/>
       <c r="W159" s="6"/>
       <c r="X159" s="6"/>
-      <c r="Y159" s="6"/>
-      <c r="Z159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
@@ -4783,8 +4496,6 @@
       <c r="V160" s="6"/>
       <c r="W160" s="6"/>
       <c r="X160" s="6"/>
-      <c r="Y160" s="6"/>
-      <c r="Z160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6"/>
@@ -4811,8 +4522,6 @@
       <c r="V161" s="6"/>
       <c r="W161" s="6"/>
       <c r="X161" s="6"/>
-      <c r="Y161" s="6"/>
-      <c r="Z161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6"/>
@@ -4839,8 +4548,6 @@
       <c r="V162" s="6"/>
       <c r="W162" s="6"/>
       <c r="X162" s="6"/>
-      <c r="Y162" s="6"/>
-      <c r="Z162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6"/>
@@ -4867,8 +4574,6 @@
       <c r="V163" s="6"/>
       <c r="W163" s="6"/>
       <c r="X163" s="6"/>
-      <c r="Y163" s="6"/>
-      <c r="Z163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6"/>
@@ -4895,8 +4600,6 @@
       <c r="V164" s="6"/>
       <c r="W164" s="6"/>
       <c r="X164" s="6"/>
-      <c r="Y164" s="6"/>
-      <c r="Z164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6"/>
@@ -4923,8 +4626,6 @@
       <c r="V165" s="6"/>
       <c r="W165" s="6"/>
       <c r="X165" s="6"/>
-      <c r="Y165" s="6"/>
-      <c r="Z165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6"/>
@@ -4951,8 +4652,6 @@
       <c r="V166" s="6"/>
       <c r="W166" s="6"/>
       <c r="X166" s="6"/>
-      <c r="Y166" s="6"/>
-      <c r="Z166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6"/>
@@ -4979,8 +4678,6 @@
       <c r="V167" s="6"/>
       <c r="W167" s="6"/>
       <c r="X167" s="6"/>
-      <c r="Y167" s="6"/>
-      <c r="Z167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6"/>
@@ -5007,8 +4704,6 @@
       <c r="V168" s="6"/>
       <c r="W168" s="6"/>
       <c r="X168" s="6"/>
-      <c r="Y168" s="6"/>
-      <c r="Z168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6"/>
@@ -5035,8 +4730,6 @@
       <c r="V169" s="6"/>
       <c r="W169" s="6"/>
       <c r="X169" s="6"/>
-      <c r="Y169" s="6"/>
-      <c r="Z169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6"/>
@@ -5063,8 +4756,6 @@
       <c r="V170" s="6"/>
       <c r="W170" s="6"/>
       <c r="X170" s="6"/>
-      <c r="Y170" s="6"/>
-      <c r="Z170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6"/>
@@ -5091,8 +4782,6 @@
       <c r="V171" s="6"/>
       <c r="W171" s="6"/>
       <c r="X171" s="6"/>
-      <c r="Y171" s="6"/>
-      <c r="Z171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6"/>
@@ -5119,8 +4808,6 @@
       <c r="V172" s="6"/>
       <c r="W172" s="6"/>
       <c r="X172" s="6"/>
-      <c r="Y172" s="6"/>
-      <c r="Z172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6"/>
@@ -5147,8 +4834,6 @@
       <c r="V173" s="6"/>
       <c r="W173" s="6"/>
       <c r="X173" s="6"/>
-      <c r="Y173" s="6"/>
-      <c r="Z173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6"/>
@@ -5175,8 +4860,6 @@
       <c r="V174" s="6"/>
       <c r="W174" s="6"/>
       <c r="X174" s="6"/>
-      <c r="Y174" s="6"/>
-      <c r="Z174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6"/>
@@ -5203,8 +4886,6 @@
       <c r="V175" s="6"/>
       <c r="W175" s="6"/>
       <c r="X175" s="6"/>
-      <c r="Y175" s="6"/>
-      <c r="Z175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6"/>
@@ -5231,8 +4912,6 @@
       <c r="V176" s="6"/>
       <c r="W176" s="6"/>
       <c r="X176" s="6"/>
-      <c r="Y176" s="6"/>
-      <c r="Z176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6"/>
@@ -5259,8 +4938,6 @@
       <c r="V177" s="6"/>
       <c r="W177" s="6"/>
       <c r="X177" s="6"/>
-      <c r="Y177" s="6"/>
-      <c r="Z177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6"/>
@@ -5287,8 +4964,6 @@
       <c r="V178" s="6"/>
       <c r="W178" s="6"/>
       <c r="X178" s="6"/>
-      <c r="Y178" s="6"/>
-      <c r="Z178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6"/>
@@ -5315,8 +4990,6 @@
       <c r="V179" s="6"/>
       <c r="W179" s="6"/>
       <c r="X179" s="6"/>
-      <c r="Y179" s="6"/>
-      <c r="Z179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6"/>
@@ -5343,8 +5016,6 @@
       <c r="V180" s="6"/>
       <c r="W180" s="6"/>
       <c r="X180" s="6"/>
-      <c r="Y180" s="6"/>
-      <c r="Z180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6"/>
@@ -5371,8 +5042,6 @@
       <c r="V181" s="6"/>
       <c r="W181" s="6"/>
       <c r="X181" s="6"/>
-      <c r="Y181" s="6"/>
-      <c r="Z181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6"/>
@@ -5399,8 +5068,6 @@
       <c r="V182" s="6"/>
       <c r="W182" s="6"/>
       <c r="X182" s="6"/>
-      <c r="Y182" s="6"/>
-      <c r="Z182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6"/>
@@ -5427,8 +5094,6 @@
       <c r="V183" s="6"/>
       <c r="W183" s="6"/>
       <c r="X183" s="6"/>
-      <c r="Y183" s="6"/>
-      <c r="Z183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6"/>
@@ -5455,8 +5120,6 @@
       <c r="V184" s="6"/>
       <c r="W184" s="6"/>
       <c r="X184" s="6"/>
-      <c r="Y184" s="6"/>
-      <c r="Z184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6"/>
@@ -5483,8 +5146,6 @@
       <c r="V185" s="6"/>
       <c r="W185" s="6"/>
       <c r="X185" s="6"/>
-      <c r="Y185" s="6"/>
-      <c r="Z185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6"/>
@@ -5511,8 +5172,6 @@
       <c r="V186" s="6"/>
       <c r="W186" s="6"/>
       <c r="X186" s="6"/>
-      <c r="Y186" s="6"/>
-      <c r="Z186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6"/>
@@ -5539,8 +5198,6 @@
       <c r="V187" s="6"/>
       <c r="W187" s="6"/>
       <c r="X187" s="6"/>
-      <c r="Y187" s="6"/>
-      <c r="Z187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6"/>
@@ -5567,8 +5224,6 @@
       <c r="V188" s="6"/>
       <c r="W188" s="6"/>
       <c r="X188" s="6"/>
-      <c r="Y188" s="6"/>
-      <c r="Z188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6"/>
@@ -5595,8 +5250,6 @@
       <c r="V189" s="6"/>
       <c r="W189" s="6"/>
       <c r="X189" s="6"/>
-      <c r="Y189" s="6"/>
-      <c r="Z189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6"/>
@@ -5623,8 +5276,6 @@
       <c r="V190" s="6"/>
       <c r="W190" s="6"/>
       <c r="X190" s="6"/>
-      <c r="Y190" s="6"/>
-      <c r="Z190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6"/>
@@ -5651,8 +5302,6 @@
       <c r="V191" s="6"/>
       <c r="W191" s="6"/>
       <c r="X191" s="6"/>
-      <c r="Y191" s="6"/>
-      <c r="Z191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6"/>
@@ -5679,8 +5328,6 @@
       <c r="V192" s="6"/>
       <c r="W192" s="6"/>
       <c r="X192" s="6"/>
-      <c r="Y192" s="6"/>
-      <c r="Z192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6"/>
@@ -5707,8 +5354,6 @@
       <c r="V193" s="6"/>
       <c r="W193" s="6"/>
       <c r="X193" s="6"/>
-      <c r="Y193" s="6"/>
-      <c r="Z193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6"/>
@@ -5735,8 +5380,6 @@
       <c r="V194" s="6"/>
       <c r="W194" s="6"/>
       <c r="X194" s="6"/>
-      <c r="Y194" s="6"/>
-      <c r="Z194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6"/>
@@ -5763,8 +5406,6 @@
       <c r="V195" s="6"/>
       <c r="W195" s="6"/>
       <c r="X195" s="6"/>
-      <c r="Y195" s="6"/>
-      <c r="Z195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6"/>
@@ -5791,8 +5432,6 @@
       <c r="V196" s="6"/>
       <c r="W196" s="6"/>
       <c r="X196" s="6"/>
-      <c r="Y196" s="6"/>
-      <c r="Z196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6"/>
@@ -5819,8 +5458,6 @@
       <c r="V197" s="6"/>
       <c r="W197" s="6"/>
       <c r="X197" s="6"/>
-      <c r="Y197" s="6"/>
-      <c r="Z197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6"/>
@@ -5847,8 +5484,6 @@
       <c r="V198" s="6"/>
       <c r="W198" s="6"/>
       <c r="X198" s="6"/>
-      <c r="Y198" s="6"/>
-      <c r="Z198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6"/>
@@ -5875,8 +5510,6 @@
       <c r="V199" s="6"/>
       <c r="W199" s="6"/>
       <c r="X199" s="6"/>
-      <c r="Y199" s="6"/>
-      <c r="Z199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6"/>
@@ -5903,8 +5536,6 @@
       <c r="V200" s="6"/>
       <c r="W200" s="6"/>
       <c r="X200" s="6"/>
-      <c r="Y200" s="6"/>
-      <c r="Z200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6"/>
@@ -5931,8 +5562,6 @@
       <c r="V201" s="6"/>
       <c r="W201" s="6"/>
       <c r="X201" s="6"/>
-      <c r="Y201" s="6"/>
-      <c r="Z201" s="6"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6"/>
@@ -5959,8 +5588,6 @@
       <c r="V202" s="6"/>
       <c r="W202" s="6"/>
       <c r="X202" s="6"/>
-      <c r="Y202" s="6"/>
-      <c r="Z202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6"/>
@@ -5987,8 +5614,6 @@
       <c r="V203" s="6"/>
       <c r="W203" s="6"/>
       <c r="X203" s="6"/>
-      <c r="Y203" s="6"/>
-      <c r="Z203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6"/>
@@ -6015,8 +5640,6 @@
       <c r="V204" s="6"/>
       <c r="W204" s="6"/>
       <c r="X204" s="6"/>
-      <c r="Y204" s="6"/>
-      <c r="Z204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6"/>
@@ -6043,8 +5666,6 @@
       <c r="V205" s="6"/>
       <c r="W205" s="6"/>
       <c r="X205" s="6"/>
-      <c r="Y205" s="6"/>
-      <c r="Z205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6"/>
@@ -6071,8 +5692,6 @@
       <c r="V206" s="6"/>
       <c r="W206" s="6"/>
       <c r="X206" s="6"/>
-      <c r="Y206" s="6"/>
-      <c r="Z206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6"/>
@@ -6099,8 +5718,6 @@
       <c r="V207" s="6"/>
       <c r="W207" s="6"/>
       <c r="X207" s="6"/>
-      <c r="Y207" s="6"/>
-      <c r="Z207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6"/>
@@ -6127,8 +5744,6 @@
       <c r="V208" s="6"/>
       <c r="W208" s="6"/>
       <c r="X208" s="6"/>
-      <c r="Y208" s="6"/>
-      <c r="Z208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6"/>
@@ -6155,8 +5770,6 @@
       <c r="V209" s="6"/>
       <c r="W209" s="6"/>
       <c r="X209" s="6"/>
-      <c r="Y209" s="6"/>
-      <c r="Z209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6"/>
@@ -6183,8 +5796,6 @@
       <c r="V210" s="6"/>
       <c r="W210" s="6"/>
       <c r="X210" s="6"/>
-      <c r="Y210" s="6"/>
-      <c r="Z210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6"/>
@@ -6211,8 +5822,6 @@
       <c r="V211" s="6"/>
       <c r="W211" s="6"/>
       <c r="X211" s="6"/>
-      <c r="Y211" s="6"/>
-      <c r="Z211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
@@ -6239,8 +5848,6 @@
       <c r="V212" s="6"/>
       <c r="W212" s="6"/>
       <c r="X212" s="6"/>
-      <c r="Y212" s="6"/>
-      <c r="Z212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
@@ -6267,8 +5874,6 @@
       <c r="V213" s="6"/>
       <c r="W213" s="6"/>
       <c r="X213" s="6"/>
-      <c r="Y213" s="6"/>
-      <c r="Z213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6"/>
@@ -6295,8 +5900,6 @@
       <c r="V214" s="6"/>
       <c r="W214" s="6"/>
       <c r="X214" s="6"/>
-      <c r="Y214" s="6"/>
-      <c r="Z214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6"/>
@@ -6323,8 +5926,6 @@
       <c r="V215" s="6"/>
       <c r="W215" s="6"/>
       <c r="X215" s="6"/>
-      <c r="Y215" s="6"/>
-      <c r="Z215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6"/>
@@ -6351,8 +5952,6 @@
       <c r="V216" s="6"/>
       <c r="W216" s="6"/>
       <c r="X216" s="6"/>
-      <c r="Y216" s="6"/>
-      <c r="Z216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6"/>
@@ -6379,8 +5978,6 @@
       <c r="V217" s="6"/>
       <c r="W217" s="6"/>
       <c r="X217" s="6"/>
-      <c r="Y217" s="6"/>
-      <c r="Z217" s="6"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6"/>
@@ -6407,8 +6004,6 @@
       <c r="V218" s="6"/>
       <c r="W218" s="6"/>
       <c r="X218" s="6"/>
-      <c r="Y218" s="6"/>
-      <c r="Z218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6"/>
@@ -6435,8 +6030,6 @@
       <c r="V219" s="6"/>
       <c r="W219" s="6"/>
       <c r="X219" s="6"/>
-      <c r="Y219" s="6"/>
-      <c r="Z219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6"/>
@@ -6463,8 +6056,6 @@
       <c r="V220" s="6"/>
       <c r="W220" s="6"/>
       <c r="X220" s="6"/>
-      <c r="Y220" s="6"/>
-      <c r="Z220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6"/>
@@ -6491,8 +6082,6 @@
       <c r="V221" s="6"/>
       <c r="W221" s="6"/>
       <c r="X221" s="6"/>
-      <c r="Y221" s="6"/>
-      <c r="Z221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6"/>
@@ -6519,8 +6108,6 @@
       <c r="V222" s="6"/>
       <c r="W222" s="6"/>
       <c r="X222" s="6"/>
-      <c r="Y222" s="6"/>
-      <c r="Z222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6"/>
@@ -6547,8 +6134,6 @@
       <c r="V223" s="6"/>
       <c r="W223" s="6"/>
       <c r="X223" s="6"/>
-      <c r="Y223" s="6"/>
-      <c r="Z223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6"/>
@@ -6575,8 +6160,6 @@
       <c r="V224" s="6"/>
       <c r="W224" s="6"/>
       <c r="X224" s="6"/>
-      <c r="Y224" s="6"/>
-      <c r="Z224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6"/>
@@ -6603,8 +6186,6 @@
       <c r="V225" s="6"/>
       <c r="W225" s="6"/>
       <c r="X225" s="6"/>
-      <c r="Y225" s="6"/>
-      <c r="Z225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6"/>
@@ -6631,8 +6212,6 @@
       <c r="V226" s="6"/>
       <c r="W226" s="6"/>
       <c r="X226" s="6"/>
-      <c r="Y226" s="6"/>
-      <c r="Z226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6"/>
@@ -6659,8 +6238,6 @@
       <c r="V227" s="6"/>
       <c r="W227" s="6"/>
       <c r="X227" s="6"/>
-      <c r="Y227" s="6"/>
-      <c r="Z227" s="6"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6"/>
@@ -6687,8 +6264,6 @@
       <c r="V228" s="6"/>
       <c r="W228" s="6"/>
       <c r="X228" s="6"/>
-      <c r="Y228" s="6"/>
-      <c r="Z228" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6"/>
@@ -6715,8 +6290,6 @@
       <c r="V229" s="6"/>
       <c r="W229" s="6"/>
       <c r="X229" s="6"/>
-      <c r="Y229" s="6"/>
-      <c r="Z229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6"/>
@@ -6743,8 +6316,6 @@
       <c r="V230" s="6"/>
       <c r="W230" s="6"/>
       <c r="X230" s="6"/>
-      <c r="Y230" s="6"/>
-      <c r="Z230" s="6"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6"/>
@@ -6771,8 +6342,6 @@
       <c r="V231" s="6"/>
       <c r="W231" s="6"/>
       <c r="X231" s="6"/>
-      <c r="Y231" s="6"/>
-      <c r="Z231" s="6"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6"/>
@@ -6799,8 +6368,6 @@
       <c r="V232" s="6"/>
       <c r="W232" s="6"/>
       <c r="X232" s="6"/>
-      <c r="Y232" s="6"/>
-      <c r="Z232" s="6"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6"/>
@@ -6827,8 +6394,6 @@
       <c r="V233" s="6"/>
       <c r="W233" s="6"/>
       <c r="X233" s="6"/>
-      <c r="Y233" s="6"/>
-      <c r="Z233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6"/>
@@ -6855,8 +6420,6 @@
       <c r="V234" s="6"/>
       <c r="W234" s="6"/>
       <c r="X234" s="6"/>
-      <c r="Y234" s="6"/>
-      <c r="Z234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6"/>
@@ -6883,8 +6446,6 @@
       <c r="V235" s="6"/>
       <c r="W235" s="6"/>
       <c r="X235" s="6"/>
-      <c r="Y235" s="6"/>
-      <c r="Z235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6"/>
@@ -6911,8 +6472,6 @@
       <c r="V236" s="6"/>
       <c r="W236" s="6"/>
       <c r="X236" s="6"/>
-      <c r="Y236" s="6"/>
-      <c r="Z236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6"/>
@@ -6939,8 +6498,6 @@
       <c r="V237" s="6"/>
       <c r="W237" s="6"/>
       <c r="X237" s="6"/>
-      <c r="Y237" s="6"/>
-      <c r="Z237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6"/>
@@ -6967,8 +6524,6 @@
       <c r="V238" s="6"/>
       <c r="W238" s="6"/>
       <c r="X238" s="6"/>
-      <c r="Y238" s="6"/>
-      <c r="Z238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6"/>
@@ -6995,8 +6550,6 @@
       <c r="V239" s="6"/>
       <c r="W239" s="6"/>
       <c r="X239" s="6"/>
-      <c r="Y239" s="6"/>
-      <c r="Z239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6"/>
@@ -7023,8 +6576,6 @@
       <c r="V240" s="6"/>
       <c r="W240" s="6"/>
       <c r="X240" s="6"/>
-      <c r="Y240" s="6"/>
-      <c r="Z240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6"/>
@@ -7051,8 +6602,6 @@
       <c r="V241" s="6"/>
       <c r="W241" s="6"/>
       <c r="X241" s="6"/>
-      <c r="Y241" s="6"/>
-      <c r="Z241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6"/>
@@ -7079,8 +6628,6 @@
       <c r="V242" s="6"/>
       <c r="W242" s="6"/>
       <c r="X242" s="6"/>
-      <c r="Y242" s="6"/>
-      <c r="Z242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6"/>
@@ -7107,8 +6654,6 @@
       <c r="V243" s="6"/>
       <c r="W243" s="6"/>
       <c r="X243" s="6"/>
-      <c r="Y243" s="6"/>
-      <c r="Z243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6"/>
@@ -7135,8 +6680,6 @@
       <c r="V244" s="6"/>
       <c r="W244" s="6"/>
       <c r="X244" s="6"/>
-      <c r="Y244" s="6"/>
-      <c r="Z244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6"/>
@@ -7163,8 +6706,6 @@
       <c r="V245" s="6"/>
       <c r="W245" s="6"/>
       <c r="X245" s="6"/>
-      <c r="Y245" s="6"/>
-      <c r="Z245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6"/>
@@ -7191,8 +6732,6 @@
       <c r="V246" s="6"/>
       <c r="W246" s="6"/>
       <c r="X246" s="6"/>
-      <c r="Y246" s="6"/>
-      <c r="Z246" s="6"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6"/>
@@ -7219,8 +6758,6 @@
       <c r="V247" s="6"/>
       <c r="W247" s="6"/>
       <c r="X247" s="6"/>
-      <c r="Y247" s="6"/>
-      <c r="Z247" s="6"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6"/>
@@ -7247,8 +6784,6 @@
       <c r="V248" s="6"/>
       <c r="W248" s="6"/>
       <c r="X248" s="6"/>
-      <c r="Y248" s="6"/>
-      <c r="Z248" s="6"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6"/>
@@ -7275,8 +6810,6 @@
       <c r="V249" s="6"/>
       <c r="W249" s="6"/>
       <c r="X249" s="6"/>
-      <c r="Y249" s="6"/>
-      <c r="Z249" s="6"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6"/>
@@ -7303,8 +6836,6 @@
       <c r="V250" s="6"/>
       <c r="W250" s="6"/>
       <c r="X250" s="6"/>
-      <c r="Y250" s="6"/>
-      <c r="Z250" s="6"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6"/>
@@ -7331,8 +6862,6 @@
       <c r="V251" s="6"/>
       <c r="W251" s="6"/>
       <c r="X251" s="6"/>
-      <c r="Y251" s="6"/>
-      <c r="Z251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6"/>
@@ -7359,8 +6888,6 @@
       <c r="V252" s="6"/>
       <c r="W252" s="6"/>
       <c r="X252" s="6"/>
-      <c r="Y252" s="6"/>
-      <c r="Z252" s="6"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6"/>
@@ -7387,8 +6914,6 @@
       <c r="V253" s="6"/>
       <c r="W253" s="6"/>
       <c r="X253" s="6"/>
-      <c r="Y253" s="6"/>
-      <c r="Z253" s="6"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6"/>
@@ -7415,8 +6940,6 @@
       <c r="V254" s="6"/>
       <c r="W254" s="6"/>
       <c r="X254" s="6"/>
-      <c r="Y254" s="6"/>
-      <c r="Z254" s="6"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6"/>
@@ -7443,8 +6966,6 @@
       <c r="V255" s="6"/>
       <c r="W255" s="6"/>
       <c r="X255" s="6"/>
-      <c r="Y255" s="6"/>
-      <c r="Z255" s="6"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6"/>
@@ -7471,8 +6992,6 @@
       <c r="V256" s="6"/>
       <c r="W256" s="6"/>
       <c r="X256" s="6"/>
-      <c r="Y256" s="6"/>
-      <c r="Z256" s="6"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6"/>
@@ -7499,8 +7018,6 @@
       <c r="V257" s="6"/>
       <c r="W257" s="6"/>
       <c r="X257" s="6"/>
-      <c r="Y257" s="6"/>
-      <c r="Z257" s="6"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6"/>
@@ -7527,8 +7044,6 @@
       <c r="V258" s="6"/>
       <c r="W258" s="6"/>
       <c r="X258" s="6"/>
-      <c r="Y258" s="6"/>
-      <c r="Z258" s="6"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6"/>
@@ -7555,8 +7070,6 @@
       <c r="V259" s="6"/>
       <c r="W259" s="6"/>
       <c r="X259" s="6"/>
-      <c r="Y259" s="6"/>
-      <c r="Z259" s="6"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6"/>
@@ -7583,8 +7096,6 @@
       <c r="V260" s="6"/>
       <c r="W260" s="6"/>
       <c r="X260" s="6"/>
-      <c r="Y260" s="6"/>
-      <c r="Z260" s="6"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6"/>
@@ -7611,8 +7122,6 @@
       <c r="V261" s="6"/>
       <c r="W261" s="6"/>
       <c r="X261" s="6"/>
-      <c r="Y261" s="6"/>
-      <c r="Z261" s="6"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6"/>
@@ -7639,8 +7148,6 @@
       <c r="V262" s="6"/>
       <c r="W262" s="6"/>
       <c r="X262" s="6"/>
-      <c r="Y262" s="6"/>
-      <c r="Z262" s="6"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6"/>
@@ -7667,8 +7174,6 @@
       <c r="V263" s="6"/>
       <c r="W263" s="6"/>
       <c r="X263" s="6"/>
-      <c r="Y263" s="6"/>
-      <c r="Z263" s="6"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6"/>
@@ -7695,8 +7200,6 @@
       <c r="V264" s="6"/>
       <c r="W264" s="6"/>
       <c r="X264" s="6"/>
-      <c r="Y264" s="6"/>
-      <c r="Z264" s="6"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6"/>
@@ -7723,8 +7226,6 @@
       <c r="V265" s="6"/>
       <c r="W265" s="6"/>
       <c r="X265" s="6"/>
-      <c r="Y265" s="6"/>
-      <c r="Z265" s="6"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6"/>
@@ -7751,8 +7252,6 @@
       <c r="V266" s="6"/>
       <c r="W266" s="6"/>
       <c r="X266" s="6"/>
-      <c r="Y266" s="6"/>
-      <c r="Z266" s="6"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6"/>
@@ -7779,8 +7278,6 @@
       <c r="V267" s="6"/>
       <c r="W267" s="6"/>
       <c r="X267" s="6"/>
-      <c r="Y267" s="6"/>
-      <c r="Z267" s="6"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6"/>
@@ -7807,8 +7304,6 @@
       <c r="V268" s="6"/>
       <c r="W268" s="6"/>
       <c r="X268" s="6"/>
-      <c r="Y268" s="6"/>
-      <c r="Z268" s="6"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6"/>
@@ -7835,8 +7330,6 @@
       <c r="V269" s="6"/>
       <c r="W269" s="6"/>
       <c r="X269" s="6"/>
-      <c r="Y269" s="6"/>
-      <c r="Z269" s="6"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6"/>
@@ -7863,8 +7356,6 @@
       <c r="V270" s="6"/>
       <c r="W270" s="6"/>
       <c r="X270" s="6"/>
-      <c r="Y270" s="6"/>
-      <c r="Z270" s="6"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6"/>
@@ -7891,8 +7382,6 @@
       <c r="V271" s="6"/>
       <c r="W271" s="6"/>
       <c r="X271" s="6"/>
-      <c r="Y271" s="6"/>
-      <c r="Z271" s="6"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6"/>
@@ -7919,8 +7408,6 @@
       <c r="V272" s="6"/>
       <c r="W272" s="6"/>
       <c r="X272" s="6"/>
-      <c r="Y272" s="6"/>
-      <c r="Z272" s="6"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6"/>
@@ -7947,8 +7434,6 @@
       <c r="V273" s="6"/>
       <c r="W273" s="6"/>
       <c r="X273" s="6"/>
-      <c r="Y273" s="6"/>
-      <c r="Z273" s="6"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6"/>
@@ -7975,8 +7460,6 @@
       <c r="V274" s="6"/>
       <c r="W274" s="6"/>
       <c r="X274" s="6"/>
-      <c r="Y274" s="6"/>
-      <c r="Z274" s="6"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6"/>
@@ -8003,8 +7486,6 @@
       <c r="V275" s="6"/>
       <c r="W275" s="6"/>
       <c r="X275" s="6"/>
-      <c r="Y275" s="6"/>
-      <c r="Z275" s="6"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6"/>
@@ -8031,8 +7512,6 @@
       <c r="V276" s="6"/>
       <c r="W276" s="6"/>
       <c r="X276" s="6"/>
-      <c r="Y276" s="6"/>
-      <c r="Z276" s="6"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6"/>
@@ -8059,8 +7538,6 @@
       <c r="V277" s="6"/>
       <c r="W277" s="6"/>
       <c r="X277" s="6"/>
-      <c r="Y277" s="6"/>
-      <c r="Z277" s="6"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6"/>
@@ -8087,8 +7564,6 @@
       <c r="V278" s="6"/>
       <c r="W278" s="6"/>
       <c r="X278" s="6"/>
-      <c r="Y278" s="6"/>
-      <c r="Z278" s="6"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6"/>
@@ -8115,8 +7590,6 @@
       <c r="V279" s="6"/>
       <c r="W279" s="6"/>
       <c r="X279" s="6"/>
-      <c r="Y279" s="6"/>
-      <c r="Z279" s="6"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6"/>
@@ -8143,8 +7616,6 @@
       <c r="V280" s="6"/>
       <c r="W280" s="6"/>
       <c r="X280" s="6"/>
-      <c r="Y280" s="6"/>
-      <c r="Z280" s="6"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6"/>
@@ -8171,8 +7642,6 @@
       <c r="V281" s="6"/>
       <c r="W281" s="6"/>
       <c r="X281" s="6"/>
-      <c r="Y281" s="6"/>
-      <c r="Z281" s="6"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6"/>
@@ -8199,8 +7668,6 @@
       <c r="V282" s="6"/>
       <c r="W282" s="6"/>
       <c r="X282" s="6"/>
-      <c r="Y282" s="6"/>
-      <c r="Z282" s="6"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6"/>
@@ -8227,8 +7694,6 @@
       <c r="V283" s="6"/>
       <c r="W283" s="6"/>
       <c r="X283" s="6"/>
-      <c r="Y283" s="6"/>
-      <c r="Z283" s="6"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6"/>
@@ -8255,8 +7720,6 @@
       <c r="V284" s="6"/>
       <c r="W284" s="6"/>
       <c r="X284" s="6"/>
-      <c r="Y284" s="6"/>
-      <c r="Z284" s="6"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6"/>
@@ -8283,8 +7746,6 @@
       <c r="V285" s="6"/>
       <c r="W285" s="6"/>
       <c r="X285" s="6"/>
-      <c r="Y285" s="6"/>
-      <c r="Z285" s="6"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6"/>
@@ -8311,8 +7772,6 @@
       <c r="V286" s="6"/>
       <c r="W286" s="6"/>
       <c r="X286" s="6"/>
-      <c r="Y286" s="6"/>
-      <c r="Z286" s="6"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6"/>
@@ -8339,8 +7798,6 @@
       <c r="V287" s="6"/>
       <c r="W287" s="6"/>
       <c r="X287" s="6"/>
-      <c r="Y287" s="6"/>
-      <c r="Z287" s="6"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6"/>
@@ -8367,8 +7824,6 @@
       <c r="V288" s="6"/>
       <c r="W288" s="6"/>
       <c r="X288" s="6"/>
-      <c r="Y288" s="6"/>
-      <c r="Z288" s="6"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6"/>
@@ -8395,8 +7850,6 @@
       <c r="V289" s="6"/>
       <c r="W289" s="6"/>
       <c r="X289" s="6"/>
-      <c r="Y289" s="6"/>
-      <c r="Z289" s="6"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6"/>
@@ -8423,8 +7876,6 @@
       <c r="V290" s="6"/>
       <c r="W290" s="6"/>
       <c r="X290" s="6"/>
-      <c r="Y290" s="6"/>
-      <c r="Z290" s="6"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6"/>
@@ -8451,8 +7902,6 @@
       <c r="V291" s="6"/>
       <c r="W291" s="6"/>
       <c r="X291" s="6"/>
-      <c r="Y291" s="6"/>
-      <c r="Z291" s="6"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6"/>
@@ -8479,8 +7928,6 @@
       <c r="V292" s="6"/>
       <c r="W292" s="6"/>
       <c r="X292" s="6"/>
-      <c r="Y292" s="6"/>
-      <c r="Z292" s="6"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6"/>
@@ -8507,8 +7954,6 @@
       <c r="V293" s="6"/>
       <c r="W293" s="6"/>
       <c r="X293" s="6"/>
-      <c r="Y293" s="6"/>
-      <c r="Z293" s="6"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6"/>
@@ -8535,8 +7980,6 @@
       <c r="V294" s="6"/>
       <c r="W294" s="6"/>
       <c r="X294" s="6"/>
-      <c r="Y294" s="6"/>
-      <c r="Z294" s="6"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6"/>
@@ -8563,8 +8006,6 @@
       <c r="V295" s="6"/>
       <c r="W295" s="6"/>
       <c r="X295" s="6"/>
-      <c r="Y295" s="6"/>
-      <c r="Z295" s="6"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6"/>
@@ -8591,8 +8032,6 @@
       <c r="V296" s="6"/>
       <c r="W296" s="6"/>
       <c r="X296" s="6"/>
-      <c r="Y296" s="6"/>
-      <c r="Z296" s="6"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6"/>
@@ -8619,8 +8058,6 @@
       <c r="V297" s="6"/>
       <c r="W297" s="6"/>
       <c r="X297" s="6"/>
-      <c r="Y297" s="6"/>
-      <c r="Z297" s="6"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6"/>
@@ -8647,8 +8084,6 @@
       <c r="V298" s="6"/>
       <c r="W298" s="6"/>
       <c r="X298" s="6"/>
-      <c r="Y298" s="6"/>
-      <c r="Z298" s="6"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6"/>
@@ -8675,8 +8110,6 @@
       <c r="V299" s="6"/>
       <c r="W299" s="6"/>
       <c r="X299" s="6"/>
-      <c r="Y299" s="6"/>
-      <c r="Z299" s="6"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6"/>
@@ -8703,8 +8136,6 @@
       <c r="V300" s="6"/>
       <c r="W300" s="6"/>
       <c r="X300" s="6"/>
-      <c r="Y300" s="6"/>
-      <c r="Z300" s="6"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6"/>
@@ -8731,8 +8162,6 @@
       <c r="V301" s="6"/>
       <c r="W301" s="6"/>
       <c r="X301" s="6"/>
-      <c r="Y301" s="6"/>
-      <c r="Z301" s="6"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6"/>
@@ -8759,8 +8188,6 @@
       <c r="V302" s="6"/>
       <c r="W302" s="6"/>
       <c r="X302" s="6"/>
-      <c r="Y302" s="6"/>
-      <c r="Z302" s="6"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6"/>
@@ -8787,8 +8214,6 @@
       <c r="V303" s="6"/>
       <c r="W303" s="6"/>
       <c r="X303" s="6"/>
-      <c r="Y303" s="6"/>
-      <c r="Z303" s="6"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6"/>
@@ -8815,8 +8240,6 @@
       <c r="V304" s="6"/>
       <c r="W304" s="6"/>
       <c r="X304" s="6"/>
-      <c r="Y304" s="6"/>
-      <c r="Z304" s="6"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6"/>
@@ -8843,8 +8266,6 @@
       <c r="V305" s="6"/>
       <c r="W305" s="6"/>
       <c r="X305" s="6"/>
-      <c r="Y305" s="6"/>
-      <c r="Z305" s="6"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6"/>
@@ -8871,8 +8292,6 @@
       <c r="V306" s="6"/>
       <c r="W306" s="6"/>
       <c r="X306" s="6"/>
-      <c r="Y306" s="6"/>
-      <c r="Z306" s="6"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6"/>
@@ -8899,8 +8318,6 @@
       <c r="V307" s="6"/>
       <c r="W307" s="6"/>
       <c r="X307" s="6"/>
-      <c r="Y307" s="6"/>
-      <c r="Z307" s="6"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6"/>
@@ -8927,8 +8344,6 @@
       <c r="V308" s="6"/>
       <c r="W308" s="6"/>
       <c r="X308" s="6"/>
-      <c r="Y308" s="6"/>
-      <c r="Z308" s="6"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6"/>
@@ -8955,8 +8370,6 @@
       <c r="V309" s="6"/>
       <c r="W309" s="6"/>
       <c r="X309" s="6"/>
-      <c r="Y309" s="6"/>
-      <c r="Z309" s="6"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6"/>
@@ -8983,8 +8396,6 @@
       <c r="V310" s="6"/>
       <c r="W310" s="6"/>
       <c r="X310" s="6"/>
-      <c r="Y310" s="6"/>
-      <c r="Z310" s="6"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6"/>
@@ -9011,8 +8422,6 @@
       <c r="V311" s="6"/>
       <c r="W311" s="6"/>
       <c r="X311" s="6"/>
-      <c r="Y311" s="6"/>
-      <c r="Z311" s="6"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6"/>
@@ -9039,8 +8448,6 @@
       <c r="V312" s="6"/>
       <c r="W312" s="6"/>
       <c r="X312" s="6"/>
-      <c r="Y312" s="6"/>
-      <c r="Z312" s="6"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6"/>
@@ -9067,8 +8474,6 @@
       <c r="V313" s="6"/>
       <c r="W313" s="6"/>
       <c r="X313" s="6"/>
-      <c r="Y313" s="6"/>
-      <c r="Z313" s="6"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6"/>
@@ -9095,8 +8500,6 @@
       <c r="V314" s="6"/>
       <c r="W314" s="6"/>
       <c r="X314" s="6"/>
-      <c r="Y314" s="6"/>
-      <c r="Z314" s="6"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6"/>
@@ -9123,8 +8526,6 @@
       <c r="V315" s="6"/>
       <c r="W315" s="6"/>
       <c r="X315" s="6"/>
-      <c r="Y315" s="6"/>
-      <c r="Z315" s="6"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6"/>
@@ -9151,8 +8552,6 @@
       <c r="V316" s="6"/>
       <c r="W316" s="6"/>
       <c r="X316" s="6"/>
-      <c r="Y316" s="6"/>
-      <c r="Z316" s="6"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6"/>
@@ -9179,8 +8578,6 @@
       <c r="V317" s="6"/>
       <c r="W317" s="6"/>
       <c r="X317" s="6"/>
-      <c r="Y317" s="6"/>
-      <c r="Z317" s="6"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6"/>
@@ -9207,8 +8604,6 @@
       <c r="V318" s="6"/>
       <c r="W318" s="6"/>
       <c r="X318" s="6"/>
-      <c r="Y318" s="6"/>
-      <c r="Z318" s="6"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6"/>
@@ -9235,8 +8630,6 @@
       <c r="V319" s="6"/>
       <c r="W319" s="6"/>
       <c r="X319" s="6"/>
-      <c r="Y319" s="6"/>
-      <c r="Z319" s="6"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6"/>
@@ -9263,8 +8656,6 @@
       <c r="V320" s="6"/>
       <c r="W320" s="6"/>
       <c r="X320" s="6"/>
-      <c r="Y320" s="6"/>
-      <c r="Z320" s="6"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6"/>
@@ -9291,8 +8682,6 @@
       <c r="V321" s="6"/>
       <c r="W321" s="6"/>
       <c r="X321" s="6"/>
-      <c r="Y321" s="6"/>
-      <c r="Z321" s="6"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6"/>
@@ -9319,8 +8708,6 @@
       <c r="V322" s="6"/>
       <c r="W322" s="6"/>
       <c r="X322" s="6"/>
-      <c r="Y322" s="6"/>
-      <c r="Z322" s="6"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6"/>
@@ -9347,8 +8734,6 @@
       <c r="V323" s="6"/>
       <c r="W323" s="6"/>
       <c r="X323" s="6"/>
-      <c r="Y323" s="6"/>
-      <c r="Z323" s="6"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6"/>
@@ -9375,8 +8760,6 @@
       <c r="V324" s="6"/>
       <c r="W324" s="6"/>
       <c r="X324" s="6"/>
-      <c r="Y324" s="6"/>
-      <c r="Z324" s="6"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6"/>
@@ -9403,8 +8786,6 @@
       <c r="V325" s="6"/>
       <c r="W325" s="6"/>
       <c r="X325" s="6"/>
-      <c r="Y325" s="6"/>
-      <c r="Z325" s="6"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6"/>
@@ -9431,8 +8812,6 @@
       <c r="V326" s="6"/>
       <c r="W326" s="6"/>
       <c r="X326" s="6"/>
-      <c r="Y326" s="6"/>
-      <c r="Z326" s="6"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6"/>
@@ -9459,8 +8838,6 @@
       <c r="V327" s="6"/>
       <c r="W327" s="6"/>
       <c r="X327" s="6"/>
-      <c r="Y327" s="6"/>
-      <c r="Z327" s="6"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6"/>
@@ -9487,8 +8864,6 @@
       <c r="V328" s="6"/>
       <c r="W328" s="6"/>
       <c r="X328" s="6"/>
-      <c r="Y328" s="6"/>
-      <c r="Z328" s="6"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6"/>
@@ -9515,8 +8890,6 @@
       <c r="V329" s="6"/>
       <c r="W329" s="6"/>
       <c r="X329" s="6"/>
-      <c r="Y329" s="6"/>
-      <c r="Z329" s="6"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6"/>
@@ -9543,8 +8916,6 @@
       <c r="V330" s="6"/>
       <c r="W330" s="6"/>
       <c r="X330" s="6"/>
-      <c r="Y330" s="6"/>
-      <c r="Z330" s="6"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6"/>
@@ -9571,8 +8942,6 @@
       <c r="V331" s="6"/>
       <c r="W331" s="6"/>
       <c r="X331" s="6"/>
-      <c r="Y331" s="6"/>
-      <c r="Z331" s="6"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6"/>
@@ -9599,8 +8968,6 @@
       <c r="V332" s="6"/>
       <c r="W332" s="6"/>
       <c r="X332" s="6"/>
-      <c r="Y332" s="6"/>
-      <c r="Z332" s="6"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6"/>
@@ -9627,8 +8994,6 @@
       <c r="V333" s="6"/>
       <c r="W333" s="6"/>
       <c r="X333" s="6"/>
-      <c r="Y333" s="6"/>
-      <c r="Z333" s="6"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="6"/>
@@ -9655,8 +9020,6 @@
       <c r="V334" s="6"/>
       <c r="W334" s="6"/>
       <c r="X334" s="6"/>
-      <c r="Y334" s="6"/>
-      <c r="Z334" s="6"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="6"/>
@@ -9683,8 +9046,6 @@
       <c r="V335" s="6"/>
       <c r="W335" s="6"/>
       <c r="X335" s="6"/>
-      <c r="Y335" s="6"/>
-      <c r="Z335" s="6"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6"/>
@@ -9711,8 +9072,6 @@
       <c r="V336" s="6"/>
       <c r="W336" s="6"/>
       <c r="X336" s="6"/>
-      <c r="Y336" s="6"/>
-      <c r="Z336" s="6"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6"/>
@@ -9739,8 +9098,6 @@
       <c r="V337" s="6"/>
       <c r="W337" s="6"/>
       <c r="X337" s="6"/>
-      <c r="Y337" s="6"/>
-      <c r="Z337" s="6"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6"/>
@@ -9767,8 +9124,6 @@
       <c r="V338" s="6"/>
       <c r="W338" s="6"/>
       <c r="X338" s="6"/>
-      <c r="Y338" s="6"/>
-      <c r="Z338" s="6"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6"/>
@@ -9795,8 +9150,6 @@
       <c r="V339" s="6"/>
       <c r="W339" s="6"/>
       <c r="X339" s="6"/>
-      <c r="Y339" s="6"/>
-      <c r="Z339" s="6"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6"/>
@@ -9823,8 +9176,6 @@
       <c r="V340" s="6"/>
       <c r="W340" s="6"/>
       <c r="X340" s="6"/>
-      <c r="Y340" s="6"/>
-      <c r="Z340" s="6"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6"/>
@@ -9851,8 +9202,6 @@
       <c r="V341" s="6"/>
       <c r="W341" s="6"/>
       <c r="X341" s="6"/>
-      <c r="Y341" s="6"/>
-      <c r="Z341" s="6"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6"/>
@@ -9879,8 +9228,6 @@
       <c r="V342" s="6"/>
       <c r="W342" s="6"/>
       <c r="X342" s="6"/>
-      <c r="Y342" s="6"/>
-      <c r="Z342" s="6"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6"/>
@@ -9907,8 +9254,6 @@
       <c r="V343" s="6"/>
       <c r="W343" s="6"/>
       <c r="X343" s="6"/>
-      <c r="Y343" s="6"/>
-      <c r="Z343" s="6"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6"/>
@@ -9935,8 +9280,6 @@
       <c r="V344" s="6"/>
       <c r="W344" s="6"/>
       <c r="X344" s="6"/>
-      <c r="Y344" s="6"/>
-      <c r="Z344" s="6"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6"/>
@@ -9963,8 +9306,6 @@
       <c r="V345" s="6"/>
       <c r="W345" s="6"/>
       <c r="X345" s="6"/>
-      <c r="Y345" s="6"/>
-      <c r="Z345" s="6"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6"/>
@@ -9991,8 +9332,6 @@
       <c r="V346" s="6"/>
       <c r="W346" s="6"/>
       <c r="X346" s="6"/>
-      <c r="Y346" s="6"/>
-      <c r="Z346" s="6"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6"/>
@@ -10019,8 +9358,6 @@
       <c r="V347" s="6"/>
       <c r="W347" s="6"/>
       <c r="X347" s="6"/>
-      <c r="Y347" s="6"/>
-      <c r="Z347" s="6"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6"/>
@@ -10047,8 +9384,6 @@
       <c r="V348" s="6"/>
       <c r="W348" s="6"/>
       <c r="X348" s="6"/>
-      <c r="Y348" s="6"/>
-      <c r="Z348" s="6"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6"/>
@@ -10075,8 +9410,6 @@
       <c r="V349" s="6"/>
       <c r="W349" s="6"/>
       <c r="X349" s="6"/>
-      <c r="Y349" s="6"/>
-      <c r="Z349" s="6"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6"/>
@@ -10103,8 +9436,6 @@
       <c r="V350" s="6"/>
       <c r="W350" s="6"/>
       <c r="X350" s="6"/>
-      <c r="Y350" s="6"/>
-      <c r="Z350" s="6"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6"/>
@@ -10131,8 +9462,6 @@
       <c r="V351" s="6"/>
       <c r="W351" s="6"/>
       <c r="X351" s="6"/>
-      <c r="Y351" s="6"/>
-      <c r="Z351" s="6"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6"/>
@@ -10159,8 +9488,6 @@
       <c r="V352" s="6"/>
       <c r="W352" s="6"/>
       <c r="X352" s="6"/>
-      <c r="Y352" s="6"/>
-      <c r="Z352" s="6"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6"/>
@@ -10187,8 +9514,6 @@
       <c r="V353" s="6"/>
       <c r="W353" s="6"/>
       <c r="X353" s="6"/>
-      <c r="Y353" s="6"/>
-      <c r="Z353" s="6"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="6"/>
@@ -10215,8 +9540,6 @@
       <c r="V354" s="6"/>
       <c r="W354" s="6"/>
       <c r="X354" s="6"/>
-      <c r="Y354" s="6"/>
-      <c r="Z354" s="6"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="6"/>
@@ -10243,8 +9566,6 @@
       <c r="V355" s="6"/>
       <c r="W355" s="6"/>
       <c r="X355" s="6"/>
-      <c r="Y355" s="6"/>
-      <c r="Z355" s="6"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6"/>
@@ -10271,8 +9592,6 @@
       <c r="V356" s="6"/>
       <c r="W356" s="6"/>
       <c r="X356" s="6"/>
-      <c r="Y356" s="6"/>
-      <c r="Z356" s="6"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6"/>
@@ -10299,8 +9618,6 @@
       <c r="V357" s="6"/>
       <c r="W357" s="6"/>
       <c r="X357" s="6"/>
-      <c r="Y357" s="6"/>
-      <c r="Z357" s="6"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6"/>
@@ -10327,8 +9644,6 @@
       <c r="V358" s="6"/>
       <c r="W358" s="6"/>
       <c r="X358" s="6"/>
-      <c r="Y358" s="6"/>
-      <c r="Z358" s="6"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6"/>
@@ -10355,8 +9670,6 @@
       <c r="V359" s="6"/>
       <c r="W359" s="6"/>
       <c r="X359" s="6"/>
-      <c r="Y359" s="6"/>
-      <c r="Z359" s="6"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6"/>
@@ -10383,8 +9696,6 @@
       <c r="V360" s="6"/>
       <c r="W360" s="6"/>
       <c r="X360" s="6"/>
-      <c r="Y360" s="6"/>
-      <c r="Z360" s="6"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6"/>
@@ -10411,8 +9722,6 @@
       <c r="V361" s="6"/>
       <c r="W361" s="6"/>
       <c r="X361" s="6"/>
-      <c r="Y361" s="6"/>
-      <c r="Z361" s="6"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6"/>
@@ -10439,8 +9748,6 @@
       <c r="V362" s="6"/>
       <c r="W362" s="6"/>
       <c r="X362" s="6"/>
-      <c r="Y362" s="6"/>
-      <c r="Z362" s="6"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6"/>
@@ -10467,8 +9774,6 @@
       <c r="V363" s="6"/>
       <c r="W363" s="6"/>
       <c r="X363" s="6"/>
-      <c r="Y363" s="6"/>
-      <c r="Z363" s="6"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6"/>
@@ -10495,8 +9800,6 @@
       <c r="V364" s="6"/>
       <c r="W364" s="6"/>
       <c r="X364" s="6"/>
-      <c r="Y364" s="6"/>
-      <c r="Z364" s="6"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6"/>
@@ -10523,8 +9826,6 @@
       <c r="V365" s="6"/>
       <c r="W365" s="6"/>
       <c r="X365" s="6"/>
-      <c r="Y365" s="6"/>
-      <c r="Z365" s="6"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6"/>
@@ -10551,8 +9852,6 @@
       <c r="V366" s="6"/>
       <c r="W366" s="6"/>
       <c r="X366" s="6"/>
-      <c r="Y366" s="6"/>
-      <c r="Z366" s="6"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6"/>
@@ -10579,8 +9878,6 @@
       <c r="V367" s="6"/>
       <c r="W367" s="6"/>
       <c r="X367" s="6"/>
-      <c r="Y367" s="6"/>
-      <c r="Z367" s="6"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6"/>
@@ -10607,8 +9904,6 @@
       <c r="V368" s="6"/>
       <c r="W368" s="6"/>
       <c r="X368" s="6"/>
-      <c r="Y368" s="6"/>
-      <c r="Z368" s="6"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6"/>
@@ -10635,8 +9930,6 @@
       <c r="V369" s="6"/>
       <c r="W369" s="6"/>
       <c r="X369" s="6"/>
-      <c r="Y369" s="6"/>
-      <c r="Z369" s="6"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6"/>
@@ -10663,8 +9956,6 @@
       <c r="V370" s="6"/>
       <c r="W370" s="6"/>
       <c r="X370" s="6"/>
-      <c r="Y370" s="6"/>
-      <c r="Z370" s="6"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6"/>
@@ -10691,8 +9982,6 @@
       <c r="V371" s="6"/>
       <c r="W371" s="6"/>
       <c r="X371" s="6"/>
-      <c r="Y371" s="6"/>
-      <c r="Z371" s="6"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6"/>
@@ -10719,8 +10008,6 @@
       <c r="V372" s="6"/>
       <c r="W372" s="6"/>
       <c r="X372" s="6"/>
-      <c r="Y372" s="6"/>
-      <c r="Z372" s="6"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6"/>
@@ -10747,8 +10034,6 @@
       <c r="V373" s="6"/>
       <c r="W373" s="6"/>
       <c r="X373" s="6"/>
-      <c r="Y373" s="6"/>
-      <c r="Z373" s="6"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6"/>
@@ -10775,8 +10060,6 @@
       <c r="V374" s="6"/>
       <c r="W374" s="6"/>
       <c r="X374" s="6"/>
-      <c r="Y374" s="6"/>
-      <c r="Z374" s="6"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6"/>
@@ -10803,8 +10086,6 @@
       <c r="V375" s="6"/>
       <c r="W375" s="6"/>
       <c r="X375" s="6"/>
-      <c r="Y375" s="6"/>
-      <c r="Z375" s="6"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6"/>
@@ -10831,8 +10112,6 @@
       <c r="V376" s="6"/>
       <c r="W376" s="6"/>
       <c r="X376" s="6"/>
-      <c r="Y376" s="6"/>
-      <c r="Z376" s="6"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6"/>
@@ -10859,8 +10138,6 @@
       <c r="V377" s="6"/>
       <c r="W377" s="6"/>
       <c r="X377" s="6"/>
-      <c r="Y377" s="6"/>
-      <c r="Z377" s="6"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6"/>
@@ -10887,8 +10164,6 @@
       <c r="V378" s="6"/>
       <c r="W378" s="6"/>
       <c r="X378" s="6"/>
-      <c r="Y378" s="6"/>
-      <c r="Z378" s="6"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6"/>
@@ -10915,8 +10190,6 @@
       <c r="V379" s="6"/>
       <c r="W379" s="6"/>
       <c r="X379" s="6"/>
-      <c r="Y379" s="6"/>
-      <c r="Z379" s="6"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6"/>
@@ -10943,8 +10216,6 @@
       <c r="V380" s="6"/>
       <c r="W380" s="6"/>
       <c r="X380" s="6"/>
-      <c r="Y380" s="6"/>
-      <c r="Z380" s="6"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6"/>
@@ -10971,8 +10242,6 @@
       <c r="V381" s="6"/>
       <c r="W381" s="6"/>
       <c r="X381" s="6"/>
-      <c r="Y381" s="6"/>
-      <c r="Z381" s="6"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6"/>
@@ -10999,8 +10268,6 @@
       <c r="V382" s="6"/>
       <c r="W382" s="6"/>
       <c r="X382" s="6"/>
-      <c r="Y382" s="6"/>
-      <c r="Z382" s="6"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6"/>
@@ -11027,8 +10294,6 @@
       <c r="V383" s="6"/>
       <c r="W383" s="6"/>
       <c r="X383" s="6"/>
-      <c r="Y383" s="6"/>
-      <c r="Z383" s="6"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6"/>
@@ -11055,8 +10320,6 @@
       <c r="V384" s="6"/>
       <c r="W384" s="6"/>
       <c r="X384" s="6"/>
-      <c r="Y384" s="6"/>
-      <c r="Z384" s="6"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6"/>
@@ -11083,8 +10346,6 @@
       <c r="V385" s="6"/>
       <c r="W385" s="6"/>
       <c r="X385" s="6"/>
-      <c r="Y385" s="6"/>
-      <c r="Z385" s="6"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6"/>
@@ -11111,8 +10372,6 @@
       <c r="V386" s="6"/>
       <c r="W386" s="6"/>
       <c r="X386" s="6"/>
-      <c r="Y386" s="6"/>
-      <c r="Z386" s="6"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6"/>
@@ -11139,8 +10398,6 @@
       <c r="V387" s="6"/>
       <c r="W387" s="6"/>
       <c r="X387" s="6"/>
-      <c r="Y387" s="6"/>
-      <c r="Z387" s="6"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6"/>
@@ -11167,8 +10424,6 @@
       <c r="V388" s="6"/>
       <c r="W388" s="6"/>
       <c r="X388" s="6"/>
-      <c r="Y388" s="6"/>
-      <c r="Z388" s="6"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6"/>
@@ -11195,8 +10450,6 @@
       <c r="V389" s="6"/>
       <c r="W389" s="6"/>
       <c r="X389" s="6"/>
-      <c r="Y389" s="6"/>
-      <c r="Z389" s="6"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6"/>
@@ -11223,8 +10476,6 @@
       <c r="V390" s="6"/>
       <c r="W390" s="6"/>
       <c r="X390" s="6"/>
-      <c r="Y390" s="6"/>
-      <c r="Z390" s="6"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6"/>
@@ -11251,8 +10502,6 @@
       <c r="V391" s="6"/>
       <c r="W391" s="6"/>
       <c r="X391" s="6"/>
-      <c r="Y391" s="6"/>
-      <c r="Z391" s="6"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6"/>
@@ -11279,8 +10528,6 @@
       <c r="V392" s="6"/>
       <c r="W392" s="6"/>
       <c r="X392" s="6"/>
-      <c r="Y392" s="6"/>
-      <c r="Z392" s="6"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6"/>
@@ -11307,8 +10554,6 @@
       <c r="V393" s="6"/>
       <c r="W393" s="6"/>
       <c r="X393" s="6"/>
-      <c r="Y393" s="6"/>
-      <c r="Z393" s="6"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6"/>
@@ -11335,8 +10580,6 @@
       <c r="V394" s="6"/>
       <c r="W394" s="6"/>
       <c r="X394" s="6"/>
-      <c r="Y394" s="6"/>
-      <c r="Z394" s="6"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6"/>
@@ -11363,8 +10606,6 @@
       <c r="V395" s="6"/>
       <c r="W395" s="6"/>
       <c r="X395" s="6"/>
-      <c r="Y395" s="6"/>
-      <c r="Z395" s="6"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6"/>
@@ -11391,8 +10632,6 @@
       <c r="V396" s="6"/>
       <c r="W396" s="6"/>
       <c r="X396" s="6"/>
-      <c r="Y396" s="6"/>
-      <c r="Z396" s="6"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6"/>
@@ -11419,8 +10658,6 @@
       <c r="V397" s="6"/>
       <c r="W397" s="6"/>
       <c r="X397" s="6"/>
-      <c r="Y397" s="6"/>
-      <c r="Z397" s="6"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6"/>
@@ -11447,8 +10684,6 @@
       <c r="V398" s="6"/>
       <c r="W398" s="6"/>
       <c r="X398" s="6"/>
-      <c r="Y398" s="6"/>
-      <c r="Z398" s="6"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6"/>
@@ -11475,8 +10710,6 @@
       <c r="V399" s="6"/>
       <c r="W399" s="6"/>
       <c r="X399" s="6"/>
-      <c r="Y399" s="6"/>
-      <c r="Z399" s="6"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="6"/>
@@ -11503,8 +10736,6 @@
       <c r="V400" s="6"/>
       <c r="W400" s="6"/>
       <c r="X400" s="6"/>
-      <c r="Y400" s="6"/>
-      <c r="Z400" s="6"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="6"/>
@@ -11531,8 +10762,6 @@
       <c r="V401" s="6"/>
       <c r="W401" s="6"/>
       <c r="X401" s="6"/>
-      <c r="Y401" s="6"/>
-      <c r="Z401" s="6"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6"/>
@@ -11559,8 +10788,6 @@
       <c r="V402" s="6"/>
       <c r="W402" s="6"/>
       <c r="X402" s="6"/>
-      <c r="Y402" s="6"/>
-      <c r="Z402" s="6"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6"/>
@@ -11587,8 +10814,6 @@
       <c r="V403" s="6"/>
       <c r="W403" s="6"/>
       <c r="X403" s="6"/>
-      <c r="Y403" s="6"/>
-      <c r="Z403" s="6"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6"/>
@@ -11615,8 +10840,6 @@
       <c r="V404" s="6"/>
       <c r="W404" s="6"/>
       <c r="X404" s="6"/>
-      <c r="Y404" s="6"/>
-      <c r="Z404" s="6"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6"/>
@@ -11643,8 +10866,6 @@
       <c r="V405" s="6"/>
       <c r="W405" s="6"/>
       <c r="X405" s="6"/>
-      <c r="Y405" s="6"/>
-      <c r="Z405" s="6"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6"/>
@@ -11671,8 +10892,6 @@
       <c r="V406" s="6"/>
       <c r="W406" s="6"/>
       <c r="X406" s="6"/>
-      <c r="Y406" s="6"/>
-      <c r="Z406" s="6"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6"/>
@@ -11699,8 +10918,6 @@
       <c r="V407" s="6"/>
       <c r="W407" s="6"/>
       <c r="X407" s="6"/>
-      <c r="Y407" s="6"/>
-      <c r="Z407" s="6"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="6"/>
@@ -11727,8 +10944,6 @@
       <c r="V408" s="6"/>
       <c r="W408" s="6"/>
       <c r="X408" s="6"/>
-      <c r="Y408" s="6"/>
-      <c r="Z408" s="6"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="6"/>
@@ -11755,8 +10970,6 @@
       <c r="V409" s="6"/>
       <c r="W409" s="6"/>
       <c r="X409" s="6"/>
-      <c r="Y409" s="6"/>
-      <c r="Z409" s="6"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6"/>
@@ -11783,8 +10996,6 @@
       <c r="V410" s="6"/>
       <c r="W410" s="6"/>
       <c r="X410" s="6"/>
-      <c r="Y410" s="6"/>
-      <c r="Z410" s="6"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6"/>
@@ -11811,8 +11022,6 @@
       <c r="V411" s="6"/>
       <c r="W411" s="6"/>
       <c r="X411" s="6"/>
-      <c r="Y411" s="6"/>
-      <c r="Z411" s="6"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6"/>
@@ -11839,8 +11048,6 @@
       <c r="V412" s="6"/>
       <c r="W412" s="6"/>
       <c r="X412" s="6"/>
-      <c r="Y412" s="6"/>
-      <c r="Z412" s="6"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6"/>
@@ -11867,8 +11074,6 @@
       <c r="V413" s="6"/>
       <c r="W413" s="6"/>
       <c r="X413" s="6"/>
-      <c r="Y413" s="6"/>
-      <c r="Z413" s="6"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6"/>
@@ -11895,8 +11100,6 @@
       <c r="V414" s="6"/>
       <c r="W414" s="6"/>
       <c r="X414" s="6"/>
-      <c r="Y414" s="6"/>
-      <c r="Z414" s="6"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6"/>
@@ -11923,8 +11126,6 @@
       <c r="V415" s="6"/>
       <c r="W415" s="6"/>
       <c r="X415" s="6"/>
-      <c r="Y415" s="6"/>
-      <c r="Z415" s="6"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6"/>
@@ -11951,8 +11152,6 @@
       <c r="V416" s="6"/>
       <c r="W416" s="6"/>
       <c r="X416" s="6"/>
-      <c r="Y416" s="6"/>
-      <c r="Z416" s="6"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6"/>
@@ -11979,8 +11178,6 @@
       <c r="V417" s="6"/>
       <c r="W417" s="6"/>
       <c r="X417" s="6"/>
-      <c r="Y417" s="6"/>
-      <c r="Z417" s="6"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6"/>
@@ -12007,8 +11204,6 @@
       <c r="V418" s="6"/>
       <c r="W418" s="6"/>
       <c r="X418" s="6"/>
-      <c r="Y418" s="6"/>
-      <c r="Z418" s="6"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6"/>
@@ -12035,8 +11230,6 @@
       <c r="V419" s="6"/>
       <c r="W419" s="6"/>
       <c r="X419" s="6"/>
-      <c r="Y419" s="6"/>
-      <c r="Z419" s="6"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6"/>
@@ -12063,8 +11256,6 @@
       <c r="V420" s="6"/>
       <c r="W420" s="6"/>
       <c r="X420" s="6"/>
-      <c r="Y420" s="6"/>
-      <c r="Z420" s="6"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6"/>
@@ -12091,8 +11282,6 @@
       <c r="V421" s="6"/>
       <c r="W421" s="6"/>
       <c r="X421" s="6"/>
-      <c r="Y421" s="6"/>
-      <c r="Z421" s="6"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6"/>
@@ -12119,8 +11308,6 @@
       <c r="V422" s="6"/>
       <c r="W422" s="6"/>
       <c r="X422" s="6"/>
-      <c r="Y422" s="6"/>
-      <c r="Z422" s="6"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6"/>
@@ -12147,8 +11334,6 @@
       <c r="V423" s="6"/>
       <c r="W423" s="6"/>
       <c r="X423" s="6"/>
-      <c r="Y423" s="6"/>
-      <c r="Z423" s="6"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6"/>
@@ -12175,8 +11360,6 @@
       <c r="V424" s="6"/>
       <c r="W424" s="6"/>
       <c r="X424" s="6"/>
-      <c r="Y424" s="6"/>
-      <c r="Z424" s="6"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6"/>
@@ -12203,8 +11386,6 @@
       <c r="V425" s="6"/>
       <c r="W425" s="6"/>
       <c r="X425" s="6"/>
-      <c r="Y425" s="6"/>
-      <c r="Z425" s="6"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6"/>
@@ -12231,8 +11412,6 @@
       <c r="V426" s="6"/>
       <c r="W426" s="6"/>
       <c r="X426" s="6"/>
-      <c r="Y426" s="6"/>
-      <c r="Z426" s="6"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6"/>
@@ -12259,8 +11438,6 @@
       <c r="V427" s="6"/>
       <c r="W427" s="6"/>
       <c r="X427" s="6"/>
-      <c r="Y427" s="6"/>
-      <c r="Z427" s="6"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6"/>
@@ -12287,8 +11464,6 @@
       <c r="V428" s="6"/>
       <c r="W428" s="6"/>
       <c r="X428" s="6"/>
-      <c r="Y428" s="6"/>
-      <c r="Z428" s="6"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6"/>
@@ -12315,8 +11490,6 @@
       <c r="V429" s="6"/>
       <c r="W429" s="6"/>
       <c r="X429" s="6"/>
-      <c r="Y429" s="6"/>
-      <c r="Z429" s="6"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6"/>
@@ -12343,8 +11516,6 @@
       <c r="V430" s="6"/>
       <c r="W430" s="6"/>
       <c r="X430" s="6"/>
-      <c r="Y430" s="6"/>
-      <c r="Z430" s="6"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6"/>
@@ -12371,8 +11542,6 @@
       <c r="V431" s="6"/>
       <c r="W431" s="6"/>
       <c r="X431" s="6"/>
-      <c r="Y431" s="6"/>
-      <c r="Z431" s="6"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6"/>
@@ -12399,8 +11568,6 @@
       <c r="V432" s="6"/>
       <c r="W432" s="6"/>
       <c r="X432" s="6"/>
-      <c r="Y432" s="6"/>
-      <c r="Z432" s="6"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6"/>
@@ -12427,8 +11594,6 @@
       <c r="V433" s="6"/>
       <c r="W433" s="6"/>
       <c r="X433" s="6"/>
-      <c r="Y433" s="6"/>
-      <c r="Z433" s="6"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6"/>
@@ -12455,8 +11620,6 @@
       <c r="V434" s="6"/>
       <c r="W434" s="6"/>
       <c r="X434" s="6"/>
-      <c r="Y434" s="6"/>
-      <c r="Z434" s="6"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6"/>
@@ -12483,8 +11646,6 @@
       <c r="V435" s="6"/>
       <c r="W435" s="6"/>
       <c r="X435" s="6"/>
-      <c r="Y435" s="6"/>
-      <c r="Z435" s="6"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6"/>
@@ -12511,8 +11672,6 @@
       <c r="V436" s="6"/>
       <c r="W436" s="6"/>
       <c r="X436" s="6"/>
-      <c r="Y436" s="6"/>
-      <c r="Z436" s="6"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6"/>
@@ -12539,8 +11698,6 @@
       <c r="V437" s="6"/>
       <c r="W437" s="6"/>
       <c r="X437" s="6"/>
-      <c r="Y437" s="6"/>
-      <c r="Z437" s="6"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6"/>
@@ -12567,8 +11724,6 @@
       <c r="V438" s="6"/>
       <c r="W438" s="6"/>
       <c r="X438" s="6"/>
-      <c r="Y438" s="6"/>
-      <c r="Z438" s="6"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6"/>
@@ -12595,8 +11750,6 @@
       <c r="V439" s="6"/>
       <c r="W439" s="6"/>
       <c r="X439" s="6"/>
-      <c r="Y439" s="6"/>
-      <c r="Z439" s="6"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6"/>
@@ -12623,8 +11776,6 @@
       <c r="V440" s="6"/>
       <c r="W440" s="6"/>
       <c r="X440" s="6"/>
-      <c r="Y440" s="6"/>
-      <c r="Z440" s="6"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6"/>
@@ -12651,8 +11802,6 @@
       <c r="V441" s="6"/>
       <c r="W441" s="6"/>
       <c r="X441" s="6"/>
-      <c r="Y441" s="6"/>
-      <c r="Z441" s="6"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6"/>
@@ -12679,8 +11828,6 @@
       <c r="V442" s="6"/>
       <c r="W442" s="6"/>
       <c r="X442" s="6"/>
-      <c r="Y442" s="6"/>
-      <c r="Z442" s="6"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6"/>
@@ -12707,8 +11854,6 @@
       <c r="V443" s="6"/>
       <c r="W443" s="6"/>
       <c r="X443" s="6"/>
-      <c r="Y443" s="6"/>
-      <c r="Z443" s="6"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6"/>
@@ -12735,8 +11880,6 @@
       <c r="V444" s="6"/>
       <c r="W444" s="6"/>
       <c r="X444" s="6"/>
-      <c r="Y444" s="6"/>
-      <c r="Z444" s="6"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6"/>
@@ -12763,8 +11906,6 @@
       <c r="V445" s="6"/>
       <c r="W445" s="6"/>
       <c r="X445" s="6"/>
-      <c r="Y445" s="6"/>
-      <c r="Z445" s="6"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6"/>
@@ -12791,8 +11932,6 @@
       <c r="V446" s="6"/>
       <c r="W446" s="6"/>
       <c r="X446" s="6"/>
-      <c r="Y446" s="6"/>
-      <c r="Z446" s="6"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6"/>
@@ -12819,8 +11958,6 @@
       <c r="V447" s="6"/>
       <c r="W447" s="6"/>
       <c r="X447" s="6"/>
-      <c r="Y447" s="6"/>
-      <c r="Z447" s="6"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6"/>
@@ -12847,8 +11984,6 @@
       <c r="V448" s="6"/>
       <c r="W448" s="6"/>
       <c r="X448" s="6"/>
-      <c r="Y448" s="6"/>
-      <c r="Z448" s="6"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6"/>
@@ -12875,8 +12010,6 @@
       <c r="V449" s="6"/>
       <c r="W449" s="6"/>
       <c r="X449" s="6"/>
-      <c r="Y449" s="6"/>
-      <c r="Z449" s="6"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6"/>
@@ -12903,8 +12036,6 @@
       <c r="V450" s="6"/>
       <c r="W450" s="6"/>
       <c r="X450" s="6"/>
-      <c r="Y450" s="6"/>
-      <c r="Z450" s="6"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6"/>
@@ -12931,8 +12062,6 @@
       <c r="V451" s="6"/>
       <c r="W451" s="6"/>
       <c r="X451" s="6"/>
-      <c r="Y451" s="6"/>
-      <c r="Z451" s="6"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6"/>
@@ -12959,8 +12088,6 @@
       <c r="V452" s="6"/>
       <c r="W452" s="6"/>
       <c r="X452" s="6"/>
-      <c r="Y452" s="6"/>
-      <c r="Z452" s="6"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6"/>
@@ -12987,8 +12114,6 @@
       <c r="V453" s="6"/>
       <c r="W453" s="6"/>
       <c r="X453" s="6"/>
-      <c r="Y453" s="6"/>
-      <c r="Z453" s="6"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6"/>
@@ -13015,8 +12140,6 @@
       <c r="V454" s="6"/>
       <c r="W454" s="6"/>
       <c r="X454" s="6"/>
-      <c r="Y454" s="6"/>
-      <c r="Z454" s="6"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6"/>
@@ -13043,8 +12166,6 @@
       <c r="V455" s="6"/>
       <c r="W455" s="6"/>
       <c r="X455" s="6"/>
-      <c r="Y455" s="6"/>
-      <c r="Z455" s="6"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6"/>
@@ -13071,8 +12192,6 @@
       <c r="V456" s="6"/>
       <c r="W456" s="6"/>
       <c r="X456" s="6"/>
-      <c r="Y456" s="6"/>
-      <c r="Z456" s="6"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6"/>
@@ -13099,8 +12218,6 @@
       <c r="V457" s="6"/>
       <c r="W457" s="6"/>
       <c r="X457" s="6"/>
-      <c r="Y457" s="6"/>
-      <c r="Z457" s="6"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6"/>
@@ -13127,8 +12244,6 @@
       <c r="V458" s="6"/>
       <c r="W458" s="6"/>
       <c r="X458" s="6"/>
-      <c r="Y458" s="6"/>
-      <c r="Z458" s="6"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6"/>
@@ -13155,8 +12270,6 @@
       <c r="V459" s="6"/>
       <c r="W459" s="6"/>
       <c r="X459" s="6"/>
-      <c r="Y459" s="6"/>
-      <c r="Z459" s="6"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6"/>
@@ -13183,8 +12296,6 @@
       <c r="V460" s="6"/>
       <c r="W460" s="6"/>
       <c r="X460" s="6"/>
-      <c r="Y460" s="6"/>
-      <c r="Z460" s="6"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6"/>
@@ -13211,8 +12322,6 @@
       <c r="V461" s="6"/>
       <c r="W461" s="6"/>
       <c r="X461" s="6"/>
-      <c r="Y461" s="6"/>
-      <c r="Z461" s="6"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6"/>
@@ -13239,8 +12348,6 @@
       <c r="V462" s="6"/>
       <c r="W462" s="6"/>
       <c r="X462" s="6"/>
-      <c r="Y462" s="6"/>
-      <c r="Z462" s="6"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6"/>
@@ -13267,8 +12374,6 @@
       <c r="V463" s="6"/>
       <c r="W463" s="6"/>
       <c r="X463" s="6"/>
-      <c r="Y463" s="6"/>
-      <c r="Z463" s="6"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6"/>
@@ -13295,8 +12400,6 @@
       <c r="V464" s="6"/>
       <c r="W464" s="6"/>
       <c r="X464" s="6"/>
-      <c r="Y464" s="6"/>
-      <c r="Z464" s="6"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6"/>
@@ -13323,8 +12426,6 @@
       <c r="V465" s="6"/>
       <c r="W465" s="6"/>
       <c r="X465" s="6"/>
-      <c r="Y465" s="6"/>
-      <c r="Z465" s="6"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6"/>
@@ -13351,8 +12452,6 @@
       <c r="V466" s="6"/>
       <c r="W466" s="6"/>
       <c r="X466" s="6"/>
-      <c r="Y466" s="6"/>
-      <c r="Z466" s="6"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6"/>
@@ -13379,8 +12478,6 @@
       <c r="V467" s="6"/>
       <c r="W467" s="6"/>
       <c r="X467" s="6"/>
-      <c r="Y467" s="6"/>
-      <c r="Z467" s="6"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6"/>
@@ -13407,8 +12504,6 @@
       <c r="V468" s="6"/>
       <c r="W468" s="6"/>
       <c r="X468" s="6"/>
-      <c r="Y468" s="6"/>
-      <c r="Z468" s="6"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6"/>
@@ -13435,8 +12530,6 @@
       <c r="V469" s="6"/>
       <c r="W469" s="6"/>
       <c r="X469" s="6"/>
-      <c r="Y469" s="6"/>
-      <c r="Z469" s="6"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="6"/>
@@ -13463,8 +12556,6 @@
       <c r="V470" s="6"/>
       <c r="W470" s="6"/>
       <c r="X470" s="6"/>
-      <c r="Y470" s="6"/>
-      <c r="Z470" s="6"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
@@ -13491,8 +12582,6 @@
       <c r="V471" s="6"/>
       <c r="W471" s="6"/>
       <c r="X471" s="6"/>
-      <c r="Y471" s="6"/>
-      <c r="Z471" s="6"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6"/>
@@ -13519,8 +12608,6 @@
       <c r="V472" s="6"/>
       <c r="W472" s="6"/>
       <c r="X472" s="6"/>
-      <c r="Y472" s="6"/>
-      <c r="Z472" s="6"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6"/>
@@ -13547,8 +12634,6 @@
       <c r="V473" s="6"/>
       <c r="W473" s="6"/>
       <c r="X473" s="6"/>
-      <c r="Y473" s="6"/>
-      <c r="Z473" s="6"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6"/>
@@ -13575,8 +12660,6 @@
       <c r="V474" s="6"/>
       <c r="W474" s="6"/>
       <c r="X474" s="6"/>
-      <c r="Y474" s="6"/>
-      <c r="Z474" s="6"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6"/>
@@ -13603,8 +12686,6 @@
       <c r="V475" s="6"/>
       <c r="W475" s="6"/>
       <c r="X475" s="6"/>
-      <c r="Y475" s="6"/>
-      <c r="Z475" s="6"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6"/>
@@ -13631,8 +12712,6 @@
       <c r="V476" s="6"/>
       <c r="W476" s="6"/>
       <c r="X476" s="6"/>
-      <c r="Y476" s="6"/>
-      <c r="Z476" s="6"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6"/>
@@ -13659,8 +12738,6 @@
       <c r="V477" s="6"/>
       <c r="W477" s="6"/>
       <c r="X477" s="6"/>
-      <c r="Y477" s="6"/>
-      <c r="Z477" s="6"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6"/>
@@ -13687,8 +12764,6 @@
       <c r="V478" s="6"/>
       <c r="W478" s="6"/>
       <c r="X478" s="6"/>
-      <c r="Y478" s="6"/>
-      <c r="Z478" s="6"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6"/>
@@ -13715,8 +12790,6 @@
       <c r="V479" s="6"/>
       <c r="W479" s="6"/>
       <c r="X479" s="6"/>
-      <c r="Y479" s="6"/>
-      <c r="Z479" s="6"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6"/>
@@ -13743,8 +12816,6 @@
       <c r="V480" s="6"/>
       <c r="W480" s="6"/>
       <c r="X480" s="6"/>
-      <c r="Y480" s="6"/>
-      <c r="Z480" s="6"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6"/>
@@ -13771,8 +12842,6 @@
       <c r="V481" s="6"/>
       <c r="W481" s="6"/>
       <c r="X481" s="6"/>
-      <c r="Y481" s="6"/>
-      <c r="Z481" s="6"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="6"/>
@@ -13799,8 +12868,6 @@
       <c r="V482" s="6"/>
       <c r="W482" s="6"/>
       <c r="X482" s="6"/>
-      <c r="Y482" s="6"/>
-      <c r="Z482" s="6"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="6"/>
@@ -13827,8 +12894,6 @@
       <c r="V483" s="6"/>
       <c r="W483" s="6"/>
       <c r="X483" s="6"/>
-      <c r="Y483" s="6"/>
-      <c r="Z483" s="6"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="6"/>
@@ -13855,8 +12920,6 @@
       <c r="V484" s="6"/>
       <c r="W484" s="6"/>
       <c r="X484" s="6"/>
-      <c r="Y484" s="6"/>
-      <c r="Z484" s="6"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="6"/>
@@ -13883,8 +12946,6 @@
       <c r="V485" s="6"/>
       <c r="W485" s="6"/>
       <c r="X485" s="6"/>
-      <c r="Y485" s="6"/>
-      <c r="Z485" s="6"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="6"/>
@@ -13911,8 +12972,6 @@
       <c r="V486" s="6"/>
       <c r="W486" s="6"/>
       <c r="X486" s="6"/>
-      <c r="Y486" s="6"/>
-      <c r="Z486" s="6"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="6"/>
@@ -13939,8 +12998,6 @@
       <c r="V487" s="6"/>
       <c r="W487" s="6"/>
       <c r="X487" s="6"/>
-      <c r="Y487" s="6"/>
-      <c r="Z487" s="6"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="6"/>
@@ -13967,8 +13024,6 @@
       <c r="V488" s="6"/>
       <c r="W488" s="6"/>
       <c r="X488" s="6"/>
-      <c r="Y488" s="6"/>
-      <c r="Z488" s="6"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="6"/>
@@ -13995,8 +13050,6 @@
       <c r="V489" s="6"/>
       <c r="W489" s="6"/>
       <c r="X489" s="6"/>
-      <c r="Y489" s="6"/>
-      <c r="Z489" s="6"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="6"/>
@@ -14023,8 +13076,6 @@
       <c r="V490" s="6"/>
       <c r="W490" s="6"/>
       <c r="X490" s="6"/>
-      <c r="Y490" s="6"/>
-      <c r="Z490" s="6"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="6"/>
@@ -14051,8 +13102,6 @@
       <c r="V491" s="6"/>
       <c r="W491" s="6"/>
       <c r="X491" s="6"/>
-      <c r="Y491" s="6"/>
-      <c r="Z491" s="6"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="6"/>
@@ -14079,8 +13128,6 @@
       <c r="V492" s="6"/>
       <c r="W492" s="6"/>
       <c r="X492" s="6"/>
-      <c r="Y492" s="6"/>
-      <c r="Z492" s="6"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="6"/>
@@ -14107,8 +13154,6 @@
       <c r="V493" s="6"/>
       <c r="W493" s="6"/>
       <c r="X493" s="6"/>
-      <c r="Y493" s="6"/>
-      <c r="Z493" s="6"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="6"/>
@@ -14135,8 +13180,6 @@
       <c r="V494" s="6"/>
       <c r="W494" s="6"/>
       <c r="X494" s="6"/>
-      <c r="Y494" s="6"/>
-      <c r="Z494" s="6"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="6"/>
@@ -14163,8 +13206,6 @@
       <c r="V495" s="6"/>
       <c r="W495" s="6"/>
       <c r="X495" s="6"/>
-      <c r="Y495" s="6"/>
-      <c r="Z495" s="6"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="6"/>
@@ -14191,8 +13232,6 @@
       <c r="V496" s="6"/>
       <c r="W496" s="6"/>
       <c r="X496" s="6"/>
-      <c r="Y496" s="6"/>
-      <c r="Z496" s="6"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="6"/>
@@ -14219,8 +13258,6 @@
       <c r="V497" s="6"/>
       <c r="W497" s="6"/>
       <c r="X497" s="6"/>
-      <c r="Y497" s="6"/>
-      <c r="Z497" s="6"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="6"/>
@@ -14247,8 +13284,6 @@
       <c r="V498" s="6"/>
       <c r="W498" s="6"/>
       <c r="X498" s="6"/>
-      <c r="Y498" s="6"/>
-      <c r="Z498" s="6"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="6"/>
@@ -14275,8 +13310,6 @@
       <c r="V499" s="6"/>
       <c r="W499" s="6"/>
       <c r="X499" s="6"/>
-      <c r="Y499" s="6"/>
-      <c r="Z499" s="6"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="6"/>
@@ -14303,8 +13336,6 @@
       <c r="V500" s="6"/>
       <c r="W500" s="6"/>
       <c r="X500" s="6"/>
-      <c r="Y500" s="6"/>
-      <c r="Z500" s="6"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="6"/>
@@ -14331,8 +13362,6 @@
       <c r="V501" s="6"/>
       <c r="W501" s="6"/>
       <c r="X501" s="6"/>
-      <c r="Y501" s="6"/>
-      <c r="Z501" s="6"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="6"/>
@@ -14359,8 +13388,6 @@
       <c r="V502" s="6"/>
       <c r="W502" s="6"/>
       <c r="X502" s="6"/>
-      <c r="Y502" s="6"/>
-      <c r="Z502" s="6"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="6"/>
@@ -14387,8 +13414,6 @@
       <c r="V503" s="6"/>
       <c r="W503" s="6"/>
       <c r="X503" s="6"/>
-      <c r="Y503" s="6"/>
-      <c r="Z503" s="6"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="6"/>
@@ -14415,8 +13440,6 @@
       <c r="V504" s="6"/>
       <c r="W504" s="6"/>
       <c r="X504" s="6"/>
-      <c r="Y504" s="6"/>
-      <c r="Z504" s="6"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="6"/>
@@ -14443,8 +13466,6 @@
       <c r="V505" s="6"/>
       <c r="W505" s="6"/>
       <c r="X505" s="6"/>
-      <c r="Y505" s="6"/>
-      <c r="Z505" s="6"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="6"/>
@@ -14471,8 +13492,6 @@
       <c r="V506" s="6"/>
       <c r="W506" s="6"/>
       <c r="X506" s="6"/>
-      <c r="Y506" s="6"/>
-      <c r="Z506" s="6"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="6"/>
@@ -14499,8 +13518,6 @@
       <c r="V507" s="6"/>
       <c r="W507" s="6"/>
       <c r="X507" s="6"/>
-      <c r="Y507" s="6"/>
-      <c r="Z507" s="6"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="6"/>
@@ -14527,8 +13544,6 @@
       <c r="V508" s="6"/>
       <c r="W508" s="6"/>
       <c r="X508" s="6"/>
-      <c r="Y508" s="6"/>
-      <c r="Z508" s="6"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="6"/>
@@ -14555,8 +13570,6 @@
       <c r="V509" s="6"/>
       <c r="W509" s="6"/>
       <c r="X509" s="6"/>
-      <c r="Y509" s="6"/>
-      <c r="Z509" s="6"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="6"/>
@@ -14583,8 +13596,6 @@
       <c r="V510" s="6"/>
       <c r="W510" s="6"/>
       <c r="X510" s="6"/>
-      <c r="Y510" s="6"/>
-      <c r="Z510" s="6"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="6"/>
@@ -14611,8 +13622,6 @@
       <c r="V511" s="6"/>
       <c r="W511" s="6"/>
       <c r="X511" s="6"/>
-      <c r="Y511" s="6"/>
-      <c r="Z511" s="6"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="6"/>
@@ -14639,8 +13648,6 @@
       <c r="V512" s="6"/>
       <c r="W512" s="6"/>
       <c r="X512" s="6"/>
-      <c r="Y512" s="6"/>
-      <c r="Z512" s="6"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="6"/>
@@ -14667,8 +13674,6 @@
       <c r="V513" s="6"/>
       <c r="W513" s="6"/>
       <c r="X513" s="6"/>
-      <c r="Y513" s="6"/>
-      <c r="Z513" s="6"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="6"/>
@@ -14695,8 +13700,6 @@
       <c r="V514" s="6"/>
       <c r="W514" s="6"/>
       <c r="X514" s="6"/>
-      <c r="Y514" s="6"/>
-      <c r="Z514" s="6"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="6"/>
@@ -14723,8 +13726,6 @@
       <c r="V515" s="6"/>
       <c r="W515" s="6"/>
       <c r="X515" s="6"/>
-      <c r="Y515" s="6"/>
-      <c r="Z515" s="6"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="6"/>
@@ -14751,8 +13752,6 @@
       <c r="V516" s="6"/>
       <c r="W516" s="6"/>
       <c r="X516" s="6"/>
-      <c r="Y516" s="6"/>
-      <c r="Z516" s="6"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="6"/>
@@ -14779,8 +13778,6 @@
       <c r="V517" s="6"/>
       <c r="W517" s="6"/>
       <c r="X517" s="6"/>
-      <c r="Y517" s="6"/>
-      <c r="Z517" s="6"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="6"/>
@@ -14807,8 +13804,6 @@
       <c r="V518" s="6"/>
       <c r="W518" s="6"/>
       <c r="X518" s="6"/>
-      <c r="Y518" s="6"/>
-      <c r="Z518" s="6"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="6"/>
@@ -14835,8 +13830,6 @@
       <c r="V519" s="6"/>
       <c r="W519" s="6"/>
       <c r="X519" s="6"/>
-      <c r="Y519" s="6"/>
-      <c r="Z519" s="6"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="6"/>
@@ -14863,8 +13856,6 @@
       <c r="V520" s="6"/>
       <c r="W520" s="6"/>
       <c r="X520" s="6"/>
-      <c r="Y520" s="6"/>
-      <c r="Z520" s="6"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="6"/>
@@ -14891,8 +13882,6 @@
       <c r="V521" s="6"/>
       <c r="W521" s="6"/>
       <c r="X521" s="6"/>
-      <c r="Y521" s="6"/>
-      <c r="Z521" s="6"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="6"/>
@@ -14919,8 +13908,6 @@
       <c r="V522" s="6"/>
       <c r="W522" s="6"/>
       <c r="X522" s="6"/>
-      <c r="Y522" s="6"/>
-      <c r="Z522" s="6"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="6"/>
@@ -14947,8 +13934,6 @@
       <c r="V523" s="6"/>
       <c r="W523" s="6"/>
       <c r="X523" s="6"/>
-      <c r="Y523" s="6"/>
-      <c r="Z523" s="6"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="6"/>
@@ -14975,8 +13960,6 @@
       <c r="V524" s="6"/>
       <c r="W524" s="6"/>
       <c r="X524" s="6"/>
-      <c r="Y524" s="6"/>
-      <c r="Z524" s="6"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="6"/>
@@ -15003,8 +13986,6 @@
       <c r="V525" s="6"/>
       <c r="W525" s="6"/>
       <c r="X525" s="6"/>
-      <c r="Y525" s="6"/>
-      <c r="Z525" s="6"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="6"/>
@@ -15031,8 +14012,6 @@
       <c r="V526" s="6"/>
       <c r="W526" s="6"/>
       <c r="X526" s="6"/>
-      <c r="Y526" s="6"/>
-      <c r="Z526" s="6"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="6"/>
@@ -15059,8 +14038,6 @@
       <c r="V527" s="6"/>
       <c r="W527" s="6"/>
       <c r="X527" s="6"/>
-      <c r="Y527" s="6"/>
-      <c r="Z527" s="6"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="6"/>
@@ -15087,8 +14064,6 @@
       <c r="V528" s="6"/>
       <c r="W528" s="6"/>
       <c r="X528" s="6"/>
-      <c r="Y528" s="6"/>
-      <c r="Z528" s="6"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="6"/>
@@ -15115,8 +14090,6 @@
       <c r="V529" s="6"/>
       <c r="W529" s="6"/>
       <c r="X529" s="6"/>
-      <c r="Y529" s="6"/>
-      <c r="Z529" s="6"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="6"/>
@@ -15143,8 +14116,6 @@
       <c r="V530" s="6"/>
       <c r="W530" s="6"/>
       <c r="X530" s="6"/>
-      <c r="Y530" s="6"/>
-      <c r="Z530" s="6"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="6"/>
@@ -15171,8 +14142,6 @@
       <c r="V531" s="6"/>
       <c r="W531" s="6"/>
       <c r="X531" s="6"/>
-      <c r="Y531" s="6"/>
-      <c r="Z531" s="6"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="6"/>
@@ -15199,8 +14168,6 @@
       <c r="V532" s="6"/>
       <c r="W532" s="6"/>
       <c r="X532" s="6"/>
-      <c r="Y532" s="6"/>
-      <c r="Z532" s="6"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="6"/>
@@ -15227,8 +14194,6 @@
       <c r="V533" s="6"/>
       <c r="W533" s="6"/>
       <c r="X533" s="6"/>
-      <c r="Y533" s="6"/>
-      <c r="Z533" s="6"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="6"/>
@@ -15255,8 +14220,6 @@
       <c r="V534" s="6"/>
       <c r="W534" s="6"/>
       <c r="X534" s="6"/>
-      <c r="Y534" s="6"/>
-      <c r="Z534" s="6"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="6"/>
@@ -15283,8 +14246,6 @@
       <c r="V535" s="6"/>
       <c r="W535" s="6"/>
       <c r="X535" s="6"/>
-      <c r="Y535" s="6"/>
-      <c r="Z535" s="6"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="6"/>
@@ -15311,8 +14272,6 @@
       <c r="V536" s="6"/>
       <c r="W536" s="6"/>
       <c r="X536" s="6"/>
-      <c r="Y536" s="6"/>
-      <c r="Z536" s="6"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="6"/>
@@ -15339,8 +14298,6 @@
       <c r="V537" s="6"/>
       <c r="W537" s="6"/>
       <c r="X537" s="6"/>
-      <c r="Y537" s="6"/>
-      <c r="Z537" s="6"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="6"/>
@@ -15367,8 +14324,6 @@
       <c r="V538" s="6"/>
       <c r="W538" s="6"/>
       <c r="X538" s="6"/>
-      <c r="Y538" s="6"/>
-      <c r="Z538" s="6"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="6"/>
@@ -15395,8 +14350,6 @@
       <c r="V539" s="6"/>
       <c r="W539" s="6"/>
       <c r="X539" s="6"/>
-      <c r="Y539" s="6"/>
-      <c r="Z539" s="6"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="6"/>
@@ -15423,8 +14376,6 @@
       <c r="V540" s="6"/>
       <c r="W540" s="6"/>
       <c r="X540" s="6"/>
-      <c r="Y540" s="6"/>
-      <c r="Z540" s="6"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="6"/>
@@ -15451,8 +14402,6 @@
       <c r="V541" s="6"/>
       <c r="W541" s="6"/>
       <c r="X541" s="6"/>
-      <c r="Y541" s="6"/>
-      <c r="Z541" s="6"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="6"/>
@@ -15479,8 +14428,6 @@
       <c r="V542" s="6"/>
       <c r="W542" s="6"/>
       <c r="X542" s="6"/>
-      <c r="Y542" s="6"/>
-      <c r="Z542" s="6"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="6"/>
@@ -15507,8 +14454,6 @@
       <c r="V543" s="6"/>
       <c r="W543" s="6"/>
       <c r="X543" s="6"/>
-      <c r="Y543" s="6"/>
-      <c r="Z543" s="6"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="6"/>
@@ -15535,8 +14480,6 @@
       <c r="V544" s="6"/>
       <c r="W544" s="6"/>
       <c r="X544" s="6"/>
-      <c r="Y544" s="6"/>
-      <c r="Z544" s="6"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="6"/>
@@ -15563,8 +14506,6 @@
       <c r="V545" s="6"/>
       <c r="W545" s="6"/>
       <c r="X545" s="6"/>
-      <c r="Y545" s="6"/>
-      <c r="Z545" s="6"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="6"/>
@@ -15591,8 +14532,6 @@
       <c r="V546" s="6"/>
       <c r="W546" s="6"/>
       <c r="X546" s="6"/>
-      <c r="Y546" s="6"/>
-      <c r="Z546" s="6"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="6"/>
@@ -15619,8 +14558,6 @@
       <c r="V547" s="6"/>
       <c r="W547" s="6"/>
       <c r="X547" s="6"/>
-      <c r="Y547" s="6"/>
-      <c r="Z547" s="6"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="6"/>
@@ -15647,8 +14584,6 @@
       <c r="V548" s="6"/>
       <c r="W548" s="6"/>
       <c r="X548" s="6"/>
-      <c r="Y548" s="6"/>
-      <c r="Z548" s="6"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="6"/>
@@ -15675,8 +14610,6 @@
       <c r="V549" s="6"/>
       <c r="W549" s="6"/>
       <c r="X549" s="6"/>
-      <c r="Y549" s="6"/>
-      <c r="Z549" s="6"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="6"/>
@@ -15703,8 +14636,6 @@
       <c r="V550" s="6"/>
       <c r="W550" s="6"/>
       <c r="X550" s="6"/>
-      <c r="Y550" s="6"/>
-      <c r="Z550" s="6"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="6"/>
@@ -15731,8 +14662,6 @@
       <c r="V551" s="6"/>
       <c r="W551" s="6"/>
       <c r="X551" s="6"/>
-      <c r="Y551" s="6"/>
-      <c r="Z551" s="6"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="6"/>
@@ -15759,8 +14688,6 @@
       <c r="V552" s="6"/>
       <c r="W552" s="6"/>
       <c r="X552" s="6"/>
-      <c r="Y552" s="6"/>
-      <c r="Z552" s="6"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="6"/>
@@ -15787,8 +14714,6 @@
       <c r="V553" s="6"/>
       <c r="W553" s="6"/>
       <c r="X553" s="6"/>
-      <c r="Y553" s="6"/>
-      <c r="Z553" s="6"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="6"/>
@@ -15815,8 +14740,6 @@
       <c r="V554" s="6"/>
       <c r="W554" s="6"/>
       <c r="X554" s="6"/>
-      <c r="Y554" s="6"/>
-      <c r="Z554" s="6"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="6"/>
@@ -15843,8 +14766,6 @@
       <c r="V555" s="6"/>
       <c r="W555" s="6"/>
       <c r="X555" s="6"/>
-      <c r="Y555" s="6"/>
-      <c r="Z555" s="6"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="6"/>
@@ -15871,8 +14792,6 @@
       <c r="V556" s="6"/>
       <c r="W556" s="6"/>
       <c r="X556" s="6"/>
-      <c r="Y556" s="6"/>
-      <c r="Z556" s="6"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="6"/>
@@ -15899,8 +14818,6 @@
       <c r="V557" s="6"/>
       <c r="W557" s="6"/>
       <c r="X557" s="6"/>
-      <c r="Y557" s="6"/>
-      <c r="Z557" s="6"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="6"/>
@@ -15927,8 +14844,6 @@
       <c r="V558" s="6"/>
       <c r="W558" s="6"/>
       <c r="X558" s="6"/>
-      <c r="Y558" s="6"/>
-      <c r="Z558" s="6"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="6"/>
@@ -15955,8 +14870,6 @@
       <c r="V559" s="6"/>
       <c r="W559" s="6"/>
       <c r="X559" s="6"/>
-      <c r="Y559" s="6"/>
-      <c r="Z559" s="6"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="6"/>
@@ -15983,8 +14896,6 @@
       <c r="V560" s="6"/>
       <c r="W560" s="6"/>
       <c r="X560" s="6"/>
-      <c r="Y560" s="6"/>
-      <c r="Z560" s="6"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="6"/>
@@ -16011,8 +14922,6 @@
       <c r="V561" s="6"/>
       <c r="W561" s="6"/>
       <c r="X561" s="6"/>
-      <c r="Y561" s="6"/>
-      <c r="Z561" s="6"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="6"/>
@@ -16039,8 +14948,6 @@
       <c r="V562" s="6"/>
       <c r="W562" s="6"/>
       <c r="X562" s="6"/>
-      <c r="Y562" s="6"/>
-      <c r="Z562" s="6"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="6"/>
@@ -16067,8 +14974,6 @@
       <c r="V563" s="6"/>
       <c r="W563" s="6"/>
       <c r="X563" s="6"/>
-      <c r="Y563" s="6"/>
-      <c r="Z563" s="6"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="6"/>
@@ -16095,8 +15000,6 @@
       <c r="V564" s="6"/>
       <c r="W564" s="6"/>
       <c r="X564" s="6"/>
-      <c r="Y564" s="6"/>
-      <c r="Z564" s="6"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="6"/>
@@ -16123,8 +15026,6 @@
       <c r="V565" s="6"/>
       <c r="W565" s="6"/>
       <c r="X565" s="6"/>
-      <c r="Y565" s="6"/>
-      <c r="Z565" s="6"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="6"/>
@@ -16151,8 +15052,6 @@
       <c r="V566" s="6"/>
       <c r="W566" s="6"/>
       <c r="X566" s="6"/>
-      <c r="Y566" s="6"/>
-      <c r="Z566" s="6"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="6"/>
@@ -16179,8 +15078,6 @@
       <c r="V567" s="6"/>
       <c r="W567" s="6"/>
       <c r="X567" s="6"/>
-      <c r="Y567" s="6"/>
-      <c r="Z567" s="6"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="6"/>
@@ -16207,8 +15104,6 @@
       <c r="V568" s="6"/>
       <c r="W568" s="6"/>
       <c r="X568" s="6"/>
-      <c r="Y568" s="6"/>
-      <c r="Z568" s="6"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="6"/>
@@ -16235,8 +15130,6 @@
       <c r="V569" s="6"/>
       <c r="W569" s="6"/>
       <c r="X569" s="6"/>
-      <c r="Y569" s="6"/>
-      <c r="Z569" s="6"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="6"/>
@@ -16263,8 +15156,6 @@
       <c r="V570" s="6"/>
       <c r="W570" s="6"/>
       <c r="X570" s="6"/>
-      <c r="Y570" s="6"/>
-      <c r="Z570" s="6"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="6"/>
@@ -16291,8 +15182,6 @@
       <c r="V571" s="6"/>
       <c r="W571" s="6"/>
       <c r="X571" s="6"/>
-      <c r="Y571" s="6"/>
-      <c r="Z571" s="6"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="6"/>
@@ -16319,8 +15208,6 @@
       <c r="V572" s="6"/>
       <c r="W572" s="6"/>
       <c r="X572" s="6"/>
-      <c r="Y572" s="6"/>
-      <c r="Z572" s="6"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="6"/>
@@ -16347,8 +15234,6 @@
       <c r="V573" s="6"/>
       <c r="W573" s="6"/>
       <c r="X573" s="6"/>
-      <c r="Y573" s="6"/>
-      <c r="Z573" s="6"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="6"/>
@@ -16375,8 +15260,6 @@
       <c r="V574" s="6"/>
       <c r="W574" s="6"/>
       <c r="X574" s="6"/>
-      <c r="Y574" s="6"/>
-      <c r="Z574" s="6"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="6"/>
@@ -16403,8 +15286,6 @@
       <c r="V575" s="6"/>
       <c r="W575" s="6"/>
       <c r="X575" s="6"/>
-      <c r="Y575" s="6"/>
-      <c r="Z575" s="6"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="6"/>
@@ -16431,8 +15312,6 @@
       <c r="V576" s="6"/>
       <c r="W576" s="6"/>
       <c r="X576" s="6"/>
-      <c r="Y576" s="6"/>
-      <c r="Z576" s="6"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="6"/>
@@ -16459,8 +15338,6 @@
       <c r="V577" s="6"/>
       <c r="W577" s="6"/>
       <c r="X577" s="6"/>
-      <c r="Y577" s="6"/>
-      <c r="Z577" s="6"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="6"/>
@@ -16487,8 +15364,6 @@
       <c r="V578" s="6"/>
       <c r="W578" s="6"/>
       <c r="X578" s="6"/>
-      <c r="Y578" s="6"/>
-      <c r="Z578" s="6"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="6"/>
@@ -16515,8 +15390,6 @@
       <c r="V579" s="6"/>
       <c r="W579" s="6"/>
       <c r="X579" s="6"/>
-      <c r="Y579" s="6"/>
-      <c r="Z579" s="6"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="6"/>
@@ -16543,8 +15416,6 @@
       <c r="V580" s="6"/>
       <c r="W580" s="6"/>
       <c r="X580" s="6"/>
-      <c r="Y580" s="6"/>
-      <c r="Z580" s="6"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="6"/>
@@ -16571,8 +15442,6 @@
       <c r="V581" s="6"/>
       <c r="W581" s="6"/>
       <c r="X581" s="6"/>
-      <c r="Y581" s="6"/>
-      <c r="Z581" s="6"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="6"/>
@@ -16599,8 +15468,6 @@
       <c r="V582" s="6"/>
       <c r="W582" s="6"/>
       <c r="X582" s="6"/>
-      <c r="Y582" s="6"/>
-      <c r="Z582" s="6"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="6"/>
@@ -16627,8 +15494,6 @@
       <c r="V583" s="6"/>
       <c r="W583" s="6"/>
       <c r="X583" s="6"/>
-      <c r="Y583" s="6"/>
-      <c r="Z583" s="6"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="6"/>
@@ -16655,8 +15520,6 @@
       <c r="V584" s="6"/>
       <c r="W584" s="6"/>
       <c r="X584" s="6"/>
-      <c r="Y584" s="6"/>
-      <c r="Z584" s="6"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="6"/>
@@ -16683,8 +15546,6 @@
       <c r="V585" s="6"/>
       <c r="W585" s="6"/>
       <c r="X585" s="6"/>
-      <c r="Y585" s="6"/>
-      <c r="Z585" s="6"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="6"/>
@@ -16711,8 +15572,6 @@
       <c r="V586" s="6"/>
       <c r="W586" s="6"/>
       <c r="X586" s="6"/>
-      <c r="Y586" s="6"/>
-      <c r="Z586" s="6"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="6"/>
@@ -16739,8 +15598,6 @@
       <c r="V587" s="6"/>
       <c r="W587" s="6"/>
       <c r="X587" s="6"/>
-      <c r="Y587" s="6"/>
-      <c r="Z587" s="6"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="6"/>
@@ -16767,8 +15624,6 @@
       <c r="V588" s="6"/>
       <c r="W588" s="6"/>
       <c r="X588" s="6"/>
-      <c r="Y588" s="6"/>
-      <c r="Z588" s="6"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="6"/>
@@ -16795,8 +15650,6 @@
       <c r="V589" s="6"/>
       <c r="W589" s="6"/>
       <c r="X589" s="6"/>
-      <c r="Y589" s="6"/>
-      <c r="Z589" s="6"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="6"/>
@@ -16823,8 +15676,6 @@
       <c r="V590" s="6"/>
       <c r="W590" s="6"/>
       <c r="X590" s="6"/>
-      <c r="Y590" s="6"/>
-      <c r="Z590" s="6"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="6"/>
@@ -16851,8 +15702,6 @@
       <c r="V591" s="6"/>
       <c r="W591" s="6"/>
       <c r="X591" s="6"/>
-      <c r="Y591" s="6"/>
-      <c r="Z591" s="6"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="6"/>
@@ -16879,8 +15728,6 @@
       <c r="V592" s="6"/>
       <c r="W592" s="6"/>
       <c r="X592" s="6"/>
-      <c r="Y592" s="6"/>
-      <c r="Z592" s="6"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="6"/>
@@ -16907,8 +15754,6 @@
       <c r="V593" s="6"/>
       <c r="W593" s="6"/>
       <c r="X593" s="6"/>
-      <c r="Y593" s="6"/>
-      <c r="Z593" s="6"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="6"/>
@@ -16935,8 +15780,6 @@
       <c r="V594" s="6"/>
       <c r="W594" s="6"/>
       <c r="X594" s="6"/>
-      <c r="Y594" s="6"/>
-      <c r="Z594" s="6"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="6"/>
@@ -16963,8 +15806,6 @@
       <c r="V595" s="6"/>
       <c r="W595" s="6"/>
       <c r="X595" s="6"/>
-      <c r="Y595" s="6"/>
-      <c r="Z595" s="6"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="6"/>
@@ -16991,8 +15832,6 @@
       <c r="V596" s="6"/>
       <c r="W596" s="6"/>
       <c r="X596" s="6"/>
-      <c r="Y596" s="6"/>
-      <c r="Z596" s="6"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="6"/>
@@ -17019,8 +15858,6 @@
       <c r="V597" s="6"/>
       <c r="W597" s="6"/>
       <c r="X597" s="6"/>
-      <c r="Y597" s="6"/>
-      <c r="Z597" s="6"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="6"/>
@@ -17047,8 +15884,6 @@
       <c r="V598" s="6"/>
       <c r="W598" s="6"/>
       <c r="X598" s="6"/>
-      <c r="Y598" s="6"/>
-      <c r="Z598" s="6"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="6"/>
@@ -17075,8 +15910,6 @@
       <c r="V599" s="6"/>
       <c r="W599" s="6"/>
       <c r="X599" s="6"/>
-      <c r="Y599" s="6"/>
-      <c r="Z599" s="6"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="6"/>
@@ -17103,8 +15936,6 @@
       <c r="V600" s="6"/>
       <c r="W600" s="6"/>
       <c r="X600" s="6"/>
-      <c r="Y600" s="6"/>
-      <c r="Z600" s="6"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="6"/>
@@ -17131,8 +15962,6 @@
       <c r="V601" s="6"/>
       <c r="W601" s="6"/>
       <c r="X601" s="6"/>
-      <c r="Y601" s="6"/>
-      <c r="Z601" s="6"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="6"/>
@@ -17159,8 +15988,6 @@
       <c r="V602" s="6"/>
       <c r="W602" s="6"/>
       <c r="X602" s="6"/>
-      <c r="Y602" s="6"/>
-      <c r="Z602" s="6"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="6"/>
@@ -17187,8 +16014,6 @@
       <c r="V603" s="6"/>
       <c r="W603" s="6"/>
       <c r="X603" s="6"/>
-      <c r="Y603" s="6"/>
-      <c r="Z603" s="6"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="6"/>
@@ -17215,8 +16040,6 @@
       <c r="V604" s="6"/>
       <c r="W604" s="6"/>
       <c r="X604" s="6"/>
-      <c r="Y604" s="6"/>
-      <c r="Z604" s="6"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="6"/>
@@ -17243,8 +16066,6 @@
       <c r="V605" s="6"/>
       <c r="W605" s="6"/>
       <c r="X605" s="6"/>
-      <c r="Y605" s="6"/>
-      <c r="Z605" s="6"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="6"/>
@@ -17271,8 +16092,6 @@
       <c r="V606" s="6"/>
       <c r="W606" s="6"/>
       <c r="X606" s="6"/>
-      <c r="Y606" s="6"/>
-      <c r="Z606" s="6"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="6"/>
@@ -17299,8 +16118,6 @@
       <c r="V607" s="6"/>
       <c r="W607" s="6"/>
       <c r="X607" s="6"/>
-      <c r="Y607" s="6"/>
-      <c r="Z607" s="6"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="6"/>
@@ -17327,8 +16144,6 @@
       <c r="V608" s="6"/>
       <c r="W608" s="6"/>
       <c r="X608" s="6"/>
-      <c r="Y608" s="6"/>
-      <c r="Z608" s="6"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="6"/>
@@ -17355,8 +16170,6 @@
       <c r="V609" s="6"/>
       <c r="W609" s="6"/>
       <c r="X609" s="6"/>
-      <c r="Y609" s="6"/>
-      <c r="Z609" s="6"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="6"/>
@@ -17383,8 +16196,6 @@
       <c r="V610" s="6"/>
       <c r="W610" s="6"/>
       <c r="X610" s="6"/>
-      <c r="Y610" s="6"/>
-      <c r="Z610" s="6"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="6"/>
@@ -17411,8 +16222,6 @@
       <c r="V611" s="6"/>
       <c r="W611" s="6"/>
       <c r="X611" s="6"/>
-      <c r="Y611" s="6"/>
-      <c r="Z611" s="6"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="6"/>
@@ -17439,8 +16248,6 @@
       <c r="V612" s="6"/>
       <c r="W612" s="6"/>
       <c r="X612" s="6"/>
-      <c r="Y612" s="6"/>
-      <c r="Z612" s="6"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="6"/>
@@ -17467,8 +16274,6 @@
       <c r="V613" s="6"/>
       <c r="W613" s="6"/>
       <c r="X613" s="6"/>
-      <c r="Y613" s="6"/>
-      <c r="Z613" s="6"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="6"/>
@@ -17495,8 +16300,6 @@
       <c r="V614" s="6"/>
       <c r="W614" s="6"/>
       <c r="X614" s="6"/>
-      <c r="Y614" s="6"/>
-      <c r="Z614" s="6"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="6"/>
@@ -17523,8 +16326,6 @@
       <c r="V615" s="6"/>
       <c r="W615" s="6"/>
       <c r="X615" s="6"/>
-      <c r="Y615" s="6"/>
-      <c r="Z615" s="6"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="6"/>
@@ -17551,8 +16352,6 @@
       <c r="V616" s="6"/>
       <c r="W616" s="6"/>
       <c r="X616" s="6"/>
-      <c r="Y616" s="6"/>
-      <c r="Z616" s="6"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="6"/>
@@ -17579,8 +16378,6 @@
       <c r="V617" s="6"/>
       <c r="W617" s="6"/>
       <c r="X617" s="6"/>
-      <c r="Y617" s="6"/>
-      <c r="Z617" s="6"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="6"/>
@@ -17607,8 +16404,6 @@
       <c r="V618" s="6"/>
       <c r="W618" s="6"/>
       <c r="X618" s="6"/>
-      <c r="Y618" s="6"/>
-      <c r="Z618" s="6"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="6"/>
@@ -17635,8 +16430,6 @@
       <c r="V619" s="6"/>
       <c r="W619" s="6"/>
       <c r="X619" s="6"/>
-      <c r="Y619" s="6"/>
-      <c r="Z619" s="6"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="6"/>
@@ -17663,8 +16456,6 @@
       <c r="V620" s="6"/>
       <c r="W620" s="6"/>
       <c r="X620" s="6"/>
-      <c r="Y620" s="6"/>
-      <c r="Z620" s="6"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="6"/>
@@ -17691,8 +16482,6 @@
       <c r="V621" s="6"/>
       <c r="W621" s="6"/>
       <c r="X621" s="6"/>
-      <c r="Y621" s="6"/>
-      <c r="Z621" s="6"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="6"/>
@@ -17719,8 +16508,6 @@
       <c r="V622" s="6"/>
       <c r="W622" s="6"/>
       <c r="X622" s="6"/>
-      <c r="Y622" s="6"/>
-      <c r="Z622" s="6"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="6"/>
@@ -17747,8 +16534,6 @@
       <c r="V623" s="6"/>
       <c r="W623" s="6"/>
       <c r="X623" s="6"/>
-      <c r="Y623" s="6"/>
-      <c r="Z623" s="6"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="6"/>
@@ -17775,8 +16560,6 @@
       <c r="V624" s="6"/>
       <c r="W624" s="6"/>
       <c r="X624" s="6"/>
-      <c r="Y624" s="6"/>
-      <c r="Z624" s="6"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="6"/>
@@ -17803,8 +16586,6 @@
       <c r="V625" s="6"/>
       <c r="W625" s="6"/>
       <c r="X625" s="6"/>
-      <c r="Y625" s="6"/>
-      <c r="Z625" s="6"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="6"/>
@@ -17831,8 +16612,6 @@
       <c r="V626" s="6"/>
       <c r="W626" s="6"/>
       <c r="X626" s="6"/>
-      <c r="Y626" s="6"/>
-      <c r="Z626" s="6"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="6"/>
@@ -17859,8 +16638,6 @@
       <c r="V627" s="6"/>
       <c r="W627" s="6"/>
       <c r="X627" s="6"/>
-      <c r="Y627" s="6"/>
-      <c r="Z627" s="6"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="6"/>
@@ -17887,8 +16664,6 @@
       <c r="V628" s="6"/>
       <c r="W628" s="6"/>
       <c r="X628" s="6"/>
-      <c r="Y628" s="6"/>
-      <c r="Z628" s="6"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="6"/>
@@ -17915,8 +16690,6 @@
       <c r="V629" s="6"/>
       <c r="W629" s="6"/>
       <c r="X629" s="6"/>
-      <c r="Y629" s="6"/>
-      <c r="Z629" s="6"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="6"/>
@@ -17943,8 +16716,6 @@
       <c r="V630" s="6"/>
       <c r="W630" s="6"/>
       <c r="X630" s="6"/>
-      <c r="Y630" s="6"/>
-      <c r="Z630" s="6"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="6"/>
@@ -17971,8 +16742,6 @@
       <c r="V631" s="6"/>
       <c r="W631" s="6"/>
       <c r="X631" s="6"/>
-      <c r="Y631" s="6"/>
-      <c r="Z631" s="6"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="6"/>
@@ -17999,8 +16768,6 @@
       <c r="V632" s="6"/>
       <c r="W632" s="6"/>
       <c r="X632" s="6"/>
-      <c r="Y632" s="6"/>
-      <c r="Z632" s="6"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="6"/>
@@ -18027,8 +16794,6 @@
       <c r="V633" s="6"/>
       <c r="W633" s="6"/>
       <c r="X633" s="6"/>
-      <c r="Y633" s="6"/>
-      <c r="Z633" s="6"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="6"/>
@@ -18055,8 +16820,6 @@
       <c r="V634" s="6"/>
       <c r="W634" s="6"/>
       <c r="X634" s="6"/>
-      <c r="Y634" s="6"/>
-      <c r="Z634" s="6"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="6"/>
@@ -18083,8 +16846,6 @@
       <c r="V635" s="6"/>
       <c r="W635" s="6"/>
       <c r="X635" s="6"/>
-      <c r="Y635" s="6"/>
-      <c r="Z635" s="6"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="6"/>
@@ -18111,8 +16872,6 @@
       <c r="V636" s="6"/>
       <c r="W636" s="6"/>
       <c r="X636" s="6"/>
-      <c r="Y636" s="6"/>
-      <c r="Z636" s="6"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="6"/>
@@ -18139,8 +16898,6 @@
       <c r="V637" s="6"/>
       <c r="W637" s="6"/>
       <c r="X637" s="6"/>
-      <c r="Y637" s="6"/>
-      <c r="Z637" s="6"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="6"/>
@@ -18167,8 +16924,6 @@
       <c r="V638" s="6"/>
       <c r="W638" s="6"/>
       <c r="X638" s="6"/>
-      <c r="Y638" s="6"/>
-      <c r="Z638" s="6"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="6"/>
@@ -18195,8 +16950,6 @@
       <c r="V639" s="6"/>
       <c r="W639" s="6"/>
       <c r="X639" s="6"/>
-      <c r="Y639" s="6"/>
-      <c r="Z639" s="6"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="6"/>
@@ -18223,8 +16976,6 @@
       <c r="V640" s="6"/>
       <c r="W640" s="6"/>
       <c r="X640" s="6"/>
-      <c r="Y640" s="6"/>
-      <c r="Z640" s="6"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="6"/>
@@ -18251,8 +17002,6 @@
       <c r="V641" s="6"/>
       <c r="W641" s="6"/>
       <c r="X641" s="6"/>
-      <c r="Y641" s="6"/>
-      <c r="Z641" s="6"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="6"/>
@@ -18279,8 +17028,6 @@
       <c r="V642" s="6"/>
       <c r="W642" s="6"/>
       <c r="X642" s="6"/>
-      <c r="Y642" s="6"/>
-      <c r="Z642" s="6"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="6"/>
@@ -18307,8 +17054,6 @@
       <c r="V643" s="6"/>
       <c r="W643" s="6"/>
       <c r="X643" s="6"/>
-      <c r="Y643" s="6"/>
-      <c r="Z643" s="6"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="6"/>
@@ -18335,8 +17080,6 @@
       <c r="V644" s="6"/>
       <c r="W644" s="6"/>
       <c r="X644" s="6"/>
-      <c r="Y644" s="6"/>
-      <c r="Z644" s="6"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="6"/>
@@ -18363,8 +17106,6 @@
       <c r="V645" s="6"/>
       <c r="W645" s="6"/>
       <c r="X645" s="6"/>
-      <c r="Y645" s="6"/>
-      <c r="Z645" s="6"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="6"/>
@@ -18391,8 +17132,6 @@
       <c r="V646" s="6"/>
       <c r="W646" s="6"/>
       <c r="X646" s="6"/>
-      <c r="Y646" s="6"/>
-      <c r="Z646" s="6"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="6"/>
@@ -18419,8 +17158,6 @@
       <c r="V647" s="6"/>
       <c r="W647" s="6"/>
       <c r="X647" s="6"/>
-      <c r="Y647" s="6"/>
-      <c r="Z647" s="6"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="6"/>
@@ -18447,8 +17184,6 @@
       <c r="V648" s="6"/>
       <c r="W648" s="6"/>
       <c r="X648" s="6"/>
-      <c r="Y648" s="6"/>
-      <c r="Z648" s="6"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="6"/>
@@ -18475,8 +17210,6 @@
       <c r="V649" s="6"/>
       <c r="W649" s="6"/>
       <c r="X649" s="6"/>
-      <c r="Y649" s="6"/>
-      <c r="Z649" s="6"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="6"/>
@@ -18503,8 +17236,6 @@
       <c r="V650" s="6"/>
       <c r="W650" s="6"/>
       <c r="X650" s="6"/>
-      <c r="Y650" s="6"/>
-      <c r="Z650" s="6"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="6"/>
@@ -18531,8 +17262,6 @@
       <c r="V651" s="6"/>
       <c r="W651" s="6"/>
       <c r="X651" s="6"/>
-      <c r="Y651" s="6"/>
-      <c r="Z651" s="6"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="6"/>
@@ -18559,8 +17288,6 @@
       <c r="V652" s="6"/>
       <c r="W652" s="6"/>
       <c r="X652" s="6"/>
-      <c r="Y652" s="6"/>
-      <c r="Z652" s="6"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="6"/>
@@ -18587,8 +17314,6 @@
       <c r="V653" s="6"/>
       <c r="W653" s="6"/>
       <c r="X653" s="6"/>
-      <c r="Y653" s="6"/>
-      <c r="Z653" s="6"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="6"/>
@@ -18615,8 +17340,6 @@
       <c r="V654" s="6"/>
       <c r="W654" s="6"/>
       <c r="X654" s="6"/>
-      <c r="Y654" s="6"/>
-      <c r="Z654" s="6"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="6"/>
@@ -18643,8 +17366,6 @@
       <c r="V655" s="6"/>
       <c r="W655" s="6"/>
       <c r="X655" s="6"/>
-      <c r="Y655" s="6"/>
-      <c r="Z655" s="6"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="6"/>
@@ -18671,8 +17392,6 @@
       <c r="V656" s="6"/>
       <c r="W656" s="6"/>
       <c r="X656" s="6"/>
-      <c r="Y656" s="6"/>
-      <c r="Z656" s="6"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="6"/>
@@ -18699,8 +17418,6 @@
       <c r="V657" s="6"/>
       <c r="W657" s="6"/>
       <c r="X657" s="6"/>
-      <c r="Y657" s="6"/>
-      <c r="Z657" s="6"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="6"/>
@@ -18727,8 +17444,6 @@
       <c r="V658" s="6"/>
       <c r="W658" s="6"/>
       <c r="X658" s="6"/>
-      <c r="Y658" s="6"/>
-      <c r="Z658" s="6"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="6"/>
@@ -18755,8 +17470,6 @@
       <c r="V659" s="6"/>
       <c r="W659" s="6"/>
       <c r="X659" s="6"/>
-      <c r="Y659" s="6"/>
-      <c r="Z659" s="6"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="6"/>
@@ -18783,8 +17496,6 @@
       <c r="V660" s="6"/>
       <c r="W660" s="6"/>
       <c r="X660" s="6"/>
-      <c r="Y660" s="6"/>
-      <c r="Z660" s="6"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="6"/>
@@ -18811,8 +17522,6 @@
       <c r="V661" s="6"/>
       <c r="W661" s="6"/>
       <c r="X661" s="6"/>
-      <c r="Y661" s="6"/>
-      <c r="Z661" s="6"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="6"/>
@@ -18839,8 +17548,6 @@
       <c r="V662" s="6"/>
       <c r="W662" s="6"/>
       <c r="X662" s="6"/>
-      <c r="Y662" s="6"/>
-      <c r="Z662" s="6"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="6"/>
@@ -18867,8 +17574,6 @@
       <c r="V663" s="6"/>
       <c r="W663" s="6"/>
       <c r="X663" s="6"/>
-      <c r="Y663" s="6"/>
-      <c r="Z663" s="6"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="6"/>
@@ -18895,8 +17600,6 @@
       <c r="V664" s="6"/>
       <c r="W664" s="6"/>
       <c r="X664" s="6"/>
-      <c r="Y664" s="6"/>
-      <c r="Z664" s="6"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="6"/>
@@ -18923,8 +17626,6 @@
       <c r="V665" s="6"/>
       <c r="W665" s="6"/>
       <c r="X665" s="6"/>
-      <c r="Y665" s="6"/>
-      <c r="Z665" s="6"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="6"/>
@@ -18951,8 +17652,6 @@
       <c r="V666" s="6"/>
       <c r="W666" s="6"/>
       <c r="X666" s="6"/>
-      <c r="Y666" s="6"/>
-      <c r="Z666" s="6"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="6"/>
@@ -18979,8 +17678,6 @@
       <c r="V667" s="6"/>
       <c r="W667" s="6"/>
       <c r="X667" s="6"/>
-      <c r="Y667" s="6"/>
-      <c r="Z667" s="6"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="6"/>
@@ -19007,8 +17704,6 @@
       <c r="V668" s="6"/>
       <c r="W668" s="6"/>
       <c r="X668" s="6"/>
-      <c r="Y668" s="6"/>
-      <c r="Z668" s="6"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="6"/>
@@ -19035,8 +17730,6 @@
       <c r="V669" s="6"/>
       <c r="W669" s="6"/>
       <c r="X669" s="6"/>
-      <c r="Y669" s="6"/>
-      <c r="Z669" s="6"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="6"/>
@@ -19063,8 +17756,6 @@
       <c r="V670" s="6"/>
       <c r="W670" s="6"/>
       <c r="X670" s="6"/>
-      <c r="Y670" s="6"/>
-      <c r="Z670" s="6"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="6"/>
@@ -19091,8 +17782,6 @@
       <c r="V671" s="6"/>
       <c r="W671" s="6"/>
       <c r="X671" s="6"/>
-      <c r="Y671" s="6"/>
-      <c r="Z671" s="6"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="6"/>
@@ -19119,8 +17808,6 @@
       <c r="V672" s="6"/>
       <c r="W672" s="6"/>
       <c r="X672" s="6"/>
-      <c r="Y672" s="6"/>
-      <c r="Z672" s="6"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="6"/>
@@ -19147,8 +17834,6 @@
       <c r="V673" s="6"/>
       <c r="W673" s="6"/>
       <c r="X673" s="6"/>
-      <c r="Y673" s="6"/>
-      <c r="Z673" s="6"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="6"/>
@@ -19175,8 +17860,6 @@
       <c r="V674" s="6"/>
       <c r="W674" s="6"/>
       <c r="X674" s="6"/>
-      <c r="Y674" s="6"/>
-      <c r="Z674" s="6"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="6"/>
@@ -19203,8 +17886,6 @@
       <c r="V675" s="6"/>
       <c r="W675" s="6"/>
       <c r="X675" s="6"/>
-      <c r="Y675" s="6"/>
-      <c r="Z675" s="6"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="6"/>
@@ -19231,8 +17912,6 @@
       <c r="V676" s="6"/>
       <c r="W676" s="6"/>
       <c r="X676" s="6"/>
-      <c r="Y676" s="6"/>
-      <c r="Z676" s="6"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="6"/>
@@ -19259,8 +17938,6 @@
       <c r="V677" s="6"/>
       <c r="W677" s="6"/>
       <c r="X677" s="6"/>
-      <c r="Y677" s="6"/>
-      <c r="Z677" s="6"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="6"/>
@@ -19287,8 +17964,6 @@
       <c r="V678" s="6"/>
       <c r="W678" s="6"/>
       <c r="X678" s="6"/>
-      <c r="Y678" s="6"/>
-      <c r="Z678" s="6"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="6"/>
@@ -19315,8 +17990,6 @@
       <c r="V679" s="6"/>
       <c r="W679" s="6"/>
       <c r="X679" s="6"/>
-      <c r="Y679" s="6"/>
-      <c r="Z679" s="6"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="6"/>
@@ -19343,8 +18016,6 @@
       <c r="V680" s="6"/>
       <c r="W680" s="6"/>
       <c r="X680" s="6"/>
-      <c r="Y680" s="6"/>
-      <c r="Z680" s="6"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="6"/>
@@ -19371,8 +18042,6 @@
       <c r="V681" s="6"/>
       <c r="W681" s="6"/>
       <c r="X681" s="6"/>
-      <c r="Y681" s="6"/>
-      <c r="Z681" s="6"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="6"/>
@@ -19399,8 +18068,6 @@
       <c r="V682" s="6"/>
       <c r="W682" s="6"/>
       <c r="X682" s="6"/>
-      <c r="Y682" s="6"/>
-      <c r="Z682" s="6"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="6"/>
@@ -19427,8 +18094,6 @@
       <c r="V683" s="6"/>
       <c r="W683" s="6"/>
       <c r="X683" s="6"/>
-      <c r="Y683" s="6"/>
-      <c r="Z683" s="6"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="6"/>
@@ -19455,8 +18120,6 @@
       <c r="V684" s="6"/>
       <c r="W684" s="6"/>
       <c r="X684" s="6"/>
-      <c r="Y684" s="6"/>
-      <c r="Z684" s="6"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="6"/>
@@ -19483,8 +18146,6 @@
       <c r="V685" s="6"/>
       <c r="W685" s="6"/>
       <c r="X685" s="6"/>
-      <c r="Y685" s="6"/>
-      <c r="Z685" s="6"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="6"/>
@@ -19511,8 +18172,6 @@
       <c r="V686" s="6"/>
       <c r="W686" s="6"/>
       <c r="X686" s="6"/>
-      <c r="Y686" s="6"/>
-      <c r="Z686" s="6"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="6"/>
@@ -19539,8 +18198,6 @@
       <c r="V687" s="6"/>
       <c r="W687" s="6"/>
       <c r="X687" s="6"/>
-      <c r="Y687" s="6"/>
-      <c r="Z687" s="6"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="6"/>
@@ -19567,8 +18224,6 @@
       <c r="V688" s="6"/>
       <c r="W688" s="6"/>
       <c r="X688" s="6"/>
-      <c r="Y688" s="6"/>
-      <c r="Z688" s="6"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="6"/>
@@ -19595,8 +18250,6 @@
       <c r="V689" s="6"/>
       <c r="W689" s="6"/>
       <c r="X689" s="6"/>
-      <c r="Y689" s="6"/>
-      <c r="Z689" s="6"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="6"/>
@@ -19623,8 +18276,6 @@
       <c r="V690" s="6"/>
       <c r="W690" s="6"/>
       <c r="X690" s="6"/>
-      <c r="Y690" s="6"/>
-      <c r="Z690" s="6"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="6"/>
@@ -19651,8 +18302,6 @@
       <c r="V691" s="6"/>
       <c r="W691" s="6"/>
       <c r="X691" s="6"/>
-      <c r="Y691" s="6"/>
-      <c r="Z691" s="6"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="6"/>
@@ -19679,8 +18328,6 @@
       <c r="V692" s="6"/>
       <c r="W692" s="6"/>
       <c r="X692" s="6"/>
-      <c r="Y692" s="6"/>
-      <c r="Z692" s="6"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="6"/>
@@ -19707,8 +18354,6 @@
       <c r="V693" s="6"/>
       <c r="W693" s="6"/>
       <c r="X693" s="6"/>
-      <c r="Y693" s="6"/>
-      <c r="Z693" s="6"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="6"/>
@@ -19735,8 +18380,6 @@
       <c r="V694" s="6"/>
       <c r="W694" s="6"/>
       <c r="X694" s="6"/>
-      <c r="Y694" s="6"/>
-      <c r="Z694" s="6"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="6"/>
@@ -19763,8 +18406,6 @@
       <c r="V695" s="6"/>
       <c r="W695" s="6"/>
       <c r="X695" s="6"/>
-      <c r="Y695" s="6"/>
-      <c r="Z695" s="6"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="6"/>
@@ -19791,8 +18432,6 @@
       <c r="V696" s="6"/>
       <c r="W696" s="6"/>
       <c r="X696" s="6"/>
-      <c r="Y696" s="6"/>
-      <c r="Z696" s="6"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="6"/>
@@ -19819,8 +18458,6 @@
       <c r="V697" s="6"/>
       <c r="W697" s="6"/>
       <c r="X697" s="6"/>
-      <c r="Y697" s="6"/>
-      <c r="Z697" s="6"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="6"/>
@@ -19847,8 +18484,6 @@
       <c r="V698" s="6"/>
       <c r="W698" s="6"/>
       <c r="X698" s="6"/>
-      <c r="Y698" s="6"/>
-      <c r="Z698" s="6"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="6"/>
@@ -19875,8 +18510,6 @@
       <c r="V699" s="6"/>
       <c r="W699" s="6"/>
       <c r="X699" s="6"/>
-      <c r="Y699" s="6"/>
-      <c r="Z699" s="6"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="6"/>
@@ -19903,8 +18536,6 @@
       <c r="V700" s="6"/>
       <c r="W700" s="6"/>
       <c r="X700" s="6"/>
-      <c r="Y700" s="6"/>
-      <c r="Z700" s="6"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="6"/>
@@ -19931,8 +18562,6 @@
       <c r="V701" s="6"/>
       <c r="W701" s="6"/>
       <c r="X701" s="6"/>
-      <c r="Y701" s="6"/>
-      <c r="Z701" s="6"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="6"/>
@@ -19959,8 +18588,6 @@
       <c r="V702" s="6"/>
       <c r="W702" s="6"/>
       <c r="X702" s="6"/>
-      <c r="Y702" s="6"/>
-      <c r="Z702" s="6"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="6"/>
@@ -19987,8 +18614,6 @@
       <c r="V703" s="6"/>
       <c r="W703" s="6"/>
       <c r="X703" s="6"/>
-      <c r="Y703" s="6"/>
-      <c r="Z703" s="6"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="6"/>
@@ -20015,8 +18640,6 @@
       <c r="V704" s="6"/>
       <c r="W704" s="6"/>
       <c r="X704" s="6"/>
-      <c r="Y704" s="6"/>
-      <c r="Z704" s="6"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="6"/>
@@ -20043,8 +18666,6 @@
       <c r="V705" s="6"/>
       <c r="W705" s="6"/>
       <c r="X705" s="6"/>
-      <c r="Y705" s="6"/>
-      <c r="Z705" s="6"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="6"/>
@@ -20071,8 +18692,6 @@
       <c r="V706" s="6"/>
       <c r="W706" s="6"/>
       <c r="X706" s="6"/>
-      <c r="Y706" s="6"/>
-      <c r="Z706" s="6"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="6"/>
@@ -20099,8 +18718,6 @@
       <c r="V707" s="6"/>
       <c r="W707" s="6"/>
       <c r="X707" s="6"/>
-      <c r="Y707" s="6"/>
-      <c r="Z707" s="6"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="6"/>
@@ -20127,8 +18744,6 @@
       <c r="V708" s="6"/>
       <c r="W708" s="6"/>
       <c r="X708" s="6"/>
-      <c r="Y708" s="6"/>
-      <c r="Z708" s="6"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="6"/>
@@ -20155,8 +18770,6 @@
       <c r="V709" s="6"/>
       <c r="W709" s="6"/>
       <c r="X709" s="6"/>
-      <c r="Y709" s="6"/>
-      <c r="Z709" s="6"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="6"/>
@@ -20183,8 +18796,6 @@
       <c r="V710" s="6"/>
       <c r="W710" s="6"/>
       <c r="X710" s="6"/>
-      <c r="Y710" s="6"/>
-      <c r="Z710" s="6"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="6"/>
@@ -20211,8 +18822,6 @@
       <c r="V711" s="6"/>
       <c r="W711" s="6"/>
       <c r="X711" s="6"/>
-      <c r="Y711" s="6"/>
-      <c r="Z711" s="6"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="6"/>
@@ -20239,8 +18848,6 @@
       <c r="V712" s="6"/>
       <c r="W712" s="6"/>
       <c r="X712" s="6"/>
-      <c r="Y712" s="6"/>
-      <c r="Z712" s="6"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="6"/>
@@ -20267,8 +18874,6 @@
       <c r="V713" s="6"/>
       <c r="W713" s="6"/>
       <c r="X713" s="6"/>
-      <c r="Y713" s="6"/>
-      <c r="Z713" s="6"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="6"/>
@@ -20295,8 +18900,6 @@
       <c r="V714" s="6"/>
       <c r="W714" s="6"/>
       <c r="X714" s="6"/>
-      <c r="Y714" s="6"/>
-      <c r="Z714" s="6"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="6"/>
@@ -20323,8 +18926,6 @@
       <c r="V715" s="6"/>
       <c r="W715" s="6"/>
       <c r="X715" s="6"/>
-      <c r="Y715" s="6"/>
-      <c r="Z715" s="6"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="6"/>
@@ -20351,8 +18952,6 @@
       <c r="V716" s="6"/>
       <c r="W716" s="6"/>
       <c r="X716" s="6"/>
-      <c r="Y716" s="6"/>
-      <c r="Z716" s="6"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="6"/>
@@ -20379,8 +18978,6 @@
       <c r="V717" s="6"/>
       <c r="W717" s="6"/>
       <c r="X717" s="6"/>
-      <c r="Y717" s="6"/>
-      <c r="Z717" s="6"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="6"/>
@@ -20407,8 +19004,6 @@
       <c r="V718" s="6"/>
       <c r="W718" s="6"/>
       <c r="X718" s="6"/>
-      <c r="Y718" s="6"/>
-      <c r="Z718" s="6"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="6"/>
@@ -20435,8 +19030,6 @@
       <c r="V719" s="6"/>
       <c r="W719" s="6"/>
       <c r="X719" s="6"/>
-      <c r="Y719" s="6"/>
-      <c r="Z719" s="6"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="6"/>
@@ -20463,8 +19056,6 @@
       <c r="V720" s="6"/>
       <c r="W720" s="6"/>
       <c r="X720" s="6"/>
-      <c r="Y720" s="6"/>
-      <c r="Z720" s="6"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="6"/>
@@ -20491,8 +19082,6 @@
       <c r="V721" s="6"/>
       <c r="W721" s="6"/>
       <c r="X721" s="6"/>
-      <c r="Y721" s="6"/>
-      <c r="Z721" s="6"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="6"/>
@@ -20519,8 +19108,6 @@
       <c r="V722" s="6"/>
       <c r="W722" s="6"/>
       <c r="X722" s="6"/>
-      <c r="Y722" s="6"/>
-      <c r="Z722" s="6"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="6"/>
@@ -20547,8 +19134,6 @@
       <c r="V723" s="6"/>
       <c r="W723" s="6"/>
       <c r="X723" s="6"/>
-      <c r="Y723" s="6"/>
-      <c r="Z723" s="6"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="6"/>
@@ -20575,8 +19160,6 @@
       <c r="V724" s="6"/>
       <c r="W724" s="6"/>
       <c r="X724" s="6"/>
-      <c r="Y724" s="6"/>
-      <c r="Z724" s="6"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="6"/>
@@ -20603,8 +19186,6 @@
       <c r="V725" s="6"/>
       <c r="W725" s="6"/>
       <c r="X725" s="6"/>
-      <c r="Y725" s="6"/>
-      <c r="Z725" s="6"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="6"/>
@@ -20631,8 +19212,6 @@
       <c r="V726" s="6"/>
       <c r="W726" s="6"/>
       <c r="X726" s="6"/>
-      <c r="Y726" s="6"/>
-      <c r="Z726" s="6"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="6"/>
@@ -20659,8 +19238,6 @@
       <c r="V727" s="6"/>
       <c r="W727" s="6"/>
       <c r="X727" s="6"/>
-      <c r="Y727" s="6"/>
-      <c r="Z727" s="6"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="6"/>
@@ -20687,8 +19264,6 @@
       <c r="V728" s="6"/>
       <c r="W728" s="6"/>
       <c r="X728" s="6"/>
-      <c r="Y728" s="6"/>
-      <c r="Z728" s="6"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="6"/>
@@ -20715,8 +19290,6 @@
       <c r="V729" s="6"/>
       <c r="W729" s="6"/>
       <c r="X729" s="6"/>
-      <c r="Y729" s="6"/>
-      <c r="Z729" s="6"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="6"/>
@@ -20743,8 +19316,6 @@
       <c r="V730" s="6"/>
       <c r="W730" s="6"/>
       <c r="X730" s="6"/>
-      <c r="Y730" s="6"/>
-      <c r="Z730" s="6"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="6"/>
@@ -20771,8 +19342,6 @@
       <c r="V731" s="6"/>
       <c r="W731" s="6"/>
       <c r="X731" s="6"/>
-      <c r="Y731" s="6"/>
-      <c r="Z731" s="6"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="6"/>
@@ -20799,8 +19368,6 @@
       <c r="V732" s="6"/>
       <c r="W732" s="6"/>
       <c r="X732" s="6"/>
-      <c r="Y732" s="6"/>
-      <c r="Z732" s="6"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="6"/>
@@ -20827,8 +19394,6 @@
       <c r="V733" s="6"/>
       <c r="W733" s="6"/>
       <c r="X733" s="6"/>
-      <c r="Y733" s="6"/>
-      <c r="Z733" s="6"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="6"/>
@@ -20855,8 +19420,6 @@
       <c r="V734" s="6"/>
       <c r="W734" s="6"/>
       <c r="X734" s="6"/>
-      <c r="Y734" s="6"/>
-      <c r="Z734" s="6"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="6"/>
@@ -20883,8 +19446,6 @@
       <c r="V735" s="6"/>
       <c r="W735" s="6"/>
       <c r="X735" s="6"/>
-      <c r="Y735" s="6"/>
-      <c r="Z735" s="6"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="6"/>
@@ -20911,8 +19472,6 @@
       <c r="V736" s="6"/>
       <c r="W736" s="6"/>
       <c r="X736" s="6"/>
-      <c r="Y736" s="6"/>
-      <c r="Z736" s="6"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="6"/>
@@ -20939,8 +19498,6 @@
       <c r="V737" s="6"/>
       <c r="W737" s="6"/>
       <c r="X737" s="6"/>
-      <c r="Y737" s="6"/>
-      <c r="Z737" s="6"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="6"/>
@@ -20967,8 +19524,6 @@
       <c r="V738" s="6"/>
       <c r="W738" s="6"/>
       <c r="X738" s="6"/>
-      <c r="Y738" s="6"/>
-      <c r="Z738" s="6"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="6"/>
@@ -20995,8 +19550,6 @@
       <c r="V739" s="6"/>
       <c r="W739" s="6"/>
       <c r="X739" s="6"/>
-      <c r="Y739" s="6"/>
-      <c r="Z739" s="6"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="6"/>
@@ -21023,8 +19576,6 @@
       <c r="V740" s="6"/>
       <c r="W740" s="6"/>
       <c r="X740" s="6"/>
-      <c r="Y740" s="6"/>
-      <c r="Z740" s="6"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="6"/>
@@ -21051,8 +19602,6 @@
       <c r="V741" s="6"/>
       <c r="W741" s="6"/>
       <c r="X741" s="6"/>
-      <c r="Y741" s="6"/>
-      <c r="Z741" s="6"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="6"/>
@@ -21079,8 +19628,6 @@
       <c r="V742" s="6"/>
       <c r="W742" s="6"/>
       <c r="X742" s="6"/>
-      <c r="Y742" s="6"/>
-      <c r="Z742" s="6"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="6"/>
@@ -21107,8 +19654,6 @@
       <c r="V743" s="6"/>
       <c r="W743" s="6"/>
       <c r="X743" s="6"/>
-      <c r="Y743" s="6"/>
-      <c r="Z743" s="6"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="6"/>
@@ -21135,8 +19680,6 @@
       <c r="V744" s="6"/>
       <c r="W744" s="6"/>
       <c r="X744" s="6"/>
-      <c r="Y744" s="6"/>
-      <c r="Z744" s="6"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="6"/>
@@ -21163,8 +19706,6 @@
       <c r="V745" s="6"/>
       <c r="W745" s="6"/>
       <c r="X745" s="6"/>
-      <c r="Y745" s="6"/>
-      <c r="Z745" s="6"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="6"/>
@@ -21191,8 +19732,6 @@
       <c r="V746" s="6"/>
       <c r="W746" s="6"/>
       <c r="X746" s="6"/>
-      <c r="Y746" s="6"/>
-      <c r="Z746" s="6"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="6"/>
@@ -21219,8 +19758,6 @@
       <c r="V747" s="6"/>
       <c r="W747" s="6"/>
       <c r="X747" s="6"/>
-      <c r="Y747" s="6"/>
-      <c r="Z747" s="6"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="6"/>
@@ -21247,8 +19784,6 @@
       <c r="V748" s="6"/>
       <c r="W748" s="6"/>
       <c r="X748" s="6"/>
-      <c r="Y748" s="6"/>
-      <c r="Z748" s="6"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="6"/>
@@ -21275,8 +19810,6 @@
       <c r="V749" s="6"/>
       <c r="W749" s="6"/>
       <c r="X749" s="6"/>
-      <c r="Y749" s="6"/>
-      <c r="Z749" s="6"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="6"/>
@@ -21303,8 +19836,6 @@
       <c r="V750" s="6"/>
       <c r="W750" s="6"/>
       <c r="X750" s="6"/>
-      <c r="Y750" s="6"/>
-      <c r="Z750" s="6"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="6"/>
@@ -21331,8 +19862,6 @@
       <c r="V751" s="6"/>
       <c r="W751" s="6"/>
       <c r="X751" s="6"/>
-      <c r="Y751" s="6"/>
-      <c r="Z751" s="6"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="6"/>
@@ -21359,8 +19888,6 @@
       <c r="V752" s="6"/>
       <c r="W752" s="6"/>
       <c r="X752" s="6"/>
-      <c r="Y752" s="6"/>
-      <c r="Z752" s="6"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="6"/>
@@ -21387,8 +19914,6 @@
       <c r="V753" s="6"/>
       <c r="W753" s="6"/>
       <c r="X753" s="6"/>
-      <c r="Y753" s="6"/>
-      <c r="Z753" s="6"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="6"/>
@@ -21415,8 +19940,6 @@
       <c r="V754" s="6"/>
       <c r="W754" s="6"/>
       <c r="X754" s="6"/>
-      <c r="Y754" s="6"/>
-      <c r="Z754" s="6"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="6"/>
@@ -21443,8 +19966,6 @@
       <c r="V755" s="6"/>
       <c r="W755" s="6"/>
       <c r="X755" s="6"/>
-      <c r="Y755" s="6"/>
-      <c r="Z755" s="6"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="6"/>
@@ -21471,8 +19992,6 @@
       <c r="V756" s="6"/>
       <c r="W756" s="6"/>
       <c r="X756" s="6"/>
-      <c r="Y756" s="6"/>
-      <c r="Z756" s="6"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="6"/>
@@ -21499,8 +20018,6 @@
       <c r="V757" s="6"/>
       <c r="W757" s="6"/>
       <c r="X757" s="6"/>
-      <c r="Y757" s="6"/>
-      <c r="Z757" s="6"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="6"/>
@@ -21527,8 +20044,6 @@
       <c r="V758" s="6"/>
       <c r="W758" s="6"/>
       <c r="X758" s="6"/>
-      <c r="Y758" s="6"/>
-      <c r="Z758" s="6"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="6"/>
@@ -21555,8 +20070,6 @@
       <c r="V759" s="6"/>
       <c r="W759" s="6"/>
       <c r="X759" s="6"/>
-      <c r="Y759" s="6"/>
-      <c r="Z759" s="6"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="6"/>
@@ -21583,8 +20096,6 @@
       <c r="V760" s="6"/>
       <c r="W760" s="6"/>
       <c r="X760" s="6"/>
-      <c r="Y760" s="6"/>
-      <c r="Z760" s="6"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="6"/>
@@ -21611,8 +20122,6 @@
       <c r="V761" s="6"/>
       <c r="W761" s="6"/>
       <c r="X761" s="6"/>
-      <c r="Y761" s="6"/>
-      <c r="Z761" s="6"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="6"/>
@@ -21639,8 +20148,6 @@
       <c r="V762" s="6"/>
       <c r="W762" s="6"/>
       <c r="X762" s="6"/>
-      <c r="Y762" s="6"/>
-      <c r="Z762" s="6"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="6"/>
@@ -21667,8 +20174,6 @@
       <c r="V763" s="6"/>
       <c r="W763" s="6"/>
       <c r="X763" s="6"/>
-      <c r="Y763" s="6"/>
-      <c r="Z763" s="6"/>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="6"/>
@@ -21695,8 +20200,6 @@
       <c r="V764" s="6"/>
       <c r="W764" s="6"/>
       <c r="X764" s="6"/>
-      <c r="Y764" s="6"/>
-      <c r="Z764" s="6"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="6"/>
@@ -21723,8 +20226,6 @@
       <c r="V765" s="6"/>
       <c r="W765" s="6"/>
       <c r="X765" s="6"/>
-      <c r="Y765" s="6"/>
-      <c r="Z765" s="6"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="6"/>
@@ -21751,8 +20252,6 @@
       <c r="V766" s="6"/>
       <c r="W766" s="6"/>
       <c r="X766" s="6"/>
-      <c r="Y766" s="6"/>
-      <c r="Z766" s="6"/>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="6"/>
@@ -21779,8 +20278,6 @@
       <c r="V767" s="6"/>
       <c r="W767" s="6"/>
       <c r="X767" s="6"/>
-      <c r="Y767" s="6"/>
-      <c r="Z767" s="6"/>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="6"/>
@@ -21807,8 +20304,6 @@
       <c r="V768" s="6"/>
       <c r="W768" s="6"/>
       <c r="X768" s="6"/>
-      <c r="Y768" s="6"/>
-      <c r="Z768" s="6"/>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="6"/>
@@ -21835,8 +20330,6 @@
       <c r="V769" s="6"/>
       <c r="W769" s="6"/>
       <c r="X769" s="6"/>
-      <c r="Y769" s="6"/>
-      <c r="Z769" s="6"/>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="6"/>
@@ -21863,8 +20356,6 @@
       <c r="V770" s="6"/>
       <c r="W770" s="6"/>
       <c r="X770" s="6"/>
-      <c r="Y770" s="6"/>
-      <c r="Z770" s="6"/>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="6"/>
@@ -21891,8 +20382,6 @@
       <c r="V771" s="6"/>
       <c r="W771" s="6"/>
       <c r="X771" s="6"/>
-      <c r="Y771" s="6"/>
-      <c r="Z771" s="6"/>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="6"/>
@@ -21919,8 +20408,6 @@
       <c r="V772" s="6"/>
       <c r="W772" s="6"/>
       <c r="X772" s="6"/>
-      <c r="Y772" s="6"/>
-      <c r="Z772" s="6"/>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="6"/>
@@ -21947,8 +20434,6 @@
       <c r="V773" s="6"/>
       <c r="W773" s="6"/>
       <c r="X773" s="6"/>
-      <c r="Y773" s="6"/>
-      <c r="Z773" s="6"/>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="6"/>
@@ -21975,8 +20460,6 @@
       <c r="V774" s="6"/>
       <c r="W774" s="6"/>
       <c r="X774" s="6"/>
-      <c r="Y774" s="6"/>
-      <c r="Z774" s="6"/>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="6"/>
@@ -22003,8 +20486,6 @@
       <c r="V775" s="6"/>
       <c r="W775" s="6"/>
       <c r="X775" s="6"/>
-      <c r="Y775" s="6"/>
-      <c r="Z775" s="6"/>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="6"/>
@@ -22031,8 +20512,6 @@
       <c r="V776" s="6"/>
       <c r="W776" s="6"/>
       <c r="X776" s="6"/>
-      <c r="Y776" s="6"/>
-      <c r="Z776" s="6"/>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="6"/>
@@ -22059,8 +20538,6 @@
       <c r="V777" s="6"/>
       <c r="W777" s="6"/>
       <c r="X777" s="6"/>
-      <c r="Y777" s="6"/>
-      <c r="Z777" s="6"/>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="6"/>
@@ -22087,8 +20564,6 @@
       <c r="V778" s="6"/>
       <c r="W778" s="6"/>
       <c r="X778" s="6"/>
-      <c r="Y778" s="6"/>
-      <c r="Z778" s="6"/>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="6"/>
@@ -22115,8 +20590,6 @@
       <c r="V779" s="6"/>
       <c r="W779" s="6"/>
       <c r="X779" s="6"/>
-      <c r="Y779" s="6"/>
-      <c r="Z779" s="6"/>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="6"/>
@@ -22143,8 +20616,6 @@
       <c r="V780" s="6"/>
       <c r="W780" s="6"/>
       <c r="X780" s="6"/>
-      <c r="Y780" s="6"/>
-      <c r="Z780" s="6"/>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="6"/>
@@ -22171,8 +20642,6 @@
       <c r="V781" s="6"/>
       <c r="W781" s="6"/>
       <c r="X781" s="6"/>
-      <c r="Y781" s="6"/>
-      <c r="Z781" s="6"/>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="6"/>
@@ -22199,8 +20668,6 @@
       <c r="V782" s="6"/>
       <c r="W782" s="6"/>
       <c r="X782" s="6"/>
-      <c r="Y782" s="6"/>
-      <c r="Z782" s="6"/>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="6"/>
@@ -22227,8 +20694,6 @@
       <c r="V783" s="6"/>
       <c r="W783" s="6"/>
       <c r="X783" s="6"/>
-      <c r="Y783" s="6"/>
-      <c r="Z783" s="6"/>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="6"/>
@@ -22255,8 +20720,6 @@
       <c r="V784" s="6"/>
       <c r="W784" s="6"/>
       <c r="X784" s="6"/>
-      <c r="Y784" s="6"/>
-      <c r="Z784" s="6"/>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="6"/>
@@ -22283,8 +20746,6 @@
       <c r="V785" s="6"/>
       <c r="W785" s="6"/>
       <c r="X785" s="6"/>
-      <c r="Y785" s="6"/>
-      <c r="Z785" s="6"/>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="6"/>
@@ -22311,8 +20772,6 @@
       <c r="V786" s="6"/>
       <c r="W786" s="6"/>
       <c r="X786" s="6"/>
-      <c r="Y786" s="6"/>
-      <c r="Z786" s="6"/>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="6"/>
@@ -22339,8 +20798,6 @@
       <c r="V787" s="6"/>
       <c r="W787" s="6"/>
       <c r="X787" s="6"/>
-      <c r="Y787" s="6"/>
-      <c r="Z787" s="6"/>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="6"/>
@@ -22367,8 +20824,6 @@
       <c r="V788" s="6"/>
       <c r="W788" s="6"/>
       <c r="X788" s="6"/>
-      <c r="Y788" s="6"/>
-      <c r="Z788" s="6"/>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="6"/>
@@ -22395,8 +20850,6 @@
       <c r="V789" s="6"/>
       <c r="W789" s="6"/>
       <c r="X789" s="6"/>
-      <c r="Y789" s="6"/>
-      <c r="Z789" s="6"/>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="6"/>
@@ -22423,8 +20876,6 @@
       <c r="V790" s="6"/>
       <c r="W790" s="6"/>
       <c r="X790" s="6"/>
-      <c r="Y790" s="6"/>
-      <c r="Z790" s="6"/>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="6"/>
@@ -22451,8 +20902,6 @@
       <c r="V791" s="6"/>
       <c r="W791" s="6"/>
       <c r="X791" s="6"/>
-      <c r="Y791" s="6"/>
-      <c r="Z791" s="6"/>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="6"/>
@@ -22479,8 +20928,6 @@
       <c r="V792" s="6"/>
       <c r="W792" s="6"/>
       <c r="X792" s="6"/>
-      <c r="Y792" s="6"/>
-      <c r="Z792" s="6"/>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="6"/>
@@ -22507,8 +20954,6 @@
       <c r="V793" s="6"/>
       <c r="W793" s="6"/>
       <c r="X793" s="6"/>
-      <c r="Y793" s="6"/>
-      <c r="Z793" s="6"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="6"/>
@@ -22535,8 +20980,6 @@
       <c r="V794" s="6"/>
       <c r="W794" s="6"/>
       <c r="X794" s="6"/>
-      <c r="Y794" s="6"/>
-      <c r="Z794" s="6"/>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="6"/>
@@ -22563,8 +21006,6 @@
       <c r="V795" s="6"/>
       <c r="W795" s="6"/>
       <c r="X795" s="6"/>
-      <c r="Y795" s="6"/>
-      <c r="Z795" s="6"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="6"/>
@@ -22591,8 +21032,6 @@
       <c r="V796" s="6"/>
       <c r="W796" s="6"/>
       <c r="X796" s="6"/>
-      <c r="Y796" s="6"/>
-      <c r="Z796" s="6"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="6"/>
@@ -22619,8 +21058,6 @@
       <c r="V797" s="6"/>
       <c r="W797" s="6"/>
       <c r="X797" s="6"/>
-      <c r="Y797" s="6"/>
-      <c r="Z797" s="6"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="6"/>
@@ -22647,8 +21084,6 @@
       <c r="V798" s="6"/>
       <c r="W798" s="6"/>
       <c r="X798" s="6"/>
-      <c r="Y798" s="6"/>
-      <c r="Z798" s="6"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="6"/>
@@ -22675,8 +21110,6 @@
       <c r="V799" s="6"/>
       <c r="W799" s="6"/>
       <c r="X799" s="6"/>
-      <c r="Y799" s="6"/>
-      <c r="Z799" s="6"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="6"/>
@@ -22703,8 +21136,6 @@
       <c r="V800" s="6"/>
       <c r="W800" s="6"/>
       <c r="X800" s="6"/>
-      <c r="Y800" s="6"/>
-      <c r="Z800" s="6"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="6"/>
@@ -22731,8 +21162,6 @@
       <c r="V801" s="6"/>
       <c r="W801" s="6"/>
       <c r="X801" s="6"/>
-      <c r="Y801" s="6"/>
-      <c r="Z801" s="6"/>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="6"/>
@@ -22759,8 +21188,6 @@
       <c r="V802" s="6"/>
       <c r="W802" s="6"/>
       <c r="X802" s="6"/>
-      <c r="Y802" s="6"/>
-      <c r="Z802" s="6"/>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="6"/>
@@ -22787,8 +21214,6 @@
       <c r="V803" s="6"/>
       <c r="W803" s="6"/>
       <c r="X803" s="6"/>
-      <c r="Y803" s="6"/>
-      <c r="Z803" s="6"/>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="6"/>
@@ -22815,8 +21240,6 @@
       <c r="V804" s="6"/>
       <c r="W804" s="6"/>
       <c r="X804" s="6"/>
-      <c r="Y804" s="6"/>
-      <c r="Z804" s="6"/>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="6"/>
@@ -22843,8 +21266,6 @@
       <c r="V805" s="6"/>
       <c r="W805" s="6"/>
       <c r="X805" s="6"/>
-      <c r="Y805" s="6"/>
-      <c r="Z805" s="6"/>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="6"/>
@@ -22871,8 +21292,6 @@
       <c r="V806" s="6"/>
       <c r="W806" s="6"/>
       <c r="X806" s="6"/>
-      <c r="Y806" s="6"/>
-      <c r="Z806" s="6"/>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="6"/>
@@ -22899,8 +21318,6 @@
       <c r="V807" s="6"/>
       <c r="W807" s="6"/>
       <c r="X807" s="6"/>
-      <c r="Y807" s="6"/>
-      <c r="Z807" s="6"/>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="6"/>
@@ -22927,8 +21344,6 @@
       <c r="V808" s="6"/>
       <c r="W808" s="6"/>
       <c r="X808" s="6"/>
-      <c r="Y808" s="6"/>
-      <c r="Z808" s="6"/>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="6"/>
@@ -22955,8 +21370,6 @@
       <c r="V809" s="6"/>
       <c r="W809" s="6"/>
       <c r="X809" s="6"/>
-      <c r="Y809" s="6"/>
-      <c r="Z809" s="6"/>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="6"/>
@@ -22983,8 +21396,6 @@
       <c r="V810" s="6"/>
       <c r="W810" s="6"/>
       <c r="X810" s="6"/>
-      <c r="Y810" s="6"/>
-      <c r="Z810" s="6"/>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="6"/>
@@ -23011,8 +21422,6 @@
       <c r="V811" s="6"/>
       <c r="W811" s="6"/>
       <c r="X811" s="6"/>
-      <c r="Y811" s="6"/>
-      <c r="Z811" s="6"/>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="6"/>
@@ -23039,8 +21448,6 @@
       <c r="V812" s="6"/>
       <c r="W812" s="6"/>
       <c r="X812" s="6"/>
-      <c r="Y812" s="6"/>
-      <c r="Z812" s="6"/>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="6"/>
@@ -23067,8 +21474,6 @@
       <c r="V813" s="6"/>
       <c r="W813" s="6"/>
       <c r="X813" s="6"/>
-      <c r="Y813" s="6"/>
-      <c r="Z813" s="6"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="6"/>
@@ -23095,8 +21500,6 @@
       <c r="V814" s="6"/>
       <c r="W814" s="6"/>
       <c r="X814" s="6"/>
-      <c r="Y814" s="6"/>
-      <c r="Z814" s="6"/>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="6"/>
@@ -23123,8 +21526,6 @@
       <c r="V815" s="6"/>
       <c r="W815" s="6"/>
       <c r="X815" s="6"/>
-      <c r="Y815" s="6"/>
-      <c r="Z815" s="6"/>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="6"/>
@@ -23151,8 +21552,6 @@
       <c r="V816" s="6"/>
       <c r="W816" s="6"/>
       <c r="X816" s="6"/>
-      <c r="Y816" s="6"/>
-      <c r="Z816" s="6"/>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="6"/>
@@ -23179,8 +21578,6 @@
       <c r="V817" s="6"/>
       <c r="W817" s="6"/>
       <c r="X817" s="6"/>
-      <c r="Y817" s="6"/>
-      <c r="Z817" s="6"/>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="6"/>
@@ -23207,8 +21604,6 @@
       <c r="V818" s="6"/>
       <c r="W818" s="6"/>
       <c r="X818" s="6"/>
-      <c r="Y818" s="6"/>
-      <c r="Z818" s="6"/>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="6"/>
@@ -23235,8 +21630,6 @@
       <c r="V819" s="6"/>
       <c r="W819" s="6"/>
       <c r="X819" s="6"/>
-      <c r="Y819" s="6"/>
-      <c r="Z819" s="6"/>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="6"/>
@@ -23263,8 +21656,6 @@
       <c r="V820" s="6"/>
       <c r="W820" s="6"/>
       <c r="X820" s="6"/>
-      <c r="Y820" s="6"/>
-      <c r="Z820" s="6"/>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="6"/>
@@ -23291,8 +21682,6 @@
       <c r="V821" s="6"/>
       <c r="W821" s="6"/>
       <c r="X821" s="6"/>
-      <c r="Y821" s="6"/>
-      <c r="Z821" s="6"/>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="6"/>
@@ -23319,8 +21708,6 @@
       <c r="V822" s="6"/>
       <c r="W822" s="6"/>
       <c r="X822" s="6"/>
-      <c r="Y822" s="6"/>
-      <c r="Z822" s="6"/>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="6"/>
@@ -23347,8 +21734,6 @@
       <c r="V823" s="6"/>
       <c r="W823" s="6"/>
       <c r="X823" s="6"/>
-      <c r="Y823" s="6"/>
-      <c r="Z823" s="6"/>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="6"/>
@@ -23375,8 +21760,6 @@
       <c r="V824" s="6"/>
       <c r="W824" s="6"/>
       <c r="X824" s="6"/>
-      <c r="Y824" s="6"/>
-      <c r="Z824" s="6"/>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="6"/>
@@ -23403,8 +21786,6 @@
       <c r="V825" s="6"/>
       <c r="W825" s="6"/>
       <c r="X825" s="6"/>
-      <c r="Y825" s="6"/>
-      <c r="Z825" s="6"/>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="6"/>
@@ -23431,8 +21812,6 @@
       <c r="V826" s="6"/>
       <c r="W826" s="6"/>
       <c r="X826" s="6"/>
-      <c r="Y826" s="6"/>
-      <c r="Z826" s="6"/>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="6"/>
@@ -23459,8 +21838,6 @@
       <c r="V827" s="6"/>
       <c r="W827" s="6"/>
       <c r="X827" s="6"/>
-      <c r="Y827" s="6"/>
-      <c r="Z827" s="6"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="6"/>
@@ -23487,8 +21864,6 @@
       <c r="V828" s="6"/>
       <c r="W828" s="6"/>
       <c r="X828" s="6"/>
-      <c r="Y828" s="6"/>
-      <c r="Z828" s="6"/>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="6"/>
@@ -23515,8 +21890,6 @@
       <c r="V829" s="6"/>
       <c r="W829" s="6"/>
       <c r="X829" s="6"/>
-      <c r="Y829" s="6"/>
-      <c r="Z829" s="6"/>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="6"/>
@@ -23543,8 +21916,6 @@
       <c r="V830" s="6"/>
       <c r="W830" s="6"/>
       <c r="X830" s="6"/>
-      <c r="Y830" s="6"/>
-      <c r="Z830" s="6"/>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="6"/>
@@ -23571,8 +21942,6 @@
       <c r="V831" s="6"/>
       <c r="W831" s="6"/>
       <c r="X831" s="6"/>
-      <c r="Y831" s="6"/>
-      <c r="Z831" s="6"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="6"/>
@@ -23599,8 +21968,6 @@
       <c r="V832" s="6"/>
       <c r="W832" s="6"/>
       <c r="X832" s="6"/>
-      <c r="Y832" s="6"/>
-      <c r="Z832" s="6"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="6"/>
@@ -23627,8 +21994,6 @@
       <c r="V833" s="6"/>
       <c r="W833" s="6"/>
       <c r="X833" s="6"/>
-      <c r="Y833" s="6"/>
-      <c r="Z833" s="6"/>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="6"/>
@@ -23655,8 +22020,6 @@
       <c r="V834" s="6"/>
       <c r="W834" s="6"/>
       <c r="X834" s="6"/>
-      <c r="Y834" s="6"/>
-      <c r="Z834" s="6"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="6"/>
@@ -23683,8 +22046,6 @@
       <c r="V835" s="6"/>
       <c r="W835" s="6"/>
       <c r="X835" s="6"/>
-      <c r="Y835" s="6"/>
-      <c r="Z835" s="6"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="6"/>
@@ -23711,8 +22072,6 @@
       <c r="V836" s="6"/>
       <c r="W836" s="6"/>
       <c r="X836" s="6"/>
-      <c r="Y836" s="6"/>
-      <c r="Z836" s="6"/>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="6"/>
@@ -23739,8 +22098,6 @@
       <c r="V837" s="6"/>
       <c r="W837" s="6"/>
       <c r="X837" s="6"/>
-      <c r="Y837" s="6"/>
-      <c r="Z837" s="6"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="6"/>
@@ -23767,8 +22124,6 @@
       <c r="V838" s="6"/>
       <c r="W838" s="6"/>
       <c r="X838" s="6"/>
-      <c r="Y838" s="6"/>
-      <c r="Z838" s="6"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="6"/>
@@ -23795,8 +22150,6 @@
       <c r="V839" s="6"/>
       <c r="W839" s="6"/>
       <c r="X839" s="6"/>
-      <c r="Y839" s="6"/>
-      <c r="Z839" s="6"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="6"/>
@@ -23823,8 +22176,6 @@
       <c r="V840" s="6"/>
       <c r="W840" s="6"/>
       <c r="X840" s="6"/>
-      <c r="Y840" s="6"/>
-      <c r="Z840" s="6"/>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="6"/>
@@ -23851,8 +22202,6 @@
       <c r="V841" s="6"/>
       <c r="W841" s="6"/>
       <c r="X841" s="6"/>
-      <c r="Y841" s="6"/>
-      <c r="Z841" s="6"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="6"/>
@@ -23879,8 +22228,6 @@
       <c r="V842" s="6"/>
       <c r="W842" s="6"/>
       <c r="X842" s="6"/>
-      <c r="Y842" s="6"/>
-      <c r="Z842" s="6"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="6"/>
@@ -23907,8 +22254,6 @@
       <c r="V843" s="6"/>
       <c r="W843" s="6"/>
       <c r="X843" s="6"/>
-      <c r="Y843" s="6"/>
-      <c r="Z843" s="6"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="6"/>
@@ -23935,8 +22280,6 @@
       <c r="V844" s="6"/>
       <c r="W844" s="6"/>
       <c r="X844" s="6"/>
-      <c r="Y844" s="6"/>
-      <c r="Z844" s="6"/>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="6"/>
@@ -23963,8 +22306,6 @@
       <c r="V845" s="6"/>
       <c r="W845" s="6"/>
       <c r="X845" s="6"/>
-      <c r="Y845" s="6"/>
-      <c r="Z845" s="6"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="6"/>
@@ -23991,8 +22332,6 @@
       <c r="V846" s="6"/>
       <c r="W846" s="6"/>
       <c r="X846" s="6"/>
-      <c r="Y846" s="6"/>
-      <c r="Z846" s="6"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="6"/>
@@ -24019,8 +22358,6 @@
       <c r="V847" s="6"/>
       <c r="W847" s="6"/>
       <c r="X847" s="6"/>
-      <c r="Y847" s="6"/>
-      <c r="Z847" s="6"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="6"/>
@@ -24047,8 +22384,6 @@
       <c r="V848" s="6"/>
       <c r="W848" s="6"/>
       <c r="X848" s="6"/>
-      <c r="Y848" s="6"/>
-      <c r="Z848" s="6"/>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="6"/>
@@ -24075,8 +22410,6 @@
       <c r="V849" s="6"/>
       <c r="W849" s="6"/>
       <c r="X849" s="6"/>
-      <c r="Y849" s="6"/>
-      <c r="Z849" s="6"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="6"/>
@@ -24103,8 +22436,6 @@
       <c r="V850" s="6"/>
       <c r="W850" s="6"/>
       <c r="X850" s="6"/>
-      <c r="Y850" s="6"/>
-      <c r="Z850" s="6"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="6"/>
@@ -24131,8 +22462,6 @@
       <c r="V851" s="6"/>
       <c r="W851" s="6"/>
       <c r="X851" s="6"/>
-      <c r="Y851" s="6"/>
-      <c r="Z851" s="6"/>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="6"/>
@@ -24159,8 +22488,6 @@
       <c r="V852" s="6"/>
       <c r="W852" s="6"/>
       <c r="X852" s="6"/>
-      <c r="Y852" s="6"/>
-      <c r="Z852" s="6"/>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="6"/>
@@ -24187,8 +22514,6 @@
       <c r="V853" s="6"/>
       <c r="W853" s="6"/>
       <c r="X853" s="6"/>
-      <c r="Y853" s="6"/>
-      <c r="Z853" s="6"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="6"/>
@@ -24215,8 +22540,6 @@
       <c r="V854" s="6"/>
       <c r="W854" s="6"/>
       <c r="X854" s="6"/>
-      <c r="Y854" s="6"/>
-      <c r="Z854" s="6"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="6"/>
@@ -24243,8 +22566,6 @@
       <c r="V855" s="6"/>
       <c r="W855" s="6"/>
       <c r="X855" s="6"/>
-      <c r="Y855" s="6"/>
-      <c r="Z855" s="6"/>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="6"/>
@@ -24271,8 +22592,6 @@
       <c r="V856" s="6"/>
       <c r="W856" s="6"/>
       <c r="X856" s="6"/>
-      <c r="Y856" s="6"/>
-      <c r="Z856" s="6"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="6"/>
@@ -24299,8 +22618,6 @@
       <c r="V857" s="6"/>
       <c r="W857" s="6"/>
       <c r="X857" s="6"/>
-      <c r="Y857" s="6"/>
-      <c r="Z857" s="6"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="6"/>
@@ -24327,8 +22644,6 @@
       <c r="V858" s="6"/>
       <c r="W858" s="6"/>
       <c r="X858" s="6"/>
-      <c r="Y858" s="6"/>
-      <c r="Z858" s="6"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="6"/>
@@ -24355,8 +22670,6 @@
       <c r="V859" s="6"/>
       <c r="W859" s="6"/>
       <c r="X859" s="6"/>
-      <c r="Y859" s="6"/>
-      <c r="Z859" s="6"/>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="6"/>
@@ -24383,8 +22696,6 @@
       <c r="V860" s="6"/>
       <c r="W860" s="6"/>
       <c r="X860" s="6"/>
-      <c r="Y860" s="6"/>
-      <c r="Z860" s="6"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="6"/>
@@ -24411,8 +22722,6 @@
       <c r="V861" s="6"/>
       <c r="W861" s="6"/>
       <c r="X861" s="6"/>
-      <c r="Y861" s="6"/>
-      <c r="Z861" s="6"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="6"/>
@@ -24439,8 +22748,6 @@
       <c r="V862" s="6"/>
       <c r="W862" s="6"/>
       <c r="X862" s="6"/>
-      <c r="Y862" s="6"/>
-      <c r="Z862" s="6"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="6"/>
@@ -24467,8 +22774,6 @@
       <c r="V863" s="6"/>
       <c r="W863" s="6"/>
       <c r="X863" s="6"/>
-      <c r="Y863" s="6"/>
-      <c r="Z863" s="6"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="6"/>
@@ -24495,8 +22800,6 @@
       <c r="V864" s="6"/>
       <c r="W864" s="6"/>
       <c r="X864" s="6"/>
-      <c r="Y864" s="6"/>
-      <c r="Z864" s="6"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="6"/>
@@ -24523,8 +22826,6 @@
       <c r="V865" s="6"/>
       <c r="W865" s="6"/>
       <c r="X865" s="6"/>
-      <c r="Y865" s="6"/>
-      <c r="Z865" s="6"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="6"/>
@@ -24551,8 +22852,6 @@
       <c r="V866" s="6"/>
       <c r="W866" s="6"/>
       <c r="X866" s="6"/>
-      <c r="Y866" s="6"/>
-      <c r="Z866" s="6"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="6"/>
@@ -24579,8 +22878,6 @@
       <c r="V867" s="6"/>
       <c r="W867" s="6"/>
       <c r="X867" s="6"/>
-      <c r="Y867" s="6"/>
-      <c r="Z867" s="6"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="6"/>
@@ -24607,8 +22904,6 @@
       <c r="V868" s="6"/>
       <c r="W868" s="6"/>
       <c r="X868" s="6"/>
-      <c r="Y868" s="6"/>
-      <c r="Z868" s="6"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="6"/>
@@ -24635,8 +22930,6 @@
       <c r="V869" s="6"/>
       <c r="W869" s="6"/>
       <c r="X869" s="6"/>
-      <c r="Y869" s="6"/>
-      <c r="Z869" s="6"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="6"/>
@@ -24663,8 +22956,6 @@
       <c r="V870" s="6"/>
       <c r="W870" s="6"/>
       <c r="X870" s="6"/>
-      <c r="Y870" s="6"/>
-      <c r="Z870" s="6"/>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="6"/>
@@ -24691,8 +22982,6 @@
       <c r="V871" s="6"/>
       <c r="W871" s="6"/>
       <c r="X871" s="6"/>
-      <c r="Y871" s="6"/>
-      <c r="Z871" s="6"/>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="6"/>
@@ -24719,8 +23008,6 @@
       <c r="V872" s="6"/>
       <c r="W872" s="6"/>
       <c r="X872" s="6"/>
-      <c r="Y872" s="6"/>
-      <c r="Z872" s="6"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="6"/>
@@ -24747,8 +23034,6 @@
       <c r="V873" s="6"/>
       <c r="W873" s="6"/>
       <c r="X873" s="6"/>
-      <c r="Y873" s="6"/>
-      <c r="Z873" s="6"/>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="6"/>
@@ -24775,8 +23060,6 @@
       <c r="V874" s="6"/>
       <c r="W874" s="6"/>
       <c r="X874" s="6"/>
-      <c r="Y874" s="6"/>
-      <c r="Z874" s="6"/>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="6"/>
@@ -24803,8 +23086,6 @@
       <c r="V875" s="6"/>
       <c r="W875" s="6"/>
       <c r="X875" s="6"/>
-      <c r="Y875" s="6"/>
-      <c r="Z875" s="6"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="6"/>
@@ -24831,8 +23112,6 @@
       <c r="V876" s="6"/>
       <c r="W876" s="6"/>
       <c r="X876" s="6"/>
-      <c r="Y876" s="6"/>
-      <c r="Z876" s="6"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="6"/>
@@ -24859,8 +23138,6 @@
       <c r="V877" s="6"/>
       <c r="W877" s="6"/>
       <c r="X877" s="6"/>
-      <c r="Y877" s="6"/>
-      <c r="Z877" s="6"/>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="6"/>
@@ -24887,8 +23164,6 @@
       <c r="V878" s="6"/>
       <c r="W878" s="6"/>
       <c r="X878" s="6"/>
-      <c r="Y878" s="6"/>
-      <c r="Z878" s="6"/>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="6"/>
@@ -24915,8 +23190,6 @@
       <c r="V879" s="6"/>
       <c r="W879" s="6"/>
       <c r="X879" s="6"/>
-      <c r="Y879" s="6"/>
-      <c r="Z879" s="6"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="6"/>
@@ -24943,8 +23216,6 @@
       <c r="V880" s="6"/>
       <c r="W880" s="6"/>
       <c r="X880" s="6"/>
-      <c r="Y880" s="6"/>
-      <c r="Z880" s="6"/>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="6"/>
@@ -24971,8 +23242,6 @@
       <c r="V881" s="6"/>
       <c r="W881" s="6"/>
       <c r="X881" s="6"/>
-      <c r="Y881" s="6"/>
-      <c r="Z881" s="6"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="6"/>
@@ -24999,8 +23268,6 @@
       <c r="V882" s="6"/>
       <c r="W882" s="6"/>
       <c r="X882" s="6"/>
-      <c r="Y882" s="6"/>
-      <c r="Z882" s="6"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="6"/>
@@ -25027,8 +23294,6 @@
       <c r="V883" s="6"/>
       <c r="W883" s="6"/>
       <c r="X883" s="6"/>
-      <c r="Y883" s="6"/>
-      <c r="Z883" s="6"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="6"/>
@@ -25055,8 +23320,6 @@
       <c r="V884" s="6"/>
       <c r="W884" s="6"/>
       <c r="X884" s="6"/>
-      <c r="Y884" s="6"/>
-      <c r="Z884" s="6"/>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="6"/>
@@ -25083,8 +23346,6 @@
       <c r="V885" s="6"/>
       <c r="W885" s="6"/>
       <c r="X885" s="6"/>
-      <c r="Y885" s="6"/>
-      <c r="Z885" s="6"/>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="6"/>
@@ -25111,8 +23372,6 @@
       <c r="V886" s="6"/>
       <c r="W886" s="6"/>
       <c r="X886" s="6"/>
-      <c r="Y886" s="6"/>
-      <c r="Z886" s="6"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="6"/>
@@ -25139,8 +23398,6 @@
       <c r="V887" s="6"/>
       <c r="W887" s="6"/>
       <c r="X887" s="6"/>
-      <c r="Y887" s="6"/>
-      <c r="Z887" s="6"/>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="6"/>
@@ -25167,8 +23424,6 @@
       <c r="V888" s="6"/>
       <c r="W888" s="6"/>
       <c r="X888" s="6"/>
-      <c r="Y888" s="6"/>
-      <c r="Z888" s="6"/>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="6"/>
@@ -25195,8 +23450,6 @@
       <c r="V889" s="6"/>
       <c r="W889" s="6"/>
       <c r="X889" s="6"/>
-      <c r="Y889" s="6"/>
-      <c r="Z889" s="6"/>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="6"/>
@@ -25223,8 +23476,6 @@
       <c r="V890" s="6"/>
       <c r="W890" s="6"/>
       <c r="X890" s="6"/>
-      <c r="Y890" s="6"/>
-      <c r="Z890" s="6"/>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="6"/>
@@ -25251,8 +23502,6 @@
       <c r="V891" s="6"/>
       <c r="W891" s="6"/>
       <c r="X891" s="6"/>
-      <c r="Y891" s="6"/>
-      <c r="Z891" s="6"/>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="6"/>
@@ -25279,8 +23528,6 @@
       <c r="V892" s="6"/>
       <c r="W892" s="6"/>
       <c r="X892" s="6"/>
-      <c r="Y892" s="6"/>
-      <c r="Z892" s="6"/>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="6"/>
@@ -25307,8 +23554,6 @@
       <c r="V893" s="6"/>
       <c r="W893" s="6"/>
       <c r="X893" s="6"/>
-      <c r="Y893" s="6"/>
-      <c r="Z893" s="6"/>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="6"/>
@@ -25335,8 +23580,6 @@
       <c r="V894" s="6"/>
       <c r="W894" s="6"/>
       <c r="X894" s="6"/>
-      <c r="Y894" s="6"/>
-      <c r="Z894" s="6"/>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="6"/>
@@ -25363,8 +23606,6 @@
       <c r="V895" s="6"/>
       <c r="W895" s="6"/>
       <c r="X895" s="6"/>
-      <c r="Y895" s="6"/>
-      <c r="Z895" s="6"/>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="6"/>
@@ -25391,8 +23632,6 @@
       <c r="V896" s="6"/>
       <c r="W896" s="6"/>
       <c r="X896" s="6"/>
-      <c r="Y896" s="6"/>
-      <c r="Z896" s="6"/>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="6"/>
@@ -25419,8 +23658,6 @@
       <c r="V897" s="6"/>
       <c r="W897" s="6"/>
       <c r="X897" s="6"/>
-      <c r="Y897" s="6"/>
-      <c r="Z897" s="6"/>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="6"/>
@@ -25447,8 +23684,6 @@
       <c r="V898" s="6"/>
       <c r="W898" s="6"/>
       <c r="X898" s="6"/>
-      <c r="Y898" s="6"/>
-      <c r="Z898" s="6"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="6"/>
@@ -25475,8 +23710,6 @@
       <c r="V899" s="6"/>
       <c r="W899" s="6"/>
       <c r="X899" s="6"/>
-      <c r="Y899" s="6"/>
-      <c r="Z899" s="6"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="6"/>
@@ -25503,8 +23736,6 @@
       <c r="V900" s="6"/>
       <c r="W900" s="6"/>
       <c r="X900" s="6"/>
-      <c r="Y900" s="6"/>
-      <c r="Z900" s="6"/>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="6"/>
@@ -25531,8 +23762,6 @@
       <c r="V901" s="6"/>
       <c r="W901" s="6"/>
       <c r="X901" s="6"/>
-      <c r="Y901" s="6"/>
-      <c r="Z901" s="6"/>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="6"/>
@@ -25559,8 +23788,6 @@
       <c r="V902" s="6"/>
       <c r="W902" s="6"/>
       <c r="X902" s="6"/>
-      <c r="Y902" s="6"/>
-      <c r="Z902" s="6"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="6"/>
@@ -25587,8 +23814,6 @@
       <c r="V903" s="6"/>
       <c r="W903" s="6"/>
       <c r="X903" s="6"/>
-      <c r="Y903" s="6"/>
-      <c r="Z903" s="6"/>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="6"/>
@@ -25615,8 +23840,6 @@
       <c r="V904" s="6"/>
       <c r="W904" s="6"/>
       <c r="X904" s="6"/>
-      <c r="Y904" s="6"/>
-      <c r="Z904" s="6"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="6"/>
@@ -25643,8 +23866,6 @@
       <c r="V905" s="6"/>
       <c r="W905" s="6"/>
       <c r="X905" s="6"/>
-      <c r="Y905" s="6"/>
-      <c r="Z905" s="6"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="6"/>
@@ -25671,8 +23892,6 @@
       <c r="V906" s="6"/>
       <c r="W906" s="6"/>
       <c r="X906" s="6"/>
-      <c r="Y906" s="6"/>
-      <c r="Z906" s="6"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="6"/>
@@ -25699,8 +23918,6 @@
       <c r="V907" s="6"/>
       <c r="W907" s="6"/>
       <c r="X907" s="6"/>
-      <c r="Y907" s="6"/>
-      <c r="Z907" s="6"/>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="6"/>
@@ -25727,8 +23944,6 @@
       <c r="V908" s="6"/>
       <c r="W908" s="6"/>
       <c r="X908" s="6"/>
-      <c r="Y908" s="6"/>
-      <c r="Z908" s="6"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="6"/>
@@ -25755,8 +23970,6 @@
       <c r="V909" s="6"/>
       <c r="W909" s="6"/>
       <c r="X909" s="6"/>
-      <c r="Y909" s="6"/>
-      <c r="Z909" s="6"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="6"/>
@@ -25783,8 +23996,6 @@
       <c r="V910" s="6"/>
       <c r="W910" s="6"/>
       <c r="X910" s="6"/>
-      <c r="Y910" s="6"/>
-      <c r="Z910" s="6"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="6"/>
@@ -25811,8 +24022,6 @@
       <c r="V911" s="6"/>
       <c r="W911" s="6"/>
       <c r="X911" s="6"/>
-      <c r="Y911" s="6"/>
-      <c r="Z911" s="6"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="6"/>
@@ -25839,8 +24048,6 @@
       <c r="V912" s="6"/>
       <c r="W912" s="6"/>
       <c r="X912" s="6"/>
-      <c r="Y912" s="6"/>
-      <c r="Z912" s="6"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="6"/>
@@ -25867,8 +24074,6 @@
       <c r="V913" s="6"/>
       <c r="W913" s="6"/>
       <c r="X913" s="6"/>
-      <c r="Y913" s="6"/>
-      <c r="Z913" s="6"/>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="6"/>
@@ -25895,8 +24100,6 @@
       <c r="V914" s="6"/>
       <c r="W914" s="6"/>
       <c r="X914" s="6"/>
-      <c r="Y914" s="6"/>
-      <c r="Z914" s="6"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="6"/>
@@ -25923,8 +24126,6 @@
       <c r="V915" s="6"/>
       <c r="W915" s="6"/>
       <c r="X915" s="6"/>
-      <c r="Y915" s="6"/>
-      <c r="Z915" s="6"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="6"/>
@@ -25951,8 +24152,6 @@
       <c r="V916" s="6"/>
       <c r="W916" s="6"/>
       <c r="X916" s="6"/>
-      <c r="Y916" s="6"/>
-      <c r="Z916" s="6"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="6"/>
@@ -25979,8 +24178,6 @@
       <c r="V917" s="6"/>
       <c r="W917" s="6"/>
       <c r="X917" s="6"/>
-      <c r="Y917" s="6"/>
-      <c r="Z917" s="6"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="6"/>
@@ -26007,8 +24204,6 @@
       <c r="V918" s="6"/>
       <c r="W918" s="6"/>
       <c r="X918" s="6"/>
-      <c r="Y918" s="6"/>
-      <c r="Z918" s="6"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="6"/>
@@ -26035,8 +24230,6 @@
       <c r="V919" s="6"/>
       <c r="W919" s="6"/>
       <c r="X919" s="6"/>
-      <c r="Y919" s="6"/>
-      <c r="Z919" s="6"/>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="6"/>
@@ -26063,8 +24256,6 @@
       <c r="V920" s="6"/>
       <c r="W920" s="6"/>
       <c r="X920" s="6"/>
-      <c r="Y920" s="6"/>
-      <c r="Z920" s="6"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="6"/>
@@ -26091,8 +24282,6 @@
       <c r="V921" s="6"/>
       <c r="W921" s="6"/>
       <c r="X921" s="6"/>
-      <c r="Y921" s="6"/>
-      <c r="Z921" s="6"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="6"/>
@@ -26119,8 +24308,6 @@
       <c r="V922" s="6"/>
       <c r="W922" s="6"/>
       <c r="X922" s="6"/>
-      <c r="Y922" s="6"/>
-      <c r="Z922" s="6"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="6"/>
@@ -26147,8 +24334,6 @@
       <c r="V923" s="6"/>
       <c r="W923" s="6"/>
       <c r="X923" s="6"/>
-      <c r="Y923" s="6"/>
-      <c r="Z923" s="6"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="6"/>
@@ -26175,8 +24360,6 @@
       <c r="V924" s="6"/>
       <c r="W924" s="6"/>
       <c r="X924" s="6"/>
-      <c r="Y924" s="6"/>
-      <c r="Z924" s="6"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="6"/>
@@ -26203,8 +24386,6 @@
       <c r="V925" s="6"/>
       <c r="W925" s="6"/>
       <c r="X925" s="6"/>
-      <c r="Y925" s="6"/>
-      <c r="Z925" s="6"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="6"/>
@@ -26231,8 +24412,6 @@
       <c r="V926" s="6"/>
       <c r="W926" s="6"/>
       <c r="X926" s="6"/>
-      <c r="Y926" s="6"/>
-      <c r="Z926" s="6"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="6"/>
@@ -26259,8 +24438,6 @@
       <c r="V927" s="6"/>
       <c r="W927" s="6"/>
       <c r="X927" s="6"/>
-      <c r="Y927" s="6"/>
-      <c r="Z927" s="6"/>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="6"/>
@@ -26287,8 +24464,6 @@
       <c r="V928" s="6"/>
       <c r="W928" s="6"/>
       <c r="X928" s="6"/>
-      <c r="Y928" s="6"/>
-      <c r="Z928" s="6"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="6"/>
@@ -26315,8 +24490,6 @@
       <c r="V929" s="6"/>
       <c r="W929" s="6"/>
       <c r="X929" s="6"/>
-      <c r="Y929" s="6"/>
-      <c r="Z929" s="6"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="6"/>
@@ -26343,8 +24516,6 @@
       <c r="V930" s="6"/>
       <c r="W930" s="6"/>
       <c r="X930" s="6"/>
-      <c r="Y930" s="6"/>
-      <c r="Z930" s="6"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="6"/>
@@ -26371,8 +24542,6 @@
       <c r="V931" s="6"/>
       <c r="W931" s="6"/>
       <c r="X931" s="6"/>
-      <c r="Y931" s="6"/>
-      <c r="Z931" s="6"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="6"/>
@@ -26399,8 +24568,6 @@
       <c r="V932" s="6"/>
       <c r="W932" s="6"/>
       <c r="X932" s="6"/>
-      <c r="Y932" s="6"/>
-      <c r="Z932" s="6"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="6"/>
@@ -26427,8 +24594,6 @@
       <c r="V933" s="6"/>
       <c r="W933" s="6"/>
       <c r="X933" s="6"/>
-      <c r="Y933" s="6"/>
-      <c r="Z933" s="6"/>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="6"/>
@@ -26455,8 +24620,6 @@
       <c r="V934" s="6"/>
       <c r="W934" s="6"/>
       <c r="X934" s="6"/>
-      <c r="Y934" s="6"/>
-      <c r="Z934" s="6"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="6"/>
@@ -26483,8 +24646,6 @@
       <c r="V935" s="6"/>
       <c r="W935" s="6"/>
       <c r="X935" s="6"/>
-      <c r="Y935" s="6"/>
-      <c r="Z935" s="6"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="6"/>
@@ -26511,8 +24672,6 @@
       <c r="V936" s="6"/>
       <c r="W936" s="6"/>
       <c r="X936" s="6"/>
-      <c r="Y936" s="6"/>
-      <c r="Z936" s="6"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="6"/>
@@ -26539,8 +24698,6 @@
       <c r="V937" s="6"/>
       <c r="W937" s="6"/>
       <c r="X937" s="6"/>
-      <c r="Y937" s="6"/>
-      <c r="Z937" s="6"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="6"/>
@@ -26567,8 +24724,6 @@
       <c r="V938" s="6"/>
       <c r="W938" s="6"/>
       <c r="X938" s="6"/>
-      <c r="Y938" s="6"/>
-      <c r="Z938" s="6"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="6"/>
@@ -26595,8 +24750,6 @@
       <c r="V939" s="6"/>
       <c r="W939" s="6"/>
       <c r="X939" s="6"/>
-      <c r="Y939" s="6"/>
-      <c r="Z939" s="6"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="6"/>
@@ -26623,8 +24776,6 @@
       <c r="V940" s="6"/>
       <c r="W940" s="6"/>
       <c r="X940" s="6"/>
-      <c r="Y940" s="6"/>
-      <c r="Z940" s="6"/>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="6"/>
@@ -26651,8 +24802,6 @@
       <c r="V941" s="6"/>
       <c r="W941" s="6"/>
       <c r="X941" s="6"/>
-      <c r="Y941" s="6"/>
-      <c r="Z941" s="6"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="6"/>
@@ -26679,8 +24828,6 @@
       <c r="V942" s="6"/>
       <c r="W942" s="6"/>
       <c r="X942" s="6"/>
-      <c r="Y942" s="6"/>
-      <c r="Z942" s="6"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="6"/>
@@ -26707,8 +24854,6 @@
       <c r="V943" s="6"/>
       <c r="W943" s="6"/>
       <c r="X943" s="6"/>
-      <c r="Y943" s="6"/>
-      <c r="Z943" s="6"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="6"/>
@@ -26735,8 +24880,6 @@
       <c r="V944" s="6"/>
       <c r="W944" s="6"/>
       <c r="X944" s="6"/>
-      <c r="Y944" s="6"/>
-      <c r="Z944" s="6"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="6"/>
@@ -26763,8 +24906,6 @@
       <c r="V945" s="6"/>
       <c r="W945" s="6"/>
       <c r="X945" s="6"/>
-      <c r="Y945" s="6"/>
-      <c r="Z945" s="6"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="6"/>
@@ -26791,8 +24932,6 @@
       <c r="V946" s="6"/>
       <c r="W946" s="6"/>
       <c r="X946" s="6"/>
-      <c r="Y946" s="6"/>
-      <c r="Z946" s="6"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="6"/>
@@ -26819,8 +24958,6 @@
       <c r="V947" s="6"/>
       <c r="W947" s="6"/>
       <c r="X947" s="6"/>
-      <c r="Y947" s="6"/>
-      <c r="Z947" s="6"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="6"/>
@@ -26847,8 +24984,6 @@
       <c r="V948" s="6"/>
       <c r="W948" s="6"/>
       <c r="X948" s="6"/>
-      <c r="Y948" s="6"/>
-      <c r="Z948" s="6"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="6"/>
@@ -26875,8 +25010,6 @@
       <c r="V949" s="6"/>
       <c r="W949" s="6"/>
       <c r="X949" s="6"/>
-      <c r="Y949" s="6"/>
-      <c r="Z949" s="6"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="6"/>
@@ -26903,8 +25036,6 @@
       <c r="V950" s="6"/>
       <c r="W950" s="6"/>
       <c r="X950" s="6"/>
-      <c r="Y950" s="6"/>
-      <c r="Z950" s="6"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="6"/>
@@ -26931,8 +25062,6 @@
       <c r="V951" s="6"/>
       <c r="W951" s="6"/>
       <c r="X951" s="6"/>
-      <c r="Y951" s="6"/>
-      <c r="Z951" s="6"/>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="6"/>
@@ -26959,8 +25088,6 @@
       <c r="V952" s="6"/>
       <c r="W952" s="6"/>
       <c r="X952" s="6"/>
-      <c r="Y952" s="6"/>
-      <c r="Z952" s="6"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="6"/>
@@ -26987,8 +25114,6 @@
       <c r="V953" s="6"/>
       <c r="W953" s="6"/>
       <c r="X953" s="6"/>
-      <c r="Y953" s="6"/>
-      <c r="Z953" s="6"/>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="6"/>
@@ -27015,8 +25140,6 @@
       <c r="V954" s="6"/>
       <c r="W954" s="6"/>
       <c r="X954" s="6"/>
-      <c r="Y954" s="6"/>
-      <c r="Z954" s="6"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="6"/>
@@ -27043,8 +25166,6 @@
       <c r="V955" s="6"/>
       <c r="W955" s="6"/>
       <c r="X955" s="6"/>
-      <c r="Y955" s="6"/>
-      <c r="Z955" s="6"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="6"/>
@@ -27071,8 +25192,6 @@
       <c r="V956" s="6"/>
       <c r="W956" s="6"/>
       <c r="X956" s="6"/>
-      <c r="Y956" s="6"/>
-      <c r="Z956" s="6"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="6"/>
@@ -27099,8 +25218,6 @@
       <c r="V957" s="6"/>
       <c r="W957" s="6"/>
       <c r="X957" s="6"/>
-      <c r="Y957" s="6"/>
-      <c r="Z957" s="6"/>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="6"/>
@@ -27127,8 +25244,6 @@
       <c r="V958" s="6"/>
       <c r="W958" s="6"/>
       <c r="X958" s="6"/>
-      <c r="Y958" s="6"/>
-      <c r="Z958" s="6"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="6"/>
@@ -27155,8 +25270,6 @@
       <c r="V959" s="6"/>
       <c r="W959" s="6"/>
       <c r="X959" s="6"/>
-      <c r="Y959" s="6"/>
-      <c r="Z959" s="6"/>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="6"/>
@@ -27183,8 +25296,6 @@
       <c r="V960" s="6"/>
       <c r="W960" s="6"/>
       <c r="X960" s="6"/>
-      <c r="Y960" s="6"/>
-      <c r="Z960" s="6"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="6"/>
@@ -27211,8 +25322,6 @@
       <c r="V961" s="6"/>
       <c r="W961" s="6"/>
       <c r="X961" s="6"/>
-      <c r="Y961" s="6"/>
-      <c r="Z961" s="6"/>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="6"/>
@@ -27239,8 +25348,6 @@
       <c r="V962" s="6"/>
       <c r="W962" s="6"/>
       <c r="X962" s="6"/>
-      <c r="Y962" s="6"/>
-      <c r="Z962" s="6"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="6"/>
@@ -27267,8 +25374,6 @@
       <c r="V963" s="6"/>
       <c r="W963" s="6"/>
       <c r="X963" s="6"/>
-      <c r="Y963" s="6"/>
-      <c r="Z963" s="6"/>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="6"/>
@@ -27295,8 +25400,6 @@
       <c r="V964" s="6"/>
       <c r="W964" s="6"/>
       <c r="X964" s="6"/>
-      <c r="Y964" s="6"/>
-      <c r="Z964" s="6"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="6"/>
@@ -27323,8 +25426,6 @@
       <c r="V965" s="6"/>
       <c r="W965" s="6"/>
       <c r="X965" s="6"/>
-      <c r="Y965" s="6"/>
-      <c r="Z965" s="6"/>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="6"/>
@@ -27351,8 +25452,6 @@
       <c r="V966" s="6"/>
       <c r="W966" s="6"/>
       <c r="X966" s="6"/>
-      <c r="Y966" s="6"/>
-      <c r="Z966" s="6"/>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="6"/>
@@ -27379,8 +25478,6 @@
       <c r="V967" s="6"/>
       <c r="W967" s="6"/>
       <c r="X967" s="6"/>
-      <c r="Y967" s="6"/>
-      <c r="Z967" s="6"/>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="6"/>
@@ -27407,8 +25504,6 @@
       <c r="V968" s="6"/>
       <c r="W968" s="6"/>
       <c r="X968" s="6"/>
-      <c r="Y968" s="6"/>
-      <c r="Z968" s="6"/>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="6"/>
@@ -27435,8 +25530,6 @@
       <c r="V969" s="6"/>
       <c r="W969" s="6"/>
       <c r="X969" s="6"/>
-      <c r="Y969" s="6"/>
-      <c r="Z969" s="6"/>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="6"/>
@@ -27463,8 +25556,6 @@
       <c r="V970" s="6"/>
       <c r="W970" s="6"/>
       <c r="X970" s="6"/>
-      <c r="Y970" s="6"/>
-      <c r="Z970" s="6"/>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="6"/>
@@ -27491,8 +25582,6 @@
       <c r="V971" s="6"/>
       <c r="W971" s="6"/>
       <c r="X971" s="6"/>
-      <c r="Y971" s="6"/>
-      <c r="Z971" s="6"/>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="6"/>
@@ -27519,8 +25608,6 @@
       <c r="V972" s="6"/>
       <c r="W972" s="6"/>
       <c r="X972" s="6"/>
-      <c r="Y972" s="6"/>
-      <c r="Z972" s="6"/>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="6"/>
@@ -27547,8 +25634,6 @@
       <c r="V973" s="6"/>
       <c r="W973" s="6"/>
       <c r="X973" s="6"/>
-      <c r="Y973" s="6"/>
-      <c r="Z973" s="6"/>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="6"/>
@@ -27575,8 +25660,6 @@
       <c r="V974" s="6"/>
       <c r="W974" s="6"/>
       <c r="X974" s="6"/>
-      <c r="Y974" s="6"/>
-      <c r="Z974" s="6"/>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="6"/>
@@ -27603,8 +25686,6 @@
       <c r="V975" s="6"/>
       <c r="W975" s="6"/>
       <c r="X975" s="6"/>
-      <c r="Y975" s="6"/>
-      <c r="Z975" s="6"/>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="6"/>
@@ -27631,8 +25712,6 @@
       <c r="V976" s="6"/>
       <c r="W976" s="6"/>
       <c r="X976" s="6"/>
-      <c r="Y976" s="6"/>
-      <c r="Z976" s="6"/>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="6"/>
@@ -27659,8 +25738,6 @@
       <c r="V977" s="6"/>
       <c r="W977" s="6"/>
       <c r="X977" s="6"/>
-      <c r="Y977" s="6"/>
-      <c r="Z977" s="6"/>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="6"/>
@@ -27687,8 +25764,6 @@
       <c r="V978" s="6"/>
       <c r="W978" s="6"/>
       <c r="X978" s="6"/>
-      <c r="Y978" s="6"/>
-      <c r="Z978" s="6"/>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="6"/>
@@ -27715,8 +25790,6 @@
       <c r="V979" s="6"/>
       <c r="W979" s="6"/>
       <c r="X979" s="6"/>
-      <c r="Y979" s="6"/>
-      <c r="Z979" s="6"/>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="6"/>
@@ -27743,8 +25816,6 @@
       <c r="V980" s="6"/>
       <c r="W980" s="6"/>
       <c r="X980" s="6"/>
-      <c r="Y980" s="6"/>
-      <c r="Z980" s="6"/>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="6"/>
@@ -27771,8 +25842,6 @@
       <c r="V981" s="6"/>
       <c r="W981" s="6"/>
       <c r="X981" s="6"/>
-      <c r="Y981" s="6"/>
-      <c r="Z981" s="6"/>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="6"/>
@@ -27799,8 +25868,6 @@
       <c r="V982" s="6"/>
       <c r="W982" s="6"/>
       <c r="X982" s="6"/>
-      <c r="Y982" s="6"/>
-      <c r="Z982" s="6"/>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="6"/>
@@ -27827,8 +25894,6 @@
       <c r="V983" s="6"/>
       <c r="W983" s="6"/>
       <c r="X983" s="6"/>
-      <c r="Y983" s="6"/>
-      <c r="Z983" s="6"/>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="6"/>
@@ -27855,8 +25920,6 @@
       <c r="V984" s="6"/>
       <c r="W984" s="6"/>
       <c r="X984" s="6"/>
-      <c r="Y984" s="6"/>
-      <c r="Z984" s="6"/>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="6"/>
@@ -27883,8 +25946,6 @@
       <c r="V985" s="6"/>
       <c r="W985" s="6"/>
       <c r="X985" s="6"/>
-      <c r="Y985" s="6"/>
-      <c r="Z985" s="6"/>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="6"/>
@@ -27911,8 +25972,6 @@
       <c r="V986" s="6"/>
       <c r="W986" s="6"/>
       <c r="X986" s="6"/>
-      <c r="Y986" s="6"/>
-      <c r="Z986" s="6"/>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="6"/>
@@ -27939,8 +25998,6 @@
       <c r="V987" s="6"/>
       <c r="W987" s="6"/>
       <c r="X987" s="6"/>
-      <c r="Y987" s="6"/>
-      <c r="Z987" s="6"/>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="6"/>
@@ -27967,8 +26024,6 @@
       <c r="V988" s="6"/>
       <c r="W988" s="6"/>
       <c r="X988" s="6"/>
-      <c r="Y988" s="6"/>
-      <c r="Z988" s="6"/>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="6"/>
@@ -27995,8 +26050,6 @@
       <c r="V989" s="6"/>
       <c r="W989" s="6"/>
       <c r="X989" s="6"/>
-      <c r="Y989" s="6"/>
-      <c r="Z989" s="6"/>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="6"/>
@@ -28023,8 +26076,6 @@
       <c r="V990" s="6"/>
       <c r="W990" s="6"/>
       <c r="X990" s="6"/>
-      <c r="Y990" s="6"/>
-      <c r="Z990" s="6"/>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="6"/>
@@ -28051,8 +26102,6 @@
       <c r="V991" s="6"/>
       <c r="W991" s="6"/>
       <c r="X991" s="6"/>
-      <c r="Y991" s="6"/>
-      <c r="Z991" s="6"/>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="6"/>
@@ -28079,8 +26128,6 @@
       <c r="V992" s="6"/>
       <c r="W992" s="6"/>
       <c r="X992" s="6"/>
-      <c r="Y992" s="6"/>
-      <c r="Z992" s="6"/>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="6"/>
@@ -28107,8 +26154,6 @@
       <c r="V993" s="6"/>
       <c r="W993" s="6"/>
       <c r="X993" s="6"/>
-      <c r="Y993" s="6"/>
-      <c r="Z993" s="6"/>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="6"/>
@@ -28135,8 +26180,6 @@
       <c r="V994" s="6"/>
       <c r="W994" s="6"/>
       <c r="X994" s="6"/>
-      <c r="Y994" s="6"/>
-      <c r="Z994" s="6"/>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="6"/>
@@ -28163,8 +26206,6 @@
       <c r="V995" s="6"/>
       <c r="W995" s="6"/>
       <c r="X995" s="6"/>
-      <c r="Y995" s="6"/>
-      <c r="Z995" s="6"/>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="6"/>
@@ -28191,8 +26232,6 @@
       <c r="V996" s="6"/>
       <c r="W996" s="6"/>
       <c r="X996" s="6"/>
-      <c r="Y996" s="6"/>
-      <c r="Z996" s="6"/>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="6"/>
@@ -28219,8 +26258,6 @@
       <c r="V997" s="6"/>
       <c r="W997" s="6"/>
       <c r="X997" s="6"/>
-      <c r="Y997" s="6"/>
-      <c r="Z997" s="6"/>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="6"/>
@@ -28247,8 +26284,6 @@
       <c r="V998" s="6"/>
       <c r="W998" s="6"/>
       <c r="X998" s="6"/>
-      <c r="Y998" s="6"/>
-      <c r="Z998" s="6"/>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="6"/>
@@ -28275,8 +26310,6 @@
       <c r="V999" s="6"/>
       <c r="W999" s="6"/>
       <c r="X999" s="6"/>
-      <c r="Y999" s="6"/>
-      <c r="Z999" s="6"/>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="6"/>
@@ -28303,8 +26336,6 @@
       <c r="V1000" s="6"/>
       <c r="W1000" s="6"/>
       <c r="X1000" s="6"/>
-      <c r="Y1000" s="6"/>
-      <c r="Z1000" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/templates/template3.xlsx
+++ b/templates/template3.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t xml:space="preserve">Период:</t>
   </si>
   <si>
     <t xml:space="preserve">Дата начала</t>
-  </si>
-  <si>
-    <t xml:space="preserve">№ отчета:</t>
   </si>
   <si>
     <t xml:space="preserve">№</t>
@@ -41,12 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">Продажа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кол-во возвратов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возвраты</t>
   </si>
   <si>
     <t xml:space="preserve">К перечислению Продавцу за реализованный Товар с учетом комиссии WB, расходов поверенного</t>
@@ -261,16 +252,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X1000"/>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="1" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -285,9 +276,9 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -300,29 +291,23 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -330,55 +315,49 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="88.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
@@ -386,51 +365,45 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
+      <c r="G4" s="10" t="s">
+        <v>17</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
+      <c r="H4" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
@@ -438,8 +411,6 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
@@ -464,8 +435,6 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
@@ -490,8 +459,6 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
@@ -516,8 +483,6 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
@@ -542,8 +507,6 @@
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
@@ -568,8 +531,6 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
@@ -594,8 +555,6 @@
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
@@ -620,8 +579,6 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
@@ -646,8 +603,6 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
@@ -672,8 +627,6 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
@@ -698,8 +651,6 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
@@ -724,8 +675,6 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
@@ -750,8 +699,6 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
@@ -776,8 +723,6 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
@@ -802,8 +747,6 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
@@ -828,8 +771,6 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
@@ -854,8 +795,6 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
@@ -880,8 +819,6 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
@@ -906,8 +843,6 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
@@ -932,8 +867,6 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
@@ -958,8 +891,6 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
@@ -984,8 +915,6 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
@@ -1010,8 +939,6 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
@@ -1036,8 +963,6 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
@@ -1062,8 +987,6 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
@@ -1088,8 +1011,6 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
@@ -1114,8 +1035,6 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
@@ -1140,8 +1059,6 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
@@ -1166,8 +1083,6 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
@@ -1192,8 +1107,6 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
@@ -1218,8 +1131,6 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
@@ -1244,8 +1155,6 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
@@ -1270,8 +1179,6 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
@@ -1296,8 +1203,6 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
@@ -1322,8 +1227,6 @@
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
@@ -1348,8 +1251,6 @@
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
@@ -1374,8 +1275,6 @@
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
@@ -1400,8 +1299,6 @@
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
@@ -1426,8 +1323,6 @@
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
@@ -1452,8 +1347,6 @@
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
@@ -1478,8 +1371,6 @@
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
@@ -1504,8 +1395,6 @@
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
@@ -1530,8 +1419,6 @@
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
@@ -1556,8 +1443,6 @@
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
@@ -1582,8 +1467,6 @@
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
@@ -1608,8 +1491,6 @@
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
@@ -1634,8 +1515,6 @@
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
@@ -1660,8 +1539,6 @@
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
@@ -1686,8 +1563,6 @@
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
@@ -1712,8 +1587,6 @@
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
@@ -1738,8 +1611,6 @@
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
@@ -1764,8 +1635,6 @@
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
@@ -1790,8 +1659,6 @@
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
@@ -1816,8 +1683,6 @@
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
@@ -1842,8 +1707,6 @@
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
@@ -1868,8 +1731,6 @@
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
@@ -1894,8 +1755,6 @@
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
@@ -1920,8 +1779,6 @@
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
@@ -1946,8 +1803,6 @@
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
@@ -1972,8 +1827,6 @@
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
@@ -1998,8 +1851,6 @@
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
@@ -2024,8 +1875,6 @@
       <c r="T65" s="6"/>
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
@@ -2050,8 +1899,6 @@
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
@@ -2076,8 +1923,6 @@
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
@@ -2102,8 +1947,6 @@
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
@@ -2128,8 +1971,6 @@
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
@@ -2154,8 +1995,6 @@
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
@@ -2180,8 +2019,6 @@
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
@@ -2206,8 +2043,6 @@
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
@@ -2232,8 +2067,6 @@
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
@@ -2258,8 +2091,6 @@
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
@@ -2284,8 +2115,6 @@
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
@@ -2310,8 +2139,6 @@
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
@@ -2336,8 +2163,6 @@
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
@@ -2362,8 +2187,6 @@
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
@@ -2388,8 +2211,6 @@
       <c r="T79" s="6"/>
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
@@ -2414,8 +2235,6 @@
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
@@ -2440,8 +2259,6 @@
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
@@ -2466,8 +2283,6 @@
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
@@ -2492,8 +2307,6 @@
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
       <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-      <c r="X83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
@@ -2518,8 +2331,6 @@
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-      <c r="X84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
@@ -2544,8 +2355,6 @@
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
@@ -2570,8 +2379,6 @@
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
@@ -2596,8 +2403,6 @@
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
@@ -2622,8 +2427,6 @@
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
-      <c r="W88" s="6"/>
-      <c r="X88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
@@ -2648,8 +2451,6 @@
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
@@ -2674,8 +2475,6 @@
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
@@ -2700,8 +2499,6 @@
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
-      <c r="X91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
@@ -2726,8 +2523,6 @@
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
@@ -2752,8 +2547,6 @@
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
@@ -2778,8 +2571,6 @@
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
@@ -2804,8 +2595,6 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
@@ -2830,8 +2619,6 @@
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
-      <c r="W96" s="6"/>
-      <c r="X96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
@@ -2856,8 +2643,6 @@
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
@@ -2882,8 +2667,6 @@
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
-      <c r="W98" s="6"/>
-      <c r="X98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
@@ -2908,8 +2691,6 @@
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
-      <c r="W99" s="6"/>
-      <c r="X99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
@@ -2934,8 +2715,6 @@
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
-      <c r="W100" s="6"/>
-      <c r="X100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
@@ -2960,8 +2739,6 @@
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="6"/>
-      <c r="W101" s="6"/>
-      <c r="X101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6"/>
@@ -2986,8 +2763,6 @@
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
       <c r="V102" s="6"/>
-      <c r="W102" s="6"/>
-      <c r="X102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6"/>
@@ -3012,8 +2787,6 @@
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
-      <c r="W103" s="6"/>
-      <c r="X103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
@@ -3038,8 +2811,6 @@
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
-      <c r="W104" s="6"/>
-      <c r="X104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6"/>
@@ -3064,8 +2835,6 @@
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
-      <c r="W105" s="6"/>
-      <c r="X105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6"/>
@@ -3090,8 +2859,6 @@
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
-      <c r="W106" s="6"/>
-      <c r="X106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6"/>
@@ -3116,8 +2883,6 @@
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
-      <c r="W107" s="6"/>
-      <c r="X107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6"/>
@@ -3142,8 +2907,6 @@
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
       <c r="V108" s="6"/>
-      <c r="W108" s="6"/>
-      <c r="X108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
@@ -3168,8 +2931,6 @@
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
       <c r="V109" s="6"/>
-      <c r="W109" s="6"/>
-      <c r="X109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
@@ -3194,8 +2955,6 @@
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
       <c r="V110" s="6"/>
-      <c r="W110" s="6"/>
-      <c r="X110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
@@ -3220,8 +2979,6 @@
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
       <c r="V111" s="6"/>
-      <c r="W111" s="6"/>
-      <c r="X111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
@@ -3246,8 +3003,6 @@
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
-      <c r="W112" s="6"/>
-      <c r="X112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
@@ -3272,8 +3027,6 @@
       <c r="T113" s="6"/>
       <c r="U113" s="6"/>
       <c r="V113" s="6"/>
-      <c r="W113" s="6"/>
-      <c r="X113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
@@ -3298,8 +3051,6 @@
       <c r="T114" s="6"/>
       <c r="U114" s="6"/>
       <c r="V114" s="6"/>
-      <c r="W114" s="6"/>
-      <c r="X114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
@@ -3324,8 +3075,6 @@
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
       <c r="V115" s="6"/>
-      <c r="W115" s="6"/>
-      <c r="X115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
@@ -3350,8 +3099,6 @@
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
       <c r="V116" s="6"/>
-      <c r="W116" s="6"/>
-      <c r="X116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
@@ -3376,8 +3123,6 @@
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
       <c r="V117" s="6"/>
-      <c r="W117" s="6"/>
-      <c r="X117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
@@ -3402,8 +3147,6 @@
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
       <c r="V118" s="6"/>
-      <c r="W118" s="6"/>
-      <c r="X118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
@@ -3428,8 +3171,6 @@
       <c r="T119" s="6"/>
       <c r="U119" s="6"/>
       <c r="V119" s="6"/>
-      <c r="W119" s="6"/>
-      <c r="X119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
@@ -3454,8 +3195,6 @@
       <c r="T120" s="6"/>
       <c r="U120" s="6"/>
       <c r="V120" s="6"/>
-      <c r="W120" s="6"/>
-      <c r="X120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
@@ -3480,8 +3219,6 @@
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
       <c r="V121" s="6"/>
-      <c r="W121" s="6"/>
-      <c r="X121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
@@ -3506,8 +3243,6 @@
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
       <c r="V122" s="6"/>
-      <c r="W122" s="6"/>
-      <c r="X122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
@@ -3532,8 +3267,6 @@
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
       <c r="V123" s="6"/>
-      <c r="W123" s="6"/>
-      <c r="X123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
@@ -3558,8 +3291,6 @@
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
       <c r="V124" s="6"/>
-      <c r="W124" s="6"/>
-      <c r="X124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
@@ -3584,8 +3315,6 @@
       <c r="T125" s="6"/>
       <c r="U125" s="6"/>
       <c r="V125" s="6"/>
-      <c r="W125" s="6"/>
-      <c r="X125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
@@ -3610,8 +3339,6 @@
       <c r="T126" s="6"/>
       <c r="U126" s="6"/>
       <c r="V126" s="6"/>
-      <c r="W126" s="6"/>
-      <c r="X126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
@@ -3636,8 +3363,6 @@
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
       <c r="V127" s="6"/>
-      <c r="W127" s="6"/>
-      <c r="X127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
@@ -3662,8 +3387,6 @@
       <c r="T128" s="6"/>
       <c r="U128" s="6"/>
       <c r="V128" s="6"/>
-      <c r="W128" s="6"/>
-      <c r="X128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
@@ -3688,8 +3411,6 @@
       <c r="T129" s="6"/>
       <c r="U129" s="6"/>
       <c r="V129" s="6"/>
-      <c r="W129" s="6"/>
-      <c r="X129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
@@ -3714,8 +3435,6 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
       <c r="V130" s="6"/>
-      <c r="W130" s="6"/>
-      <c r="X130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
@@ -3740,8 +3459,6 @@
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
       <c r="V131" s="6"/>
-      <c r="W131" s="6"/>
-      <c r="X131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
@@ -3766,8 +3483,6 @@
       <c r="T132" s="6"/>
       <c r="U132" s="6"/>
       <c r="V132" s="6"/>
-      <c r="W132" s="6"/>
-      <c r="X132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
@@ -3792,8 +3507,6 @@
       <c r="T133" s="6"/>
       <c r="U133" s="6"/>
       <c r="V133" s="6"/>
-      <c r="W133" s="6"/>
-      <c r="X133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
@@ -3818,8 +3531,6 @@
       <c r="T134" s="6"/>
       <c r="U134" s="6"/>
       <c r="V134" s="6"/>
-      <c r="W134" s="6"/>
-      <c r="X134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
@@ -3844,8 +3555,6 @@
       <c r="T135" s="6"/>
       <c r="U135" s="6"/>
       <c r="V135" s="6"/>
-      <c r="W135" s="6"/>
-      <c r="X135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
@@ -3870,8 +3579,6 @@
       <c r="T136" s="6"/>
       <c r="U136" s="6"/>
       <c r="V136" s="6"/>
-      <c r="W136" s="6"/>
-      <c r="X136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
@@ -3896,8 +3603,6 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="6"/>
-      <c r="W137" s="6"/>
-      <c r="X137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
@@ -3922,8 +3627,6 @@
       <c r="T138" s="6"/>
       <c r="U138" s="6"/>
       <c r="V138" s="6"/>
-      <c r="W138" s="6"/>
-      <c r="X138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
@@ -3948,8 +3651,6 @@
       <c r="T139" s="6"/>
       <c r="U139" s="6"/>
       <c r="V139" s="6"/>
-      <c r="W139" s="6"/>
-      <c r="X139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
@@ -3974,8 +3675,6 @@
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
       <c r="V140" s="6"/>
-      <c r="W140" s="6"/>
-      <c r="X140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
@@ -4000,8 +3699,6 @@
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
       <c r="V141" s="6"/>
-      <c r="W141" s="6"/>
-      <c r="X141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
@@ -4026,8 +3723,6 @@
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
       <c r="V142" s="6"/>
-      <c r="W142" s="6"/>
-      <c r="X142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6"/>
@@ -4052,8 +3747,6 @@
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
       <c r="V143" s="6"/>
-      <c r="W143" s="6"/>
-      <c r="X143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6"/>
@@ -4078,8 +3771,6 @@
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
       <c r="V144" s="6"/>
-      <c r="W144" s="6"/>
-      <c r="X144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6"/>
@@ -4104,8 +3795,6 @@
       <c r="T145" s="6"/>
       <c r="U145" s="6"/>
       <c r="V145" s="6"/>
-      <c r="W145" s="6"/>
-      <c r="X145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6"/>
@@ -4130,8 +3819,6 @@
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
       <c r="V146" s="6"/>
-      <c r="W146" s="6"/>
-      <c r="X146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6"/>
@@ -4156,8 +3843,6 @@
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
       <c r="V147" s="6"/>
-      <c r="W147" s="6"/>
-      <c r="X147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
@@ -4182,8 +3867,6 @@
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
-      <c r="W148" s="6"/>
-      <c r="X148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
@@ -4208,8 +3891,6 @@
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
       <c r="V149" s="6"/>
-      <c r="W149" s="6"/>
-      <c r="X149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
@@ -4234,8 +3915,6 @@
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
       <c r="V150" s="6"/>
-      <c r="W150" s="6"/>
-      <c r="X150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
@@ -4260,8 +3939,6 @@
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
       <c r="V151" s="6"/>
-      <c r="W151" s="6"/>
-      <c r="X151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
@@ -4286,8 +3963,6 @@
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
       <c r="V152" s="6"/>
-      <c r="W152" s="6"/>
-      <c r="X152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
@@ -4312,8 +3987,6 @@
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
       <c r="V153" s="6"/>
-      <c r="W153" s="6"/>
-      <c r="X153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
@@ -4338,8 +4011,6 @@
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
       <c r="V154" s="6"/>
-      <c r="W154" s="6"/>
-      <c r="X154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
@@ -4364,8 +4035,6 @@
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
       <c r="V155" s="6"/>
-      <c r="W155" s="6"/>
-      <c r="X155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
@@ -4390,8 +4059,6 @@
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
       <c r="V156" s="6"/>
-      <c r="W156" s="6"/>
-      <c r="X156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
@@ -4416,8 +4083,6 @@
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
       <c r="V157" s="6"/>
-      <c r="W157" s="6"/>
-      <c r="X157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
@@ -4442,8 +4107,6 @@
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
       <c r="V158" s="6"/>
-      <c r="W158" s="6"/>
-      <c r="X158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
@@ -4468,8 +4131,6 @@
       <c r="T159" s="6"/>
       <c r="U159" s="6"/>
       <c r="V159" s="6"/>
-      <c r="W159" s="6"/>
-      <c r="X159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
@@ -4494,8 +4155,6 @@
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
       <c r="V160" s="6"/>
-      <c r="W160" s="6"/>
-      <c r="X160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6"/>
@@ -4520,8 +4179,6 @@
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
       <c r="V161" s="6"/>
-      <c r="W161" s="6"/>
-      <c r="X161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6"/>
@@ -4546,8 +4203,6 @@
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
-      <c r="W162" s="6"/>
-      <c r="X162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6"/>
@@ -4572,8 +4227,6 @@
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
-      <c r="W163" s="6"/>
-      <c r="X163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6"/>
@@ -4598,8 +4251,6 @@
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
-      <c r="W164" s="6"/>
-      <c r="X164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6"/>
@@ -4624,8 +4275,6 @@
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
       <c r="V165" s="6"/>
-      <c r="W165" s="6"/>
-      <c r="X165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6"/>
@@ -4650,8 +4299,6 @@
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
       <c r="V166" s="6"/>
-      <c r="W166" s="6"/>
-      <c r="X166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6"/>
@@ -4676,8 +4323,6 @@
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
       <c r="V167" s="6"/>
-      <c r="W167" s="6"/>
-      <c r="X167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6"/>
@@ -4702,8 +4347,6 @@
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
       <c r="V168" s="6"/>
-      <c r="W168" s="6"/>
-      <c r="X168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6"/>
@@ -4728,8 +4371,6 @@
       <c r="T169" s="6"/>
       <c r="U169" s="6"/>
       <c r="V169" s="6"/>
-      <c r="W169" s="6"/>
-      <c r="X169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6"/>
@@ -4754,8 +4395,6 @@
       <c r="T170" s="6"/>
       <c r="U170" s="6"/>
       <c r="V170" s="6"/>
-      <c r="W170" s="6"/>
-      <c r="X170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6"/>
@@ -4780,8 +4419,6 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="6"/>
-      <c r="W171" s="6"/>
-      <c r="X171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6"/>
@@ -4806,8 +4443,6 @@
       <c r="T172" s="6"/>
       <c r="U172" s="6"/>
       <c r="V172" s="6"/>
-      <c r="W172" s="6"/>
-      <c r="X172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6"/>
@@ -4832,8 +4467,6 @@
       <c r="T173" s="6"/>
       <c r="U173" s="6"/>
       <c r="V173" s="6"/>
-      <c r="W173" s="6"/>
-      <c r="X173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6"/>
@@ -4858,8 +4491,6 @@
       <c r="T174" s="6"/>
       <c r="U174" s="6"/>
       <c r="V174" s="6"/>
-      <c r="W174" s="6"/>
-      <c r="X174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6"/>
@@ -4884,8 +4515,6 @@
       <c r="T175" s="6"/>
       <c r="U175" s="6"/>
       <c r="V175" s="6"/>
-      <c r="W175" s="6"/>
-      <c r="X175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6"/>
@@ -4910,8 +4539,6 @@
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
       <c r="V176" s="6"/>
-      <c r="W176" s="6"/>
-      <c r="X176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6"/>
@@ -4936,8 +4563,6 @@
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
       <c r="V177" s="6"/>
-      <c r="W177" s="6"/>
-      <c r="X177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6"/>
@@ -4962,8 +4587,6 @@
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
       <c r="V178" s="6"/>
-      <c r="W178" s="6"/>
-      <c r="X178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6"/>
@@ -4988,8 +4611,6 @@
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
       <c r="V179" s="6"/>
-      <c r="W179" s="6"/>
-      <c r="X179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6"/>
@@ -5014,8 +4635,6 @@
       <c r="T180" s="6"/>
       <c r="U180" s="6"/>
       <c r="V180" s="6"/>
-      <c r="W180" s="6"/>
-      <c r="X180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6"/>
@@ -5040,8 +4659,6 @@
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
       <c r="V181" s="6"/>
-      <c r="W181" s="6"/>
-      <c r="X181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6"/>
@@ -5066,8 +4683,6 @@
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
       <c r="V182" s="6"/>
-      <c r="W182" s="6"/>
-      <c r="X182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6"/>
@@ -5092,8 +4707,6 @@
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
       <c r="V183" s="6"/>
-      <c r="W183" s="6"/>
-      <c r="X183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6"/>
@@ -5118,8 +4731,6 @@
       <c r="T184" s="6"/>
       <c r="U184" s="6"/>
       <c r="V184" s="6"/>
-      <c r="W184" s="6"/>
-      <c r="X184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6"/>
@@ -5144,8 +4755,6 @@
       <c r="T185" s="6"/>
       <c r="U185" s="6"/>
       <c r="V185" s="6"/>
-      <c r="W185" s="6"/>
-      <c r="X185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6"/>
@@ -5170,8 +4779,6 @@
       <c r="T186" s="6"/>
       <c r="U186" s="6"/>
       <c r="V186" s="6"/>
-      <c r="W186" s="6"/>
-      <c r="X186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6"/>
@@ -5196,8 +4803,6 @@
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="6"/>
-      <c r="W187" s="6"/>
-      <c r="X187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6"/>
@@ -5222,8 +4827,6 @@
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
       <c r="V188" s="6"/>
-      <c r="W188" s="6"/>
-      <c r="X188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6"/>
@@ -5248,8 +4851,6 @@
       <c r="T189" s="6"/>
       <c r="U189" s="6"/>
       <c r="V189" s="6"/>
-      <c r="W189" s="6"/>
-      <c r="X189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6"/>
@@ -5274,8 +4875,6 @@
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="6"/>
-      <c r="W190" s="6"/>
-      <c r="X190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6"/>
@@ -5300,8 +4899,6 @@
       <c r="T191" s="6"/>
       <c r="U191" s="6"/>
       <c r="V191" s="6"/>
-      <c r="W191" s="6"/>
-      <c r="X191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6"/>
@@ -5326,8 +4923,6 @@
       <c r="T192" s="6"/>
       <c r="U192" s="6"/>
       <c r="V192" s="6"/>
-      <c r="W192" s="6"/>
-      <c r="X192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6"/>
@@ -5352,8 +4947,6 @@
       <c r="T193" s="6"/>
       <c r="U193" s="6"/>
       <c r="V193" s="6"/>
-      <c r="W193" s="6"/>
-      <c r="X193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6"/>
@@ -5378,8 +4971,6 @@
       <c r="T194" s="6"/>
       <c r="U194" s="6"/>
       <c r="V194" s="6"/>
-      <c r="W194" s="6"/>
-      <c r="X194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6"/>
@@ -5404,8 +4995,6 @@
       <c r="T195" s="6"/>
       <c r="U195" s="6"/>
       <c r="V195" s="6"/>
-      <c r="W195" s="6"/>
-      <c r="X195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6"/>
@@ -5430,8 +5019,6 @@
       <c r="T196" s="6"/>
       <c r="U196" s="6"/>
       <c r="V196" s="6"/>
-      <c r="W196" s="6"/>
-      <c r="X196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6"/>
@@ -5456,8 +5043,6 @@
       <c r="T197" s="6"/>
       <c r="U197" s="6"/>
       <c r="V197" s="6"/>
-      <c r="W197" s="6"/>
-      <c r="X197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6"/>
@@ -5482,8 +5067,6 @@
       <c r="T198" s="6"/>
       <c r="U198" s="6"/>
       <c r="V198" s="6"/>
-      <c r="W198" s="6"/>
-      <c r="X198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6"/>
@@ -5508,8 +5091,6 @@
       <c r="T199" s="6"/>
       <c r="U199" s="6"/>
       <c r="V199" s="6"/>
-      <c r="W199" s="6"/>
-      <c r="X199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6"/>
@@ -5534,8 +5115,6 @@
       <c r="T200" s="6"/>
       <c r="U200" s="6"/>
       <c r="V200" s="6"/>
-      <c r="W200" s="6"/>
-      <c r="X200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6"/>
@@ -5560,8 +5139,6 @@
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
       <c r="V201" s="6"/>
-      <c r="W201" s="6"/>
-      <c r="X201" s="6"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6"/>
@@ -5586,8 +5163,6 @@
       <c r="T202" s="6"/>
       <c r="U202" s="6"/>
       <c r="V202" s="6"/>
-      <c r="W202" s="6"/>
-      <c r="X202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6"/>
@@ -5612,8 +5187,6 @@
       <c r="T203" s="6"/>
       <c r="U203" s="6"/>
       <c r="V203" s="6"/>
-      <c r="W203" s="6"/>
-      <c r="X203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6"/>
@@ -5638,8 +5211,6 @@
       <c r="T204" s="6"/>
       <c r="U204" s="6"/>
       <c r="V204" s="6"/>
-      <c r="W204" s="6"/>
-      <c r="X204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6"/>
@@ -5664,8 +5235,6 @@
       <c r="T205" s="6"/>
       <c r="U205" s="6"/>
       <c r="V205" s="6"/>
-      <c r="W205" s="6"/>
-      <c r="X205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6"/>
@@ -5690,8 +5259,6 @@
       <c r="T206" s="6"/>
       <c r="U206" s="6"/>
       <c r="V206" s="6"/>
-      <c r="W206" s="6"/>
-      <c r="X206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6"/>
@@ -5716,8 +5283,6 @@
       <c r="T207" s="6"/>
       <c r="U207" s="6"/>
       <c r="V207" s="6"/>
-      <c r="W207" s="6"/>
-      <c r="X207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6"/>
@@ -5742,8 +5307,6 @@
       <c r="T208" s="6"/>
       <c r="U208" s="6"/>
       <c r="V208" s="6"/>
-      <c r="W208" s="6"/>
-      <c r="X208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6"/>
@@ -5768,8 +5331,6 @@
       <c r="T209" s="6"/>
       <c r="U209" s="6"/>
       <c r="V209" s="6"/>
-      <c r="W209" s="6"/>
-      <c r="X209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6"/>
@@ -5794,8 +5355,6 @@
       <c r="T210" s="6"/>
       <c r="U210" s="6"/>
       <c r="V210" s="6"/>
-      <c r="W210" s="6"/>
-      <c r="X210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6"/>
@@ -5820,8 +5379,6 @@
       <c r="T211" s="6"/>
       <c r="U211" s="6"/>
       <c r="V211" s="6"/>
-      <c r="W211" s="6"/>
-      <c r="X211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
@@ -5846,8 +5403,6 @@
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
       <c r="V212" s="6"/>
-      <c r="W212" s="6"/>
-      <c r="X212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
@@ -5872,8 +5427,6 @@
       <c r="T213" s="6"/>
       <c r="U213" s="6"/>
       <c r="V213" s="6"/>
-      <c r="W213" s="6"/>
-      <c r="X213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6"/>
@@ -5898,8 +5451,6 @@
       <c r="T214" s="6"/>
       <c r="U214" s="6"/>
       <c r="V214" s="6"/>
-      <c r="W214" s="6"/>
-      <c r="X214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6"/>
@@ -5924,8 +5475,6 @@
       <c r="T215" s="6"/>
       <c r="U215" s="6"/>
       <c r="V215" s="6"/>
-      <c r="W215" s="6"/>
-      <c r="X215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6"/>
@@ -5950,8 +5499,6 @@
       <c r="T216" s="6"/>
       <c r="U216" s="6"/>
       <c r="V216" s="6"/>
-      <c r="W216" s="6"/>
-      <c r="X216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6"/>
@@ -5976,8 +5523,6 @@
       <c r="T217" s="6"/>
       <c r="U217" s="6"/>
       <c r="V217" s="6"/>
-      <c r="W217" s="6"/>
-      <c r="X217" s="6"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6"/>
@@ -6002,8 +5547,6 @@
       <c r="T218" s="6"/>
       <c r="U218" s="6"/>
       <c r="V218" s="6"/>
-      <c r="W218" s="6"/>
-      <c r="X218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6"/>
@@ -6028,8 +5571,6 @@
       <c r="T219" s="6"/>
       <c r="U219" s="6"/>
       <c r="V219" s="6"/>
-      <c r="W219" s="6"/>
-      <c r="X219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6"/>
@@ -6054,8 +5595,6 @@
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
       <c r="V220" s="6"/>
-      <c r="W220" s="6"/>
-      <c r="X220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6"/>
@@ -6080,8 +5619,6 @@
       <c r="T221" s="6"/>
       <c r="U221" s="6"/>
       <c r="V221" s="6"/>
-      <c r="W221" s="6"/>
-      <c r="X221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6"/>
@@ -6106,8 +5643,6 @@
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
       <c r="V222" s="6"/>
-      <c r="W222" s="6"/>
-      <c r="X222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6"/>
@@ -6132,8 +5667,6 @@
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="6"/>
-      <c r="W223" s="6"/>
-      <c r="X223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6"/>
@@ -6158,8 +5691,6 @@
       <c r="T224" s="6"/>
       <c r="U224" s="6"/>
       <c r="V224" s="6"/>
-      <c r="W224" s="6"/>
-      <c r="X224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6"/>
@@ -6184,8 +5715,6 @@
       <c r="T225" s="6"/>
       <c r="U225" s="6"/>
       <c r="V225" s="6"/>
-      <c r="W225" s="6"/>
-      <c r="X225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6"/>
@@ -6210,8 +5739,6 @@
       <c r="T226" s="6"/>
       <c r="U226" s="6"/>
       <c r="V226" s="6"/>
-      <c r="W226" s="6"/>
-      <c r="X226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6"/>
@@ -6236,8 +5763,6 @@
       <c r="T227" s="6"/>
       <c r="U227" s="6"/>
       <c r="V227" s="6"/>
-      <c r="W227" s="6"/>
-      <c r="X227" s="6"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6"/>
@@ -6262,8 +5787,6 @@
       <c r="T228" s="6"/>
       <c r="U228" s="6"/>
       <c r="V228" s="6"/>
-      <c r="W228" s="6"/>
-      <c r="X228" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6"/>
@@ -6288,8 +5811,6 @@
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
       <c r="V229" s="6"/>
-      <c r="W229" s="6"/>
-      <c r="X229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6"/>
@@ -6314,8 +5835,6 @@
       <c r="T230" s="6"/>
       <c r="U230" s="6"/>
       <c r="V230" s="6"/>
-      <c r="W230" s="6"/>
-      <c r="X230" s="6"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6"/>
@@ -6340,8 +5859,6 @@
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
       <c r="V231" s="6"/>
-      <c r="W231" s="6"/>
-      <c r="X231" s="6"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6"/>
@@ -6366,8 +5883,6 @@
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
       <c r="V232" s="6"/>
-      <c r="W232" s="6"/>
-      <c r="X232" s="6"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6"/>
@@ -6392,8 +5907,6 @@
       <c r="T233" s="6"/>
       <c r="U233" s="6"/>
       <c r="V233" s="6"/>
-      <c r="W233" s="6"/>
-      <c r="X233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6"/>
@@ -6418,8 +5931,6 @@
       <c r="T234" s="6"/>
       <c r="U234" s="6"/>
       <c r="V234" s="6"/>
-      <c r="W234" s="6"/>
-      <c r="X234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6"/>
@@ -6444,8 +5955,6 @@
       <c r="T235" s="6"/>
       <c r="U235" s="6"/>
       <c r="V235" s="6"/>
-      <c r="W235" s="6"/>
-      <c r="X235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6"/>
@@ -6470,8 +5979,6 @@
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
       <c r="V236" s="6"/>
-      <c r="W236" s="6"/>
-      <c r="X236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6"/>
@@ -6496,8 +6003,6 @@
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
       <c r="V237" s="6"/>
-      <c r="W237" s="6"/>
-      <c r="X237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6"/>
@@ -6522,8 +6027,6 @@
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
       <c r="V238" s="6"/>
-      <c r="W238" s="6"/>
-      <c r="X238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6"/>
@@ -6548,8 +6051,6 @@
       <c r="T239" s="6"/>
       <c r="U239" s="6"/>
       <c r="V239" s="6"/>
-      <c r="W239" s="6"/>
-      <c r="X239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6"/>
@@ -6574,8 +6075,6 @@
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
       <c r="V240" s="6"/>
-      <c r="W240" s="6"/>
-      <c r="X240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6"/>
@@ -6600,8 +6099,6 @@
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
       <c r="V241" s="6"/>
-      <c r="W241" s="6"/>
-      <c r="X241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6"/>
@@ -6626,8 +6123,6 @@
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
       <c r="V242" s="6"/>
-      <c r="W242" s="6"/>
-      <c r="X242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6"/>
@@ -6652,8 +6147,6 @@
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
       <c r="V243" s="6"/>
-      <c r="W243" s="6"/>
-      <c r="X243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6"/>
@@ -6678,8 +6171,6 @@
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
       <c r="V244" s="6"/>
-      <c r="W244" s="6"/>
-      <c r="X244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6"/>
@@ -6704,8 +6195,6 @@
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>
       <c r="V245" s="6"/>
-      <c r="W245" s="6"/>
-      <c r="X245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6"/>
@@ -6730,8 +6219,6 @@
       <c r="T246" s="6"/>
       <c r="U246" s="6"/>
       <c r="V246" s="6"/>
-      <c r="W246" s="6"/>
-      <c r="X246" s="6"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6"/>
@@ -6756,8 +6243,6 @@
       <c r="T247" s="6"/>
       <c r="U247" s="6"/>
       <c r="V247" s="6"/>
-      <c r="W247" s="6"/>
-      <c r="X247" s="6"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6"/>
@@ -6782,8 +6267,6 @@
       <c r="T248" s="6"/>
       <c r="U248" s="6"/>
       <c r="V248" s="6"/>
-      <c r="W248" s="6"/>
-      <c r="X248" s="6"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6"/>
@@ -6808,8 +6291,6 @@
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
       <c r="V249" s="6"/>
-      <c r="W249" s="6"/>
-      <c r="X249" s="6"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6"/>
@@ -6834,8 +6315,6 @@
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
       <c r="V250" s="6"/>
-      <c r="W250" s="6"/>
-      <c r="X250" s="6"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6"/>
@@ -6860,8 +6339,6 @@
       <c r="T251" s="6"/>
       <c r="U251" s="6"/>
       <c r="V251" s="6"/>
-      <c r="W251" s="6"/>
-      <c r="X251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6"/>
@@ -6886,8 +6363,6 @@
       <c r="T252" s="6"/>
       <c r="U252" s="6"/>
       <c r="V252" s="6"/>
-      <c r="W252" s="6"/>
-      <c r="X252" s="6"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6"/>
@@ -6912,8 +6387,6 @@
       <c r="T253" s="6"/>
       <c r="U253" s="6"/>
       <c r="V253" s="6"/>
-      <c r="W253" s="6"/>
-      <c r="X253" s="6"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6"/>
@@ -6938,8 +6411,6 @@
       <c r="T254" s="6"/>
       <c r="U254" s="6"/>
       <c r="V254" s="6"/>
-      <c r="W254" s="6"/>
-      <c r="X254" s="6"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6"/>
@@ -6964,8 +6435,6 @@
       <c r="T255" s="6"/>
       <c r="U255" s="6"/>
       <c r="V255" s="6"/>
-      <c r="W255" s="6"/>
-      <c r="X255" s="6"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6"/>
@@ -6990,8 +6459,6 @@
       <c r="T256" s="6"/>
       <c r="U256" s="6"/>
       <c r="V256" s="6"/>
-      <c r="W256" s="6"/>
-      <c r="X256" s="6"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6"/>
@@ -7016,8 +6483,6 @@
       <c r="T257" s="6"/>
       <c r="U257" s="6"/>
       <c r="V257" s="6"/>
-      <c r="W257" s="6"/>
-      <c r="X257" s="6"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6"/>
@@ -7042,8 +6507,6 @@
       <c r="T258" s="6"/>
       <c r="U258" s="6"/>
       <c r="V258" s="6"/>
-      <c r="W258" s="6"/>
-      <c r="X258" s="6"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6"/>
@@ -7068,8 +6531,6 @@
       <c r="T259" s="6"/>
       <c r="U259" s="6"/>
       <c r="V259" s="6"/>
-      <c r="W259" s="6"/>
-      <c r="X259" s="6"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6"/>
@@ -7094,8 +6555,6 @@
       <c r="T260" s="6"/>
       <c r="U260" s="6"/>
       <c r="V260" s="6"/>
-      <c r="W260" s="6"/>
-      <c r="X260" s="6"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6"/>
@@ -7120,8 +6579,6 @@
       <c r="T261" s="6"/>
       <c r="U261" s="6"/>
       <c r="V261" s="6"/>
-      <c r="W261" s="6"/>
-      <c r="X261" s="6"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6"/>
@@ -7146,8 +6603,6 @@
       <c r="T262" s="6"/>
       <c r="U262" s="6"/>
       <c r="V262" s="6"/>
-      <c r="W262" s="6"/>
-      <c r="X262" s="6"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6"/>
@@ -7172,8 +6627,6 @@
       <c r="T263" s="6"/>
       <c r="U263" s="6"/>
       <c r="V263" s="6"/>
-      <c r="W263" s="6"/>
-      <c r="X263" s="6"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6"/>
@@ -7198,8 +6651,6 @@
       <c r="T264" s="6"/>
       <c r="U264" s="6"/>
       <c r="V264" s="6"/>
-      <c r="W264" s="6"/>
-      <c r="X264" s="6"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6"/>
@@ -7224,8 +6675,6 @@
       <c r="T265" s="6"/>
       <c r="U265" s="6"/>
       <c r="V265" s="6"/>
-      <c r="W265" s="6"/>
-      <c r="X265" s="6"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6"/>
@@ -7250,8 +6699,6 @@
       <c r="T266" s="6"/>
       <c r="U266" s="6"/>
       <c r="V266" s="6"/>
-      <c r="W266" s="6"/>
-      <c r="X266" s="6"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6"/>
@@ -7276,8 +6723,6 @@
       <c r="T267" s="6"/>
       <c r="U267" s="6"/>
       <c r="V267" s="6"/>
-      <c r="W267" s="6"/>
-      <c r="X267" s="6"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6"/>
@@ -7302,8 +6747,6 @@
       <c r="T268" s="6"/>
       <c r="U268" s="6"/>
       <c r="V268" s="6"/>
-      <c r="W268" s="6"/>
-      <c r="X268" s="6"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6"/>
@@ -7328,8 +6771,6 @@
       <c r="T269" s="6"/>
       <c r="U269" s="6"/>
       <c r="V269" s="6"/>
-      <c r="W269" s="6"/>
-      <c r="X269" s="6"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6"/>
@@ -7354,8 +6795,6 @@
       <c r="T270" s="6"/>
       <c r="U270" s="6"/>
       <c r="V270" s="6"/>
-      <c r="W270" s="6"/>
-      <c r="X270" s="6"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6"/>
@@ -7380,8 +6819,6 @@
       <c r="T271" s="6"/>
       <c r="U271" s="6"/>
       <c r="V271" s="6"/>
-      <c r="W271" s="6"/>
-      <c r="X271" s="6"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6"/>
@@ -7406,8 +6843,6 @@
       <c r="T272" s="6"/>
       <c r="U272" s="6"/>
       <c r="V272" s="6"/>
-      <c r="W272" s="6"/>
-      <c r="X272" s="6"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6"/>
@@ -7432,8 +6867,6 @@
       <c r="T273" s="6"/>
       <c r="U273" s="6"/>
       <c r="V273" s="6"/>
-      <c r="W273" s="6"/>
-      <c r="X273" s="6"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6"/>
@@ -7458,8 +6891,6 @@
       <c r="T274" s="6"/>
       <c r="U274" s="6"/>
       <c r="V274" s="6"/>
-      <c r="W274" s="6"/>
-      <c r="X274" s="6"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6"/>
@@ -7484,8 +6915,6 @@
       <c r="T275" s="6"/>
       <c r="U275" s="6"/>
       <c r="V275" s="6"/>
-      <c r="W275" s="6"/>
-      <c r="X275" s="6"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6"/>
@@ -7510,8 +6939,6 @@
       <c r="T276" s="6"/>
       <c r="U276" s="6"/>
       <c r="V276" s="6"/>
-      <c r="W276" s="6"/>
-      <c r="X276" s="6"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6"/>
@@ -7536,8 +6963,6 @@
       <c r="T277" s="6"/>
       <c r="U277" s="6"/>
       <c r="V277" s="6"/>
-      <c r="W277" s="6"/>
-      <c r="X277" s="6"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6"/>
@@ -7562,8 +6987,6 @@
       <c r="T278" s="6"/>
       <c r="U278" s="6"/>
       <c r="V278" s="6"/>
-      <c r="W278" s="6"/>
-      <c r="X278" s="6"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6"/>
@@ -7588,8 +7011,6 @@
       <c r="T279" s="6"/>
       <c r="U279" s="6"/>
       <c r="V279" s="6"/>
-      <c r="W279" s="6"/>
-      <c r="X279" s="6"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6"/>
@@ -7614,8 +7035,6 @@
       <c r="T280" s="6"/>
       <c r="U280" s="6"/>
       <c r="V280" s="6"/>
-      <c r="W280" s="6"/>
-      <c r="X280" s="6"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6"/>
@@ -7640,8 +7059,6 @@
       <c r="T281" s="6"/>
       <c r="U281" s="6"/>
       <c r="V281" s="6"/>
-      <c r="W281" s="6"/>
-      <c r="X281" s="6"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6"/>
@@ -7666,8 +7083,6 @@
       <c r="T282" s="6"/>
       <c r="U282" s="6"/>
       <c r="V282" s="6"/>
-      <c r="W282" s="6"/>
-      <c r="X282" s="6"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6"/>
@@ -7692,8 +7107,6 @@
       <c r="T283" s="6"/>
       <c r="U283" s="6"/>
       <c r="V283" s="6"/>
-      <c r="W283" s="6"/>
-      <c r="X283" s="6"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6"/>
@@ -7718,8 +7131,6 @@
       <c r="T284" s="6"/>
       <c r="U284" s="6"/>
       <c r="V284" s="6"/>
-      <c r="W284" s="6"/>
-      <c r="X284" s="6"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6"/>
@@ -7744,8 +7155,6 @@
       <c r="T285" s="6"/>
       <c r="U285" s="6"/>
       <c r="V285" s="6"/>
-      <c r="W285" s="6"/>
-      <c r="X285" s="6"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6"/>
@@ -7770,8 +7179,6 @@
       <c r="T286" s="6"/>
       <c r="U286" s="6"/>
       <c r="V286" s="6"/>
-      <c r="W286" s="6"/>
-      <c r="X286" s="6"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6"/>
@@ -7796,8 +7203,6 @@
       <c r="T287" s="6"/>
       <c r="U287" s="6"/>
       <c r="V287" s="6"/>
-      <c r="W287" s="6"/>
-      <c r="X287" s="6"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6"/>
@@ -7822,8 +7227,6 @@
       <c r="T288" s="6"/>
       <c r="U288" s="6"/>
       <c r="V288" s="6"/>
-      <c r="W288" s="6"/>
-      <c r="X288" s="6"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6"/>
@@ -7848,8 +7251,6 @@
       <c r="T289" s="6"/>
       <c r="U289" s="6"/>
       <c r="V289" s="6"/>
-      <c r="W289" s="6"/>
-      <c r="X289" s="6"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6"/>
@@ -7874,8 +7275,6 @@
       <c r="T290" s="6"/>
       <c r="U290" s="6"/>
       <c r="V290" s="6"/>
-      <c r="W290" s="6"/>
-      <c r="X290" s="6"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6"/>
@@ -7900,8 +7299,6 @@
       <c r="T291" s="6"/>
       <c r="U291" s="6"/>
       <c r="V291" s="6"/>
-      <c r="W291" s="6"/>
-      <c r="X291" s="6"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6"/>
@@ -7926,8 +7323,6 @@
       <c r="T292" s="6"/>
       <c r="U292" s="6"/>
       <c r="V292" s="6"/>
-      <c r="W292" s="6"/>
-      <c r="X292" s="6"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6"/>
@@ -7952,8 +7347,6 @@
       <c r="T293" s="6"/>
       <c r="U293" s="6"/>
       <c r="V293" s="6"/>
-      <c r="W293" s="6"/>
-      <c r="X293" s="6"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6"/>
@@ -7978,8 +7371,6 @@
       <c r="T294" s="6"/>
       <c r="U294" s="6"/>
       <c r="V294" s="6"/>
-      <c r="W294" s="6"/>
-      <c r="X294" s="6"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6"/>
@@ -8004,8 +7395,6 @@
       <c r="T295" s="6"/>
       <c r="U295" s="6"/>
       <c r="V295" s="6"/>
-      <c r="W295" s="6"/>
-      <c r="X295" s="6"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6"/>
@@ -8030,8 +7419,6 @@
       <c r="T296" s="6"/>
       <c r="U296" s="6"/>
       <c r="V296" s="6"/>
-      <c r="W296" s="6"/>
-      <c r="X296" s="6"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6"/>
@@ -8056,8 +7443,6 @@
       <c r="T297" s="6"/>
       <c r="U297" s="6"/>
       <c r="V297" s="6"/>
-      <c r="W297" s="6"/>
-      <c r="X297" s="6"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6"/>
@@ -8082,8 +7467,6 @@
       <c r="T298" s="6"/>
       <c r="U298" s="6"/>
       <c r="V298" s="6"/>
-      <c r="W298" s="6"/>
-      <c r="X298" s="6"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6"/>
@@ -8108,8 +7491,6 @@
       <c r="T299" s="6"/>
       <c r="U299" s="6"/>
       <c r="V299" s="6"/>
-      <c r="W299" s="6"/>
-      <c r="X299" s="6"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6"/>
@@ -8134,8 +7515,6 @@
       <c r="T300" s="6"/>
       <c r="U300" s="6"/>
       <c r="V300" s="6"/>
-      <c r="W300" s="6"/>
-      <c r="X300" s="6"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6"/>
@@ -8160,8 +7539,6 @@
       <c r="T301" s="6"/>
       <c r="U301" s="6"/>
       <c r="V301" s="6"/>
-      <c r="W301" s="6"/>
-      <c r="X301" s="6"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6"/>
@@ -8186,8 +7563,6 @@
       <c r="T302" s="6"/>
       <c r="U302" s="6"/>
       <c r="V302" s="6"/>
-      <c r="W302" s="6"/>
-      <c r="X302" s="6"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6"/>
@@ -8212,8 +7587,6 @@
       <c r="T303" s="6"/>
       <c r="U303" s="6"/>
       <c r="V303" s="6"/>
-      <c r="W303" s="6"/>
-      <c r="X303" s="6"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6"/>
@@ -8238,8 +7611,6 @@
       <c r="T304" s="6"/>
       <c r="U304" s="6"/>
       <c r="V304" s="6"/>
-      <c r="W304" s="6"/>
-      <c r="X304" s="6"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6"/>
@@ -8264,8 +7635,6 @@
       <c r="T305" s="6"/>
       <c r="U305" s="6"/>
       <c r="V305" s="6"/>
-      <c r="W305" s="6"/>
-      <c r="X305" s="6"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6"/>
@@ -8290,8 +7659,6 @@
       <c r="T306" s="6"/>
       <c r="U306" s="6"/>
       <c r="V306" s="6"/>
-      <c r="W306" s="6"/>
-      <c r="X306" s="6"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6"/>
@@ -8316,8 +7683,6 @@
       <c r="T307" s="6"/>
       <c r="U307" s="6"/>
       <c r="V307" s="6"/>
-      <c r="W307" s="6"/>
-      <c r="X307" s="6"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6"/>
@@ -8342,8 +7707,6 @@
       <c r="T308" s="6"/>
       <c r="U308" s="6"/>
       <c r="V308" s="6"/>
-      <c r="W308" s="6"/>
-      <c r="X308" s="6"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6"/>
@@ -8368,8 +7731,6 @@
       <c r="T309" s="6"/>
       <c r="U309" s="6"/>
       <c r="V309" s="6"/>
-      <c r="W309" s="6"/>
-      <c r="X309" s="6"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6"/>
@@ -8394,8 +7755,6 @@
       <c r="T310" s="6"/>
       <c r="U310" s="6"/>
       <c r="V310" s="6"/>
-      <c r="W310" s="6"/>
-      <c r="X310" s="6"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6"/>
@@ -8420,8 +7779,6 @@
       <c r="T311" s="6"/>
       <c r="U311" s="6"/>
       <c r="V311" s="6"/>
-      <c r="W311" s="6"/>
-      <c r="X311" s="6"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6"/>
@@ -8446,8 +7803,6 @@
       <c r="T312" s="6"/>
       <c r="U312" s="6"/>
       <c r="V312" s="6"/>
-      <c r="W312" s="6"/>
-      <c r="X312" s="6"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6"/>
@@ -8472,8 +7827,6 @@
       <c r="T313" s="6"/>
       <c r="U313" s="6"/>
       <c r="V313" s="6"/>
-      <c r="W313" s="6"/>
-      <c r="X313" s="6"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6"/>
@@ -8498,8 +7851,6 @@
       <c r="T314" s="6"/>
       <c r="U314" s="6"/>
       <c r="V314" s="6"/>
-      <c r="W314" s="6"/>
-      <c r="X314" s="6"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6"/>
@@ -8524,8 +7875,6 @@
       <c r="T315" s="6"/>
       <c r="U315" s="6"/>
       <c r="V315" s="6"/>
-      <c r="W315" s="6"/>
-      <c r="X315" s="6"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6"/>
@@ -8550,8 +7899,6 @@
       <c r="T316" s="6"/>
       <c r="U316" s="6"/>
       <c r="V316" s="6"/>
-      <c r="W316" s="6"/>
-      <c r="X316" s="6"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6"/>
@@ -8576,8 +7923,6 @@
       <c r="T317" s="6"/>
       <c r="U317" s="6"/>
       <c r="V317" s="6"/>
-      <c r="W317" s="6"/>
-      <c r="X317" s="6"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6"/>
@@ -8602,8 +7947,6 @@
       <c r="T318" s="6"/>
       <c r="U318" s="6"/>
       <c r="V318" s="6"/>
-      <c r="W318" s="6"/>
-      <c r="X318" s="6"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6"/>
@@ -8628,8 +7971,6 @@
       <c r="T319" s="6"/>
       <c r="U319" s="6"/>
       <c r="V319" s="6"/>
-      <c r="W319" s="6"/>
-      <c r="X319" s="6"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6"/>
@@ -8654,8 +7995,6 @@
       <c r="T320" s="6"/>
       <c r="U320" s="6"/>
       <c r="V320" s="6"/>
-      <c r="W320" s="6"/>
-      <c r="X320" s="6"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6"/>
@@ -8680,8 +8019,6 @@
       <c r="T321" s="6"/>
       <c r="U321" s="6"/>
       <c r="V321" s="6"/>
-      <c r="W321" s="6"/>
-      <c r="X321" s="6"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6"/>
@@ -8706,8 +8043,6 @@
       <c r="T322" s="6"/>
       <c r="U322" s="6"/>
       <c r="V322" s="6"/>
-      <c r="W322" s="6"/>
-      <c r="X322" s="6"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6"/>
@@ -8732,8 +8067,6 @@
       <c r="T323" s="6"/>
       <c r="U323" s="6"/>
       <c r="V323" s="6"/>
-      <c r="W323" s="6"/>
-      <c r="X323" s="6"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6"/>
@@ -8758,8 +8091,6 @@
       <c r="T324" s="6"/>
       <c r="U324" s="6"/>
       <c r="V324" s="6"/>
-      <c r="W324" s="6"/>
-      <c r="X324" s="6"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6"/>
@@ -8784,8 +8115,6 @@
       <c r="T325" s="6"/>
       <c r="U325" s="6"/>
       <c r="V325" s="6"/>
-      <c r="W325" s="6"/>
-      <c r="X325" s="6"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6"/>
@@ -8810,8 +8139,6 @@
       <c r="T326" s="6"/>
       <c r="U326" s="6"/>
       <c r="V326" s="6"/>
-      <c r="W326" s="6"/>
-      <c r="X326" s="6"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6"/>
@@ -8836,8 +8163,6 @@
       <c r="T327" s="6"/>
       <c r="U327" s="6"/>
       <c r="V327" s="6"/>
-      <c r="W327" s="6"/>
-      <c r="X327" s="6"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6"/>
@@ -8862,8 +8187,6 @@
       <c r="T328" s="6"/>
       <c r="U328" s="6"/>
       <c r="V328" s="6"/>
-      <c r="W328" s="6"/>
-      <c r="X328" s="6"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6"/>
@@ -8888,8 +8211,6 @@
       <c r="T329" s="6"/>
       <c r="U329" s="6"/>
       <c r="V329" s="6"/>
-      <c r="W329" s="6"/>
-      <c r="X329" s="6"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6"/>
@@ -8914,8 +8235,6 @@
       <c r="T330" s="6"/>
       <c r="U330" s="6"/>
       <c r="V330" s="6"/>
-      <c r="W330" s="6"/>
-      <c r="X330" s="6"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6"/>
@@ -8940,8 +8259,6 @@
       <c r="T331" s="6"/>
       <c r="U331" s="6"/>
       <c r="V331" s="6"/>
-      <c r="W331" s="6"/>
-      <c r="X331" s="6"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6"/>
@@ -8966,8 +8283,6 @@
       <c r="T332" s="6"/>
       <c r="U332" s="6"/>
       <c r="V332" s="6"/>
-      <c r="W332" s="6"/>
-      <c r="X332" s="6"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6"/>
@@ -8992,8 +8307,6 @@
       <c r="T333" s="6"/>
       <c r="U333" s="6"/>
       <c r="V333" s="6"/>
-      <c r="W333" s="6"/>
-      <c r="X333" s="6"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="6"/>
@@ -9018,8 +8331,6 @@
       <c r="T334" s="6"/>
       <c r="U334" s="6"/>
       <c r="V334" s="6"/>
-      <c r="W334" s="6"/>
-      <c r="X334" s="6"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="6"/>
@@ -9044,8 +8355,6 @@
       <c r="T335" s="6"/>
       <c r="U335" s="6"/>
       <c r="V335" s="6"/>
-      <c r="W335" s="6"/>
-      <c r="X335" s="6"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6"/>
@@ -9070,8 +8379,6 @@
       <c r="T336" s="6"/>
       <c r="U336" s="6"/>
       <c r="V336" s="6"/>
-      <c r="W336" s="6"/>
-      <c r="X336" s="6"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6"/>
@@ -9096,8 +8403,6 @@
       <c r="T337" s="6"/>
       <c r="U337" s="6"/>
       <c r="V337" s="6"/>
-      <c r="W337" s="6"/>
-      <c r="X337" s="6"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6"/>
@@ -9122,8 +8427,6 @@
       <c r="T338" s="6"/>
       <c r="U338" s="6"/>
       <c r="V338" s="6"/>
-      <c r="W338" s="6"/>
-      <c r="X338" s="6"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6"/>
@@ -9148,8 +8451,6 @@
       <c r="T339" s="6"/>
       <c r="U339" s="6"/>
       <c r="V339" s="6"/>
-      <c r="W339" s="6"/>
-      <c r="X339" s="6"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6"/>
@@ -9174,8 +8475,6 @@
       <c r="T340" s="6"/>
       <c r="U340" s="6"/>
       <c r="V340" s="6"/>
-      <c r="W340" s="6"/>
-      <c r="X340" s="6"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6"/>
@@ -9200,8 +8499,6 @@
       <c r="T341" s="6"/>
       <c r="U341" s="6"/>
       <c r="V341" s="6"/>
-      <c r="W341" s="6"/>
-      <c r="X341" s="6"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6"/>
@@ -9226,8 +8523,6 @@
       <c r="T342" s="6"/>
       <c r="U342" s="6"/>
       <c r="V342" s="6"/>
-      <c r="W342" s="6"/>
-      <c r="X342" s="6"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6"/>
@@ -9252,8 +8547,6 @@
       <c r="T343" s="6"/>
       <c r="U343" s="6"/>
       <c r="V343" s="6"/>
-      <c r="W343" s="6"/>
-      <c r="X343" s="6"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6"/>
@@ -9278,8 +8571,6 @@
       <c r="T344" s="6"/>
       <c r="U344" s="6"/>
       <c r="V344" s="6"/>
-      <c r="W344" s="6"/>
-      <c r="X344" s="6"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6"/>
@@ -9304,8 +8595,6 @@
       <c r="T345" s="6"/>
       <c r="U345" s="6"/>
       <c r="V345" s="6"/>
-      <c r="W345" s="6"/>
-      <c r="X345" s="6"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6"/>
@@ -9330,8 +8619,6 @@
       <c r="T346" s="6"/>
       <c r="U346" s="6"/>
       <c r="V346" s="6"/>
-      <c r="W346" s="6"/>
-      <c r="X346" s="6"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6"/>
@@ -9356,8 +8643,6 @@
       <c r="T347" s="6"/>
       <c r="U347" s="6"/>
       <c r="V347" s="6"/>
-      <c r="W347" s="6"/>
-      <c r="X347" s="6"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6"/>
@@ -9382,8 +8667,6 @@
       <c r="T348" s="6"/>
       <c r="U348" s="6"/>
       <c r="V348" s="6"/>
-      <c r="W348" s="6"/>
-      <c r="X348" s="6"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6"/>
@@ -9408,8 +8691,6 @@
       <c r="T349" s="6"/>
       <c r="U349" s="6"/>
       <c r="V349" s="6"/>
-      <c r="W349" s="6"/>
-      <c r="X349" s="6"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6"/>
@@ -9434,8 +8715,6 @@
       <c r="T350" s="6"/>
       <c r="U350" s="6"/>
       <c r="V350" s="6"/>
-      <c r="W350" s="6"/>
-      <c r="X350" s="6"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6"/>
@@ -9460,8 +8739,6 @@
       <c r="T351" s="6"/>
       <c r="U351" s="6"/>
       <c r="V351" s="6"/>
-      <c r="W351" s="6"/>
-      <c r="X351" s="6"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6"/>
@@ -9486,8 +8763,6 @@
       <c r="T352" s="6"/>
       <c r="U352" s="6"/>
       <c r="V352" s="6"/>
-      <c r="W352" s="6"/>
-      <c r="X352" s="6"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6"/>
@@ -9512,8 +8787,6 @@
       <c r="T353" s="6"/>
       <c r="U353" s="6"/>
       <c r="V353" s="6"/>
-      <c r="W353" s="6"/>
-      <c r="X353" s="6"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="6"/>
@@ -9538,8 +8811,6 @@
       <c r="T354" s="6"/>
       <c r="U354" s="6"/>
       <c r="V354" s="6"/>
-      <c r="W354" s="6"/>
-      <c r="X354" s="6"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="6"/>
@@ -9564,8 +8835,6 @@
       <c r="T355" s="6"/>
       <c r="U355" s="6"/>
       <c r="V355" s="6"/>
-      <c r="W355" s="6"/>
-      <c r="X355" s="6"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6"/>
@@ -9590,8 +8859,6 @@
       <c r="T356" s="6"/>
       <c r="U356" s="6"/>
       <c r="V356" s="6"/>
-      <c r="W356" s="6"/>
-      <c r="X356" s="6"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6"/>
@@ -9616,8 +8883,6 @@
       <c r="T357" s="6"/>
       <c r="U357" s="6"/>
       <c r="V357" s="6"/>
-      <c r="W357" s="6"/>
-      <c r="X357" s="6"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6"/>
@@ -9642,8 +8907,6 @@
       <c r="T358" s="6"/>
       <c r="U358" s="6"/>
       <c r="V358" s="6"/>
-      <c r="W358" s="6"/>
-      <c r="X358" s="6"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6"/>
@@ -9668,8 +8931,6 @@
       <c r="T359" s="6"/>
       <c r="U359" s="6"/>
       <c r="V359" s="6"/>
-      <c r="W359" s="6"/>
-      <c r="X359" s="6"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6"/>
@@ -9694,8 +8955,6 @@
       <c r="T360" s="6"/>
       <c r="U360" s="6"/>
       <c r="V360" s="6"/>
-      <c r="W360" s="6"/>
-      <c r="X360" s="6"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6"/>
@@ -9720,8 +8979,6 @@
       <c r="T361" s="6"/>
       <c r="U361" s="6"/>
       <c r="V361" s="6"/>
-      <c r="W361" s="6"/>
-      <c r="X361" s="6"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6"/>
@@ -9746,8 +9003,6 @@
       <c r="T362" s="6"/>
       <c r="U362" s="6"/>
       <c r="V362" s="6"/>
-      <c r="W362" s="6"/>
-      <c r="X362" s="6"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6"/>
@@ -9772,8 +9027,6 @@
       <c r="T363" s="6"/>
       <c r="U363" s="6"/>
       <c r="V363" s="6"/>
-      <c r="W363" s="6"/>
-      <c r="X363" s="6"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6"/>
@@ -9798,8 +9051,6 @@
       <c r="T364" s="6"/>
       <c r="U364" s="6"/>
       <c r="V364" s="6"/>
-      <c r="W364" s="6"/>
-      <c r="X364" s="6"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6"/>
@@ -9824,8 +9075,6 @@
       <c r="T365" s="6"/>
       <c r="U365" s="6"/>
       <c r="V365" s="6"/>
-      <c r="W365" s="6"/>
-      <c r="X365" s="6"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6"/>
@@ -9850,8 +9099,6 @@
       <c r="T366" s="6"/>
       <c r="U366" s="6"/>
       <c r="V366" s="6"/>
-      <c r="W366" s="6"/>
-      <c r="X366" s="6"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6"/>
@@ -9876,8 +9123,6 @@
       <c r="T367" s="6"/>
       <c r="U367" s="6"/>
       <c r="V367" s="6"/>
-      <c r="W367" s="6"/>
-      <c r="X367" s="6"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6"/>
@@ -9902,8 +9147,6 @@
       <c r="T368" s="6"/>
       <c r="U368" s="6"/>
       <c r="V368" s="6"/>
-      <c r="W368" s="6"/>
-      <c r="X368" s="6"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6"/>
@@ -9928,8 +9171,6 @@
       <c r="T369" s="6"/>
       <c r="U369" s="6"/>
       <c r="V369" s="6"/>
-      <c r="W369" s="6"/>
-      <c r="X369" s="6"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6"/>
@@ -9954,8 +9195,6 @@
       <c r="T370" s="6"/>
       <c r="U370" s="6"/>
       <c r="V370" s="6"/>
-      <c r="W370" s="6"/>
-      <c r="X370" s="6"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6"/>
@@ -9980,8 +9219,6 @@
       <c r="T371" s="6"/>
       <c r="U371" s="6"/>
       <c r="V371" s="6"/>
-      <c r="W371" s="6"/>
-      <c r="X371" s="6"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6"/>
@@ -10006,8 +9243,6 @@
       <c r="T372" s="6"/>
       <c r="U372" s="6"/>
       <c r="V372" s="6"/>
-      <c r="W372" s="6"/>
-      <c r="X372" s="6"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6"/>
@@ -10032,8 +9267,6 @@
       <c r="T373" s="6"/>
       <c r="U373" s="6"/>
       <c r="V373" s="6"/>
-      <c r="W373" s="6"/>
-      <c r="X373" s="6"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6"/>
@@ -10058,8 +9291,6 @@
       <c r="T374" s="6"/>
       <c r="U374" s="6"/>
       <c r="V374" s="6"/>
-      <c r="W374" s="6"/>
-      <c r="X374" s="6"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6"/>
@@ -10084,8 +9315,6 @@
       <c r="T375" s="6"/>
       <c r="U375" s="6"/>
       <c r="V375" s="6"/>
-      <c r="W375" s="6"/>
-      <c r="X375" s="6"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6"/>
@@ -10110,8 +9339,6 @@
       <c r="T376" s="6"/>
       <c r="U376" s="6"/>
       <c r="V376" s="6"/>
-      <c r="W376" s="6"/>
-      <c r="X376" s="6"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6"/>
@@ -10136,8 +9363,6 @@
       <c r="T377" s="6"/>
       <c r="U377" s="6"/>
       <c r="V377" s="6"/>
-      <c r="W377" s="6"/>
-      <c r="X377" s="6"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6"/>
@@ -10162,8 +9387,6 @@
       <c r="T378" s="6"/>
       <c r="U378" s="6"/>
       <c r="V378" s="6"/>
-      <c r="W378" s="6"/>
-      <c r="X378" s="6"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6"/>
@@ -10188,8 +9411,6 @@
       <c r="T379" s="6"/>
       <c r="U379" s="6"/>
       <c r="V379" s="6"/>
-      <c r="W379" s="6"/>
-      <c r="X379" s="6"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6"/>
@@ -10214,8 +9435,6 @@
       <c r="T380" s="6"/>
       <c r="U380" s="6"/>
       <c r="V380" s="6"/>
-      <c r="W380" s="6"/>
-      <c r="X380" s="6"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6"/>
@@ -10240,8 +9459,6 @@
       <c r="T381" s="6"/>
       <c r="U381" s="6"/>
       <c r="V381" s="6"/>
-      <c r="W381" s="6"/>
-      <c r="X381" s="6"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6"/>
@@ -10266,8 +9483,6 @@
       <c r="T382" s="6"/>
       <c r="U382" s="6"/>
       <c r="V382" s="6"/>
-      <c r="W382" s="6"/>
-      <c r="X382" s="6"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6"/>
@@ -10292,8 +9507,6 @@
       <c r="T383" s="6"/>
       <c r="U383" s="6"/>
       <c r="V383" s="6"/>
-      <c r="W383" s="6"/>
-      <c r="X383" s="6"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6"/>
@@ -10318,8 +9531,6 @@
       <c r="T384" s="6"/>
       <c r="U384" s="6"/>
       <c r="V384" s="6"/>
-      <c r="W384" s="6"/>
-      <c r="X384" s="6"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6"/>
@@ -10344,8 +9555,6 @@
       <c r="T385" s="6"/>
       <c r="U385" s="6"/>
       <c r="V385" s="6"/>
-      <c r="W385" s="6"/>
-      <c r="X385" s="6"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6"/>
@@ -10370,8 +9579,6 @@
       <c r="T386" s="6"/>
       <c r="U386" s="6"/>
       <c r="V386" s="6"/>
-      <c r="W386" s="6"/>
-      <c r="X386" s="6"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6"/>
@@ -10396,8 +9603,6 @@
       <c r="T387" s="6"/>
       <c r="U387" s="6"/>
       <c r="V387" s="6"/>
-      <c r="W387" s="6"/>
-      <c r="X387" s="6"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6"/>
@@ -10422,8 +9627,6 @@
       <c r="T388" s="6"/>
       <c r="U388" s="6"/>
       <c r="V388" s="6"/>
-      <c r="W388" s="6"/>
-      <c r="X388" s="6"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6"/>
@@ -10448,8 +9651,6 @@
       <c r="T389" s="6"/>
       <c r="U389" s="6"/>
       <c r="V389" s="6"/>
-      <c r="W389" s="6"/>
-      <c r="X389" s="6"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6"/>
@@ -10474,8 +9675,6 @@
       <c r="T390" s="6"/>
       <c r="U390" s="6"/>
       <c r="V390" s="6"/>
-      <c r="W390" s="6"/>
-      <c r="X390" s="6"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6"/>
@@ -10500,8 +9699,6 @@
       <c r="T391" s="6"/>
       <c r="U391" s="6"/>
       <c r="V391" s="6"/>
-      <c r="W391" s="6"/>
-      <c r="X391" s="6"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6"/>
@@ -10526,8 +9723,6 @@
       <c r="T392" s="6"/>
       <c r="U392" s="6"/>
       <c r="V392" s="6"/>
-      <c r="W392" s="6"/>
-      <c r="X392" s="6"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6"/>
@@ -10552,8 +9747,6 @@
       <c r="T393" s="6"/>
       <c r="U393" s="6"/>
       <c r="V393" s="6"/>
-      <c r="W393" s="6"/>
-      <c r="X393" s="6"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6"/>
@@ -10578,8 +9771,6 @@
       <c r="T394" s="6"/>
       <c r="U394" s="6"/>
       <c r="V394" s="6"/>
-      <c r="W394" s="6"/>
-      <c r="X394" s="6"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6"/>
@@ -10604,8 +9795,6 @@
       <c r="T395" s="6"/>
       <c r="U395" s="6"/>
       <c r="V395" s="6"/>
-      <c r="W395" s="6"/>
-      <c r="X395" s="6"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6"/>
@@ -10630,8 +9819,6 @@
       <c r="T396" s="6"/>
       <c r="U396" s="6"/>
       <c r="V396" s="6"/>
-      <c r="W396" s="6"/>
-      <c r="X396" s="6"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6"/>
@@ -10656,8 +9843,6 @@
       <c r="T397" s="6"/>
       <c r="U397" s="6"/>
       <c r="V397" s="6"/>
-      <c r="W397" s="6"/>
-      <c r="X397" s="6"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6"/>
@@ -10682,8 +9867,6 @@
       <c r="T398" s="6"/>
       <c r="U398" s="6"/>
       <c r="V398" s="6"/>
-      <c r="W398" s="6"/>
-      <c r="X398" s="6"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6"/>
@@ -10708,8 +9891,6 @@
       <c r="T399" s="6"/>
       <c r="U399" s="6"/>
       <c r="V399" s="6"/>
-      <c r="W399" s="6"/>
-      <c r="X399" s="6"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="6"/>
@@ -10734,8 +9915,6 @@
       <c r="T400" s="6"/>
       <c r="U400" s="6"/>
       <c r="V400" s="6"/>
-      <c r="W400" s="6"/>
-      <c r="X400" s="6"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="6"/>
@@ -10760,8 +9939,6 @@
       <c r="T401" s="6"/>
       <c r="U401" s="6"/>
       <c r="V401" s="6"/>
-      <c r="W401" s="6"/>
-      <c r="X401" s="6"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6"/>
@@ -10786,8 +9963,6 @@
       <c r="T402" s="6"/>
       <c r="U402" s="6"/>
       <c r="V402" s="6"/>
-      <c r="W402" s="6"/>
-      <c r="X402" s="6"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6"/>
@@ -10812,8 +9987,6 @@
       <c r="T403" s="6"/>
       <c r="U403" s="6"/>
       <c r="V403" s="6"/>
-      <c r="W403" s="6"/>
-      <c r="X403" s="6"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6"/>
@@ -10838,8 +10011,6 @@
       <c r="T404" s="6"/>
       <c r="U404" s="6"/>
       <c r="V404" s="6"/>
-      <c r="W404" s="6"/>
-      <c r="X404" s="6"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6"/>
@@ -10864,8 +10035,6 @@
       <c r="T405" s="6"/>
       <c r="U405" s="6"/>
       <c r="V405" s="6"/>
-      <c r="W405" s="6"/>
-      <c r="X405" s="6"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6"/>
@@ -10890,8 +10059,6 @@
       <c r="T406" s="6"/>
       <c r="U406" s="6"/>
       <c r="V406" s="6"/>
-      <c r="W406" s="6"/>
-      <c r="X406" s="6"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6"/>
@@ -10916,8 +10083,6 @@
       <c r="T407" s="6"/>
       <c r="U407" s="6"/>
       <c r="V407" s="6"/>
-      <c r="W407" s="6"/>
-      <c r="X407" s="6"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="6"/>
@@ -10942,8 +10107,6 @@
       <c r="T408" s="6"/>
       <c r="U408" s="6"/>
       <c r="V408" s="6"/>
-      <c r="W408" s="6"/>
-      <c r="X408" s="6"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="6"/>
@@ -10968,8 +10131,6 @@
       <c r="T409" s="6"/>
       <c r="U409" s="6"/>
       <c r="V409" s="6"/>
-      <c r="W409" s="6"/>
-      <c r="X409" s="6"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6"/>
@@ -10994,8 +10155,6 @@
       <c r="T410" s="6"/>
       <c r="U410" s="6"/>
       <c r="V410" s="6"/>
-      <c r="W410" s="6"/>
-      <c r="X410" s="6"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6"/>
@@ -11020,8 +10179,6 @@
       <c r="T411" s="6"/>
       <c r="U411" s="6"/>
       <c r="V411" s="6"/>
-      <c r="W411" s="6"/>
-      <c r="X411" s="6"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6"/>
@@ -11046,8 +10203,6 @@
       <c r="T412" s="6"/>
       <c r="U412" s="6"/>
       <c r="V412" s="6"/>
-      <c r="W412" s="6"/>
-      <c r="X412" s="6"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6"/>
@@ -11072,8 +10227,6 @@
       <c r="T413" s="6"/>
       <c r="U413" s="6"/>
       <c r="V413" s="6"/>
-      <c r="W413" s="6"/>
-      <c r="X413" s="6"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6"/>
@@ -11098,8 +10251,6 @@
       <c r="T414" s="6"/>
       <c r="U414" s="6"/>
       <c r="V414" s="6"/>
-      <c r="W414" s="6"/>
-      <c r="X414" s="6"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6"/>
@@ -11124,8 +10275,6 @@
       <c r="T415" s="6"/>
       <c r="U415" s="6"/>
       <c r="V415" s="6"/>
-      <c r="W415" s="6"/>
-      <c r="X415" s="6"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6"/>
@@ -11150,8 +10299,6 @@
       <c r="T416" s="6"/>
       <c r="U416" s="6"/>
       <c r="V416" s="6"/>
-      <c r="W416" s="6"/>
-      <c r="X416" s="6"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6"/>
@@ -11176,8 +10323,6 @@
       <c r="T417" s="6"/>
       <c r="U417" s="6"/>
       <c r="V417" s="6"/>
-      <c r="W417" s="6"/>
-      <c r="X417" s="6"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6"/>
@@ -11202,8 +10347,6 @@
       <c r="T418" s="6"/>
       <c r="U418" s="6"/>
       <c r="V418" s="6"/>
-      <c r="W418" s="6"/>
-      <c r="X418" s="6"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6"/>
@@ -11228,8 +10371,6 @@
       <c r="T419" s="6"/>
       <c r="U419" s="6"/>
       <c r="V419" s="6"/>
-      <c r="W419" s="6"/>
-      <c r="X419" s="6"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6"/>
@@ -11254,8 +10395,6 @@
       <c r="T420" s="6"/>
       <c r="U420" s="6"/>
       <c r="V420" s="6"/>
-      <c r="W420" s="6"/>
-      <c r="X420" s="6"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6"/>
@@ -11280,8 +10419,6 @@
       <c r="T421" s="6"/>
       <c r="U421" s="6"/>
       <c r="V421" s="6"/>
-      <c r="W421" s="6"/>
-      <c r="X421" s="6"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6"/>
@@ -11306,8 +10443,6 @@
       <c r="T422" s="6"/>
       <c r="U422" s="6"/>
       <c r="V422" s="6"/>
-      <c r="W422" s="6"/>
-      <c r="X422" s="6"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6"/>
@@ -11332,8 +10467,6 @@
       <c r="T423" s="6"/>
       <c r="U423" s="6"/>
       <c r="V423" s="6"/>
-      <c r="W423" s="6"/>
-      <c r="X423" s="6"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6"/>
@@ -11358,8 +10491,6 @@
       <c r="T424" s="6"/>
       <c r="U424" s="6"/>
       <c r="V424" s="6"/>
-      <c r="W424" s="6"/>
-      <c r="X424" s="6"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6"/>
@@ -11384,8 +10515,6 @@
       <c r="T425" s="6"/>
       <c r="U425" s="6"/>
       <c r="V425" s="6"/>
-      <c r="W425" s="6"/>
-      <c r="X425" s="6"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6"/>
@@ -11410,8 +10539,6 @@
       <c r="T426" s="6"/>
       <c r="U426" s="6"/>
       <c r="V426" s="6"/>
-      <c r="W426" s="6"/>
-      <c r="X426" s="6"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6"/>
@@ -11436,8 +10563,6 @@
       <c r="T427" s="6"/>
       <c r="U427" s="6"/>
       <c r="V427" s="6"/>
-      <c r="W427" s="6"/>
-      <c r="X427" s="6"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6"/>
@@ -11462,8 +10587,6 @@
       <c r="T428" s="6"/>
       <c r="U428" s="6"/>
       <c r="V428" s="6"/>
-      <c r="W428" s="6"/>
-      <c r="X428" s="6"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6"/>
@@ -11488,8 +10611,6 @@
       <c r="T429" s="6"/>
       <c r="U429" s="6"/>
       <c r="V429" s="6"/>
-      <c r="W429" s="6"/>
-      <c r="X429" s="6"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6"/>
@@ -11514,8 +10635,6 @@
       <c r="T430" s="6"/>
       <c r="U430" s="6"/>
       <c r="V430" s="6"/>
-      <c r="W430" s="6"/>
-      <c r="X430" s="6"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6"/>
@@ -11540,8 +10659,6 @@
       <c r="T431" s="6"/>
       <c r="U431" s="6"/>
       <c r="V431" s="6"/>
-      <c r="W431" s="6"/>
-      <c r="X431" s="6"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6"/>
@@ -11566,8 +10683,6 @@
       <c r="T432" s="6"/>
       <c r="U432" s="6"/>
       <c r="V432" s="6"/>
-      <c r="W432" s="6"/>
-      <c r="X432" s="6"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6"/>
@@ -11592,8 +10707,6 @@
       <c r="T433" s="6"/>
       <c r="U433" s="6"/>
       <c r="V433" s="6"/>
-      <c r="W433" s="6"/>
-      <c r="X433" s="6"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6"/>
@@ -11618,8 +10731,6 @@
       <c r="T434" s="6"/>
       <c r="U434" s="6"/>
       <c r="V434" s="6"/>
-      <c r="W434" s="6"/>
-      <c r="X434" s="6"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6"/>
@@ -11644,8 +10755,6 @@
       <c r="T435" s="6"/>
       <c r="U435" s="6"/>
       <c r="V435" s="6"/>
-      <c r="W435" s="6"/>
-      <c r="X435" s="6"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6"/>
@@ -11670,8 +10779,6 @@
       <c r="T436" s="6"/>
       <c r="U436" s="6"/>
       <c r="V436" s="6"/>
-      <c r="W436" s="6"/>
-      <c r="X436" s="6"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6"/>
@@ -11696,8 +10803,6 @@
       <c r="T437" s="6"/>
       <c r="U437" s="6"/>
       <c r="V437" s="6"/>
-      <c r="W437" s="6"/>
-      <c r="X437" s="6"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6"/>
@@ -11722,8 +10827,6 @@
       <c r="T438" s="6"/>
       <c r="U438" s="6"/>
       <c r="V438" s="6"/>
-      <c r="W438" s="6"/>
-      <c r="X438" s="6"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6"/>
@@ -11748,8 +10851,6 @@
       <c r="T439" s="6"/>
       <c r="U439" s="6"/>
       <c r="V439" s="6"/>
-      <c r="W439" s="6"/>
-      <c r="X439" s="6"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6"/>
@@ -11774,8 +10875,6 @@
       <c r="T440" s="6"/>
       <c r="U440" s="6"/>
       <c r="V440" s="6"/>
-      <c r="W440" s="6"/>
-      <c r="X440" s="6"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6"/>
@@ -11800,8 +10899,6 @@
       <c r="T441" s="6"/>
       <c r="U441" s="6"/>
       <c r="V441" s="6"/>
-      <c r="W441" s="6"/>
-      <c r="X441" s="6"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6"/>
@@ -11826,8 +10923,6 @@
       <c r="T442" s="6"/>
       <c r="U442" s="6"/>
       <c r="V442" s="6"/>
-      <c r="W442" s="6"/>
-      <c r="X442" s="6"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6"/>
@@ -11852,8 +10947,6 @@
       <c r="T443" s="6"/>
       <c r="U443" s="6"/>
       <c r="V443" s="6"/>
-      <c r="W443" s="6"/>
-      <c r="X443" s="6"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6"/>
@@ -11878,8 +10971,6 @@
       <c r="T444" s="6"/>
       <c r="U444" s="6"/>
       <c r="V444" s="6"/>
-      <c r="W444" s="6"/>
-      <c r="X444" s="6"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6"/>
@@ -11904,8 +10995,6 @@
       <c r="T445" s="6"/>
       <c r="U445" s="6"/>
       <c r="V445" s="6"/>
-      <c r="W445" s="6"/>
-      <c r="X445" s="6"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6"/>
@@ -11930,8 +11019,6 @@
       <c r="T446" s="6"/>
       <c r="U446" s="6"/>
       <c r="V446" s="6"/>
-      <c r="W446" s="6"/>
-      <c r="X446" s="6"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6"/>
@@ -11956,8 +11043,6 @@
       <c r="T447" s="6"/>
       <c r="U447" s="6"/>
       <c r="V447" s="6"/>
-      <c r="W447" s="6"/>
-      <c r="X447" s="6"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6"/>
@@ -11982,8 +11067,6 @@
       <c r="T448" s="6"/>
       <c r="U448" s="6"/>
       <c r="V448" s="6"/>
-      <c r="W448" s="6"/>
-      <c r="X448" s="6"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6"/>
@@ -12008,8 +11091,6 @@
       <c r="T449" s="6"/>
       <c r="U449" s="6"/>
       <c r="V449" s="6"/>
-      <c r="W449" s="6"/>
-      <c r="X449" s="6"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6"/>
@@ -12034,8 +11115,6 @@
       <c r="T450" s="6"/>
       <c r="U450" s="6"/>
       <c r="V450" s="6"/>
-      <c r="W450" s="6"/>
-      <c r="X450" s="6"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6"/>
@@ -12060,8 +11139,6 @@
       <c r="T451" s="6"/>
       <c r="U451" s="6"/>
       <c r="V451" s="6"/>
-      <c r="W451" s="6"/>
-      <c r="X451" s="6"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6"/>
@@ -12086,8 +11163,6 @@
       <c r="T452" s="6"/>
       <c r="U452" s="6"/>
       <c r="V452" s="6"/>
-      <c r="W452" s="6"/>
-      <c r="X452" s="6"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6"/>
@@ -12112,8 +11187,6 @@
       <c r="T453" s="6"/>
       <c r="U453" s="6"/>
       <c r="V453" s="6"/>
-      <c r="W453" s="6"/>
-      <c r="X453" s="6"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6"/>
@@ -12138,8 +11211,6 @@
       <c r="T454" s="6"/>
       <c r="U454" s="6"/>
       <c r="V454" s="6"/>
-      <c r="W454" s="6"/>
-      <c r="X454" s="6"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6"/>
@@ -12164,8 +11235,6 @@
       <c r="T455" s="6"/>
       <c r="U455" s="6"/>
       <c r="V455" s="6"/>
-      <c r="W455" s="6"/>
-      <c r="X455" s="6"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6"/>
@@ -12190,8 +11259,6 @@
       <c r="T456" s="6"/>
       <c r="U456" s="6"/>
       <c r="V456" s="6"/>
-      <c r="W456" s="6"/>
-      <c r="X456" s="6"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6"/>
@@ -12216,8 +11283,6 @@
       <c r="T457" s="6"/>
       <c r="U457" s="6"/>
       <c r="V457" s="6"/>
-      <c r="W457" s="6"/>
-      <c r="X457" s="6"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6"/>
@@ -12242,8 +11307,6 @@
       <c r="T458" s="6"/>
       <c r="U458" s="6"/>
       <c r="V458" s="6"/>
-      <c r="W458" s="6"/>
-      <c r="X458" s="6"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6"/>
@@ -12268,8 +11331,6 @@
       <c r="T459" s="6"/>
       <c r="U459" s="6"/>
       <c r="V459" s="6"/>
-      <c r="W459" s="6"/>
-      <c r="X459" s="6"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6"/>
@@ -12294,8 +11355,6 @@
       <c r="T460" s="6"/>
       <c r="U460" s="6"/>
       <c r="V460" s="6"/>
-      <c r="W460" s="6"/>
-      <c r="X460" s="6"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6"/>
@@ -12320,8 +11379,6 @@
       <c r="T461" s="6"/>
       <c r="U461" s="6"/>
       <c r="V461" s="6"/>
-      <c r="W461" s="6"/>
-      <c r="X461" s="6"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6"/>
@@ -12346,8 +11403,6 @@
       <c r="T462" s="6"/>
       <c r="U462" s="6"/>
       <c r="V462" s="6"/>
-      <c r="W462" s="6"/>
-      <c r="X462" s="6"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6"/>
@@ -12372,8 +11427,6 @@
       <c r="T463" s="6"/>
       <c r="U463" s="6"/>
       <c r="V463" s="6"/>
-      <c r="W463" s="6"/>
-      <c r="X463" s="6"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6"/>
@@ -12398,8 +11451,6 @@
       <c r="T464" s="6"/>
       <c r="U464" s="6"/>
       <c r="V464" s="6"/>
-      <c r="W464" s="6"/>
-      <c r="X464" s="6"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6"/>
@@ -12424,8 +11475,6 @@
       <c r="T465" s="6"/>
       <c r="U465" s="6"/>
       <c r="V465" s="6"/>
-      <c r="W465" s="6"/>
-      <c r="X465" s="6"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6"/>
@@ -12450,8 +11499,6 @@
       <c r="T466" s="6"/>
       <c r="U466" s="6"/>
       <c r="V466" s="6"/>
-      <c r="W466" s="6"/>
-      <c r="X466" s="6"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6"/>
@@ -12476,8 +11523,6 @@
       <c r="T467" s="6"/>
       <c r="U467" s="6"/>
       <c r="V467" s="6"/>
-      <c r="W467" s="6"/>
-      <c r="X467" s="6"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6"/>
@@ -12502,8 +11547,6 @@
       <c r="T468" s="6"/>
       <c r="U468" s="6"/>
       <c r="V468" s="6"/>
-      <c r="W468" s="6"/>
-      <c r="X468" s="6"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6"/>
@@ -12528,8 +11571,6 @@
       <c r="T469" s="6"/>
       <c r="U469" s="6"/>
       <c r="V469" s="6"/>
-      <c r="W469" s="6"/>
-      <c r="X469" s="6"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="6"/>
@@ -12554,8 +11595,6 @@
       <c r="T470" s="6"/>
       <c r="U470" s="6"/>
       <c r="V470" s="6"/>
-      <c r="W470" s="6"/>
-      <c r="X470" s="6"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
@@ -12580,8 +11619,6 @@
       <c r="T471" s="6"/>
       <c r="U471" s="6"/>
       <c r="V471" s="6"/>
-      <c r="W471" s="6"/>
-      <c r="X471" s="6"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6"/>
@@ -12606,8 +11643,6 @@
       <c r="T472" s="6"/>
       <c r="U472" s="6"/>
       <c r="V472" s="6"/>
-      <c r="W472" s="6"/>
-      <c r="X472" s="6"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6"/>
@@ -12632,8 +11667,6 @@
       <c r="T473" s="6"/>
       <c r="U473" s="6"/>
       <c r="V473" s="6"/>
-      <c r="W473" s="6"/>
-      <c r="X473" s="6"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6"/>
@@ -12658,8 +11691,6 @@
       <c r="T474" s="6"/>
       <c r="U474" s="6"/>
       <c r="V474" s="6"/>
-      <c r="W474" s="6"/>
-      <c r="X474" s="6"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6"/>
@@ -12684,8 +11715,6 @@
       <c r="T475" s="6"/>
       <c r="U475" s="6"/>
       <c r="V475" s="6"/>
-      <c r="W475" s="6"/>
-      <c r="X475" s="6"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6"/>
@@ -12710,8 +11739,6 @@
       <c r="T476" s="6"/>
       <c r="U476" s="6"/>
       <c r="V476" s="6"/>
-      <c r="W476" s="6"/>
-      <c r="X476" s="6"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6"/>
@@ -12736,8 +11763,6 @@
       <c r="T477" s="6"/>
       <c r="U477" s="6"/>
       <c r="V477" s="6"/>
-      <c r="W477" s="6"/>
-      <c r="X477" s="6"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6"/>
@@ -12762,8 +11787,6 @@
       <c r="T478" s="6"/>
       <c r="U478" s="6"/>
       <c r="V478" s="6"/>
-      <c r="W478" s="6"/>
-      <c r="X478" s="6"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6"/>
@@ -12788,8 +11811,6 @@
       <c r="T479" s="6"/>
       <c r="U479" s="6"/>
       <c r="V479" s="6"/>
-      <c r="W479" s="6"/>
-      <c r="X479" s="6"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6"/>
@@ -12814,8 +11835,6 @@
       <c r="T480" s="6"/>
       <c r="U480" s="6"/>
       <c r="V480" s="6"/>
-      <c r="W480" s="6"/>
-      <c r="X480" s="6"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6"/>
@@ -12840,8 +11859,6 @@
       <c r="T481" s="6"/>
       <c r="U481" s="6"/>
       <c r="V481" s="6"/>
-      <c r="W481" s="6"/>
-      <c r="X481" s="6"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="6"/>
@@ -12866,8 +11883,6 @@
       <c r="T482" s="6"/>
       <c r="U482" s="6"/>
       <c r="V482" s="6"/>
-      <c r="W482" s="6"/>
-      <c r="X482" s="6"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="6"/>
@@ -12892,8 +11907,6 @@
       <c r="T483" s="6"/>
       <c r="U483" s="6"/>
       <c r="V483" s="6"/>
-      <c r="W483" s="6"/>
-      <c r="X483" s="6"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="6"/>
@@ -12918,8 +11931,6 @@
       <c r="T484" s="6"/>
       <c r="U484" s="6"/>
       <c r="V484" s="6"/>
-      <c r="W484" s="6"/>
-      <c r="X484" s="6"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="6"/>
@@ -12944,8 +11955,6 @@
       <c r="T485" s="6"/>
       <c r="U485" s="6"/>
       <c r="V485" s="6"/>
-      <c r="W485" s="6"/>
-      <c r="X485" s="6"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="6"/>
@@ -12970,8 +11979,6 @@
       <c r="T486" s="6"/>
       <c r="U486" s="6"/>
       <c r="V486" s="6"/>
-      <c r="W486" s="6"/>
-      <c r="X486" s="6"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="6"/>
@@ -12996,8 +12003,6 @@
       <c r="T487" s="6"/>
       <c r="U487" s="6"/>
       <c r="V487" s="6"/>
-      <c r="W487" s="6"/>
-      <c r="X487" s="6"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="6"/>
@@ -13022,8 +12027,6 @@
       <c r="T488" s="6"/>
       <c r="U488" s="6"/>
       <c r="V488" s="6"/>
-      <c r="W488" s="6"/>
-      <c r="X488" s="6"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="6"/>
@@ -13048,8 +12051,6 @@
       <c r="T489" s="6"/>
       <c r="U489" s="6"/>
       <c r="V489" s="6"/>
-      <c r="W489" s="6"/>
-      <c r="X489" s="6"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="6"/>
@@ -13074,8 +12075,6 @@
       <c r="T490" s="6"/>
       <c r="U490" s="6"/>
       <c r="V490" s="6"/>
-      <c r="W490" s="6"/>
-      <c r="X490" s="6"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="6"/>
@@ -13100,8 +12099,6 @@
       <c r="T491" s="6"/>
       <c r="U491" s="6"/>
       <c r="V491" s="6"/>
-      <c r="W491" s="6"/>
-      <c r="X491" s="6"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="6"/>
@@ -13126,8 +12123,6 @@
       <c r="T492" s="6"/>
       <c r="U492" s="6"/>
       <c r="V492" s="6"/>
-      <c r="W492" s="6"/>
-      <c r="X492" s="6"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="6"/>
@@ -13152,8 +12147,6 @@
       <c r="T493" s="6"/>
       <c r="U493" s="6"/>
       <c r="V493" s="6"/>
-      <c r="W493" s="6"/>
-      <c r="X493" s="6"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="6"/>
@@ -13178,8 +12171,6 @@
       <c r="T494" s="6"/>
       <c r="U494" s="6"/>
       <c r="V494" s="6"/>
-      <c r="W494" s="6"/>
-      <c r="X494" s="6"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="6"/>
@@ -13204,8 +12195,6 @@
       <c r="T495" s="6"/>
       <c r="U495" s="6"/>
       <c r="V495" s="6"/>
-      <c r="W495" s="6"/>
-      <c r="X495" s="6"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="6"/>
@@ -13230,8 +12219,6 @@
       <c r="T496" s="6"/>
       <c r="U496" s="6"/>
       <c r="V496" s="6"/>
-      <c r="W496" s="6"/>
-      <c r="X496" s="6"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="6"/>
@@ -13256,8 +12243,6 @@
       <c r="T497" s="6"/>
       <c r="U497" s="6"/>
       <c r="V497" s="6"/>
-      <c r="W497" s="6"/>
-      <c r="X497" s="6"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="6"/>
@@ -13282,8 +12267,6 @@
       <c r="T498" s="6"/>
       <c r="U498" s="6"/>
       <c r="V498" s="6"/>
-      <c r="W498" s="6"/>
-      <c r="X498" s="6"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="6"/>
@@ -13308,8 +12291,6 @@
       <c r="T499" s="6"/>
       <c r="U499" s="6"/>
       <c r="V499" s="6"/>
-      <c r="W499" s="6"/>
-      <c r="X499" s="6"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="6"/>
@@ -13334,8 +12315,6 @@
       <c r="T500" s="6"/>
       <c r="U500" s="6"/>
       <c r="V500" s="6"/>
-      <c r="W500" s="6"/>
-      <c r="X500" s="6"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="6"/>
@@ -13360,8 +12339,6 @@
       <c r="T501" s="6"/>
       <c r="U501" s="6"/>
       <c r="V501" s="6"/>
-      <c r="W501" s="6"/>
-      <c r="X501" s="6"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="6"/>
@@ -13386,8 +12363,6 @@
       <c r="T502" s="6"/>
       <c r="U502" s="6"/>
       <c r="V502" s="6"/>
-      <c r="W502" s="6"/>
-      <c r="X502" s="6"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="6"/>
@@ -13412,8 +12387,6 @@
       <c r="T503" s="6"/>
       <c r="U503" s="6"/>
       <c r="V503" s="6"/>
-      <c r="W503" s="6"/>
-      <c r="X503" s="6"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="6"/>
@@ -13438,8 +12411,6 @@
       <c r="T504" s="6"/>
       <c r="U504" s="6"/>
       <c r="V504" s="6"/>
-      <c r="W504" s="6"/>
-      <c r="X504" s="6"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="6"/>
@@ -13464,8 +12435,6 @@
       <c r="T505" s="6"/>
       <c r="U505" s="6"/>
       <c r="V505" s="6"/>
-      <c r="W505" s="6"/>
-      <c r="X505" s="6"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="6"/>
@@ -13490,8 +12459,6 @@
       <c r="T506" s="6"/>
       <c r="U506" s="6"/>
       <c r="V506" s="6"/>
-      <c r="W506" s="6"/>
-      <c r="X506" s="6"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="6"/>
@@ -13516,8 +12483,6 @@
       <c r="T507" s="6"/>
       <c r="U507" s="6"/>
       <c r="V507" s="6"/>
-      <c r="W507" s="6"/>
-      <c r="X507" s="6"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="6"/>
@@ -13542,8 +12507,6 @@
       <c r="T508" s="6"/>
       <c r="U508" s="6"/>
       <c r="V508" s="6"/>
-      <c r="W508" s="6"/>
-      <c r="X508" s="6"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="6"/>
@@ -13568,8 +12531,6 @@
       <c r="T509" s="6"/>
       <c r="U509" s="6"/>
       <c r="V509" s="6"/>
-      <c r="W509" s="6"/>
-      <c r="X509" s="6"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="6"/>
@@ -13594,8 +12555,6 @@
       <c r="T510" s="6"/>
       <c r="U510" s="6"/>
       <c r="V510" s="6"/>
-      <c r="W510" s="6"/>
-      <c r="X510" s="6"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="6"/>
@@ -13620,8 +12579,6 @@
       <c r="T511" s="6"/>
       <c r="U511" s="6"/>
       <c r="V511" s="6"/>
-      <c r="W511" s="6"/>
-      <c r="X511" s="6"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="6"/>
@@ -13646,8 +12603,6 @@
       <c r="T512" s="6"/>
       <c r="U512" s="6"/>
       <c r="V512" s="6"/>
-      <c r="W512" s="6"/>
-      <c r="X512" s="6"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="6"/>
@@ -13672,8 +12627,6 @@
       <c r="T513" s="6"/>
       <c r="U513" s="6"/>
       <c r="V513" s="6"/>
-      <c r="W513" s="6"/>
-      <c r="X513" s="6"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="6"/>
@@ -13698,8 +12651,6 @@
       <c r="T514" s="6"/>
       <c r="U514" s="6"/>
       <c r="V514" s="6"/>
-      <c r="W514" s="6"/>
-      <c r="X514" s="6"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="6"/>
@@ -13724,8 +12675,6 @@
       <c r="T515" s="6"/>
       <c r="U515" s="6"/>
       <c r="V515" s="6"/>
-      <c r="W515" s="6"/>
-      <c r="X515" s="6"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="6"/>
@@ -13750,8 +12699,6 @@
       <c r="T516" s="6"/>
       <c r="U516" s="6"/>
       <c r="V516" s="6"/>
-      <c r="W516" s="6"/>
-      <c r="X516" s="6"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="6"/>
@@ -13776,8 +12723,6 @@
       <c r="T517" s="6"/>
       <c r="U517" s="6"/>
       <c r="V517" s="6"/>
-      <c r="W517" s="6"/>
-      <c r="X517" s="6"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="6"/>
@@ -13802,8 +12747,6 @@
       <c r="T518" s="6"/>
       <c r="U518" s="6"/>
       <c r="V518" s="6"/>
-      <c r="W518" s="6"/>
-      <c r="X518" s="6"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="6"/>
@@ -13828,8 +12771,6 @@
       <c r="T519" s="6"/>
       <c r="U519" s="6"/>
       <c r="V519" s="6"/>
-      <c r="W519" s="6"/>
-      <c r="X519" s="6"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="6"/>
@@ -13854,8 +12795,6 @@
       <c r="T520" s="6"/>
       <c r="U520" s="6"/>
       <c r="V520" s="6"/>
-      <c r="W520" s="6"/>
-      <c r="X520" s="6"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="6"/>
@@ -13880,8 +12819,6 @@
       <c r="T521" s="6"/>
       <c r="U521" s="6"/>
       <c r="V521" s="6"/>
-      <c r="W521" s="6"/>
-      <c r="X521" s="6"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="6"/>
@@ -13906,8 +12843,6 @@
       <c r="T522" s="6"/>
       <c r="U522" s="6"/>
       <c r="V522" s="6"/>
-      <c r="W522" s="6"/>
-      <c r="X522" s="6"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="6"/>
@@ -13932,8 +12867,6 @@
       <c r="T523" s="6"/>
       <c r="U523" s="6"/>
       <c r="V523" s="6"/>
-      <c r="W523" s="6"/>
-      <c r="X523" s="6"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="6"/>
@@ -13958,8 +12891,6 @@
       <c r="T524" s="6"/>
       <c r="U524" s="6"/>
       <c r="V524" s="6"/>
-      <c r="W524" s="6"/>
-      <c r="X524" s="6"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="6"/>
@@ -13984,8 +12915,6 @@
       <c r="T525" s="6"/>
       <c r="U525" s="6"/>
       <c r="V525" s="6"/>
-      <c r="W525" s="6"/>
-      <c r="X525" s="6"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="6"/>
@@ -14010,8 +12939,6 @@
       <c r="T526" s="6"/>
       <c r="U526" s="6"/>
       <c r="V526" s="6"/>
-      <c r="W526" s="6"/>
-      <c r="X526" s="6"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="6"/>
@@ -14036,8 +12963,6 @@
       <c r="T527" s="6"/>
       <c r="U527" s="6"/>
       <c r="V527" s="6"/>
-      <c r="W527" s="6"/>
-      <c r="X527" s="6"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="6"/>
@@ -14062,8 +12987,6 @@
       <c r="T528" s="6"/>
       <c r="U528" s="6"/>
       <c r="V528" s="6"/>
-      <c r="W528" s="6"/>
-      <c r="X528" s="6"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="6"/>
@@ -14088,8 +13011,6 @@
       <c r="T529" s="6"/>
       <c r="U529" s="6"/>
       <c r="V529" s="6"/>
-      <c r="W529" s="6"/>
-      <c r="X529" s="6"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="6"/>
@@ -14114,8 +13035,6 @@
       <c r="T530" s="6"/>
       <c r="U530" s="6"/>
       <c r="V530" s="6"/>
-      <c r="W530" s="6"/>
-      <c r="X530" s="6"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="6"/>
@@ -14140,8 +13059,6 @@
       <c r="T531" s="6"/>
       <c r="U531" s="6"/>
       <c r="V531" s="6"/>
-      <c r="W531" s="6"/>
-      <c r="X531" s="6"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="6"/>
@@ -14166,8 +13083,6 @@
       <c r="T532" s="6"/>
       <c r="U532" s="6"/>
       <c r="V532" s="6"/>
-      <c r="W532" s="6"/>
-      <c r="X532" s="6"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="6"/>
@@ -14192,8 +13107,6 @@
       <c r="T533" s="6"/>
       <c r="U533" s="6"/>
       <c r="V533" s="6"/>
-      <c r="W533" s="6"/>
-      <c r="X533" s="6"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="6"/>
@@ -14218,8 +13131,6 @@
       <c r="T534" s="6"/>
       <c r="U534" s="6"/>
       <c r="V534" s="6"/>
-      <c r="W534" s="6"/>
-      <c r="X534" s="6"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="6"/>
@@ -14244,8 +13155,6 @@
       <c r="T535" s="6"/>
       <c r="U535" s="6"/>
       <c r="V535" s="6"/>
-      <c r="W535" s="6"/>
-      <c r="X535" s="6"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="6"/>
@@ -14270,8 +13179,6 @@
       <c r="T536" s="6"/>
       <c r="U536" s="6"/>
       <c r="V536" s="6"/>
-      <c r="W536" s="6"/>
-      <c r="X536" s="6"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="6"/>
@@ -14296,8 +13203,6 @@
       <c r="T537" s="6"/>
       <c r="U537" s="6"/>
       <c r="V537" s="6"/>
-      <c r="W537" s="6"/>
-      <c r="X537" s="6"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="6"/>
@@ -14322,8 +13227,6 @@
       <c r="T538" s="6"/>
       <c r="U538" s="6"/>
       <c r="V538" s="6"/>
-      <c r="W538" s="6"/>
-      <c r="X538" s="6"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="6"/>
@@ -14348,8 +13251,6 @@
       <c r="T539" s="6"/>
       <c r="U539" s="6"/>
       <c r="V539" s="6"/>
-      <c r="W539" s="6"/>
-      <c r="X539" s="6"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="6"/>
@@ -14374,8 +13275,6 @@
       <c r="T540" s="6"/>
       <c r="U540" s="6"/>
       <c r="V540" s="6"/>
-      <c r="W540" s="6"/>
-      <c r="X540" s="6"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="6"/>
@@ -14400,8 +13299,6 @@
       <c r="T541" s="6"/>
       <c r="U541" s="6"/>
       <c r="V541" s="6"/>
-      <c r="W541" s="6"/>
-      <c r="X541" s="6"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="6"/>
@@ -14426,8 +13323,6 @@
       <c r="T542" s="6"/>
       <c r="U542" s="6"/>
       <c r="V542" s="6"/>
-      <c r="W542" s="6"/>
-      <c r="X542" s="6"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="6"/>
@@ -14452,8 +13347,6 @@
       <c r="T543" s="6"/>
       <c r="U543" s="6"/>
       <c r="V543" s="6"/>
-      <c r="W543" s="6"/>
-      <c r="X543" s="6"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="6"/>
@@ -14478,8 +13371,6 @@
       <c r="T544" s="6"/>
       <c r="U544" s="6"/>
       <c r="V544" s="6"/>
-      <c r="W544" s="6"/>
-      <c r="X544" s="6"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="6"/>
@@ -14504,8 +13395,6 @@
       <c r="T545" s="6"/>
       <c r="U545" s="6"/>
       <c r="V545" s="6"/>
-      <c r="W545" s="6"/>
-      <c r="X545" s="6"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="6"/>
@@ -14530,8 +13419,6 @@
       <c r="T546" s="6"/>
       <c r="U546" s="6"/>
       <c r="V546" s="6"/>
-      <c r="W546" s="6"/>
-      <c r="X546" s="6"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="6"/>
@@ -14556,8 +13443,6 @@
       <c r="T547" s="6"/>
       <c r="U547" s="6"/>
       <c r="V547" s="6"/>
-      <c r="W547" s="6"/>
-      <c r="X547" s="6"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="6"/>
@@ -14582,8 +13467,6 @@
       <c r="T548" s="6"/>
       <c r="U548" s="6"/>
       <c r="V548" s="6"/>
-      <c r="W548" s="6"/>
-      <c r="X548" s="6"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="6"/>
@@ -14608,8 +13491,6 @@
       <c r="T549" s="6"/>
       <c r="U549" s="6"/>
       <c r="V549" s="6"/>
-      <c r="W549" s="6"/>
-      <c r="X549" s="6"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="6"/>
@@ -14634,8 +13515,6 @@
       <c r="T550" s="6"/>
       <c r="U550" s="6"/>
       <c r="V550" s="6"/>
-      <c r="W550" s="6"/>
-      <c r="X550" s="6"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="6"/>
@@ -14660,8 +13539,6 @@
       <c r="T551" s="6"/>
       <c r="U551" s="6"/>
       <c r="V551" s="6"/>
-      <c r="W551" s="6"/>
-      <c r="X551" s="6"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="6"/>
@@ -14686,8 +13563,6 @@
       <c r="T552" s="6"/>
       <c r="U552" s="6"/>
       <c r="V552" s="6"/>
-      <c r="W552" s="6"/>
-      <c r="X552" s="6"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="6"/>
@@ -14712,8 +13587,6 @@
       <c r="T553" s="6"/>
       <c r="U553" s="6"/>
       <c r="V553" s="6"/>
-      <c r="W553" s="6"/>
-      <c r="X553" s="6"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="6"/>
@@ -14738,8 +13611,6 @@
       <c r="T554" s="6"/>
       <c r="U554" s="6"/>
       <c r="V554" s="6"/>
-      <c r="W554" s="6"/>
-      <c r="X554" s="6"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="6"/>
@@ -14764,8 +13635,6 @@
       <c r="T555" s="6"/>
       <c r="U555" s="6"/>
       <c r="V555" s="6"/>
-      <c r="W555" s="6"/>
-      <c r="X555" s="6"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="6"/>
@@ -14790,8 +13659,6 @@
       <c r="T556" s="6"/>
       <c r="U556" s="6"/>
       <c r="V556" s="6"/>
-      <c r="W556" s="6"/>
-      <c r="X556" s="6"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="6"/>
@@ -14816,8 +13683,6 @@
       <c r="T557" s="6"/>
       <c r="U557" s="6"/>
       <c r="V557" s="6"/>
-      <c r="W557" s="6"/>
-      <c r="X557" s="6"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="6"/>
@@ -14842,8 +13707,6 @@
       <c r="T558" s="6"/>
       <c r="U558" s="6"/>
       <c r="V558" s="6"/>
-      <c r="W558" s="6"/>
-      <c r="X558" s="6"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="6"/>
@@ -14868,8 +13731,6 @@
       <c r="T559" s="6"/>
       <c r="U559" s="6"/>
       <c r="V559" s="6"/>
-      <c r="W559" s="6"/>
-      <c r="X559" s="6"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="6"/>
@@ -14894,8 +13755,6 @@
       <c r="T560" s="6"/>
       <c r="U560" s="6"/>
       <c r="V560" s="6"/>
-      <c r="W560" s="6"/>
-      <c r="X560" s="6"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="6"/>
@@ -14920,8 +13779,6 @@
       <c r="T561" s="6"/>
       <c r="U561" s="6"/>
       <c r="V561" s="6"/>
-      <c r="W561" s="6"/>
-      <c r="X561" s="6"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="6"/>
@@ -14946,8 +13803,6 @@
       <c r="T562" s="6"/>
       <c r="U562" s="6"/>
       <c r="V562" s="6"/>
-      <c r="W562" s="6"/>
-      <c r="X562" s="6"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="6"/>
@@ -14972,8 +13827,6 @@
       <c r="T563" s="6"/>
       <c r="U563" s="6"/>
       <c r="V563" s="6"/>
-      <c r="W563" s="6"/>
-      <c r="X563" s="6"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="6"/>
@@ -14998,8 +13851,6 @@
       <c r="T564" s="6"/>
       <c r="U564" s="6"/>
       <c r="V564" s="6"/>
-      <c r="W564" s="6"/>
-      <c r="X564" s="6"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="6"/>
@@ -15024,8 +13875,6 @@
       <c r="T565" s="6"/>
       <c r="U565" s="6"/>
       <c r="V565" s="6"/>
-      <c r="W565" s="6"/>
-      <c r="X565" s="6"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="6"/>
@@ -15050,8 +13899,6 @@
       <c r="T566" s="6"/>
       <c r="U566" s="6"/>
       <c r="V566" s="6"/>
-      <c r="W566" s="6"/>
-      <c r="X566" s="6"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="6"/>
@@ -15076,8 +13923,6 @@
       <c r="T567" s="6"/>
       <c r="U567" s="6"/>
       <c r="V567" s="6"/>
-      <c r="W567" s="6"/>
-      <c r="X567" s="6"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="6"/>
@@ -15102,8 +13947,6 @@
       <c r="T568" s="6"/>
       <c r="U568" s="6"/>
       <c r="V568" s="6"/>
-      <c r="W568" s="6"/>
-      <c r="X568" s="6"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="6"/>
@@ -15128,8 +13971,6 @@
       <c r="T569" s="6"/>
       <c r="U569" s="6"/>
       <c r="V569" s="6"/>
-      <c r="W569" s="6"/>
-      <c r="X569" s="6"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="6"/>
@@ -15154,8 +13995,6 @@
       <c r="T570" s="6"/>
       <c r="U570" s="6"/>
       <c r="V570" s="6"/>
-      <c r="W570" s="6"/>
-      <c r="X570" s="6"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="6"/>
@@ -15180,8 +14019,6 @@
       <c r="T571" s="6"/>
       <c r="U571" s="6"/>
       <c r="V571" s="6"/>
-      <c r="W571" s="6"/>
-      <c r="X571" s="6"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="6"/>
@@ -15206,8 +14043,6 @@
       <c r="T572" s="6"/>
       <c r="U572" s="6"/>
       <c r="V572" s="6"/>
-      <c r="W572" s="6"/>
-      <c r="X572" s="6"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="6"/>
@@ -15232,8 +14067,6 @@
       <c r="T573" s="6"/>
       <c r="U573" s="6"/>
       <c r="V573" s="6"/>
-      <c r="W573" s="6"/>
-      <c r="X573" s="6"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="6"/>
@@ -15258,8 +14091,6 @@
       <c r="T574" s="6"/>
       <c r="U574" s="6"/>
       <c r="V574" s="6"/>
-      <c r="W574" s="6"/>
-      <c r="X574" s="6"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="6"/>
@@ -15284,8 +14115,6 @@
       <c r="T575" s="6"/>
       <c r="U575" s="6"/>
       <c r="V575" s="6"/>
-      <c r="W575" s="6"/>
-      <c r="X575" s="6"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="6"/>
@@ -15310,8 +14139,6 @@
       <c r="T576" s="6"/>
       <c r="U576" s="6"/>
       <c r="V576" s="6"/>
-      <c r="W576" s="6"/>
-      <c r="X576" s="6"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="6"/>
@@ -15336,8 +14163,6 @@
       <c r="T577" s="6"/>
       <c r="U577" s="6"/>
       <c r="V577" s="6"/>
-      <c r="W577" s="6"/>
-      <c r="X577" s="6"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="6"/>
@@ -15362,8 +14187,6 @@
       <c r="T578" s="6"/>
       <c r="U578" s="6"/>
       <c r="V578" s="6"/>
-      <c r="W578" s="6"/>
-      <c r="X578" s="6"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="6"/>
@@ -15388,8 +14211,6 @@
       <c r="T579" s="6"/>
       <c r="U579" s="6"/>
       <c r="V579" s="6"/>
-      <c r="W579" s="6"/>
-      <c r="X579" s="6"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="6"/>
@@ -15414,8 +14235,6 @@
       <c r="T580" s="6"/>
       <c r="U580" s="6"/>
       <c r="V580" s="6"/>
-      <c r="W580" s="6"/>
-      <c r="X580" s="6"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="6"/>
@@ -15440,8 +14259,6 @@
       <c r="T581" s="6"/>
       <c r="U581" s="6"/>
       <c r="V581" s="6"/>
-      <c r="W581" s="6"/>
-      <c r="X581" s="6"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="6"/>
@@ -15466,8 +14283,6 @@
       <c r="T582" s="6"/>
       <c r="U582" s="6"/>
       <c r="V582" s="6"/>
-      <c r="W582" s="6"/>
-      <c r="X582" s="6"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="6"/>
@@ -15492,8 +14307,6 @@
       <c r="T583" s="6"/>
       <c r="U583" s="6"/>
       <c r="V583" s="6"/>
-      <c r="W583" s="6"/>
-      <c r="X583" s="6"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="6"/>
@@ -15518,8 +14331,6 @@
       <c r="T584" s="6"/>
       <c r="U584" s="6"/>
       <c r="V584" s="6"/>
-      <c r="W584" s="6"/>
-      <c r="X584" s="6"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="6"/>
@@ -15544,8 +14355,6 @@
       <c r="T585" s="6"/>
       <c r="U585" s="6"/>
       <c r="V585" s="6"/>
-      <c r="W585" s="6"/>
-      <c r="X585" s="6"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="6"/>
@@ -15570,8 +14379,6 @@
       <c r="T586" s="6"/>
       <c r="U586" s="6"/>
       <c r="V586" s="6"/>
-      <c r="W586" s="6"/>
-      <c r="X586" s="6"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="6"/>
@@ -15596,8 +14403,6 @@
       <c r="T587" s="6"/>
       <c r="U587" s="6"/>
       <c r="V587" s="6"/>
-      <c r="W587" s="6"/>
-      <c r="X587" s="6"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="6"/>
@@ -15622,8 +14427,6 @@
       <c r="T588" s="6"/>
       <c r="U588" s="6"/>
       <c r="V588" s="6"/>
-      <c r="W588" s="6"/>
-      <c r="X588" s="6"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="6"/>
@@ -15648,8 +14451,6 @@
       <c r="T589" s="6"/>
       <c r="U589" s="6"/>
       <c r="V589" s="6"/>
-      <c r="W589" s="6"/>
-      <c r="X589" s="6"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="6"/>
@@ -15674,8 +14475,6 @@
       <c r="T590" s="6"/>
       <c r="U590" s="6"/>
       <c r="V590" s="6"/>
-      <c r="W590" s="6"/>
-      <c r="X590" s="6"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="6"/>
@@ -15700,8 +14499,6 @@
       <c r="T591" s="6"/>
       <c r="U591" s="6"/>
       <c r="V591" s="6"/>
-      <c r="W591" s="6"/>
-      <c r="X591" s="6"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="6"/>
@@ -15726,8 +14523,6 @@
       <c r="T592" s="6"/>
       <c r="U592" s="6"/>
       <c r="V592" s="6"/>
-      <c r="W592" s="6"/>
-      <c r="X592" s="6"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="6"/>
@@ -15752,8 +14547,6 @@
       <c r="T593" s="6"/>
       <c r="U593" s="6"/>
       <c r="V593" s="6"/>
-      <c r="W593" s="6"/>
-      <c r="X593" s="6"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="6"/>
@@ -15778,8 +14571,6 @@
       <c r="T594" s="6"/>
       <c r="U594" s="6"/>
       <c r="V594" s="6"/>
-      <c r="W594" s="6"/>
-      <c r="X594" s="6"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="6"/>
@@ -15804,8 +14595,6 @@
       <c r="T595" s="6"/>
       <c r="U595" s="6"/>
       <c r="V595" s="6"/>
-      <c r="W595" s="6"/>
-      <c r="X595" s="6"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="6"/>
@@ -15830,8 +14619,6 @@
       <c r="T596" s="6"/>
       <c r="U596" s="6"/>
       <c r="V596" s="6"/>
-      <c r="W596" s="6"/>
-      <c r="X596" s="6"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="6"/>
@@ -15856,8 +14643,6 @@
       <c r="T597" s="6"/>
       <c r="U597" s="6"/>
       <c r="V597" s="6"/>
-      <c r="W597" s="6"/>
-      <c r="X597" s="6"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="6"/>
@@ -15882,8 +14667,6 @@
       <c r="T598" s="6"/>
       <c r="U598" s="6"/>
       <c r="V598" s="6"/>
-      <c r="W598" s="6"/>
-      <c r="X598" s="6"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="6"/>
@@ -15908,8 +14691,6 @@
       <c r="T599" s="6"/>
       <c r="U599" s="6"/>
       <c r="V599" s="6"/>
-      <c r="W599" s="6"/>
-      <c r="X599" s="6"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="6"/>
@@ -15934,8 +14715,6 @@
       <c r="T600" s="6"/>
       <c r="U600" s="6"/>
       <c r="V600" s="6"/>
-      <c r="W600" s="6"/>
-      <c r="X600" s="6"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="6"/>
@@ -15960,8 +14739,6 @@
       <c r="T601" s="6"/>
       <c r="U601" s="6"/>
       <c r="V601" s="6"/>
-      <c r="W601" s="6"/>
-      <c r="X601" s="6"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="6"/>
@@ -15986,8 +14763,6 @@
       <c r="T602" s="6"/>
       <c r="U602" s="6"/>
       <c r="V602" s="6"/>
-      <c r="W602" s="6"/>
-      <c r="X602" s="6"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="6"/>
@@ -16012,8 +14787,6 @@
       <c r="T603" s="6"/>
       <c r="U603" s="6"/>
       <c r="V603" s="6"/>
-      <c r="W603" s="6"/>
-      <c r="X603" s="6"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="6"/>
@@ -16038,8 +14811,6 @@
       <c r="T604" s="6"/>
       <c r="U604" s="6"/>
       <c r="V604" s="6"/>
-      <c r="W604" s="6"/>
-      <c r="X604" s="6"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="6"/>
@@ -16064,8 +14835,6 @@
       <c r="T605" s="6"/>
       <c r="U605" s="6"/>
       <c r="V605" s="6"/>
-      <c r="W605" s="6"/>
-      <c r="X605" s="6"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="6"/>
@@ -16090,8 +14859,6 @@
       <c r="T606" s="6"/>
       <c r="U606" s="6"/>
       <c r="V606" s="6"/>
-      <c r="W606" s="6"/>
-      <c r="X606" s="6"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="6"/>
@@ -16116,8 +14883,6 @@
       <c r="T607" s="6"/>
       <c r="U607" s="6"/>
       <c r="V607" s="6"/>
-      <c r="W607" s="6"/>
-      <c r="X607" s="6"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="6"/>
@@ -16142,8 +14907,6 @@
       <c r="T608" s="6"/>
       <c r="U608" s="6"/>
       <c r="V608" s="6"/>
-      <c r="W608" s="6"/>
-      <c r="X608" s="6"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="6"/>
@@ -16168,8 +14931,6 @@
       <c r="T609" s="6"/>
       <c r="U609" s="6"/>
       <c r="V609" s="6"/>
-      <c r="W609" s="6"/>
-      <c r="X609" s="6"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="6"/>
@@ -16194,8 +14955,6 @@
       <c r="T610" s="6"/>
       <c r="U610" s="6"/>
       <c r="V610" s="6"/>
-      <c r="W610" s="6"/>
-      <c r="X610" s="6"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="6"/>
@@ -16220,8 +14979,6 @@
       <c r="T611" s="6"/>
       <c r="U611" s="6"/>
       <c r="V611" s="6"/>
-      <c r="W611" s="6"/>
-      <c r="X611" s="6"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="6"/>
@@ -16246,8 +15003,6 @@
       <c r="T612" s="6"/>
       <c r="U612" s="6"/>
       <c r="V612" s="6"/>
-      <c r="W612" s="6"/>
-      <c r="X612" s="6"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="6"/>
@@ -16272,8 +15027,6 @@
       <c r="T613" s="6"/>
       <c r="U613" s="6"/>
       <c r="V613" s="6"/>
-      <c r="W613" s="6"/>
-      <c r="X613" s="6"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="6"/>
@@ -16298,8 +15051,6 @@
       <c r="T614" s="6"/>
       <c r="U614" s="6"/>
       <c r="V614" s="6"/>
-      <c r="W614" s="6"/>
-      <c r="X614" s="6"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="6"/>
@@ -16324,8 +15075,6 @@
       <c r="T615" s="6"/>
       <c r="U615" s="6"/>
       <c r="V615" s="6"/>
-      <c r="W615" s="6"/>
-      <c r="X615" s="6"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="6"/>
@@ -16350,8 +15099,6 @@
       <c r="T616" s="6"/>
       <c r="U616" s="6"/>
       <c r="V616" s="6"/>
-      <c r="W616" s="6"/>
-      <c r="X616" s="6"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="6"/>
@@ -16376,8 +15123,6 @@
       <c r="T617" s="6"/>
       <c r="U617" s="6"/>
       <c r="V617" s="6"/>
-      <c r="W617" s="6"/>
-      <c r="X617" s="6"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="6"/>
@@ -16402,8 +15147,6 @@
       <c r="T618" s="6"/>
       <c r="U618" s="6"/>
       <c r="V618" s="6"/>
-      <c r="W618" s="6"/>
-      <c r="X618" s="6"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="6"/>
@@ -16428,8 +15171,6 @@
       <c r="T619" s="6"/>
       <c r="U619" s="6"/>
       <c r="V619" s="6"/>
-      <c r="W619" s="6"/>
-      <c r="X619" s="6"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="6"/>
@@ -16454,8 +15195,6 @@
       <c r="T620" s="6"/>
       <c r="U620" s="6"/>
       <c r="V620" s="6"/>
-      <c r="W620" s="6"/>
-      <c r="X620" s="6"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="6"/>
@@ -16480,8 +15219,6 @@
       <c r="T621" s="6"/>
       <c r="U621" s="6"/>
       <c r="V621" s="6"/>
-      <c r="W621" s="6"/>
-      <c r="X621" s="6"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="6"/>
@@ -16506,8 +15243,6 @@
       <c r="T622" s="6"/>
       <c r="U622" s="6"/>
       <c r="V622" s="6"/>
-      <c r="W622" s="6"/>
-      <c r="X622" s="6"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="6"/>
@@ -16532,8 +15267,6 @@
       <c r="T623" s="6"/>
       <c r="U623" s="6"/>
       <c r="V623" s="6"/>
-      <c r="W623" s="6"/>
-      <c r="X623" s="6"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="6"/>
@@ -16558,8 +15291,6 @@
       <c r="T624" s="6"/>
       <c r="U624" s="6"/>
       <c r="V624" s="6"/>
-      <c r="W624" s="6"/>
-      <c r="X624" s="6"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="6"/>
@@ -16584,8 +15315,6 @@
       <c r="T625" s="6"/>
       <c r="U625" s="6"/>
       <c r="V625" s="6"/>
-      <c r="W625" s="6"/>
-      <c r="X625" s="6"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="6"/>
@@ -16610,8 +15339,6 @@
       <c r="T626" s="6"/>
       <c r="U626" s="6"/>
       <c r="V626" s="6"/>
-      <c r="W626" s="6"/>
-      <c r="X626" s="6"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="6"/>
@@ -16636,8 +15363,6 @@
       <c r="T627" s="6"/>
       <c r="U627" s="6"/>
       <c r="V627" s="6"/>
-      <c r="W627" s="6"/>
-      <c r="X627" s="6"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="6"/>
@@ -16662,8 +15387,6 @@
       <c r="T628" s="6"/>
       <c r="U628" s="6"/>
       <c r="V628" s="6"/>
-      <c r="W628" s="6"/>
-      <c r="X628" s="6"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="6"/>
@@ -16688,8 +15411,6 @@
       <c r="T629" s="6"/>
       <c r="U629" s="6"/>
       <c r="V629" s="6"/>
-      <c r="W629" s="6"/>
-      <c r="X629" s="6"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="6"/>
@@ -16714,8 +15435,6 @@
       <c r="T630" s="6"/>
       <c r="U630" s="6"/>
       <c r="V630" s="6"/>
-      <c r="W630" s="6"/>
-      <c r="X630" s="6"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="6"/>
@@ -16740,8 +15459,6 @@
       <c r="T631" s="6"/>
       <c r="U631" s="6"/>
       <c r="V631" s="6"/>
-      <c r="W631" s="6"/>
-      <c r="X631" s="6"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="6"/>
@@ -16766,8 +15483,6 @@
       <c r="T632" s="6"/>
       <c r="U632" s="6"/>
       <c r="V632" s="6"/>
-      <c r="W632" s="6"/>
-      <c r="X632" s="6"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="6"/>
@@ -16792,8 +15507,6 @@
       <c r="T633" s="6"/>
       <c r="U633" s="6"/>
       <c r="V633" s="6"/>
-      <c r="W633" s="6"/>
-      <c r="X633" s="6"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="6"/>
@@ -16818,8 +15531,6 @@
       <c r="T634" s="6"/>
       <c r="U634" s="6"/>
       <c r="V634" s="6"/>
-      <c r="W634" s="6"/>
-      <c r="X634" s="6"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="6"/>
@@ -16844,8 +15555,6 @@
       <c r="T635" s="6"/>
       <c r="U635" s="6"/>
       <c r="V635" s="6"/>
-      <c r="W635" s="6"/>
-      <c r="X635" s="6"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="6"/>
@@ -16870,8 +15579,6 @@
       <c r="T636" s="6"/>
       <c r="U636" s="6"/>
       <c r="V636" s="6"/>
-      <c r="W636" s="6"/>
-      <c r="X636" s="6"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="6"/>
@@ -16896,8 +15603,6 @@
       <c r="T637" s="6"/>
       <c r="U637" s="6"/>
       <c r="V637" s="6"/>
-      <c r="W637" s="6"/>
-      <c r="X637" s="6"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="6"/>
@@ -16922,8 +15627,6 @@
       <c r="T638" s="6"/>
       <c r="U638" s="6"/>
       <c r="V638" s="6"/>
-      <c r="W638" s="6"/>
-      <c r="X638" s="6"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="6"/>
@@ -16948,8 +15651,6 @@
       <c r="T639" s="6"/>
       <c r="U639" s="6"/>
       <c r="V639" s="6"/>
-      <c r="W639" s="6"/>
-      <c r="X639" s="6"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="6"/>
@@ -16974,8 +15675,6 @@
       <c r="T640" s="6"/>
       <c r="U640" s="6"/>
       <c r="V640" s="6"/>
-      <c r="W640" s="6"/>
-      <c r="X640" s="6"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="6"/>
@@ -17000,8 +15699,6 @@
       <c r="T641" s="6"/>
       <c r="U641" s="6"/>
       <c r="V641" s="6"/>
-      <c r="W641" s="6"/>
-      <c r="X641" s="6"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="6"/>
@@ -17026,8 +15723,6 @@
       <c r="T642" s="6"/>
       <c r="U642" s="6"/>
       <c r="V642" s="6"/>
-      <c r="W642" s="6"/>
-      <c r="X642" s="6"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="6"/>
@@ -17052,8 +15747,6 @@
       <c r="T643" s="6"/>
       <c r="U643" s="6"/>
       <c r="V643" s="6"/>
-      <c r="W643" s="6"/>
-      <c r="X643" s="6"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="6"/>
@@ -17078,8 +15771,6 @@
       <c r="T644" s="6"/>
       <c r="U644" s="6"/>
       <c r="V644" s="6"/>
-      <c r="W644" s="6"/>
-      <c r="X644" s="6"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="6"/>
@@ -17104,8 +15795,6 @@
       <c r="T645" s="6"/>
       <c r="U645" s="6"/>
       <c r="V645" s="6"/>
-      <c r="W645" s="6"/>
-      <c r="X645" s="6"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="6"/>
@@ -17130,8 +15819,6 @@
       <c r="T646" s="6"/>
       <c r="U646" s="6"/>
       <c r="V646" s="6"/>
-      <c r="W646" s="6"/>
-      <c r="X646" s="6"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="6"/>
@@ -17156,8 +15843,6 @@
       <c r="T647" s="6"/>
       <c r="U647" s="6"/>
       <c r="V647" s="6"/>
-      <c r="W647" s="6"/>
-      <c r="X647" s="6"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="6"/>
@@ -17182,8 +15867,6 @@
       <c r="T648" s="6"/>
       <c r="U648" s="6"/>
       <c r="V648" s="6"/>
-      <c r="W648" s="6"/>
-      <c r="X648" s="6"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="6"/>
@@ -17208,8 +15891,6 @@
       <c r="T649" s="6"/>
       <c r="U649" s="6"/>
       <c r="V649" s="6"/>
-      <c r="W649" s="6"/>
-      <c r="X649" s="6"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="6"/>
@@ -17234,8 +15915,6 @@
       <c r="T650" s="6"/>
       <c r="U650" s="6"/>
       <c r="V650" s="6"/>
-      <c r="W650" s="6"/>
-      <c r="X650" s="6"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="6"/>
@@ -17260,8 +15939,6 @@
       <c r="T651" s="6"/>
       <c r="U651" s="6"/>
       <c r="V651" s="6"/>
-      <c r="W651" s="6"/>
-      <c r="X651" s="6"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="6"/>
@@ -17286,8 +15963,6 @@
       <c r="T652" s="6"/>
       <c r="U652" s="6"/>
       <c r="V652" s="6"/>
-      <c r="W652" s="6"/>
-      <c r="X652" s="6"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="6"/>
@@ -17312,8 +15987,6 @@
       <c r="T653" s="6"/>
       <c r="U653" s="6"/>
       <c r="V653" s="6"/>
-      <c r="W653" s="6"/>
-      <c r="X653" s="6"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="6"/>
@@ -17338,8 +16011,6 @@
       <c r="T654" s="6"/>
       <c r="U654" s="6"/>
       <c r="V654" s="6"/>
-      <c r="W654" s="6"/>
-      <c r="X654" s="6"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="6"/>
@@ -17364,8 +16035,6 @@
       <c r="T655" s="6"/>
       <c r="U655" s="6"/>
       <c r="V655" s="6"/>
-      <c r="W655" s="6"/>
-      <c r="X655" s="6"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="6"/>
@@ -17390,8 +16059,6 @@
       <c r="T656" s="6"/>
       <c r="U656" s="6"/>
       <c r="V656" s="6"/>
-      <c r="W656" s="6"/>
-      <c r="X656" s="6"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="6"/>
@@ -17416,8 +16083,6 @@
       <c r="T657" s="6"/>
       <c r="U657" s="6"/>
       <c r="V657" s="6"/>
-      <c r="W657" s="6"/>
-      <c r="X657" s="6"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="6"/>
@@ -17442,8 +16107,6 @@
       <c r="T658" s="6"/>
       <c r="U658" s="6"/>
       <c r="V658" s="6"/>
-      <c r="W658" s="6"/>
-      <c r="X658" s="6"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="6"/>
@@ -17468,8 +16131,6 @@
       <c r="T659" s="6"/>
       <c r="U659" s="6"/>
       <c r="V659" s="6"/>
-      <c r="W659" s="6"/>
-      <c r="X659" s="6"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="6"/>
@@ -17494,8 +16155,6 @@
       <c r="T660" s="6"/>
       <c r="U660" s="6"/>
       <c r="V660" s="6"/>
-      <c r="W660" s="6"/>
-      <c r="X660" s="6"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="6"/>
@@ -17520,8 +16179,6 @@
       <c r="T661" s="6"/>
       <c r="U661" s="6"/>
       <c r="V661" s="6"/>
-      <c r="W661" s="6"/>
-      <c r="X661" s="6"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="6"/>
@@ -17546,8 +16203,6 @@
       <c r="T662" s="6"/>
       <c r="U662" s="6"/>
       <c r="V662" s="6"/>
-      <c r="W662" s="6"/>
-      <c r="X662" s="6"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="6"/>
@@ -17572,8 +16227,6 @@
       <c r="T663" s="6"/>
       <c r="U663" s="6"/>
       <c r="V663" s="6"/>
-      <c r="W663" s="6"/>
-      <c r="X663" s="6"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="6"/>
@@ -17598,8 +16251,6 @@
       <c r="T664" s="6"/>
       <c r="U664" s="6"/>
       <c r="V664" s="6"/>
-      <c r="W664" s="6"/>
-      <c r="X664" s="6"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="6"/>
@@ -17624,8 +16275,6 @@
       <c r="T665" s="6"/>
       <c r="U665" s="6"/>
       <c r="V665" s="6"/>
-      <c r="W665" s="6"/>
-      <c r="X665" s="6"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="6"/>
@@ -17650,8 +16299,6 @@
       <c r="T666" s="6"/>
       <c r="U666" s="6"/>
       <c r="V666" s="6"/>
-      <c r="W666" s="6"/>
-      <c r="X666" s="6"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="6"/>
@@ -17676,8 +16323,6 @@
       <c r="T667" s="6"/>
       <c r="U667" s="6"/>
       <c r="V667" s="6"/>
-      <c r="W667" s="6"/>
-      <c r="X667" s="6"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="6"/>
@@ -17702,8 +16347,6 @@
       <c r="T668" s="6"/>
       <c r="U668" s="6"/>
       <c r="V668" s="6"/>
-      <c r="W668" s="6"/>
-      <c r="X668" s="6"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="6"/>
@@ -17728,8 +16371,6 @@
       <c r="T669" s="6"/>
       <c r="U669" s="6"/>
       <c r="V669" s="6"/>
-      <c r="W669" s="6"/>
-      <c r="X669" s="6"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="6"/>
@@ -17754,8 +16395,6 @@
       <c r="T670" s="6"/>
       <c r="U670" s="6"/>
       <c r="V670" s="6"/>
-      <c r="W670" s="6"/>
-      <c r="X670" s="6"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="6"/>
@@ -17780,8 +16419,6 @@
       <c r="T671" s="6"/>
       <c r="U671" s="6"/>
       <c r="V671" s="6"/>
-      <c r="W671" s="6"/>
-      <c r="X671" s="6"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="6"/>
@@ -17806,8 +16443,6 @@
       <c r="T672" s="6"/>
       <c r="U672" s="6"/>
       <c r="V672" s="6"/>
-      <c r="W672" s="6"/>
-      <c r="X672" s="6"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="6"/>
@@ -17832,8 +16467,6 @@
       <c r="T673" s="6"/>
       <c r="U673" s="6"/>
       <c r="V673" s="6"/>
-      <c r="W673" s="6"/>
-      <c r="X673" s="6"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="6"/>
@@ -17858,8 +16491,6 @@
       <c r="T674" s="6"/>
       <c r="U674" s="6"/>
       <c r="V674" s="6"/>
-      <c r="W674" s="6"/>
-      <c r="X674" s="6"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="6"/>
@@ -17884,8 +16515,6 @@
       <c r="T675" s="6"/>
       <c r="U675" s="6"/>
       <c r="V675" s="6"/>
-      <c r="W675" s="6"/>
-      <c r="X675" s="6"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="6"/>
@@ -17910,8 +16539,6 @@
       <c r="T676" s="6"/>
       <c r="U676" s="6"/>
       <c r="V676" s="6"/>
-      <c r="W676" s="6"/>
-      <c r="X676" s="6"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="6"/>
@@ -17936,8 +16563,6 @@
       <c r="T677" s="6"/>
       <c r="U677" s="6"/>
       <c r="V677" s="6"/>
-      <c r="W677" s="6"/>
-      <c r="X677" s="6"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="6"/>
@@ -17962,8 +16587,6 @@
       <c r="T678" s="6"/>
       <c r="U678" s="6"/>
       <c r="V678" s="6"/>
-      <c r="W678" s="6"/>
-      <c r="X678" s="6"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="6"/>
@@ -17988,8 +16611,6 @@
       <c r="T679" s="6"/>
       <c r="U679" s="6"/>
       <c r="V679" s="6"/>
-      <c r="W679" s="6"/>
-      <c r="X679" s="6"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="6"/>
@@ -18014,8 +16635,6 @@
       <c r="T680" s="6"/>
       <c r="U680" s="6"/>
       <c r="V680" s="6"/>
-      <c r="W680" s="6"/>
-      <c r="X680" s="6"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="6"/>
@@ -18040,8 +16659,6 @@
       <c r="T681" s="6"/>
       <c r="U681" s="6"/>
       <c r="V681" s="6"/>
-      <c r="W681" s="6"/>
-      <c r="X681" s="6"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="6"/>
@@ -18066,8 +16683,6 @@
       <c r="T682" s="6"/>
       <c r="U682" s="6"/>
       <c r="V682" s="6"/>
-      <c r="W682" s="6"/>
-      <c r="X682" s="6"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="6"/>
@@ -18092,8 +16707,6 @@
       <c r="T683" s="6"/>
       <c r="U683" s="6"/>
       <c r="V683" s="6"/>
-      <c r="W683" s="6"/>
-      <c r="X683" s="6"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="6"/>
@@ -18118,8 +16731,6 @@
       <c r="T684" s="6"/>
       <c r="U684" s="6"/>
       <c r="V684" s="6"/>
-      <c r="W684" s="6"/>
-      <c r="X684" s="6"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="6"/>
@@ -18144,8 +16755,6 @@
       <c r="T685" s="6"/>
       <c r="U685" s="6"/>
       <c r="V685" s="6"/>
-      <c r="W685" s="6"/>
-      <c r="X685" s="6"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="6"/>
@@ -18170,8 +16779,6 @@
       <c r="T686" s="6"/>
       <c r="U686" s="6"/>
       <c r="V686" s="6"/>
-      <c r="W686" s="6"/>
-      <c r="X686" s="6"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="6"/>
@@ -18196,8 +16803,6 @@
       <c r="T687" s="6"/>
       <c r="U687" s="6"/>
       <c r="V687" s="6"/>
-      <c r="W687" s="6"/>
-      <c r="X687" s="6"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="6"/>
@@ -18222,8 +16827,6 @@
       <c r="T688" s="6"/>
       <c r="U688" s="6"/>
       <c r="V688" s="6"/>
-      <c r="W688" s="6"/>
-      <c r="X688" s="6"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="6"/>
@@ -18248,8 +16851,6 @@
       <c r="T689" s="6"/>
       <c r="U689" s="6"/>
       <c r="V689" s="6"/>
-      <c r="W689" s="6"/>
-      <c r="X689" s="6"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="6"/>
@@ -18274,8 +16875,6 @@
       <c r="T690" s="6"/>
       <c r="U690" s="6"/>
       <c r="V690" s="6"/>
-      <c r="W690" s="6"/>
-      <c r="X690" s="6"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="6"/>
@@ -18300,8 +16899,6 @@
       <c r="T691" s="6"/>
       <c r="U691" s="6"/>
       <c r="V691" s="6"/>
-      <c r="W691" s="6"/>
-      <c r="X691" s="6"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="6"/>
@@ -18326,8 +16923,6 @@
       <c r="T692" s="6"/>
       <c r="U692" s="6"/>
       <c r="V692" s="6"/>
-      <c r="W692" s="6"/>
-      <c r="X692" s="6"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="6"/>
@@ -18352,8 +16947,6 @@
       <c r="T693" s="6"/>
       <c r="U693" s="6"/>
       <c r="V693" s="6"/>
-      <c r="W693" s="6"/>
-      <c r="X693" s="6"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="6"/>
@@ -18378,8 +16971,6 @@
       <c r="T694" s="6"/>
       <c r="U694" s="6"/>
       <c r="V694" s="6"/>
-      <c r="W694" s="6"/>
-      <c r="X694" s="6"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="6"/>
@@ -18404,8 +16995,6 @@
       <c r="T695" s="6"/>
       <c r="U695" s="6"/>
       <c r="V695" s="6"/>
-      <c r="W695" s="6"/>
-      <c r="X695" s="6"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="6"/>
@@ -18430,8 +17019,6 @@
       <c r="T696" s="6"/>
       <c r="U696" s="6"/>
       <c r="V696" s="6"/>
-      <c r="W696" s="6"/>
-      <c r="X696" s="6"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="6"/>
@@ -18456,8 +17043,6 @@
       <c r="T697" s="6"/>
       <c r="U697" s="6"/>
       <c r="V697" s="6"/>
-      <c r="W697" s="6"/>
-      <c r="X697" s="6"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="6"/>
@@ -18482,8 +17067,6 @@
       <c r="T698" s="6"/>
       <c r="U698" s="6"/>
       <c r="V698" s="6"/>
-      <c r="W698" s="6"/>
-      <c r="X698" s="6"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="6"/>
@@ -18508,8 +17091,6 @@
       <c r="T699" s="6"/>
       <c r="U699" s="6"/>
       <c r="V699" s="6"/>
-      <c r="W699" s="6"/>
-      <c r="X699" s="6"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="6"/>
@@ -18534,8 +17115,6 @@
       <c r="T700" s="6"/>
       <c r="U700" s="6"/>
       <c r="V700" s="6"/>
-      <c r="W700" s="6"/>
-      <c r="X700" s="6"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="6"/>
@@ -18560,8 +17139,6 @@
       <c r="T701" s="6"/>
       <c r="U701" s="6"/>
       <c r="V701" s="6"/>
-      <c r="W701" s="6"/>
-      <c r="X701" s="6"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="6"/>
@@ -18586,8 +17163,6 @@
       <c r="T702" s="6"/>
       <c r="U702" s="6"/>
       <c r="V702" s="6"/>
-      <c r="W702" s="6"/>
-      <c r="X702" s="6"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="6"/>
@@ -18612,8 +17187,6 @@
       <c r="T703" s="6"/>
       <c r="U703" s="6"/>
       <c r="V703" s="6"/>
-      <c r="W703" s="6"/>
-      <c r="X703" s="6"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="6"/>
@@ -18638,8 +17211,6 @@
       <c r="T704" s="6"/>
       <c r="U704" s="6"/>
       <c r="V704" s="6"/>
-      <c r="W704" s="6"/>
-      <c r="X704" s="6"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="6"/>
@@ -18664,8 +17235,6 @@
       <c r="T705" s="6"/>
       <c r="U705" s="6"/>
       <c r="V705" s="6"/>
-      <c r="W705" s="6"/>
-      <c r="X705" s="6"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="6"/>
@@ -18690,8 +17259,6 @@
       <c r="T706" s="6"/>
       <c r="U706" s="6"/>
       <c r="V706" s="6"/>
-      <c r="W706" s="6"/>
-      <c r="X706" s="6"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="6"/>
@@ -18716,8 +17283,6 @@
       <c r="T707" s="6"/>
       <c r="U707" s="6"/>
       <c r="V707" s="6"/>
-      <c r="W707" s="6"/>
-      <c r="X707" s="6"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="6"/>
@@ -18742,8 +17307,6 @@
       <c r="T708" s="6"/>
       <c r="U708" s="6"/>
       <c r="V708" s="6"/>
-      <c r="W708" s="6"/>
-      <c r="X708" s="6"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="6"/>
@@ -18768,8 +17331,6 @@
       <c r="T709" s="6"/>
       <c r="U709" s="6"/>
       <c r="V709" s="6"/>
-      <c r="W709" s="6"/>
-      <c r="X709" s="6"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="6"/>
@@ -18794,8 +17355,6 @@
       <c r="T710" s="6"/>
       <c r="U710" s="6"/>
       <c r="V710" s="6"/>
-      <c r="W710" s="6"/>
-      <c r="X710" s="6"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="6"/>
@@ -18820,8 +17379,6 @@
       <c r="T711" s="6"/>
       <c r="U711" s="6"/>
       <c r="V711" s="6"/>
-      <c r="W711" s="6"/>
-      <c r="X711" s="6"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="6"/>
@@ -18846,8 +17403,6 @@
       <c r="T712" s="6"/>
       <c r="U712" s="6"/>
       <c r="V712" s="6"/>
-      <c r="W712" s="6"/>
-      <c r="X712" s="6"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="6"/>
@@ -18872,8 +17427,6 @@
       <c r="T713" s="6"/>
       <c r="U713" s="6"/>
       <c r="V713" s="6"/>
-      <c r="W713" s="6"/>
-      <c r="X713" s="6"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="6"/>
@@ -18898,8 +17451,6 @@
       <c r="T714" s="6"/>
       <c r="U714" s="6"/>
       <c r="V714" s="6"/>
-      <c r="W714" s="6"/>
-      <c r="X714" s="6"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="6"/>
@@ -18924,8 +17475,6 @@
       <c r="T715" s="6"/>
       <c r="U715" s="6"/>
       <c r="V715" s="6"/>
-      <c r="W715" s="6"/>
-      <c r="X715" s="6"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="6"/>
@@ -18950,8 +17499,6 @@
       <c r="T716" s="6"/>
       <c r="U716" s="6"/>
       <c r="V716" s="6"/>
-      <c r="W716" s="6"/>
-      <c r="X716" s="6"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="6"/>
@@ -18976,8 +17523,6 @@
       <c r="T717" s="6"/>
       <c r="U717" s="6"/>
       <c r="V717" s="6"/>
-      <c r="W717" s="6"/>
-      <c r="X717" s="6"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="6"/>
@@ -19002,8 +17547,6 @@
       <c r="T718" s="6"/>
       <c r="U718" s="6"/>
       <c r="V718" s="6"/>
-      <c r="W718" s="6"/>
-      <c r="X718" s="6"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="6"/>
@@ -19028,8 +17571,6 @@
       <c r="T719" s="6"/>
       <c r="U719" s="6"/>
       <c r="V719" s="6"/>
-      <c r="W719" s="6"/>
-      <c r="X719" s="6"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="6"/>
@@ -19054,8 +17595,6 @@
       <c r="T720" s="6"/>
       <c r="U720" s="6"/>
       <c r="V720" s="6"/>
-      <c r="W720" s="6"/>
-      <c r="X720" s="6"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="6"/>
@@ -19080,8 +17619,6 @@
       <c r="T721" s="6"/>
       <c r="U721" s="6"/>
       <c r="V721" s="6"/>
-      <c r="W721" s="6"/>
-      <c r="X721" s="6"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="6"/>
@@ -19106,8 +17643,6 @@
       <c r="T722" s="6"/>
       <c r="U722" s="6"/>
       <c r="V722" s="6"/>
-      <c r="W722" s="6"/>
-      <c r="X722" s="6"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="6"/>
@@ -19132,8 +17667,6 @@
       <c r="T723" s="6"/>
       <c r="U723" s="6"/>
       <c r="V723" s="6"/>
-      <c r="W723" s="6"/>
-      <c r="X723" s="6"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="6"/>
@@ -19158,8 +17691,6 @@
       <c r="T724" s="6"/>
       <c r="U724" s="6"/>
       <c r="V724" s="6"/>
-      <c r="W724" s="6"/>
-      <c r="X724" s="6"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="6"/>
@@ -19184,8 +17715,6 @@
       <c r="T725" s="6"/>
       <c r="U725" s="6"/>
       <c r="V725" s="6"/>
-      <c r="W725" s="6"/>
-      <c r="X725" s="6"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="6"/>
@@ -19210,8 +17739,6 @@
       <c r="T726" s="6"/>
       <c r="U726" s="6"/>
       <c r="V726" s="6"/>
-      <c r="W726" s="6"/>
-      <c r="X726" s="6"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="6"/>
@@ -19236,8 +17763,6 @@
       <c r="T727" s="6"/>
       <c r="U727" s="6"/>
       <c r="V727" s="6"/>
-      <c r="W727" s="6"/>
-      <c r="X727" s="6"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="6"/>
@@ -19262,8 +17787,6 @@
       <c r="T728" s="6"/>
       <c r="U728" s="6"/>
       <c r="V728" s="6"/>
-      <c r="W728" s="6"/>
-      <c r="X728" s="6"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="6"/>
@@ -19288,8 +17811,6 @@
       <c r="T729" s="6"/>
       <c r="U729" s="6"/>
       <c r="V729" s="6"/>
-      <c r="W729" s="6"/>
-      <c r="X729" s="6"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="6"/>
@@ -19314,8 +17835,6 @@
       <c r="T730" s="6"/>
       <c r="U730" s="6"/>
       <c r="V730" s="6"/>
-      <c r="W730" s="6"/>
-      <c r="X730" s="6"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="6"/>
@@ -19340,8 +17859,6 @@
       <c r="T731" s="6"/>
       <c r="U731" s="6"/>
       <c r="V731" s="6"/>
-      <c r="W731" s="6"/>
-      <c r="X731" s="6"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="6"/>
@@ -19366,8 +17883,6 @@
       <c r="T732" s="6"/>
       <c r="U732" s="6"/>
       <c r="V732" s="6"/>
-      <c r="W732" s="6"/>
-      <c r="X732" s="6"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="6"/>
@@ -19392,8 +17907,6 @@
       <c r="T733" s="6"/>
       <c r="U733" s="6"/>
       <c r="V733" s="6"/>
-      <c r="W733" s="6"/>
-      <c r="X733" s="6"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="6"/>
@@ -19418,8 +17931,6 @@
       <c r="T734" s="6"/>
       <c r="U734" s="6"/>
       <c r="V734" s="6"/>
-      <c r="W734" s="6"/>
-      <c r="X734" s="6"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="6"/>
@@ -19444,8 +17955,6 @@
       <c r="T735" s="6"/>
       <c r="U735" s="6"/>
       <c r="V735" s="6"/>
-      <c r="W735" s="6"/>
-      <c r="X735" s="6"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="6"/>
@@ -19470,8 +17979,6 @@
       <c r="T736" s="6"/>
       <c r="U736" s="6"/>
       <c r="V736" s="6"/>
-      <c r="W736" s="6"/>
-      <c r="X736" s="6"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="6"/>
@@ -19496,8 +18003,6 @@
       <c r="T737" s="6"/>
       <c r="U737" s="6"/>
       <c r="V737" s="6"/>
-      <c r="W737" s="6"/>
-      <c r="X737" s="6"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="6"/>
@@ -19522,8 +18027,6 @@
       <c r="T738" s="6"/>
       <c r="U738" s="6"/>
       <c r="V738" s="6"/>
-      <c r="W738" s="6"/>
-      <c r="X738" s="6"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="6"/>
@@ -19548,8 +18051,6 @@
       <c r="T739" s="6"/>
       <c r="U739" s="6"/>
       <c r="V739" s="6"/>
-      <c r="W739" s="6"/>
-      <c r="X739" s="6"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="6"/>
@@ -19574,8 +18075,6 @@
       <c r="T740" s="6"/>
       <c r="U740" s="6"/>
       <c r="V740" s="6"/>
-      <c r="W740" s="6"/>
-      <c r="X740" s="6"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="6"/>
@@ -19600,8 +18099,6 @@
       <c r="T741" s="6"/>
       <c r="U741" s="6"/>
       <c r="V741" s="6"/>
-      <c r="W741" s="6"/>
-      <c r="X741" s="6"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="6"/>
@@ -19626,8 +18123,6 @@
       <c r="T742" s="6"/>
       <c r="U742" s="6"/>
       <c r="V742" s="6"/>
-      <c r="W742" s="6"/>
-      <c r="X742" s="6"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="6"/>
@@ -19652,8 +18147,6 @@
       <c r="T743" s="6"/>
       <c r="U743" s="6"/>
       <c r="V743" s="6"/>
-      <c r="W743" s="6"/>
-      <c r="X743" s="6"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="6"/>
@@ -19678,8 +18171,6 @@
       <c r="T744" s="6"/>
       <c r="U744" s="6"/>
       <c r="V744" s="6"/>
-      <c r="W744" s="6"/>
-      <c r="X744" s="6"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="6"/>
@@ -19704,8 +18195,6 @@
       <c r="T745" s="6"/>
       <c r="U745" s="6"/>
       <c r="V745" s="6"/>
-      <c r="W745" s="6"/>
-      <c r="X745" s="6"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="6"/>
@@ -19730,8 +18219,6 @@
       <c r="T746" s="6"/>
       <c r="U746" s="6"/>
       <c r="V746" s="6"/>
-      <c r="W746" s="6"/>
-      <c r="X746" s="6"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="6"/>
@@ -19756,8 +18243,6 @@
       <c r="T747" s="6"/>
       <c r="U747" s="6"/>
       <c r="V747" s="6"/>
-      <c r="W747" s="6"/>
-      <c r="X747" s="6"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="6"/>
@@ -19782,8 +18267,6 @@
       <c r="T748" s="6"/>
       <c r="U748" s="6"/>
       <c r="V748" s="6"/>
-      <c r="W748" s="6"/>
-      <c r="X748" s="6"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="6"/>
@@ -19808,8 +18291,6 @@
       <c r="T749" s="6"/>
       <c r="U749" s="6"/>
       <c r="V749" s="6"/>
-      <c r="W749" s="6"/>
-      <c r="X749" s="6"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="6"/>
@@ -19834,8 +18315,6 @@
       <c r="T750" s="6"/>
       <c r="U750" s="6"/>
       <c r="V750" s="6"/>
-      <c r="W750" s="6"/>
-      <c r="X750" s="6"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="6"/>
@@ -19860,8 +18339,6 @@
       <c r="T751" s="6"/>
       <c r="U751" s="6"/>
       <c r="V751" s="6"/>
-      <c r="W751" s="6"/>
-      <c r="X751" s="6"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="6"/>
@@ -19886,8 +18363,6 @@
       <c r="T752" s="6"/>
       <c r="U752" s="6"/>
       <c r="V752" s="6"/>
-      <c r="W752" s="6"/>
-      <c r="X752" s="6"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="6"/>
@@ -19912,8 +18387,6 @@
       <c r="T753" s="6"/>
       <c r="U753" s="6"/>
       <c r="V753" s="6"/>
-      <c r="W753" s="6"/>
-      <c r="X753" s="6"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="6"/>
@@ -19938,8 +18411,6 @@
       <c r="T754" s="6"/>
       <c r="U754" s="6"/>
       <c r="V754" s="6"/>
-      <c r="W754" s="6"/>
-      <c r="X754" s="6"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="6"/>
@@ -19964,8 +18435,6 @@
       <c r="T755" s="6"/>
       <c r="U755" s="6"/>
       <c r="V755" s="6"/>
-      <c r="W755" s="6"/>
-      <c r="X755" s="6"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="6"/>
@@ -19990,8 +18459,6 @@
       <c r="T756" s="6"/>
       <c r="U756" s="6"/>
       <c r="V756" s="6"/>
-      <c r="W756" s="6"/>
-      <c r="X756" s="6"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="6"/>
@@ -20016,8 +18483,6 @@
       <c r="T757" s="6"/>
       <c r="U757" s="6"/>
       <c r="V757" s="6"/>
-      <c r="W757" s="6"/>
-      <c r="X757" s="6"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="6"/>
@@ -20042,8 +18507,6 @@
       <c r="T758" s="6"/>
       <c r="U758" s="6"/>
       <c r="V758" s="6"/>
-      <c r="W758" s="6"/>
-      <c r="X758" s="6"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="6"/>
@@ -20068,8 +18531,6 @@
       <c r="T759" s="6"/>
       <c r="U759" s="6"/>
       <c r="V759" s="6"/>
-      <c r="W759" s="6"/>
-      <c r="X759" s="6"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="6"/>
@@ -20094,8 +18555,6 @@
       <c r="T760" s="6"/>
       <c r="U760" s="6"/>
       <c r="V760" s="6"/>
-      <c r="W760" s="6"/>
-      <c r="X760" s="6"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="6"/>
@@ -20120,8 +18579,6 @@
       <c r="T761" s="6"/>
       <c r="U761" s="6"/>
       <c r="V761" s="6"/>
-      <c r="W761" s="6"/>
-      <c r="X761" s="6"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="6"/>
@@ -20146,8 +18603,6 @@
       <c r="T762" s="6"/>
       <c r="U762" s="6"/>
       <c r="V762" s="6"/>
-      <c r="W762" s="6"/>
-      <c r="X762" s="6"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="6"/>
@@ -20172,8 +18627,6 @@
       <c r="T763" s="6"/>
       <c r="U763" s="6"/>
       <c r="V763" s="6"/>
-      <c r="W763" s="6"/>
-      <c r="X763" s="6"/>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="6"/>
@@ -20198,8 +18651,6 @@
       <c r="T764" s="6"/>
       <c r="U764" s="6"/>
       <c r="V764" s="6"/>
-      <c r="W764" s="6"/>
-      <c r="X764" s="6"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="6"/>
@@ -20224,8 +18675,6 @@
       <c r="T765" s="6"/>
       <c r="U765" s="6"/>
       <c r="V765" s="6"/>
-      <c r="W765" s="6"/>
-      <c r="X765" s="6"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="6"/>
@@ -20250,8 +18699,6 @@
       <c r="T766" s="6"/>
       <c r="U766" s="6"/>
       <c r="V766" s="6"/>
-      <c r="W766" s="6"/>
-      <c r="X766" s="6"/>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="6"/>
@@ -20276,8 +18723,6 @@
       <c r="T767" s="6"/>
       <c r="U767" s="6"/>
       <c r="V767" s="6"/>
-      <c r="W767" s="6"/>
-      <c r="X767" s="6"/>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="6"/>
@@ -20302,8 +18747,6 @@
       <c r="T768" s="6"/>
       <c r="U768" s="6"/>
       <c r="V768" s="6"/>
-      <c r="W768" s="6"/>
-      <c r="X768" s="6"/>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="6"/>
@@ -20328,8 +18771,6 @@
       <c r="T769" s="6"/>
       <c r="U769" s="6"/>
       <c r="V769" s="6"/>
-      <c r="W769" s="6"/>
-      <c r="X769" s="6"/>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="6"/>
@@ -20354,8 +18795,6 @@
       <c r="T770" s="6"/>
       <c r="U770" s="6"/>
       <c r="V770" s="6"/>
-      <c r="W770" s="6"/>
-      <c r="X770" s="6"/>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="6"/>
@@ -20380,8 +18819,6 @@
       <c r="T771" s="6"/>
       <c r="U771" s="6"/>
       <c r="V771" s="6"/>
-      <c r="W771" s="6"/>
-      <c r="X771" s="6"/>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="6"/>
@@ -20406,8 +18843,6 @@
       <c r="T772" s="6"/>
       <c r="U772" s="6"/>
       <c r="V772" s="6"/>
-      <c r="W772" s="6"/>
-      <c r="X772" s="6"/>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="6"/>
@@ -20432,8 +18867,6 @@
       <c r="T773" s="6"/>
       <c r="U773" s="6"/>
       <c r="V773" s="6"/>
-      <c r="W773" s="6"/>
-      <c r="X773" s="6"/>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="6"/>
@@ -20458,8 +18891,6 @@
       <c r="T774" s="6"/>
       <c r="U774" s="6"/>
       <c r="V774" s="6"/>
-      <c r="W774" s="6"/>
-      <c r="X774" s="6"/>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="6"/>
@@ -20484,8 +18915,6 @@
       <c r="T775" s="6"/>
       <c r="U775" s="6"/>
       <c r="V775" s="6"/>
-      <c r="W775" s="6"/>
-      <c r="X775" s="6"/>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="6"/>
@@ -20510,8 +18939,6 @@
       <c r="T776" s="6"/>
       <c r="U776" s="6"/>
       <c r="V776" s="6"/>
-      <c r="W776" s="6"/>
-      <c r="X776" s="6"/>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="6"/>
@@ -20536,8 +18963,6 @@
       <c r="T777" s="6"/>
       <c r="U777" s="6"/>
       <c r="V777" s="6"/>
-      <c r="W777" s="6"/>
-      <c r="X777" s="6"/>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="6"/>
@@ -20562,8 +18987,6 @@
       <c r="T778" s="6"/>
       <c r="U778" s="6"/>
       <c r="V778" s="6"/>
-      <c r="W778" s="6"/>
-      <c r="X778" s="6"/>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="6"/>
@@ -20588,8 +19011,6 @@
       <c r="T779" s="6"/>
       <c r="U779" s="6"/>
       <c r="V779" s="6"/>
-      <c r="W779" s="6"/>
-      <c r="X779" s="6"/>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="6"/>
@@ -20614,8 +19035,6 @@
       <c r="T780" s="6"/>
       <c r="U780" s="6"/>
       <c r="V780" s="6"/>
-      <c r="W780" s="6"/>
-      <c r="X780" s="6"/>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="6"/>
@@ -20640,8 +19059,6 @@
       <c r="T781" s="6"/>
       <c r="U781" s="6"/>
       <c r="V781" s="6"/>
-      <c r="W781" s="6"/>
-      <c r="X781" s="6"/>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="6"/>
@@ -20666,8 +19083,6 @@
       <c r="T782" s="6"/>
       <c r="U782" s="6"/>
       <c r="V782" s="6"/>
-      <c r="W782" s="6"/>
-      <c r="X782" s="6"/>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="6"/>
@@ -20692,8 +19107,6 @@
       <c r="T783" s="6"/>
       <c r="U783" s="6"/>
       <c r="V783" s="6"/>
-      <c r="W783" s="6"/>
-      <c r="X783" s="6"/>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="6"/>
@@ -20718,8 +19131,6 @@
       <c r="T784" s="6"/>
       <c r="U784" s="6"/>
       <c r="V784" s="6"/>
-      <c r="W784" s="6"/>
-      <c r="X784" s="6"/>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="6"/>
@@ -20744,8 +19155,6 @@
       <c r="T785" s="6"/>
       <c r="U785" s="6"/>
       <c r="V785" s="6"/>
-      <c r="W785" s="6"/>
-      <c r="X785" s="6"/>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="6"/>
@@ -20770,8 +19179,6 @@
       <c r="T786" s="6"/>
       <c r="U786" s="6"/>
       <c r="V786" s="6"/>
-      <c r="W786" s="6"/>
-      <c r="X786" s="6"/>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="6"/>
@@ -20796,8 +19203,6 @@
       <c r="T787" s="6"/>
       <c r="U787" s="6"/>
       <c r="V787" s="6"/>
-      <c r="W787" s="6"/>
-      <c r="X787" s="6"/>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="6"/>
@@ -20822,8 +19227,6 @@
       <c r="T788" s="6"/>
       <c r="U788" s="6"/>
       <c r="V788" s="6"/>
-      <c r="W788" s="6"/>
-      <c r="X788" s="6"/>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="6"/>
@@ -20848,8 +19251,6 @@
       <c r="T789" s="6"/>
       <c r="U789" s="6"/>
       <c r="V789" s="6"/>
-      <c r="W789" s="6"/>
-      <c r="X789" s="6"/>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="6"/>
@@ -20874,8 +19275,6 @@
       <c r="T790" s="6"/>
       <c r="U790" s="6"/>
       <c r="V790" s="6"/>
-      <c r="W790" s="6"/>
-      <c r="X790" s="6"/>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="6"/>
@@ -20900,8 +19299,6 @@
       <c r="T791" s="6"/>
       <c r="U791" s="6"/>
       <c r="V791" s="6"/>
-      <c r="W791" s="6"/>
-      <c r="X791" s="6"/>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="6"/>
@@ -20926,8 +19323,6 @@
       <c r="T792" s="6"/>
       <c r="U792" s="6"/>
       <c r="V792" s="6"/>
-      <c r="W792" s="6"/>
-      <c r="X792" s="6"/>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="6"/>
@@ -20952,8 +19347,6 @@
       <c r="T793" s="6"/>
       <c r="U793" s="6"/>
       <c r="V793" s="6"/>
-      <c r="W793" s="6"/>
-      <c r="X793" s="6"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="6"/>
@@ -20978,8 +19371,6 @@
       <c r="T794" s="6"/>
       <c r="U794" s="6"/>
       <c r="V794" s="6"/>
-      <c r="W794" s="6"/>
-      <c r="X794" s="6"/>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="6"/>
@@ -21004,8 +19395,6 @@
       <c r="T795" s="6"/>
       <c r="U795" s="6"/>
       <c r="V795" s="6"/>
-      <c r="W795" s="6"/>
-      <c r="X795" s="6"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="6"/>
@@ -21030,8 +19419,6 @@
       <c r="T796" s="6"/>
       <c r="U796" s="6"/>
       <c r="V796" s="6"/>
-      <c r="W796" s="6"/>
-      <c r="X796" s="6"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="6"/>
@@ -21056,8 +19443,6 @@
       <c r="T797" s="6"/>
       <c r="U797" s="6"/>
       <c r="V797" s="6"/>
-      <c r="W797" s="6"/>
-      <c r="X797" s="6"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="6"/>
@@ -21082,8 +19467,6 @@
       <c r="T798" s="6"/>
       <c r="U798" s="6"/>
       <c r="V798" s="6"/>
-      <c r="W798" s="6"/>
-      <c r="X798" s="6"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="6"/>
@@ -21108,8 +19491,6 @@
       <c r="T799" s="6"/>
       <c r="U799" s="6"/>
       <c r="V799" s="6"/>
-      <c r="W799" s="6"/>
-      <c r="X799" s="6"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="6"/>
@@ -21134,8 +19515,6 @@
       <c r="T800" s="6"/>
       <c r="U800" s="6"/>
       <c r="V800" s="6"/>
-      <c r="W800" s="6"/>
-      <c r="X800" s="6"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="6"/>
@@ -21160,8 +19539,6 @@
       <c r="T801" s="6"/>
       <c r="U801" s="6"/>
       <c r="V801" s="6"/>
-      <c r="W801" s="6"/>
-      <c r="X801" s="6"/>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="6"/>
@@ -21186,8 +19563,6 @@
       <c r="T802" s="6"/>
       <c r="U802" s="6"/>
       <c r="V802" s="6"/>
-      <c r="W802" s="6"/>
-      <c r="X802" s="6"/>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="6"/>
@@ -21212,8 +19587,6 @@
       <c r="T803" s="6"/>
       <c r="U803" s="6"/>
       <c r="V803" s="6"/>
-      <c r="W803" s="6"/>
-      <c r="X803" s="6"/>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="6"/>
@@ -21238,8 +19611,6 @@
       <c r="T804" s="6"/>
       <c r="U804" s="6"/>
       <c r="V804" s="6"/>
-      <c r="W804" s="6"/>
-      <c r="X804" s="6"/>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="6"/>
@@ -21264,8 +19635,6 @@
       <c r="T805" s="6"/>
       <c r="U805" s="6"/>
       <c r="V805" s="6"/>
-      <c r="W805" s="6"/>
-      <c r="X805" s="6"/>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="6"/>
@@ -21290,8 +19659,6 @@
       <c r="T806" s="6"/>
       <c r="U806" s="6"/>
       <c r="V806" s="6"/>
-      <c r="W806" s="6"/>
-      <c r="X806" s="6"/>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="6"/>
@@ -21316,8 +19683,6 @@
       <c r="T807" s="6"/>
       <c r="U807" s="6"/>
       <c r="V807" s="6"/>
-      <c r="W807" s="6"/>
-      <c r="X807" s="6"/>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="6"/>
@@ -21342,8 +19707,6 @@
       <c r="T808" s="6"/>
       <c r="U808" s="6"/>
       <c r="V808" s="6"/>
-      <c r="W808" s="6"/>
-      <c r="X808" s="6"/>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="6"/>
@@ -21368,8 +19731,6 @@
       <c r="T809" s="6"/>
       <c r="U809" s="6"/>
       <c r="V809" s="6"/>
-      <c r="W809" s="6"/>
-      <c r="X809" s="6"/>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="6"/>
@@ -21394,8 +19755,6 @@
       <c r="T810" s="6"/>
       <c r="U810" s="6"/>
       <c r="V810" s="6"/>
-      <c r="W810" s="6"/>
-      <c r="X810" s="6"/>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="6"/>
@@ -21420,8 +19779,6 @@
       <c r="T811" s="6"/>
       <c r="U811" s="6"/>
       <c r="V811" s="6"/>
-      <c r="W811" s="6"/>
-      <c r="X811" s="6"/>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="6"/>
@@ -21446,8 +19803,6 @@
       <c r="T812" s="6"/>
       <c r="U812" s="6"/>
       <c r="V812" s="6"/>
-      <c r="W812" s="6"/>
-      <c r="X812" s="6"/>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="6"/>
@@ -21472,8 +19827,6 @@
       <c r="T813" s="6"/>
       <c r="U813" s="6"/>
       <c r="V813" s="6"/>
-      <c r="W813" s="6"/>
-      <c r="X813" s="6"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="6"/>
@@ -21498,8 +19851,6 @@
       <c r="T814" s="6"/>
       <c r="U814" s="6"/>
       <c r="V814" s="6"/>
-      <c r="W814" s="6"/>
-      <c r="X814" s="6"/>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="6"/>
@@ -21524,8 +19875,6 @@
       <c r="T815" s="6"/>
       <c r="U815" s="6"/>
       <c r="V815" s="6"/>
-      <c r="W815" s="6"/>
-      <c r="X815" s="6"/>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="6"/>
@@ -21550,8 +19899,6 @@
       <c r="T816" s="6"/>
       <c r="U816" s="6"/>
       <c r="V816" s="6"/>
-      <c r="W816" s="6"/>
-      <c r="X816" s="6"/>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="6"/>
@@ -21576,8 +19923,6 @@
       <c r="T817" s="6"/>
       <c r="U817" s="6"/>
       <c r="V817" s="6"/>
-      <c r="W817" s="6"/>
-      <c r="X817" s="6"/>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="6"/>
@@ -21602,8 +19947,6 @@
       <c r="T818" s="6"/>
       <c r="U818" s="6"/>
       <c r="V818" s="6"/>
-      <c r="W818" s="6"/>
-      <c r="X818" s="6"/>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="6"/>
@@ -21628,8 +19971,6 @@
       <c r="T819" s="6"/>
       <c r="U819" s="6"/>
       <c r="V819" s="6"/>
-      <c r="W819" s="6"/>
-      <c r="X819" s="6"/>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="6"/>
@@ -21654,8 +19995,6 @@
       <c r="T820" s="6"/>
       <c r="U820" s="6"/>
       <c r="V820" s="6"/>
-      <c r="W820" s="6"/>
-      <c r="X820" s="6"/>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="6"/>
@@ -21680,8 +20019,6 @@
       <c r="T821" s="6"/>
       <c r="U821" s="6"/>
       <c r="V821" s="6"/>
-      <c r="W821" s="6"/>
-      <c r="X821" s="6"/>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="6"/>
@@ -21706,8 +20043,6 @@
       <c r="T822" s="6"/>
       <c r="U822" s="6"/>
       <c r="V822" s="6"/>
-      <c r="W822" s="6"/>
-      <c r="X822" s="6"/>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="6"/>
@@ -21732,8 +20067,6 @@
       <c r="T823" s="6"/>
       <c r="U823" s="6"/>
       <c r="V823" s="6"/>
-      <c r="W823" s="6"/>
-      <c r="X823" s="6"/>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="6"/>
@@ -21758,8 +20091,6 @@
       <c r="T824" s="6"/>
       <c r="U824" s="6"/>
       <c r="V824" s="6"/>
-      <c r="W824" s="6"/>
-      <c r="X824" s="6"/>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="6"/>
@@ -21784,8 +20115,6 @@
       <c r="T825" s="6"/>
       <c r="U825" s="6"/>
       <c r="V825" s="6"/>
-      <c r="W825" s="6"/>
-      <c r="X825" s="6"/>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="6"/>
@@ -21810,8 +20139,6 @@
       <c r="T826" s="6"/>
       <c r="U826" s="6"/>
       <c r="V826" s="6"/>
-      <c r="W826" s="6"/>
-      <c r="X826" s="6"/>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="6"/>
@@ -21836,8 +20163,6 @@
       <c r="T827" s="6"/>
       <c r="U827" s="6"/>
       <c r="V827" s="6"/>
-      <c r="W827" s="6"/>
-      <c r="X827" s="6"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="6"/>
@@ -21862,8 +20187,6 @@
       <c r="T828" s="6"/>
       <c r="U828" s="6"/>
       <c r="V828" s="6"/>
-      <c r="W828" s="6"/>
-      <c r="X828" s="6"/>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="6"/>
@@ -21888,8 +20211,6 @@
       <c r="T829" s="6"/>
       <c r="U829" s="6"/>
       <c r="V829" s="6"/>
-      <c r="W829" s="6"/>
-      <c r="X829" s="6"/>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="6"/>
@@ -21914,8 +20235,6 @@
       <c r="T830" s="6"/>
       <c r="U830" s="6"/>
       <c r="V830" s="6"/>
-      <c r="W830" s="6"/>
-      <c r="X830" s="6"/>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="6"/>
@@ -21940,8 +20259,6 @@
       <c r="T831" s="6"/>
       <c r="U831" s="6"/>
       <c r="V831" s="6"/>
-      <c r="W831" s="6"/>
-      <c r="X831" s="6"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="6"/>
@@ -21966,8 +20283,6 @@
       <c r="T832" s="6"/>
       <c r="U832" s="6"/>
       <c r="V832" s="6"/>
-      <c r="W832" s="6"/>
-      <c r="X832" s="6"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="6"/>
@@ -21992,8 +20307,6 @@
       <c r="T833" s="6"/>
       <c r="U833" s="6"/>
       <c r="V833" s="6"/>
-      <c r="W833" s="6"/>
-      <c r="X833" s="6"/>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="6"/>
@@ -22018,8 +20331,6 @@
       <c r="T834" s="6"/>
       <c r="U834" s="6"/>
       <c r="V834" s="6"/>
-      <c r="W834" s="6"/>
-      <c r="X834" s="6"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="6"/>
@@ -22044,8 +20355,6 @@
       <c r="T835" s="6"/>
       <c r="U835" s="6"/>
       <c r="V835" s="6"/>
-      <c r="W835" s="6"/>
-      <c r="X835" s="6"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="6"/>
@@ -22070,8 +20379,6 @@
       <c r="T836" s="6"/>
       <c r="U836" s="6"/>
       <c r="V836" s="6"/>
-      <c r="W836" s="6"/>
-      <c r="X836" s="6"/>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="6"/>
@@ -22096,8 +20403,6 @@
       <c r="T837" s="6"/>
       <c r="U837" s="6"/>
       <c r="V837" s="6"/>
-      <c r="W837" s="6"/>
-      <c r="X837" s="6"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="6"/>
@@ -22122,8 +20427,6 @@
       <c r="T838" s="6"/>
       <c r="U838" s="6"/>
       <c r="V838" s="6"/>
-      <c r="W838" s="6"/>
-      <c r="X838" s="6"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="6"/>
@@ -22148,8 +20451,6 @@
       <c r="T839" s="6"/>
       <c r="U839" s="6"/>
       <c r="V839" s="6"/>
-      <c r="W839" s="6"/>
-      <c r="X839" s="6"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="6"/>
@@ -22174,8 +20475,6 @@
       <c r="T840" s="6"/>
       <c r="U840" s="6"/>
       <c r="V840" s="6"/>
-      <c r="W840" s="6"/>
-      <c r="X840" s="6"/>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="6"/>
@@ -22200,8 +20499,6 @@
       <c r="T841" s="6"/>
       <c r="U841" s="6"/>
       <c r="V841" s="6"/>
-      <c r="W841" s="6"/>
-      <c r="X841" s="6"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="6"/>
@@ -22226,8 +20523,6 @@
       <c r="T842" s="6"/>
       <c r="U842" s="6"/>
       <c r="V842" s="6"/>
-      <c r="W842" s="6"/>
-      <c r="X842" s="6"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="6"/>
@@ -22252,8 +20547,6 @@
       <c r="T843" s="6"/>
       <c r="U843" s="6"/>
       <c r="V843" s="6"/>
-      <c r="W843" s="6"/>
-      <c r="X843" s="6"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="6"/>
@@ -22278,8 +20571,6 @@
       <c r="T844" s="6"/>
       <c r="U844" s="6"/>
       <c r="V844" s="6"/>
-      <c r="W844" s="6"/>
-      <c r="X844" s="6"/>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="6"/>
@@ -22304,8 +20595,6 @@
       <c r="T845" s="6"/>
       <c r="U845" s="6"/>
       <c r="V845" s="6"/>
-      <c r="W845" s="6"/>
-      <c r="X845" s="6"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="6"/>
@@ -22330,8 +20619,6 @@
       <c r="T846" s="6"/>
       <c r="U846" s="6"/>
       <c r="V846" s="6"/>
-      <c r="W846" s="6"/>
-      <c r="X846" s="6"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="6"/>
@@ -22356,8 +20643,6 @@
       <c r="T847" s="6"/>
       <c r="U847" s="6"/>
       <c r="V847" s="6"/>
-      <c r="W847" s="6"/>
-      <c r="X847" s="6"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="6"/>
@@ -22382,8 +20667,6 @@
       <c r="T848" s="6"/>
       <c r="U848" s="6"/>
       <c r="V848" s="6"/>
-      <c r="W848" s="6"/>
-      <c r="X848" s="6"/>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="6"/>
@@ -22408,8 +20691,6 @@
       <c r="T849" s="6"/>
       <c r="U849" s="6"/>
       <c r="V849" s="6"/>
-      <c r="W849" s="6"/>
-      <c r="X849" s="6"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="6"/>
@@ -22434,8 +20715,6 @@
       <c r="T850" s="6"/>
       <c r="U850" s="6"/>
       <c r="V850" s="6"/>
-      <c r="W850" s="6"/>
-      <c r="X850" s="6"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="6"/>
@@ -22460,8 +20739,6 @@
       <c r="T851" s="6"/>
       <c r="U851" s="6"/>
       <c r="V851" s="6"/>
-      <c r="W851" s="6"/>
-      <c r="X851" s="6"/>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="6"/>
@@ -22486,8 +20763,6 @@
       <c r="T852" s="6"/>
       <c r="U852" s="6"/>
       <c r="V852" s="6"/>
-      <c r="W852" s="6"/>
-      <c r="X852" s="6"/>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="6"/>
@@ -22512,8 +20787,6 @@
       <c r="T853" s="6"/>
       <c r="U853" s="6"/>
       <c r="V853" s="6"/>
-      <c r="W853" s="6"/>
-      <c r="X853" s="6"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="6"/>
@@ -22538,8 +20811,6 @@
       <c r="T854" s="6"/>
       <c r="U854" s="6"/>
       <c r="V854" s="6"/>
-      <c r="W854" s="6"/>
-      <c r="X854" s="6"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="6"/>
@@ -22564,8 +20835,6 @@
       <c r="T855" s="6"/>
       <c r="U855" s="6"/>
       <c r="V855" s="6"/>
-      <c r="W855" s="6"/>
-      <c r="X855" s="6"/>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="6"/>
@@ -22590,8 +20859,6 @@
       <c r="T856" s="6"/>
       <c r="U856" s="6"/>
       <c r="V856" s="6"/>
-      <c r="W856" s="6"/>
-      <c r="X856" s="6"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="6"/>
@@ -22616,8 +20883,6 @@
       <c r="T857" s="6"/>
       <c r="U857" s="6"/>
       <c r="V857" s="6"/>
-      <c r="W857" s="6"/>
-      <c r="X857" s="6"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="6"/>
@@ -22642,8 +20907,6 @@
       <c r="T858" s="6"/>
       <c r="U858" s="6"/>
       <c r="V858" s="6"/>
-      <c r="W858" s="6"/>
-      <c r="X858" s="6"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="6"/>
@@ -22668,8 +20931,6 @@
       <c r="T859" s="6"/>
       <c r="U859" s="6"/>
       <c r="V859" s="6"/>
-      <c r="W859" s="6"/>
-      <c r="X859" s="6"/>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="6"/>
@@ -22694,8 +20955,6 @@
       <c r="T860" s="6"/>
       <c r="U860" s="6"/>
       <c r="V860" s="6"/>
-      <c r="W860" s="6"/>
-      <c r="X860" s="6"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="6"/>
@@ -22720,8 +20979,6 @@
       <c r="T861" s="6"/>
       <c r="U861" s="6"/>
       <c r="V861" s="6"/>
-      <c r="W861" s="6"/>
-      <c r="X861" s="6"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="6"/>
@@ -22746,8 +21003,6 @@
       <c r="T862" s="6"/>
       <c r="U862" s="6"/>
       <c r="V862" s="6"/>
-      <c r="W862" s="6"/>
-      <c r="X862" s="6"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="6"/>
@@ -22772,8 +21027,6 @@
       <c r="T863" s="6"/>
       <c r="U863" s="6"/>
       <c r="V863" s="6"/>
-      <c r="W863" s="6"/>
-      <c r="X863" s="6"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="6"/>
@@ -22798,8 +21051,6 @@
       <c r="T864" s="6"/>
       <c r="U864" s="6"/>
       <c r="V864" s="6"/>
-      <c r="W864" s="6"/>
-      <c r="X864" s="6"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="6"/>
@@ -22824,8 +21075,6 @@
       <c r="T865" s="6"/>
       <c r="U865" s="6"/>
       <c r="V865" s="6"/>
-      <c r="W865" s="6"/>
-      <c r="X865" s="6"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="6"/>
@@ -22850,8 +21099,6 @@
       <c r="T866" s="6"/>
       <c r="U866" s="6"/>
       <c r="V866" s="6"/>
-      <c r="W866" s="6"/>
-      <c r="X866" s="6"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="6"/>
@@ -22876,8 +21123,6 @@
       <c r="T867" s="6"/>
       <c r="U867" s="6"/>
       <c r="V867" s="6"/>
-      <c r="W867" s="6"/>
-      <c r="X867" s="6"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="6"/>
@@ -22902,8 +21147,6 @@
       <c r="T868" s="6"/>
       <c r="U868" s="6"/>
       <c r="V868" s="6"/>
-      <c r="W868" s="6"/>
-      <c r="X868" s="6"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="6"/>
@@ -22928,8 +21171,6 @@
       <c r="T869" s="6"/>
       <c r="U869" s="6"/>
       <c r="V869" s="6"/>
-      <c r="W869" s="6"/>
-      <c r="X869" s="6"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="6"/>
@@ -22954,8 +21195,6 @@
       <c r="T870" s="6"/>
       <c r="U870" s="6"/>
       <c r="V870" s="6"/>
-      <c r="W870" s="6"/>
-      <c r="X870" s="6"/>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="6"/>
@@ -22980,8 +21219,6 @@
       <c r="T871" s="6"/>
       <c r="U871" s="6"/>
       <c r="V871" s="6"/>
-      <c r="W871" s="6"/>
-      <c r="X871" s="6"/>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="6"/>
@@ -23006,8 +21243,6 @@
       <c r="T872" s="6"/>
       <c r="U872" s="6"/>
       <c r="V872" s="6"/>
-      <c r="W872" s="6"/>
-      <c r="X872" s="6"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="6"/>
@@ -23032,8 +21267,6 @@
       <c r="T873" s="6"/>
       <c r="U873" s="6"/>
       <c r="V873" s="6"/>
-      <c r="W873" s="6"/>
-      <c r="X873" s="6"/>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="6"/>
@@ -23058,8 +21291,6 @@
       <c r="T874" s="6"/>
       <c r="U874" s="6"/>
       <c r="V874" s="6"/>
-      <c r="W874" s="6"/>
-      <c r="X874" s="6"/>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="6"/>
@@ -23084,8 +21315,6 @@
       <c r="T875" s="6"/>
       <c r="U875" s="6"/>
       <c r="V875" s="6"/>
-      <c r="W875" s="6"/>
-      <c r="X875" s="6"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="6"/>
@@ -23110,8 +21339,6 @@
       <c r="T876" s="6"/>
       <c r="U876" s="6"/>
       <c r="V876" s="6"/>
-      <c r="W876" s="6"/>
-      <c r="X876" s="6"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="6"/>
@@ -23136,8 +21363,6 @@
       <c r="T877" s="6"/>
       <c r="U877" s="6"/>
       <c r="V877" s="6"/>
-      <c r="W877" s="6"/>
-      <c r="X877" s="6"/>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="6"/>
@@ -23162,8 +21387,6 @@
       <c r="T878" s="6"/>
       <c r="U878" s="6"/>
       <c r="V878" s="6"/>
-      <c r="W878" s="6"/>
-      <c r="X878" s="6"/>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="6"/>
@@ -23188,8 +21411,6 @@
       <c r="T879" s="6"/>
       <c r="U879" s="6"/>
       <c r="V879" s="6"/>
-      <c r="W879" s="6"/>
-      <c r="X879" s="6"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="6"/>
@@ -23214,8 +21435,6 @@
       <c r="T880" s="6"/>
       <c r="U880" s="6"/>
       <c r="V880" s="6"/>
-      <c r="W880" s="6"/>
-      <c r="X880" s="6"/>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="6"/>
@@ -23240,8 +21459,6 @@
       <c r="T881" s="6"/>
       <c r="U881" s="6"/>
       <c r="V881" s="6"/>
-      <c r="W881" s="6"/>
-      <c r="X881" s="6"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="6"/>
@@ -23266,8 +21483,6 @@
       <c r="T882" s="6"/>
       <c r="U882" s="6"/>
       <c r="V882" s="6"/>
-      <c r="W882" s="6"/>
-      <c r="X882" s="6"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="6"/>
@@ -23292,8 +21507,6 @@
       <c r="T883" s="6"/>
       <c r="U883" s="6"/>
       <c r="V883" s="6"/>
-      <c r="W883" s="6"/>
-      <c r="X883" s="6"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="6"/>
@@ -23318,8 +21531,6 @@
       <c r="T884" s="6"/>
       <c r="U884" s="6"/>
       <c r="V884" s="6"/>
-      <c r="W884" s="6"/>
-      <c r="X884" s="6"/>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="6"/>
@@ -23344,8 +21555,6 @@
       <c r="T885" s="6"/>
       <c r="U885" s="6"/>
       <c r="V885" s="6"/>
-      <c r="W885" s="6"/>
-      <c r="X885" s="6"/>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="6"/>
@@ -23370,8 +21579,6 @@
       <c r="T886" s="6"/>
       <c r="U886" s="6"/>
       <c r="V886" s="6"/>
-      <c r="W886" s="6"/>
-      <c r="X886" s="6"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="6"/>
@@ -23396,8 +21603,6 @@
       <c r="T887" s="6"/>
       <c r="U887" s="6"/>
       <c r="V887" s="6"/>
-      <c r="W887" s="6"/>
-      <c r="X887" s="6"/>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="6"/>
@@ -23422,8 +21627,6 @@
       <c r="T888" s="6"/>
       <c r="U888" s="6"/>
       <c r="V888" s="6"/>
-      <c r="W888" s="6"/>
-      <c r="X888" s="6"/>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="6"/>
@@ -23448,8 +21651,6 @@
       <c r="T889" s="6"/>
       <c r="U889" s="6"/>
       <c r="V889" s="6"/>
-      <c r="W889" s="6"/>
-      <c r="X889" s="6"/>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="6"/>
@@ -23474,8 +21675,6 @@
       <c r="T890" s="6"/>
       <c r="U890" s="6"/>
       <c r="V890" s="6"/>
-      <c r="W890" s="6"/>
-      <c r="X890" s="6"/>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="6"/>
@@ -23500,8 +21699,6 @@
       <c r="T891" s="6"/>
       <c r="U891" s="6"/>
       <c r="V891" s="6"/>
-      <c r="W891" s="6"/>
-      <c r="X891" s="6"/>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="6"/>
@@ -23526,8 +21723,6 @@
       <c r="T892" s="6"/>
       <c r="U892" s="6"/>
       <c r="V892" s="6"/>
-      <c r="W892" s="6"/>
-      <c r="X892" s="6"/>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="6"/>
@@ -23552,8 +21747,6 @@
       <c r="T893" s="6"/>
       <c r="U893" s="6"/>
       <c r="V893" s="6"/>
-      <c r="W893" s="6"/>
-      <c r="X893" s="6"/>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="6"/>
@@ -23578,8 +21771,6 @@
       <c r="T894" s="6"/>
       <c r="U894" s="6"/>
       <c r="V894" s="6"/>
-      <c r="W894" s="6"/>
-      <c r="X894" s="6"/>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="6"/>
@@ -23604,8 +21795,6 @@
       <c r="T895" s="6"/>
       <c r="U895" s="6"/>
       <c r="V895" s="6"/>
-      <c r="W895" s="6"/>
-      <c r="X895" s="6"/>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="6"/>
@@ -23630,8 +21819,6 @@
       <c r="T896" s="6"/>
       <c r="U896" s="6"/>
       <c r="V896" s="6"/>
-      <c r="W896" s="6"/>
-      <c r="X896" s="6"/>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="6"/>
@@ -23656,8 +21843,6 @@
       <c r="T897" s="6"/>
       <c r="U897" s="6"/>
       <c r="V897" s="6"/>
-      <c r="W897" s="6"/>
-      <c r="X897" s="6"/>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="6"/>
@@ -23682,8 +21867,6 @@
       <c r="T898" s="6"/>
       <c r="U898" s="6"/>
       <c r="V898" s="6"/>
-      <c r="W898" s="6"/>
-      <c r="X898" s="6"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="6"/>
@@ -23708,8 +21891,6 @@
       <c r="T899" s="6"/>
       <c r="U899" s="6"/>
       <c r="V899" s="6"/>
-      <c r="W899" s="6"/>
-      <c r="X899" s="6"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="6"/>
@@ -23734,8 +21915,6 @@
       <c r="T900" s="6"/>
       <c r="U900" s="6"/>
       <c r="V900" s="6"/>
-      <c r="W900" s="6"/>
-      <c r="X900" s="6"/>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="6"/>
@@ -23760,8 +21939,6 @@
       <c r="T901" s="6"/>
       <c r="U901" s="6"/>
       <c r="V901" s="6"/>
-      <c r="W901" s="6"/>
-      <c r="X901" s="6"/>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="6"/>
@@ -23786,8 +21963,6 @@
       <c r="T902" s="6"/>
       <c r="U902" s="6"/>
       <c r="V902" s="6"/>
-      <c r="W902" s="6"/>
-      <c r="X902" s="6"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="6"/>
@@ -23812,8 +21987,6 @@
       <c r="T903" s="6"/>
       <c r="U903" s="6"/>
       <c r="V903" s="6"/>
-      <c r="W903" s="6"/>
-      <c r="X903" s="6"/>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="6"/>
@@ -23838,8 +22011,6 @@
       <c r="T904" s="6"/>
       <c r="U904" s="6"/>
       <c r="V904" s="6"/>
-      <c r="W904" s="6"/>
-      <c r="X904" s="6"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="6"/>
@@ -23864,8 +22035,6 @@
       <c r="T905" s="6"/>
       <c r="U905" s="6"/>
       <c r="V905" s="6"/>
-      <c r="W905" s="6"/>
-      <c r="X905" s="6"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="6"/>
@@ -23890,8 +22059,6 @@
       <c r="T906" s="6"/>
       <c r="U906" s="6"/>
       <c r="V906" s="6"/>
-      <c r="W906" s="6"/>
-      <c r="X906" s="6"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="6"/>
@@ -23916,8 +22083,6 @@
       <c r="T907" s="6"/>
       <c r="U907" s="6"/>
       <c r="V907" s="6"/>
-      <c r="W907" s="6"/>
-      <c r="X907" s="6"/>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="6"/>
@@ -23942,8 +22107,6 @@
       <c r="T908" s="6"/>
       <c r="U908" s="6"/>
       <c r="V908" s="6"/>
-      <c r="W908" s="6"/>
-      <c r="X908" s="6"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="6"/>
@@ -23968,8 +22131,6 @@
       <c r="T909" s="6"/>
       <c r="U909" s="6"/>
       <c r="V909" s="6"/>
-      <c r="W909" s="6"/>
-      <c r="X909" s="6"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="6"/>
@@ -23994,8 +22155,6 @@
       <c r="T910" s="6"/>
       <c r="U910" s="6"/>
       <c r="V910" s="6"/>
-      <c r="W910" s="6"/>
-      <c r="X910" s="6"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="6"/>
@@ -24020,8 +22179,6 @@
       <c r="T911" s="6"/>
       <c r="U911" s="6"/>
       <c r="V911" s="6"/>
-      <c r="W911" s="6"/>
-      <c r="X911" s="6"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="6"/>
@@ -24046,8 +22203,6 @@
       <c r="T912" s="6"/>
       <c r="U912" s="6"/>
       <c r="V912" s="6"/>
-      <c r="W912" s="6"/>
-      <c r="X912" s="6"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="6"/>
@@ -24072,8 +22227,6 @@
       <c r="T913" s="6"/>
       <c r="U913" s="6"/>
       <c r="V913" s="6"/>
-      <c r="W913" s="6"/>
-      <c r="X913" s="6"/>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="6"/>
@@ -24098,8 +22251,6 @@
       <c r="T914" s="6"/>
       <c r="U914" s="6"/>
       <c r="V914" s="6"/>
-      <c r="W914" s="6"/>
-      <c r="X914" s="6"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="6"/>
@@ -24124,8 +22275,6 @@
       <c r="T915" s="6"/>
       <c r="U915" s="6"/>
       <c r="V915" s="6"/>
-      <c r="W915" s="6"/>
-      <c r="X915" s="6"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="6"/>
@@ -24150,8 +22299,6 @@
       <c r="T916" s="6"/>
       <c r="U916" s="6"/>
       <c r="V916" s="6"/>
-      <c r="W916" s="6"/>
-      <c r="X916" s="6"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="6"/>
@@ -24176,8 +22323,6 @@
       <c r="T917" s="6"/>
       <c r="U917" s="6"/>
       <c r="V917" s="6"/>
-      <c r="W917" s="6"/>
-      <c r="X917" s="6"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="6"/>
@@ -24202,8 +22347,6 @@
       <c r="T918" s="6"/>
       <c r="U918" s="6"/>
       <c r="V918" s="6"/>
-      <c r="W918" s="6"/>
-      <c r="X918" s="6"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="6"/>
@@ -24228,8 +22371,6 @@
       <c r="T919" s="6"/>
       <c r="U919" s="6"/>
       <c r="V919" s="6"/>
-      <c r="W919" s="6"/>
-      <c r="X919" s="6"/>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="6"/>
@@ -24254,8 +22395,6 @@
       <c r="T920" s="6"/>
       <c r="U920" s="6"/>
       <c r="V920" s="6"/>
-      <c r="W920" s="6"/>
-      <c r="X920" s="6"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="6"/>
@@ -24280,8 +22419,6 @@
       <c r="T921" s="6"/>
       <c r="U921" s="6"/>
       <c r="V921" s="6"/>
-      <c r="W921" s="6"/>
-      <c r="X921" s="6"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="6"/>
@@ -24306,8 +22443,6 @@
       <c r="T922" s="6"/>
       <c r="U922" s="6"/>
       <c r="V922" s="6"/>
-      <c r="W922" s="6"/>
-      <c r="X922" s="6"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="6"/>
@@ -24332,8 +22467,6 @@
       <c r="T923" s="6"/>
       <c r="U923" s="6"/>
       <c r="V923" s="6"/>
-      <c r="W923" s="6"/>
-      <c r="X923" s="6"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="6"/>
@@ -24358,8 +22491,6 @@
       <c r="T924" s="6"/>
       <c r="U924" s="6"/>
       <c r="V924" s="6"/>
-      <c r="W924" s="6"/>
-      <c r="X924" s="6"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="6"/>
@@ -24384,8 +22515,6 @@
       <c r="T925" s="6"/>
       <c r="U925" s="6"/>
       <c r="V925" s="6"/>
-      <c r="W925" s="6"/>
-      <c r="X925" s="6"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="6"/>
@@ -24410,8 +22539,6 @@
       <c r="T926" s="6"/>
       <c r="U926" s="6"/>
       <c r="V926" s="6"/>
-      <c r="W926" s="6"/>
-      <c r="X926" s="6"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="6"/>
@@ -24436,8 +22563,6 @@
       <c r="T927" s="6"/>
       <c r="U927" s="6"/>
       <c r="V927" s="6"/>
-      <c r="W927" s="6"/>
-      <c r="X927" s="6"/>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="6"/>
@@ -24462,8 +22587,6 @@
       <c r="T928" s="6"/>
       <c r="U928" s="6"/>
       <c r="V928" s="6"/>
-      <c r="W928" s="6"/>
-      <c r="X928" s="6"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="6"/>
@@ -24488,8 +22611,6 @@
       <c r="T929" s="6"/>
       <c r="U929" s="6"/>
       <c r="V929" s="6"/>
-      <c r="W929" s="6"/>
-      <c r="X929" s="6"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="6"/>
@@ -24514,8 +22635,6 @@
       <c r="T930" s="6"/>
       <c r="U930" s="6"/>
       <c r="V930" s="6"/>
-      <c r="W930" s="6"/>
-      <c r="X930" s="6"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="6"/>
@@ -24540,8 +22659,6 @@
       <c r="T931" s="6"/>
       <c r="U931" s="6"/>
       <c r="V931" s="6"/>
-      <c r="W931" s="6"/>
-      <c r="X931" s="6"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="6"/>
@@ -24566,8 +22683,6 @@
       <c r="T932" s="6"/>
       <c r="U932" s="6"/>
       <c r="V932" s="6"/>
-      <c r="W932" s="6"/>
-      <c r="X932" s="6"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="6"/>
@@ -24592,8 +22707,6 @@
       <c r="T933" s="6"/>
       <c r="U933" s="6"/>
       <c r="V933" s="6"/>
-      <c r="W933" s="6"/>
-      <c r="X933" s="6"/>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="6"/>
@@ -24618,8 +22731,6 @@
       <c r="T934" s="6"/>
       <c r="U934" s="6"/>
       <c r="V934" s="6"/>
-      <c r="W934" s="6"/>
-      <c r="X934" s="6"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="6"/>
@@ -24644,8 +22755,6 @@
       <c r="T935" s="6"/>
       <c r="U935" s="6"/>
       <c r="V935" s="6"/>
-      <c r="W935" s="6"/>
-      <c r="X935" s="6"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="6"/>
@@ -24670,8 +22779,6 @@
       <c r="T936" s="6"/>
       <c r="U936" s="6"/>
       <c r="V936" s="6"/>
-      <c r="W936" s="6"/>
-      <c r="X936" s="6"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="6"/>
@@ -24696,8 +22803,6 @@
       <c r="T937" s="6"/>
       <c r="U937" s="6"/>
       <c r="V937" s="6"/>
-      <c r="W937" s="6"/>
-      <c r="X937" s="6"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="6"/>
@@ -24722,8 +22827,6 @@
       <c r="T938" s="6"/>
       <c r="U938" s="6"/>
       <c r="V938" s="6"/>
-      <c r="W938" s="6"/>
-      <c r="X938" s="6"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="6"/>
@@ -24748,8 +22851,6 @@
       <c r="T939" s="6"/>
       <c r="U939" s="6"/>
       <c r="V939" s="6"/>
-      <c r="W939" s="6"/>
-      <c r="X939" s="6"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="6"/>
@@ -24774,8 +22875,6 @@
       <c r="T940" s="6"/>
       <c r="U940" s="6"/>
       <c r="V940" s="6"/>
-      <c r="W940" s="6"/>
-      <c r="X940" s="6"/>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="6"/>
@@ -24800,8 +22899,6 @@
       <c r="T941" s="6"/>
       <c r="U941" s="6"/>
       <c r="V941" s="6"/>
-      <c r="W941" s="6"/>
-      <c r="X941" s="6"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="6"/>
@@ -24826,8 +22923,6 @@
       <c r="T942" s="6"/>
       <c r="U942" s="6"/>
       <c r="V942" s="6"/>
-      <c r="W942" s="6"/>
-      <c r="X942" s="6"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="6"/>
@@ -24852,8 +22947,6 @@
       <c r="T943" s="6"/>
       <c r="U943" s="6"/>
       <c r="V943" s="6"/>
-      <c r="W943" s="6"/>
-      <c r="X943" s="6"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="6"/>
@@ -24878,8 +22971,6 @@
       <c r="T944" s="6"/>
       <c r="U944" s="6"/>
       <c r="V944" s="6"/>
-      <c r="W944" s="6"/>
-      <c r="X944" s="6"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="6"/>
@@ -24904,8 +22995,6 @@
       <c r="T945" s="6"/>
       <c r="U945" s="6"/>
       <c r="V945" s="6"/>
-      <c r="W945" s="6"/>
-      <c r="X945" s="6"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="6"/>
@@ -24930,8 +23019,6 @@
       <c r="T946" s="6"/>
       <c r="U946" s="6"/>
       <c r="V946" s="6"/>
-      <c r="W946" s="6"/>
-      <c r="X946" s="6"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="6"/>
@@ -24956,8 +23043,6 @@
       <c r="T947" s="6"/>
       <c r="U947" s="6"/>
       <c r="V947" s="6"/>
-      <c r="W947" s="6"/>
-      <c r="X947" s="6"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="6"/>
@@ -24982,8 +23067,6 @@
       <c r="T948" s="6"/>
       <c r="U948" s="6"/>
       <c r="V948" s="6"/>
-      <c r="W948" s="6"/>
-      <c r="X948" s="6"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="6"/>
@@ -25008,8 +23091,6 @@
       <c r="T949" s="6"/>
       <c r="U949" s="6"/>
       <c r="V949" s="6"/>
-      <c r="W949" s="6"/>
-      <c r="X949" s="6"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="6"/>
@@ -25034,8 +23115,6 @@
       <c r="T950" s="6"/>
       <c r="U950" s="6"/>
       <c r="V950" s="6"/>
-      <c r="W950" s="6"/>
-      <c r="X950" s="6"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="6"/>
@@ -25060,8 +23139,6 @@
       <c r="T951" s="6"/>
       <c r="U951" s="6"/>
       <c r="V951" s="6"/>
-      <c r="W951" s="6"/>
-      <c r="X951" s="6"/>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="6"/>
@@ -25086,8 +23163,6 @@
       <c r="T952" s="6"/>
       <c r="U952" s="6"/>
       <c r="V952" s="6"/>
-      <c r="W952" s="6"/>
-      <c r="X952" s="6"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="6"/>
@@ -25112,8 +23187,6 @@
       <c r="T953" s="6"/>
       <c r="U953" s="6"/>
       <c r="V953" s="6"/>
-      <c r="W953" s="6"/>
-      <c r="X953" s="6"/>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="6"/>
@@ -25138,8 +23211,6 @@
       <c r="T954" s="6"/>
       <c r="U954" s="6"/>
       <c r="V954" s="6"/>
-      <c r="W954" s="6"/>
-      <c r="X954" s="6"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="6"/>
@@ -25164,8 +23235,6 @@
       <c r="T955" s="6"/>
       <c r="U955" s="6"/>
       <c r="V955" s="6"/>
-      <c r="W955" s="6"/>
-      <c r="X955" s="6"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="6"/>
@@ -25190,8 +23259,6 @@
       <c r="T956" s="6"/>
       <c r="U956" s="6"/>
       <c r="V956" s="6"/>
-      <c r="W956" s="6"/>
-      <c r="X956" s="6"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="6"/>
@@ -25216,8 +23283,6 @@
       <c r="T957" s="6"/>
       <c r="U957" s="6"/>
       <c r="V957" s="6"/>
-      <c r="W957" s="6"/>
-      <c r="X957" s="6"/>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="6"/>
@@ -25242,8 +23307,6 @@
       <c r="T958" s="6"/>
       <c r="U958" s="6"/>
       <c r="V958" s="6"/>
-      <c r="W958" s="6"/>
-      <c r="X958" s="6"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="6"/>
@@ -25268,8 +23331,6 @@
       <c r="T959" s="6"/>
       <c r="U959" s="6"/>
       <c r="V959" s="6"/>
-      <c r="W959" s="6"/>
-      <c r="X959" s="6"/>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="6"/>
@@ -25294,8 +23355,6 @@
       <c r="T960" s="6"/>
       <c r="U960" s="6"/>
       <c r="V960" s="6"/>
-      <c r="W960" s="6"/>
-      <c r="X960" s="6"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="6"/>
@@ -25320,8 +23379,6 @@
       <c r="T961" s="6"/>
       <c r="U961" s="6"/>
       <c r="V961" s="6"/>
-      <c r="W961" s="6"/>
-      <c r="X961" s="6"/>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="6"/>
@@ -25346,8 +23403,6 @@
       <c r="T962" s="6"/>
       <c r="U962" s="6"/>
       <c r="V962" s="6"/>
-      <c r="W962" s="6"/>
-      <c r="X962" s="6"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="6"/>
@@ -25372,8 +23427,6 @@
       <c r="T963" s="6"/>
       <c r="U963" s="6"/>
       <c r="V963" s="6"/>
-      <c r="W963" s="6"/>
-      <c r="X963" s="6"/>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="6"/>
@@ -25398,8 +23451,6 @@
       <c r="T964" s="6"/>
       <c r="U964" s="6"/>
       <c r="V964" s="6"/>
-      <c r="W964" s="6"/>
-      <c r="X964" s="6"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="6"/>
@@ -25424,8 +23475,6 @@
       <c r="T965" s="6"/>
       <c r="U965" s="6"/>
       <c r="V965" s="6"/>
-      <c r="W965" s="6"/>
-      <c r="X965" s="6"/>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="6"/>
@@ -25450,8 +23499,6 @@
       <c r="T966" s="6"/>
       <c r="U966" s="6"/>
       <c r="V966" s="6"/>
-      <c r="W966" s="6"/>
-      <c r="X966" s="6"/>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="6"/>
@@ -25476,8 +23523,6 @@
       <c r="T967" s="6"/>
       <c r="U967" s="6"/>
       <c r="V967" s="6"/>
-      <c r="W967" s="6"/>
-      <c r="X967" s="6"/>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="6"/>
@@ -25502,8 +23547,6 @@
       <c r="T968" s="6"/>
       <c r="U968" s="6"/>
       <c r="V968" s="6"/>
-      <c r="W968" s="6"/>
-      <c r="X968" s="6"/>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="6"/>
@@ -25528,8 +23571,6 @@
       <c r="T969" s="6"/>
       <c r="U969" s="6"/>
       <c r="V969" s="6"/>
-      <c r="W969" s="6"/>
-      <c r="X969" s="6"/>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="6"/>
@@ -25554,8 +23595,6 @@
       <c r="T970" s="6"/>
       <c r="U970" s="6"/>
       <c r="V970" s="6"/>
-      <c r="W970" s="6"/>
-      <c r="X970" s="6"/>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="6"/>
@@ -25580,8 +23619,6 @@
       <c r="T971" s="6"/>
       <c r="U971" s="6"/>
       <c r="V971" s="6"/>
-      <c r="W971" s="6"/>
-      <c r="X971" s="6"/>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="6"/>
@@ -25606,8 +23643,6 @@
       <c r="T972" s="6"/>
       <c r="U972" s="6"/>
       <c r="V972" s="6"/>
-      <c r="W972" s="6"/>
-      <c r="X972" s="6"/>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="6"/>
@@ -25632,8 +23667,6 @@
       <c r="T973" s="6"/>
       <c r="U973" s="6"/>
       <c r="V973" s="6"/>
-      <c r="W973" s="6"/>
-      <c r="X973" s="6"/>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="6"/>
@@ -25658,8 +23691,6 @@
       <c r="T974" s="6"/>
       <c r="U974" s="6"/>
       <c r="V974" s="6"/>
-      <c r="W974" s="6"/>
-      <c r="X974" s="6"/>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="6"/>
@@ -25684,8 +23715,6 @@
       <c r="T975" s="6"/>
       <c r="U975" s="6"/>
       <c r="V975" s="6"/>
-      <c r="W975" s="6"/>
-      <c r="X975" s="6"/>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="6"/>
@@ -25710,8 +23739,6 @@
       <c r="T976" s="6"/>
       <c r="U976" s="6"/>
       <c r="V976" s="6"/>
-      <c r="W976" s="6"/>
-      <c r="X976" s="6"/>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="6"/>
@@ -25736,8 +23763,6 @@
       <c r="T977" s="6"/>
       <c r="U977" s="6"/>
       <c r="V977" s="6"/>
-      <c r="W977" s="6"/>
-      <c r="X977" s="6"/>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="6"/>
@@ -25762,8 +23787,6 @@
       <c r="T978" s="6"/>
       <c r="U978" s="6"/>
       <c r="V978" s="6"/>
-      <c r="W978" s="6"/>
-      <c r="X978" s="6"/>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="6"/>
@@ -25788,8 +23811,6 @@
       <c r="T979" s="6"/>
       <c r="U979" s="6"/>
       <c r="V979" s="6"/>
-      <c r="W979" s="6"/>
-      <c r="X979" s="6"/>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="6"/>
@@ -25814,8 +23835,6 @@
       <c r="T980" s="6"/>
       <c r="U980" s="6"/>
       <c r="V980" s="6"/>
-      <c r="W980" s="6"/>
-      <c r="X980" s="6"/>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="6"/>
@@ -25840,8 +23859,6 @@
       <c r="T981" s="6"/>
       <c r="U981" s="6"/>
       <c r="V981" s="6"/>
-      <c r="W981" s="6"/>
-      <c r="X981" s="6"/>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="6"/>
@@ -25866,8 +23883,6 @@
       <c r="T982" s="6"/>
       <c r="U982" s="6"/>
       <c r="V982" s="6"/>
-      <c r="W982" s="6"/>
-      <c r="X982" s="6"/>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="6"/>
@@ -25892,8 +23907,6 @@
       <c r="T983" s="6"/>
       <c r="U983" s="6"/>
       <c r="V983" s="6"/>
-      <c r="W983" s="6"/>
-      <c r="X983" s="6"/>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="6"/>
@@ -25918,8 +23931,6 @@
       <c r="T984" s="6"/>
       <c r="U984" s="6"/>
       <c r="V984" s="6"/>
-      <c r="W984" s="6"/>
-      <c r="X984" s="6"/>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="6"/>
@@ -25944,8 +23955,6 @@
       <c r="T985" s="6"/>
       <c r="U985" s="6"/>
       <c r="V985" s="6"/>
-      <c r="W985" s="6"/>
-      <c r="X985" s="6"/>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="6"/>
@@ -25970,8 +23979,6 @@
       <c r="T986" s="6"/>
       <c r="U986" s="6"/>
       <c r="V986" s="6"/>
-      <c r="W986" s="6"/>
-      <c r="X986" s="6"/>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="6"/>
@@ -25996,8 +24003,6 @@
       <c r="T987" s="6"/>
       <c r="U987" s="6"/>
       <c r="V987" s="6"/>
-      <c r="W987" s="6"/>
-      <c r="X987" s="6"/>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="6"/>
@@ -26022,8 +24027,6 @@
       <c r="T988" s="6"/>
       <c r="U988" s="6"/>
       <c r="V988" s="6"/>
-      <c r="W988" s="6"/>
-      <c r="X988" s="6"/>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="6"/>
@@ -26048,8 +24051,6 @@
       <c r="T989" s="6"/>
       <c r="U989" s="6"/>
       <c r="V989" s="6"/>
-      <c r="W989" s="6"/>
-      <c r="X989" s="6"/>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="6"/>
@@ -26074,8 +24075,6 @@
       <c r="T990" s="6"/>
       <c r="U990" s="6"/>
       <c r="V990" s="6"/>
-      <c r="W990" s="6"/>
-      <c r="X990" s="6"/>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="6"/>
@@ -26100,8 +24099,6 @@
       <c r="T991" s="6"/>
       <c r="U991" s="6"/>
       <c r="V991" s="6"/>
-      <c r="W991" s="6"/>
-      <c r="X991" s="6"/>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="6"/>
@@ -26126,8 +24123,6 @@
       <c r="T992" s="6"/>
       <c r="U992" s="6"/>
       <c r="V992" s="6"/>
-      <c r="W992" s="6"/>
-      <c r="X992" s="6"/>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="6"/>
@@ -26152,8 +24147,6 @@
       <c r="T993" s="6"/>
       <c r="U993" s="6"/>
       <c r="V993" s="6"/>
-      <c r="W993" s="6"/>
-      <c r="X993" s="6"/>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="6"/>
@@ -26178,8 +24171,6 @@
       <c r="T994" s="6"/>
       <c r="U994" s="6"/>
       <c r="V994" s="6"/>
-      <c r="W994" s="6"/>
-      <c r="X994" s="6"/>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="6"/>
@@ -26204,8 +24195,6 @@
       <c r="T995" s="6"/>
       <c r="U995" s="6"/>
       <c r="V995" s="6"/>
-      <c r="W995" s="6"/>
-      <c r="X995" s="6"/>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="6"/>
@@ -26230,8 +24219,6 @@
       <c r="T996" s="6"/>
       <c r="U996" s="6"/>
       <c r="V996" s="6"/>
-      <c r="W996" s="6"/>
-      <c r="X996" s="6"/>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="6"/>
@@ -26256,8 +24243,6 @@
       <c r="T997" s="6"/>
       <c r="U997" s="6"/>
       <c r="V997" s="6"/>
-      <c r="W997" s="6"/>
-      <c r="X997" s="6"/>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="6"/>
@@ -26282,8 +24267,6 @@
       <c r="T998" s="6"/>
       <c r="U998" s="6"/>
       <c r="V998" s="6"/>
-      <c r="W998" s="6"/>
-      <c r="X998" s="6"/>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="6"/>
@@ -26308,8 +24291,6 @@
       <c r="T999" s="6"/>
       <c r="U999" s="6"/>
       <c r="V999" s="6"/>
-      <c r="W999" s="6"/>
-      <c r="X999" s="6"/>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="6"/>
@@ -26334,8 +24315,6 @@
       <c r="T1000" s="6"/>
       <c r="U1000" s="6"/>
       <c r="V1000" s="6"/>
-      <c r="W1000" s="6"/>
-      <c r="X1000" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/templates/template3.xlsx
+++ b/templates/template3.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Налог</t>
   </si>
   <si>
-    <t xml:space="preserve">Возвращенная себестоимость реализованного товара</t>
+    <t xml:space="preserve">Cебестоимость реализованного товара</t>
   </si>
   <si>
     <t xml:space="preserve">Чистая прибыль</t>
@@ -255,7 +255,7 @@
   <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/templates/template3.xlsx
+++ b/templates/template3.xlsx
@@ -255,7 +255,7 @@
   <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
